--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2029,14 +2029,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2117,14 +2117,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2249,14 +2249,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2597,58 +2597,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A68" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A69" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A71" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="14" customFormat="1" ht="19.8">
+      <c r="A72" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Find the triplet that sum to a given value</t>
   </si>
   <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
     <t>Chocolate Distribution problem</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>Find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem [HARD]</t>
   </si>
 </sst>
 </file>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -2023,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>4</v>
@@ -2254,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>4</v>
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2276,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2298,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2309,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2320,7 +2320,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1" ht="19.8">
       <c r="A68" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>4</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1" ht="19.8">
       <c r="A69" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>4</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1" ht="19.8">
       <c r="A70" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>4</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1" ht="19.8">
       <c r="A71" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>4</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="72" spans="1:3" s="14" customFormat="1" ht="19.8">
       <c r="A72" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>4</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2764,10 +2764,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2852,10 +2852,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>4</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>4</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3554,21 +3554,21 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3756,10 +3756,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3811,10 +3811,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3833,10 +3833,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3910,10 +3910,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3987,10 +3987,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3998,10 +3998,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -4042,10 +4042,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4075,10 +4075,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4151,10 +4151,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4338,10 +4338,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4794,10 +4794,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4827,10 +4827,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4838,10 +4838,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4871,10 +4871,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4882,10 +4882,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4904,10 +4904,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4915,10 +4915,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4981,10 +4981,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -5000,10 +5000,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5033,10 +5033,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5055,10 +5055,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5077,10 +5077,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5099,10 +5099,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5121,10 +5121,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5143,10 +5143,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5154,10 +5154,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5187,10 +5187,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5242,10 +5242,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5275,10 +5275,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5286,10 +5286,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5297,10 +5297,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5330,10 +5330,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5352,10 +5352,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5363,10 +5363,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5396,10 +5396,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5426,10 +5426,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5448,10 +5448,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5503,10 +5503,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5580,10 +5580,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5591,10 +5591,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5602,10 +5602,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5632,10 +5632,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5676,10 +5676,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5720,10 +5720,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5753,10 +5753,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5775,10 +5775,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5786,10 +5786,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5797,10 +5797,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5819,10 +5819,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -6017,10 +6017,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6039,10 +6039,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6050,10 +6050,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6105,10 +6105,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6124,10 +6124,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6135,10 +6135,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6146,10 +6146,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6157,10 +6157,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6179,10 +6179,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6220,10 +6220,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6308,10 +6308,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6341,10 +6341,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6374,10 +6374,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6385,10 +6385,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6396,10 +6396,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6407,10 +6407,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6451,10 +6451,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6473,10 +6473,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6506,10 +6506,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6539,10 +6539,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6561,10 +6561,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6693,10 +6693,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6715,10 +6715,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6726,10 +6726,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6748,10 +6748,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6759,10 +6759,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6781,10 +6781,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6792,10 +6792,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6803,10 +6803,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6867,10 +6867,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6900,10 +6900,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6911,10 +6911,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7005,7 +7005,7 @@
     <hyperlink ref="B31" r:id="rId26"/>
     <hyperlink ref="B32" r:id="rId27"/>
     <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId29" display="Trapping Rain water problem"/>
     <hyperlink ref="B35" r:id="rId30"/>
     <hyperlink ref="B36" r:id="rId31"/>
     <hyperlink ref="B37" r:id="rId32"/>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/is-it-a-circular-linked-list_981265?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/split-a-circular-linked-list_1071003?leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1702,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1769,6 +1772,13 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -2090,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -3744,7 +3754,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>3</v>
+        <v>454</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="21">
@@ -3857,16 +3870,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="21">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A158" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C158" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="33"/>
     </row>
     <row r="159" spans="1:4" ht="21">
       <c r="A159" s="5" t="s">
@@ -7665,8 +7679,9 @@
     <hyperlink ref="D146" r:id="rId469"/>
     <hyperlink ref="D149" r:id="rId470"/>
     <hyperlink ref="D147" r:id="rId471"/>
+    <hyperlink ref="D148" r:id="rId472"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId472"/>
+  <pageSetup orientation="portrait" r:id="rId473"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Can we reverse a linked list in less than O(n) ?</t>
   </si>
   <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
     <t>Sort a LL of 0's, 1's and 2's</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Delete nodes which have a greater value on right side</t>
   </si>
   <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
     <t>Program for n’th node from the end of a Linked List</t>
   </si>
   <si>
@@ -1500,13 +1494,28 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/split-a-circular-linked-list_1071003?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/linked-list/219/classic-problems/1208/</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/submissions/</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List [HARD]</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/add-one-to-linked-list_920456?leftPanelTab=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1653,6 +1662,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1702,7 +1719,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1780,6 +1797,18 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2100,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -2121,7 +2150,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2132,10 +2161,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2149,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2163,10 +2192,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2177,10 +2206,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2191,10 +2220,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2205,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2230,10 +2259,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2259,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2270,10 +2299,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2284,10 +2313,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2298,10 +2327,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2326,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2348,10 +2377,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2362,10 +2391,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2420,10 +2449,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2475,13 +2504,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2489,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2587,13 +2616,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2670,7 +2699,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2708,10 +2737,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>454</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -2722,10 +2751,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2736,10 +2765,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3189,10 +3218,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3225,10 +3254,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3305,10 +3334,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3557,10 +3586,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3571,10 +3600,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3585,10 +3614,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3599,10 +3628,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3613,10 +3642,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3627,10 +3656,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3641,10 +3670,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3655,7 +3684,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>3</v>
+        <v>452</v>
+      </c>
+      <c r="D140" s="37" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3666,10 +3698,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3726,10 +3758,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="21">
@@ -3740,10 +3772,10 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="21">
@@ -3754,10 +3786,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="21">
@@ -3768,10 +3800,10 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="21">
@@ -3782,10 +3814,10 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="21">
@@ -3861,13 +3893,13 @@
         <v>124</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="32" customFormat="1" ht="21">
@@ -3875,7 +3907,7 @@
         <v>124</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>149</v>
+        <v>493</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>3</v>
@@ -3887,7 +3919,7 @@
         <v>124</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>3</v>
@@ -3898,165 +3930,171 @@
         <v>124</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A164" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="21">
+        <v>491</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="21">
+        <v>154</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" spans="1:4" ht="21">
       <c r="B168" s="4"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
+      <c r="A170" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="C170" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
+      <c r="A171" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B171" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21">
-      <c r="A170" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B170" s="14" t="s">
+      <c r="C171" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
+      <c r="A172" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21">
-      <c r="A171" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B171" s="14" t="s">
+      <c r="C172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
+      <c r="A173" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
-      <c r="A172" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="14" t="s">
+      <c r="C173" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
+      <c r="A174" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
-      <c r="A173" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B173" s="14" t="s">
+      <c r="C174" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="21">
+      <c r="A175" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B175" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B174" s="14" t="s">
+      <c r="C175" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="21">
+      <c r="A176" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B176" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="21">
-      <c r="A175" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="A176" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>3</v>
@@ -4064,10 +4102,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>3</v>
@@ -4075,10 +4113,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>3</v>
@@ -4086,10 +4124,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>3</v>
@@ -4097,10 +4135,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>3</v>
@@ -4108,10 +4146,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>3</v>
@@ -4119,10 +4157,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>3</v>
@@ -4130,10 +4168,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>3</v>
@@ -4141,10 +4179,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>3</v>
@@ -4152,10 +4190,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>3</v>
@@ -4163,10 +4201,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>3</v>
@@ -4174,10 +4212,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>3</v>
@@ -4185,10 +4223,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>3</v>
@@ -4196,10 +4234,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>3</v>
@@ -4207,10 +4245,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>3</v>
@@ -4218,10 +4256,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>3</v>
@@ -4229,10 +4267,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>3</v>
@@ -4240,10 +4278,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>3</v>
@@ -4251,10 +4289,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>3</v>
@@ -4262,10 +4300,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>3</v>
@@ -4273,10 +4311,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>3</v>
@@ -4284,10 +4322,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>3</v>
@@ -4295,10 +4333,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>3</v>
@@ -4306,10 +4344,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>3</v>
@@ -4317,10 +4355,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -4328,10 +4366,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>3</v>
@@ -4339,10 +4377,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>3</v>
@@ -4350,10 +4388,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
@@ -4371,10 +4409,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>3</v>
@@ -4382,10 +4420,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>3</v>
@@ -4393,10 +4431,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>3</v>
@@ -4404,10 +4442,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -4415,10 +4453,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -4426,10 +4464,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -4437,10 +4475,10 @@
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -4448,10 +4486,10 @@
     </row>
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -4459,10 +4497,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -4470,10 +4508,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -4481,10 +4519,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -4492,10 +4530,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
@@ -4503,10 +4541,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -4514,10 +4552,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -4525,10 +4563,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -4536,10 +4574,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -4547,10 +4585,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4558,10 +4596,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -4569,10 +4607,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -4580,10 +4618,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -4591,10 +4629,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
@@ -4602,10 +4640,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
@@ -4621,10 +4659,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>3</v>
@@ -4632,10 +4670,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B231" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>219</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
@@ -4643,10 +4681,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -4654,10 +4692,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -4665,10 +4703,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -4676,10 +4714,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -4687,10 +4725,10 @@
     </row>
     <row r="236" spans="1:3" ht="21">
       <c r="A236" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -4698,10 +4736,10 @@
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="A237" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -4709,10 +4747,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -4720,10 +4758,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -4731,10 +4769,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -4742,10 +4780,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -4753,10 +4791,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -4764,10 +4802,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -4775,10 +4813,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -4786,10 +4824,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -4797,10 +4835,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -4808,10 +4846,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -4819,10 +4857,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -4830,10 +4868,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -4841,10 +4879,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -4852,10 +4890,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -4863,10 +4901,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -4874,10 +4912,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -4885,10 +4923,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -4896,10 +4934,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -4907,10 +4945,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -4918,10 +4956,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -4929,10 +4967,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -4940,10 +4978,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -4951,10 +4989,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -4962,10 +5000,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -4973,10 +5011,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -4984,7 +5022,7 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>81</v>
@@ -4995,10 +5033,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5014,10 +5052,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -5025,10 +5063,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B268" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>254</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -5036,10 +5074,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -5047,10 +5085,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5058,10 +5096,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5069,10 +5107,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5080,10 +5118,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5091,10 +5129,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5102,10 +5140,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5113,10 +5151,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5124,10 +5162,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5135,10 +5173,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5146,10 +5184,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5157,10 +5195,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5168,10 +5206,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5179,10 +5217,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5190,10 +5228,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5201,10 +5239,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5212,10 +5250,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5231,10 +5269,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -5242,10 +5280,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B289" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -5253,10 +5291,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -5264,10 +5302,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5275,10 +5313,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5286,10 +5324,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5297,10 +5335,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5308,10 +5346,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5319,10 +5357,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5330,10 +5368,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5341,10 +5379,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5352,10 +5390,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5363,10 +5401,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5374,10 +5412,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5385,10 +5423,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5396,10 +5434,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5407,10 +5445,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5418,10 +5456,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5429,10 +5467,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5440,10 +5478,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5451,10 +5489,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5462,10 +5500,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5473,10 +5511,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5484,10 +5522,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5495,10 +5533,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5506,10 +5544,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5517,10 +5555,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5528,10 +5566,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5539,10 +5577,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5550,10 +5588,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5561,10 +5599,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5572,10 +5610,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5583,10 +5621,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5594,10 +5632,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5605,10 +5643,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5616,10 +5654,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5627,10 +5665,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5638,10 +5676,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -5657,10 +5695,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -5668,10 +5706,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B329" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>313</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -5679,10 +5717,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -5690,10 +5728,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5701,10 +5739,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5712,10 +5750,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5723,10 +5761,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5734,10 +5772,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -5745,10 +5783,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -5756,10 +5794,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -5767,10 +5805,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -5778,10 +5816,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -5789,10 +5827,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -5800,10 +5838,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -5811,10 +5849,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -5822,10 +5860,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -5833,10 +5871,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -5844,10 +5882,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -5863,10 +5901,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -5874,10 +5912,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B349" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -5885,10 +5923,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -5896,10 +5934,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -5907,10 +5945,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -5918,10 +5956,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -5929,10 +5967,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -5940,10 +5978,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -5951,10 +5989,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -5962,10 +6000,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -5973,10 +6011,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -5984,10 +6022,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -5995,10 +6033,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6006,10 +6044,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6017,10 +6055,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6028,10 +6066,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6039,10 +6077,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6050,10 +6088,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6061,10 +6099,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6072,10 +6110,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6083,10 +6121,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6094,10 +6132,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6105,10 +6143,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6116,10 +6154,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6127,10 +6165,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6138,10 +6176,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6149,10 +6187,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -6160,10 +6198,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -6171,10 +6209,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -6182,10 +6220,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -6193,10 +6231,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6204,10 +6242,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6215,10 +6253,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6226,10 +6264,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6237,10 +6275,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6248,10 +6286,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6259,10 +6297,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6270,10 +6308,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6281,10 +6319,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6292,10 +6330,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6303,10 +6341,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6314,10 +6352,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6325,10 +6363,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6336,10 +6374,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6355,10 +6393,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>3</v>
@@ -6366,10 +6404,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B395" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>3</v>
@@ -6377,10 +6415,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6388,7 +6426,7 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>83</v>
@@ -6399,10 +6437,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6410,10 +6448,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6429,10 +6467,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>3</v>
@@ -6440,10 +6478,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B403" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>382</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>3</v>
@@ -6451,10 +6489,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>3</v>
@@ -6462,10 +6500,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6473,10 +6511,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6484,10 +6522,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6495,10 +6533,10 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>3</v>
@@ -6506,10 +6544,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>3</v>
@@ -6517,10 +6555,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6528,10 +6566,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6539,10 +6577,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6550,10 +6588,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6561,10 +6599,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -6572,10 +6610,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -6583,10 +6621,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -6594,10 +6632,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -6605,10 +6643,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -6616,10 +6654,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -6627,10 +6665,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -6638,10 +6676,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -6649,10 +6687,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -6660,10 +6698,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -6671,10 +6709,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -6682,10 +6720,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -6693,10 +6731,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -6704,10 +6742,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -6715,10 +6753,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -6726,10 +6764,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -6737,10 +6775,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -6748,10 +6786,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -6759,10 +6797,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -6770,10 +6808,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -6781,10 +6819,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -6792,10 +6830,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -6803,10 +6841,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>3</v>
@@ -6814,10 +6852,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>3</v>
@@ -6825,10 +6863,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>3</v>
@@ -6836,10 +6874,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -6847,10 +6885,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -6858,10 +6896,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -6869,10 +6907,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -6880,10 +6918,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -6891,10 +6929,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -6902,10 +6940,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -6913,10 +6951,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -6924,10 +6962,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -6935,10 +6973,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>3</v>
@@ -6946,10 +6984,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>3</v>
@@ -6957,10 +6995,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>3</v>
@@ -6968,10 +7006,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>3</v>
@@ -6979,10 +7017,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -6990,10 +7028,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7001,10 +7039,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>3</v>
@@ -7012,10 +7050,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>3</v>
@@ -7023,10 +7061,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>3</v>
@@ -7034,10 +7072,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>3</v>
@@ -7045,10 +7083,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>3</v>
@@ -7056,10 +7094,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>3</v>
@@ -7067,10 +7105,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7078,10 +7116,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7098,10 +7136,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>3</v>
@@ -7109,10 +7147,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B465" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>3</v>
@@ -7120,10 +7158,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7131,10 +7169,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7142,10 +7180,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7153,10 +7191,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7164,10 +7202,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>3</v>
@@ -7175,10 +7213,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>3</v>
@@ -7186,10 +7224,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7197,10 +7235,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>3</v>
@@ -7350,7 +7388,7 @@
     <hyperlink ref="B153" r:id="rId140"/>
     <hyperlink ref="B154" r:id="rId141"/>
     <hyperlink ref="B155" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143"/>
+    <hyperlink ref="B158" r:id="rId143" display="Flatten a Linked List"/>
     <hyperlink ref="B159" r:id="rId144"/>
     <hyperlink ref="B160" r:id="rId145"/>
     <hyperlink ref="B161" r:id="rId146"/>
@@ -7680,8 +7718,11 @@
     <hyperlink ref="D149" r:id="rId470"/>
     <hyperlink ref="D147" r:id="rId471"/>
     <hyperlink ref="D148" r:id="rId472"/>
+    <hyperlink ref="D164" r:id="rId473"/>
+    <hyperlink ref="D165" r:id="rId474"/>
+    <hyperlink ref="D140" r:id="rId475"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId473"/>
+  <pageSetup orientation="portrait" r:id="rId476"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="513">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
   </si>
   <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
     <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
   </si>
   <si>
@@ -476,12 +473,6 @@
     <t>Sort a LL of 0's, 1's and 2's</t>
   </si>
   <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
     <t>Multiply 2 no. represented by LL</t>
   </si>
   <si>
@@ -497,15 +488,9 @@
     <t>Binary Trees</t>
   </si>
   <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
     <t>Reverse Level Order traversal</t>
   </si>
   <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
     <t>Diameter of a tree</t>
   </si>
   <si>
@@ -635,9 +620,6 @@
     <t>Convert a normal BST into a Balanced BST</t>
   </si>
   <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
     <t>Find Kth largest element in a BST</t>
   </si>
   <si>
@@ -1509,13 +1491,85 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/add-one-to-linked-list_920456?leftPanelTab=2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/sort-linked-list-of-0s-1s-2s_1071937?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted Linked list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/submissions/</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list [HARD]                      (yet easy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList </t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer [V.V.V.IMP]  [HARD]</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/submissions/</t>
+  </si>
+  <si>
+    <t>codeLibraray video easy explain</t>
+  </si>
+  <si>
+    <t>https://www.tutorialcup.com/interview/linked-list/reverse-linked-list-less-time.htm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/learn/card/data-structure-tree/134/traverse-a-tree/928/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/submissions/</t>
+  </si>
+  <si>
+    <t>Height of a tree OR Max Depth of tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/submissions/</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V.IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees </t>
+  </si>
+  <si>
+    <t>Level order traversal V.V.IMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1670,6 +1724,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1719,7 +1781,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1807,8 +1869,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2127,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D473"/>
+  <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -2140,7 +2203,7 @@
     <col min="3" max="3" width="12.19921875" customWidth="1"/>
     <col min="4" max="4" width="36.296875" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
@@ -2150,7 +2213,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2161,10 +2224,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2178,10 +2241,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2192,10 +2255,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2206,10 +2269,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2220,10 +2283,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2234,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2259,10 +2322,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2288,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2299,10 +2362,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2313,10 +2376,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>452</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2327,10 +2390,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2355,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2377,10 +2440,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2391,10 +2454,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2449,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2504,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2518,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2616,13 +2679,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2699,7 +2762,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2737,10 +2800,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -2751,10 +2814,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2765,10 +2828,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3218,10 +3281,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3243,7 +3306,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3254,10 +3317,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3334,10 +3397,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3447,7 +3510,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3586,10 +3649,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3600,10 +3663,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3614,10 +3677,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3628,10 +3691,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3642,10 +3705,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3656,10 +3719,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3670,10 +3733,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3684,10 +3747,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D140" s="37" t="s">
-        <v>494</v>
+        <v>446</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3698,10 +3761,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3734,11 +3797,11 @@
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
       <c r="D144" s="18"/>
     </row>
-    <row r="145" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="145" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A145" s="6" t="s">
         <v>124</v>
       </c>
@@ -3750,7 +3813,7 @@
       </c>
       <c r="D145" s="18"/>
     </row>
-    <row r="146" spans="1:4" ht="21">
+    <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
         <v>124</v>
       </c>
@@ -3758,13 +3821,13 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="21">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21">
       <c r="A147" s="5" t="s">
         <v>124</v>
       </c>
@@ -3772,13 +3835,13 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="21">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21">
       <c r="A148" s="5" t="s">
         <v>124</v>
       </c>
@@ -3786,13 +3849,13 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="21">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="21">
       <c r="A149" s="5" t="s">
         <v>124</v>
       </c>
@@ -3800,13 +3863,13 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="21">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21">
       <c r="A150" s="5" t="s">
         <v>124</v>
       </c>
@@ -3814,13 +3877,13 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="21">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="21">
       <c r="A151" s="5" t="s">
         <v>124</v>
       </c>
@@ -3831,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21">
+    <row r="152" spans="1:6" ht="21">
       <c r="A152" s="5" t="s">
         <v>124</v>
       </c>
@@ -3842,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
         <v>124</v>
       </c>
@@ -3854,86 +3917,101 @@
       </c>
       <c r="D153" s="24"/>
     </row>
-    <row r="154" spans="1:4" ht="21">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A154" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A155" s="6" t="s">
+      <c r="C154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="24"/>
+    </row>
+    <row r="155" spans="1:6" ht="21">
+      <c r="A155" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="24"/>
-    </row>
-    <row r="156" spans="1:4" ht="21">
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="21">
       <c r="A156" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A157" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D157" s="33"/>
+    </row>
+    <row r="158" spans="1:6" ht="21">
+      <c r="A158" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="21">
-      <c r="A157" s="5" t="s">
+      <c r="C158" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A159" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A160" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A158" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B158" s="32" t="s">
+      <c r="B160" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D160" s="38" t="s">
         <v>493</v>
-      </c>
-      <c r="C158" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="33"/>
-    </row>
-    <row r="159" spans="1:4" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -3941,10 +4019,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>151</v>
+        <v>491</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -3952,7 +4033,7 @@
         <v>124</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>3</v>
@@ -3963,7 +4044,7 @@
         <v>124</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>3</v>
@@ -3974,13 +4055,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -3988,13 +4069,13 @@
         <v>124</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4002,33 +4083,39 @@
         <v>124</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
       <c r="B168" s="4"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:4" ht="21">
-      <c r="A169" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>3</v>
+    <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A169" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>3</v>
@@ -4036,743 +4123,769 @@
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>159</v>
+        <v>506</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
       <c r="A175" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="21">
+      <c r="A177" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D177" s="21"/>
+    </row>
+    <row r="178" spans="1:4" ht="21">
+      <c r="A178" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
+      <c r="A179" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
+      <c r="A180" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
+      <c r="A181" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B177" s="14" t="s">
+      <c r="C181" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
+      <c r="A182" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B178" s="14" t="s">
+      <c r="C182" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
+      <c r="A183" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
-      <c r="A179" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B179" s="14" t="s">
+      <c r="C183" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
-      <c r="A180" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="14" t="s">
+      <c r="C184" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
+      <c r="A185" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
-      <c r="A181" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B181" s="14" t="s">
+      <c r="C185" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
+      <c r="A186" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
-      <c r="A182" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B182" s="14" t="s">
+      <c r="C186" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
+      <c r="A187" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
-      <c r="A183" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B183" s="14" t="s">
+      <c r="C187" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
+      <c r="A188" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B188" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
-      <c r="A184" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184" s="14" t="s">
+      <c r="C188" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
+      <c r="A189" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B185" s="14" t="s">
+      <c r="C189" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
+      <c r="A190" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B190" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B186" s="14" t="s">
+      <c r="C190" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
+      <c r="A191" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B187" s="14" t="s">
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A192" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B188" s="14" t="s">
+      <c r="C192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="24"/>
+    </row>
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B193" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B189" s="14" t="s">
+      <c r="C193" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
+      <c r="A194" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B190" s="14" t="s">
+      <c r="C194" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A195" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" s="14" t="s">
+      <c r="C195" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="24"/>
+    </row>
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B196" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
-      <c r="A192" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B192" s="14" t="s">
+      <c r="C196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B197" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
-      <c r="A193" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B193" s="14" t="s">
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
-      <c r="A194" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B194" s="14" t="s">
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
-      <c r="A195" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B195" s="14" t="s">
+      <c r="C199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B200" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="21">
-      <c r="A196" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B196" s="14" t="s">
+      <c r="C200" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="21">
+      <c r="A201" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B201" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="21">
-      <c r="A197" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B197" s="14" t="s">
+      <c r="C201" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="21">
-      <c r="A198" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B198" s="14" t="s">
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
-      <c r="A199" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
-      <c r="A200" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B200" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="21">
-      <c r="A201" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="21">
-      <c r="A202" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="21">
-      <c r="A203" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B203" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5"/>
       <c r="B204" s="4"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5"/>
       <c r="B205" s="4"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="21">
+      <c r="A207" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="21">
+      <c r="A208" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
+      <c r="A209" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
+      <c r="A210" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B210" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="C210" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
+      <c r="A211" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="21">
-      <c r="A207" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B207" s="14" t="s">
+      <c r="C211" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
+      <c r="A212" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B212" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="21">
-      <c r="A208" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B208" s="14" t="s">
+      <c r="C212" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="21">
+      <c r="A213" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
-      <c r="A209" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B209" s="14" t="s">
+      <c r="C213" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="21">
+      <c r="A214" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
-      <c r="A210" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B210" s="14" t="s">
+      <c r="C214" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="21">
+      <c r="A215" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B215" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B211" s="14" t="s">
+      <c r="C215" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A216" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216" s="24"/>
+    </row>
+    <row r="217" spans="1:4" ht="21">
+      <c r="A217" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B217" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B212" s="16" t="s">
+      <c r="C217" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21">
+      <c r="A218" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B218" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B213" s="14" t="s">
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="21">
+      <c r="A219" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B219" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B214" s="14" t="s">
+      <c r="C219" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="21">
+      <c r="A220" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B220" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B215" s="14" t="s">
+      <c r="C220" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
+      <c r="A221" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="21">
-      <c r="A216" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B216" s="14" t="s">
+      <c r="C221" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="21">
+      <c r="A222" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B217" s="14" t="s">
+      <c r="C222" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="21">
+      <c r="A223" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B218" s="14" t="s">
+      <c r="C223" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="21">
+      <c r="A224" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B219" s="14" t="s">
+      <c r="C224" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="21">
+      <c r="A225" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B220" s="14" t="s">
+      <c r="C225" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A226" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B221" s="14" t="s">
+      <c r="C226" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="24"/>
+    </row>
+    <row r="227" spans="1:4" ht="21">
+      <c r="A227" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B227" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="21">
-      <c r="A222" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="21">
-      <c r="A223" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="21">
-      <c r="A226" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B227" s="14" t="s">
-        <v>214</v>
-      </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:4" ht="21">
       <c r="B228" s="4"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" spans="1:4" ht="21">
       <c r="B229" s="4"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21">
+      <c r="A231" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21">
+      <c r="A232" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21">
+      <c r="A233" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21">
+      <c r="A234" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21">
+      <c r="A235" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B235" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B230" s="14" t="s">
+      <c r="C235" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21">
+      <c r="A236" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B236" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="21">
-      <c r="A231" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B231" s="14" t="s">
+      <c r="C236" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="21">
+      <c r="A237" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B237" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21">
-      <c r="A232" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B232" s="14" t="s">
+      <c r="C237" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="21">
+      <c r="A238" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B238" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B233" s="14" t="s">
+      <c r="C238" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="21">
+      <c r="A239" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B239" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B234" s="14" t="s">
+      <c r="C239" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="21">
+      <c r="A240" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B235" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="A236" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="A237" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B239" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B240" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -4780,10 +4893,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -4791,10 +4904,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -4802,10 +4915,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -4813,10 +4926,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -4824,10 +4937,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -4835,10 +4948,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -4846,10 +4959,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -4857,10 +4970,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -4868,10 +4981,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -4879,10 +4992,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -4890,10 +5003,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -4901,10 +5014,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -4912,10 +5025,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -4923,10 +5036,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -4934,10 +5047,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -4945,10 +5058,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -4956,10 +5069,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -4967,10 +5080,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -4978,10 +5091,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -4989,10 +5102,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5000,10 +5113,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5011,10 +5124,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5022,7 +5135,7 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>81</v>
@@ -5033,10 +5146,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5052,10 +5165,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -5063,10 +5176,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -5074,10 +5187,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -5085,10 +5198,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5096,10 +5209,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5107,10 +5220,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B272" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5118,10 +5231,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5129,10 +5242,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5140,10 +5253,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5151,10 +5264,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5162,10 +5275,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5173,10 +5286,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5184,10 +5297,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5195,10 +5308,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5206,10 +5319,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5217,10 +5330,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5228,10 +5341,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5239,10 +5352,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5250,10 +5363,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5269,10 +5382,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -5280,10 +5393,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -5291,10 +5404,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -5302,10 +5415,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5313,10 +5426,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5324,10 +5437,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="B293" s="14" t="s">
-        <v>276</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5335,10 +5448,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5346,10 +5459,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5357,10 +5470,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5368,10 +5481,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5379,10 +5492,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5390,10 +5503,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5401,10 +5514,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5412,10 +5525,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5423,10 +5536,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5434,10 +5547,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5445,10 +5558,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5456,10 +5569,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5467,10 +5580,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5478,10 +5591,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5489,10 +5602,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5500,10 +5613,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5511,10 +5624,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5522,10 +5635,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5533,10 +5646,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5544,10 +5657,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5555,10 +5668,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5566,10 +5679,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5577,10 +5690,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5588,10 +5701,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5599,10 +5712,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5610,10 +5723,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5621,10 +5734,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5632,10 +5745,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5643,10 +5756,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5654,10 +5767,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5665,10 +5778,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5676,10 +5789,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -5695,10 +5808,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -5706,10 +5819,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -5717,10 +5830,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -5728,10 +5841,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5739,10 +5852,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5750,10 +5863,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B333" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="B333" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5761,10 +5874,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5772,10 +5885,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -5783,10 +5896,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -5794,10 +5907,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -5805,10 +5918,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -5816,10 +5929,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -5827,10 +5940,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -5838,10 +5951,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -5849,10 +5962,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -5860,10 +5973,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -5871,10 +5984,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -5882,10 +5995,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -5901,10 +6014,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -5912,10 +6025,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -5923,10 +6036,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -5934,10 +6047,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -5945,10 +6058,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -5956,10 +6069,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B353" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -5967,10 +6080,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -5978,10 +6091,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -5989,10 +6102,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6000,10 +6113,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6011,10 +6124,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6022,10 +6135,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6033,10 +6146,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6044,10 +6157,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6055,10 +6168,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6066,10 +6179,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6077,10 +6190,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6088,10 +6201,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6099,10 +6212,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6110,10 +6223,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6121,186 +6234,187 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B368" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21">
+      <c r="A369" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21">
+      <c r="A370" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="21">
+      <c r="A371" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="21">
+      <c r="A372" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21">
+      <c r="A373" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A374" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B374" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B369" s="14" t="s">
+      <c r="C374" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D374" s="24"/>
+    </row>
+    <row r="375" spans="1:4" ht="21">
+      <c r="A375" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B375" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B370" s="14" t="s">
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21">
+      <c r="A376" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B376" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B371" s="14" t="s">
+      <c r="C376" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="21">
+      <c r="A377" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B377" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B372" s="14" t="s">
+      <c r="C377" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="21">
+      <c r="A378" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B378" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="21">
-      <c r="A373" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B373" s="14" t="s">
+      <c r="C378" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="21">
+      <c r="A379" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B379" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
-      <c r="A374" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B374" s="14" t="s">
+      <c r="C379" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21">
+      <c r="A380" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B380" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
-      <c r="A375" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B375" s="14" t="s">
+      <c r="C380" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21">
+      <c r="A381" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="21">
-      <c r="A376" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B376" s="14" t="s">
+      <c r="C381" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21">
+      <c r="A382" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="21">
+      <c r="A383" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B383" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="21">
-      <c r="A377" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B377" s="14" t="s">
+      <c r="C383" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="21">
+      <c r="A384" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B384" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="21">
-      <c r="A378" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="21">
-      <c r="A379" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="21">
-      <c r="A380" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B380" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="21">
-      <c r="A381" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="21">
-      <c r="A383" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="21">
-      <c r="A384" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B384" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6308,10 +6422,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6319,10 +6433,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6330,10 +6444,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6341,10 +6455,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6352,10 +6466,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6363,10 +6477,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6374,10 +6488,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6393,10 +6507,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>3</v>
@@ -6404,10 +6518,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>3</v>
@@ -6415,10 +6529,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6426,7 +6540,7 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>83</v>
@@ -6437,10 +6551,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6448,10 +6562,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6467,21 +6581,21 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>3</v>
+        <v>373</v>
+      </c>
+      <c r="C402" s="36" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>3</v>
@@ -6489,10 +6603,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>3</v>
@@ -6500,10 +6614,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6511,10 +6625,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6522,21 +6636,21 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B407" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B407" s="14" t="s">
-        <v>384</v>
-      </c>
       <c r="C407" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>3</v>
@@ -6544,10 +6658,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>3</v>
@@ -6555,10 +6669,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6566,10 +6680,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6577,10 +6691,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6588,10 +6702,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6599,10 +6713,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -6610,10 +6724,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -6621,10 +6735,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -6632,10 +6746,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -6643,10 +6757,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -6654,10 +6768,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -6665,10 +6779,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -6676,10 +6790,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -6687,10 +6801,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -6698,10 +6812,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -6709,10 +6823,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -6720,10 +6834,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -6731,10 +6845,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -6742,10 +6856,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -6753,10 +6867,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -6764,10 +6878,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -6775,10 +6889,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -6786,10 +6900,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -6797,349 +6911,352 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B432" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="21">
+      <c r="A433" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21">
+      <c r="A434" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="21">
+      <c r="A435" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="21">
+      <c r="A436" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21">
+      <c r="A437" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="21">
+      <c r="A438" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B438" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B433" s="14" t="s">
+      <c r="C438" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="21">
+      <c r="A439" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B439" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B434" s="14" t="s">
+      <c r="C439" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="21">
+      <c r="A440" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B440" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="C434" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B435" s="14" t="s">
+      <c r="C440" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="21">
+      <c r="A441" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B441" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B436" s="14" t="s">
+      <c r="C441" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="21">
+      <c r="A442" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B442" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B437" s="14" t="s">
+      <c r="C442" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="21">
+      <c r="A443" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B443" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B438" s="14" t="s">
+      <c r="C443" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="21">
+      <c r="A444" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B444" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B439" s="14" t="s">
+      <c r="C444" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="21">
+      <c r="A445" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B445" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B440" s="14" t="s">
+      <c r="C445" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="21">
+      <c r="A446" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B446" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B441" s="14" t="s">
+      <c r="C446" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="21">
+      <c r="A447" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B447" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B442" s="14" t="s">
+      <c r="C447" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A448" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B448" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B443" s="14" t="s">
+      <c r="C448" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D448" s="27"/>
+    </row>
+    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A449" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B449" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B444" s="14" t="s">
+      <c r="C449" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449" s="27"/>
+    </row>
+    <row r="450" spans="1:4" ht="21">
+      <c r="A450" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B450" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B445" s="14" t="s">
+      <c r="C450" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="21">
+      <c r="A451" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B451" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B446" s="14" t="s">
+      <c r="C451" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="21">
+      <c r="A452" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B452" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B447" s="14" t="s">
+      <c r="C452" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="21">
+      <c r="A453" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B453" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B448" s="14" t="s">
+      <c r="C453" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A454" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B454" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B449" s="14" t="s">
+      <c r="C454" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D454" s="24"/>
+    </row>
+    <row r="455" spans="1:4" ht="21">
+      <c r="A455" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B455" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B450" s="14" t="s">
+      <c r="C455" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B456" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B451" s="14" t="s">
+      <c r="C456" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="21">
+      <c r="A457" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B457" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B452" s="14" t="s">
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21">
+      <c r="A458" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B458" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B453" s="14" t="s">
+      <c r="C458" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="21">
+      <c r="A459" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B459" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B454" s="14" t="s">
+      <c r="C459" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="21">
+      <c r="A460" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B460" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B455" s="14" t="s">
+      <c r="C460" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="21">
+      <c r="A461" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B461" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B457" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B459" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>437</v>
-      </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" spans="1:4" ht="21">
       <c r="B462" s="4"/>
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" spans="1:4" ht="21">
       <c r="A463" s="5"/>
       <c r="B463" s="4"/>
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" spans="1:4" ht="21">
       <c r="A464" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>3</v>
@@ -7147,10 +7264,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>3</v>
@@ -7158,10 +7275,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7169,10 +7286,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7180,10 +7297,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7191,21 +7308,21 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B469" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B469" s="14" t="s">
-        <v>444</v>
-      </c>
       <c r="C469" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>3</v>
@@ -7213,10 +7330,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>3</v>
@@ -7224,10 +7341,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7235,13 +7352,13 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7387,342 +7504,356 @@
     <hyperlink ref="B152" r:id="rId139"/>
     <hyperlink ref="B153" r:id="rId140"/>
     <hyperlink ref="B154" r:id="rId141"/>
-    <hyperlink ref="B155" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143" display="Flatten a Linked List"/>
-    <hyperlink ref="B159" r:id="rId144"/>
-    <hyperlink ref="B160" r:id="rId145"/>
-    <hyperlink ref="B161" r:id="rId146"/>
-    <hyperlink ref="B162" r:id="rId147"/>
-    <hyperlink ref="B163" r:id="rId148"/>
-    <hyperlink ref="B164" r:id="rId149"/>
-    <hyperlink ref="B165" r:id="rId150"/>
-    <hyperlink ref="B166" r:id="rId151"/>
-    <hyperlink ref="B169" r:id="rId152"/>
-    <hyperlink ref="B170" r:id="rId153"/>
-    <hyperlink ref="B171" r:id="rId154"/>
-    <hyperlink ref="B172" r:id="rId155"/>
-    <hyperlink ref="B173" r:id="rId156"/>
-    <hyperlink ref="B174" r:id="rId157"/>
-    <hyperlink ref="B175" r:id="rId158"/>
-    <hyperlink ref="B176" r:id="rId159"/>
-    <hyperlink ref="B177" r:id="rId160"/>
-    <hyperlink ref="B178" r:id="rId161"/>
-    <hyperlink ref="B179" r:id="rId162"/>
-    <hyperlink ref="B180" r:id="rId163"/>
-    <hyperlink ref="B181" r:id="rId164"/>
-    <hyperlink ref="B182" r:id="rId165"/>
-    <hyperlink ref="B183" r:id="rId166"/>
-    <hyperlink ref="B184" r:id="rId167"/>
-    <hyperlink ref="B185" r:id="rId168"/>
-    <hyperlink ref="B186" r:id="rId169"/>
-    <hyperlink ref="B187" r:id="rId170"/>
-    <hyperlink ref="B188" r:id="rId171"/>
-    <hyperlink ref="B189" r:id="rId172" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B190" r:id="rId173"/>
-    <hyperlink ref="B191" r:id="rId174"/>
-    <hyperlink ref="B192" r:id="rId175"/>
-    <hyperlink ref="B193" r:id="rId176"/>
-    <hyperlink ref="B194" r:id="rId177"/>
-    <hyperlink ref="B195" r:id="rId178" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B196" r:id="rId179"/>
-    <hyperlink ref="B197" r:id="rId180"/>
-    <hyperlink ref="B198" r:id="rId181"/>
-    <hyperlink ref="B199" r:id="rId182"/>
-    <hyperlink ref="B200" r:id="rId183"/>
-    <hyperlink ref="B201" r:id="rId184"/>
-    <hyperlink ref="B202" r:id="rId185"/>
-    <hyperlink ref="B203" r:id="rId186"/>
-    <hyperlink ref="B206" r:id="rId187"/>
-    <hyperlink ref="B207" r:id="rId188"/>
-    <hyperlink ref="B208" r:id="rId189"/>
-    <hyperlink ref="B209" r:id="rId190"/>
-    <hyperlink ref="B210" r:id="rId191"/>
-    <hyperlink ref="B211" r:id="rId192"/>
-    <hyperlink ref="B212" r:id="rId193"/>
-    <hyperlink ref="B213" r:id="rId194"/>
-    <hyperlink ref="B214" r:id="rId195"/>
-    <hyperlink ref="B215" r:id="rId196"/>
-    <hyperlink ref="B216" r:id="rId197"/>
-    <hyperlink ref="B217" r:id="rId198"/>
-    <hyperlink ref="B218" r:id="rId199"/>
-    <hyperlink ref="B219" r:id="rId200"/>
-    <hyperlink ref="B220" r:id="rId201"/>
-    <hyperlink ref="B221" r:id="rId202"/>
-    <hyperlink ref="B222" r:id="rId203"/>
-    <hyperlink ref="B223" r:id="rId204"/>
-    <hyperlink ref="B224" r:id="rId205"/>
-    <hyperlink ref="B225" r:id="rId206"/>
-    <hyperlink ref="B226" r:id="rId207"/>
-    <hyperlink ref="B227" r:id="rId208"/>
-    <hyperlink ref="B230" r:id="rId209"/>
-    <hyperlink ref="B231" r:id="rId210"/>
-    <hyperlink ref="B232" r:id="rId211"/>
-    <hyperlink ref="B233" r:id="rId212"/>
-    <hyperlink ref="B234" r:id="rId213"/>
-    <hyperlink ref="B235" r:id="rId214"/>
-    <hyperlink ref="B236" r:id="rId215"/>
-    <hyperlink ref="B237" r:id="rId216"/>
-    <hyperlink ref="B238" r:id="rId217"/>
-    <hyperlink ref="B239" r:id="rId218"/>
-    <hyperlink ref="B240" r:id="rId219"/>
-    <hyperlink ref="B241" r:id="rId220"/>
-    <hyperlink ref="B242" r:id="rId221"/>
-    <hyperlink ref="B243" r:id="rId222"/>
-    <hyperlink ref="B244" r:id="rId223"/>
-    <hyperlink ref="B245" r:id="rId224"/>
-    <hyperlink ref="B246" r:id="rId225"/>
-    <hyperlink ref="B247" r:id="rId226"/>
-    <hyperlink ref="B248" r:id="rId227"/>
-    <hyperlink ref="B249" r:id="rId228" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B250" r:id="rId229"/>
-    <hyperlink ref="B251" r:id="rId230"/>
-    <hyperlink ref="B252" r:id="rId231"/>
-    <hyperlink ref="B253" r:id="rId232"/>
-    <hyperlink ref="B254" r:id="rId233"/>
-    <hyperlink ref="B255" r:id="rId234"/>
-    <hyperlink ref="B256" r:id="rId235"/>
-    <hyperlink ref="B257" r:id="rId236"/>
-    <hyperlink ref="B258" r:id="rId237"/>
-    <hyperlink ref="B259" r:id="rId238"/>
-    <hyperlink ref="B260" r:id="rId239"/>
-    <hyperlink ref="B261" r:id="rId240"/>
-    <hyperlink ref="B262" r:id="rId241"/>
-    <hyperlink ref="B263" r:id="rId242"/>
-    <hyperlink ref="B264" r:id="rId243"/>
-    <hyperlink ref="B267" r:id="rId244"/>
-    <hyperlink ref="B268" r:id="rId245"/>
-    <hyperlink ref="B269" r:id="rId246"/>
-    <hyperlink ref="B270" r:id="rId247"/>
-    <hyperlink ref="B271" r:id="rId248"/>
-    <hyperlink ref="B272" r:id="rId249"/>
-    <hyperlink ref="B273" r:id="rId250"/>
-    <hyperlink ref="B274" r:id="rId251"/>
-    <hyperlink ref="B275" r:id="rId252"/>
-    <hyperlink ref="B276" r:id="rId253"/>
-    <hyperlink ref="B277" r:id="rId254"/>
-    <hyperlink ref="B278" r:id="rId255"/>
-    <hyperlink ref="B279" r:id="rId256"/>
-    <hyperlink ref="B280" r:id="rId257"/>
-    <hyperlink ref="B281" r:id="rId258"/>
-    <hyperlink ref="B282" r:id="rId259"/>
-    <hyperlink ref="B283" r:id="rId260"/>
-    <hyperlink ref="B284" r:id="rId261"/>
-    <hyperlink ref="B285" r:id="rId262"/>
-    <hyperlink ref="B288" r:id="rId263"/>
-    <hyperlink ref="B289" r:id="rId264"/>
-    <hyperlink ref="B290" r:id="rId265"/>
-    <hyperlink ref="B291" r:id="rId266"/>
-    <hyperlink ref="B292" r:id="rId267"/>
-    <hyperlink ref="B293" r:id="rId268"/>
-    <hyperlink ref="B294" r:id="rId269"/>
-    <hyperlink ref="B295" r:id="rId270"/>
-    <hyperlink ref="B296" r:id="rId271"/>
-    <hyperlink ref="B297" r:id="rId272"/>
-    <hyperlink ref="B298" r:id="rId273" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B299" r:id="rId274"/>
-    <hyperlink ref="B300" r:id="rId275"/>
-    <hyperlink ref="B301" r:id="rId276"/>
-    <hyperlink ref="B302" r:id="rId277"/>
-    <hyperlink ref="B303" r:id="rId278"/>
-    <hyperlink ref="B304" r:id="rId279"/>
-    <hyperlink ref="B305" r:id="rId280"/>
-    <hyperlink ref="B306" r:id="rId281"/>
-    <hyperlink ref="B307" r:id="rId282"/>
-    <hyperlink ref="B308" r:id="rId283"/>
-    <hyperlink ref="B309" r:id="rId284"/>
-    <hyperlink ref="B310" r:id="rId285"/>
-    <hyperlink ref="B311" r:id="rId286"/>
-    <hyperlink ref="B312" r:id="rId287"/>
-    <hyperlink ref="B313" r:id="rId288"/>
-    <hyperlink ref="B314" r:id="rId289"/>
-    <hyperlink ref="B315" r:id="rId290"/>
-    <hyperlink ref="B316" r:id="rId291"/>
-    <hyperlink ref="B317" r:id="rId292"/>
-    <hyperlink ref="B318" r:id="rId293"/>
-    <hyperlink ref="B319" r:id="rId294"/>
-    <hyperlink ref="B320" r:id="rId295"/>
-    <hyperlink ref="B321" r:id="rId296"/>
-    <hyperlink ref="B322" r:id="rId297"/>
-    <hyperlink ref="B323" r:id="rId298"/>
-    <hyperlink ref="B324" r:id="rId299"/>
-    <hyperlink ref="B325" r:id="rId300"/>
-    <hyperlink ref="B328" r:id="rId301"/>
-    <hyperlink ref="B329" r:id="rId302"/>
-    <hyperlink ref="B330" r:id="rId303"/>
-    <hyperlink ref="B331" r:id="rId304"/>
-    <hyperlink ref="B332" r:id="rId305"/>
-    <hyperlink ref="B333" r:id="rId306"/>
-    <hyperlink ref="B334" r:id="rId307"/>
-    <hyperlink ref="B335" r:id="rId308"/>
-    <hyperlink ref="B336" r:id="rId309"/>
-    <hyperlink ref="B337" r:id="rId310"/>
-    <hyperlink ref="B338" r:id="rId311"/>
-    <hyperlink ref="B339" r:id="rId312"/>
-    <hyperlink ref="B340" r:id="rId313"/>
-    <hyperlink ref="B341" r:id="rId314"/>
-    <hyperlink ref="B342" r:id="rId315"/>
-    <hyperlink ref="B343" r:id="rId316"/>
-    <hyperlink ref="B344" r:id="rId317"/>
-    <hyperlink ref="B345" r:id="rId318"/>
-    <hyperlink ref="B349" r:id="rId319"/>
-    <hyperlink ref="B350" r:id="rId320"/>
-    <hyperlink ref="B351" r:id="rId321"/>
-    <hyperlink ref="B352" r:id="rId322"/>
-    <hyperlink ref="B353" r:id="rId323"/>
-    <hyperlink ref="B354" r:id="rId324"/>
-    <hyperlink ref="B355" r:id="rId325"/>
-    <hyperlink ref="B356" r:id="rId326"/>
-    <hyperlink ref="B357" r:id="rId327"/>
-    <hyperlink ref="B358" r:id="rId328"/>
-    <hyperlink ref="B359" r:id="rId329"/>
-    <hyperlink ref="B360" r:id="rId330"/>
-    <hyperlink ref="B361" r:id="rId331"/>
-    <hyperlink ref="B362" r:id="rId332"/>
-    <hyperlink ref="B363" r:id="rId333"/>
-    <hyperlink ref="B364" r:id="rId334"/>
-    <hyperlink ref="B365" r:id="rId335"/>
-    <hyperlink ref="B366" r:id="rId336"/>
-    <hyperlink ref="B367" r:id="rId337"/>
-    <hyperlink ref="B368" r:id="rId338"/>
-    <hyperlink ref="B369" r:id="rId339"/>
-    <hyperlink ref="B370" r:id="rId340"/>
-    <hyperlink ref="B371" r:id="rId341" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B372" r:id="rId342"/>
-    <hyperlink ref="B373" r:id="rId343"/>
-    <hyperlink ref="B374" r:id="rId344"/>
-    <hyperlink ref="B375" r:id="rId345"/>
-    <hyperlink ref="B376" r:id="rId346"/>
-    <hyperlink ref="B377" r:id="rId347"/>
-    <hyperlink ref="B378" r:id="rId348"/>
-    <hyperlink ref="B379" r:id="rId349"/>
-    <hyperlink ref="B380" r:id="rId350"/>
-    <hyperlink ref="B381" r:id="rId351"/>
-    <hyperlink ref="B382" r:id="rId352"/>
-    <hyperlink ref="B383" r:id="rId353"/>
-    <hyperlink ref="B384" r:id="rId354"/>
-    <hyperlink ref="B385" r:id="rId355"/>
-    <hyperlink ref="B386" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B387" r:id="rId358"/>
-    <hyperlink ref="B389" r:id="rId359"/>
-    <hyperlink ref="B390" r:id="rId360"/>
-    <hyperlink ref="B391" r:id="rId361"/>
-    <hyperlink ref="B394" r:id="rId362"/>
-    <hyperlink ref="B395" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B397" r:id="rId365"/>
-    <hyperlink ref="B398" r:id="rId366"/>
-    <hyperlink ref="B399" r:id="rId367"/>
-    <hyperlink ref="B402" r:id="rId368"/>
-    <hyperlink ref="B403" r:id="rId369"/>
-    <hyperlink ref="B404" r:id="rId370"/>
-    <hyperlink ref="B405" r:id="rId371"/>
-    <hyperlink ref="B406" r:id="rId372"/>
-    <hyperlink ref="B407" r:id="rId373"/>
-    <hyperlink ref="B408" r:id="rId374"/>
-    <hyperlink ref="B409" r:id="rId375"/>
-    <hyperlink ref="B410" r:id="rId376"/>
-    <hyperlink ref="B411" r:id="rId377"/>
-    <hyperlink ref="B412" r:id="rId378"/>
-    <hyperlink ref="B413" r:id="rId379"/>
-    <hyperlink ref="B414" r:id="rId380"/>
-    <hyperlink ref="B415" r:id="rId381"/>
-    <hyperlink ref="B416" r:id="rId382"/>
-    <hyperlink ref="B417" r:id="rId383"/>
-    <hyperlink ref="B418" r:id="rId384"/>
-    <hyperlink ref="B419" r:id="rId385"/>
-    <hyperlink ref="B420" r:id="rId386"/>
-    <hyperlink ref="B421" r:id="rId387"/>
-    <hyperlink ref="B422" r:id="rId388"/>
-    <hyperlink ref="B423" r:id="rId389"/>
-    <hyperlink ref="B424" r:id="rId390"/>
-    <hyperlink ref="B425" r:id="rId391"/>
-    <hyperlink ref="B426" r:id="rId392"/>
-    <hyperlink ref="B427" r:id="rId393"/>
-    <hyperlink ref="B428" r:id="rId394"/>
-    <hyperlink ref="B429" r:id="rId395"/>
-    <hyperlink ref="B430" r:id="rId396"/>
-    <hyperlink ref="B431" r:id="rId397"/>
-    <hyperlink ref="B432" r:id="rId398"/>
-    <hyperlink ref="B433" r:id="rId399"/>
-    <hyperlink ref="B434" r:id="rId400"/>
-    <hyperlink ref="B435" r:id="rId401"/>
-    <hyperlink ref="B436" r:id="rId402"/>
-    <hyperlink ref="B437" r:id="rId403"/>
-    <hyperlink ref="B438" r:id="rId404"/>
-    <hyperlink ref="B439" r:id="rId405"/>
-    <hyperlink ref="B440" r:id="rId406"/>
-    <hyperlink ref="B441" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B442" r:id="rId409"/>
-    <hyperlink ref="B444" r:id="rId410"/>
-    <hyperlink ref="B445" r:id="rId411"/>
-    <hyperlink ref="B446" r:id="rId412"/>
-    <hyperlink ref="B447" r:id="rId413"/>
-    <hyperlink ref="B448" r:id="rId414"/>
-    <hyperlink ref="B449" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B451" r:id="rId417"/>
-    <hyperlink ref="B452" r:id="rId418"/>
-    <hyperlink ref="B453" r:id="rId419"/>
-    <hyperlink ref="B454" r:id="rId420"/>
-    <hyperlink ref="B461" r:id="rId421"/>
-    <hyperlink ref="B460" r:id="rId422"/>
-    <hyperlink ref="B459" r:id="rId423"/>
-    <hyperlink ref="B458" r:id="rId424"/>
-    <hyperlink ref="B457" r:id="rId425"/>
-    <hyperlink ref="B456" r:id="rId426"/>
-    <hyperlink ref="B455" r:id="rId427"/>
-    <hyperlink ref="B464" r:id="rId428"/>
-    <hyperlink ref="B465" r:id="rId429"/>
-    <hyperlink ref="B466" r:id="rId430"/>
-    <hyperlink ref="B467" r:id="rId431"/>
-    <hyperlink ref="B468" r:id="rId432"/>
-    <hyperlink ref="B469" r:id="rId433"/>
-    <hyperlink ref="B470" r:id="rId434"/>
-    <hyperlink ref="B473" r:id="rId435"/>
-    <hyperlink ref="B471" r:id="rId436"/>
-    <hyperlink ref="B472" r:id="rId437" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B348" r:id="rId438"/>
-    <hyperlink ref="B2" r:id="rId439"/>
-    <hyperlink ref="D17" r:id="rId440"/>
-    <hyperlink ref="D6" r:id="rId441"/>
-    <hyperlink ref="D8" r:id="rId442"/>
-    <hyperlink ref="D12" r:id="rId443"/>
-    <hyperlink ref="D7" r:id="rId444"/>
-    <hyperlink ref="D9" r:id="rId445"/>
-    <hyperlink ref="D16" r:id="rId446"/>
-    <hyperlink ref="D15" r:id="rId447"/>
-    <hyperlink ref="D21" r:id="rId448"/>
-    <hyperlink ref="D55" r:id="rId449"/>
-    <hyperlink ref="D14" r:id="rId450"/>
-    <hyperlink ref="D32" r:id="rId451"/>
-    <hyperlink ref="D27" r:id="rId452"/>
-    <hyperlink ref="D22" r:id="rId453"/>
-    <hyperlink ref="D19" r:id="rId454"/>
-    <hyperlink ref="D43" r:id="rId455"/>
-    <hyperlink ref="D56" r:id="rId456"/>
-    <hyperlink ref="D57" r:id="rId457"/>
-    <hyperlink ref="D102" r:id="rId458"/>
-    <hyperlink ref="D99" r:id="rId459"/>
-    <hyperlink ref="D109" r:id="rId460"/>
-    <hyperlink ref="D157" r:id="rId461"/>
-    <hyperlink ref="D150" r:id="rId462"/>
-    <hyperlink ref="D133" r:id="rId463"/>
-    <hyperlink ref="D134" r:id="rId464"/>
-    <hyperlink ref="D135" r:id="rId465"/>
-    <hyperlink ref="D138" r:id="rId466"/>
-    <hyperlink ref="D139" r:id="rId467"/>
-    <hyperlink ref="D141" r:id="rId468"/>
-    <hyperlink ref="D146" r:id="rId469"/>
-    <hyperlink ref="D149" r:id="rId470"/>
-    <hyperlink ref="D147" r:id="rId471"/>
-    <hyperlink ref="D148" r:id="rId472"/>
-    <hyperlink ref="D164" r:id="rId473"/>
-    <hyperlink ref="D165" r:id="rId474"/>
-    <hyperlink ref="D140" r:id="rId475"/>
+    <hyperlink ref="B157" r:id="rId142" display="Flatten a Linked List"/>
+    <hyperlink ref="B158" r:id="rId143"/>
+    <hyperlink ref="B159" r:id="rId144" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B161" r:id="rId145" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B162" r:id="rId146"/>
+    <hyperlink ref="B163" r:id="rId147"/>
+    <hyperlink ref="B164" r:id="rId148"/>
+    <hyperlink ref="B165" r:id="rId149"/>
+    <hyperlink ref="B166" r:id="rId150"/>
+    <hyperlink ref="B169" r:id="rId151" display="level order traversal"/>
+    <hyperlink ref="B170" r:id="rId152"/>
+    <hyperlink ref="B171" r:id="rId153" display="Height of a tree"/>
+    <hyperlink ref="B172" r:id="rId154"/>
+    <hyperlink ref="B173" r:id="rId155"/>
+    <hyperlink ref="B174" r:id="rId156"/>
+    <hyperlink ref="B175" r:id="rId157"/>
+    <hyperlink ref="B176" r:id="rId158"/>
+    <hyperlink ref="B177" r:id="rId159"/>
+    <hyperlink ref="B178" r:id="rId160"/>
+    <hyperlink ref="B179" r:id="rId161"/>
+    <hyperlink ref="B180" r:id="rId162"/>
+    <hyperlink ref="B181" r:id="rId163"/>
+    <hyperlink ref="B182" r:id="rId164"/>
+    <hyperlink ref="B183" r:id="rId165"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167"/>
+    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B187" r:id="rId169"/>
+    <hyperlink ref="B188" r:id="rId170"/>
+    <hyperlink ref="B189" r:id="rId171" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B190" r:id="rId172"/>
+    <hyperlink ref="B191" r:id="rId173"/>
+    <hyperlink ref="B192" r:id="rId174"/>
+    <hyperlink ref="B193" r:id="rId175"/>
+    <hyperlink ref="B194" r:id="rId176"/>
+    <hyperlink ref="B195" r:id="rId177" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B196" r:id="rId178"/>
+    <hyperlink ref="B197" r:id="rId179"/>
+    <hyperlink ref="B198" r:id="rId180"/>
+    <hyperlink ref="B199" r:id="rId181"/>
+    <hyperlink ref="B200" r:id="rId182"/>
+    <hyperlink ref="B201" r:id="rId183"/>
+    <hyperlink ref="B202" r:id="rId184"/>
+    <hyperlink ref="B203" r:id="rId185"/>
+    <hyperlink ref="B206" r:id="rId186"/>
+    <hyperlink ref="B207" r:id="rId187"/>
+    <hyperlink ref="B208" r:id="rId188"/>
+    <hyperlink ref="B209" r:id="rId189"/>
+    <hyperlink ref="B210" r:id="rId190"/>
+    <hyperlink ref="B211" r:id="rId191"/>
+    <hyperlink ref="B212" r:id="rId192"/>
+    <hyperlink ref="B213" r:id="rId193"/>
+    <hyperlink ref="B214" r:id="rId194"/>
+    <hyperlink ref="B215" r:id="rId195"/>
+    <hyperlink ref="B216" r:id="rId196" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B217" r:id="rId197"/>
+    <hyperlink ref="B218" r:id="rId198"/>
+    <hyperlink ref="B219" r:id="rId199"/>
+    <hyperlink ref="B220" r:id="rId200"/>
+    <hyperlink ref="B221" r:id="rId201"/>
+    <hyperlink ref="B222" r:id="rId202"/>
+    <hyperlink ref="B223" r:id="rId203"/>
+    <hyperlink ref="B224" r:id="rId204"/>
+    <hyperlink ref="B225" r:id="rId205"/>
+    <hyperlink ref="B226" r:id="rId206"/>
+    <hyperlink ref="B227" r:id="rId207"/>
+    <hyperlink ref="B230" r:id="rId208"/>
+    <hyperlink ref="B231" r:id="rId209"/>
+    <hyperlink ref="B232" r:id="rId210"/>
+    <hyperlink ref="B233" r:id="rId211"/>
+    <hyperlink ref="B234" r:id="rId212"/>
+    <hyperlink ref="B235" r:id="rId213"/>
+    <hyperlink ref="B236" r:id="rId214"/>
+    <hyperlink ref="B237" r:id="rId215"/>
+    <hyperlink ref="B238" r:id="rId216"/>
+    <hyperlink ref="B239" r:id="rId217"/>
+    <hyperlink ref="B240" r:id="rId218"/>
+    <hyperlink ref="B241" r:id="rId219"/>
+    <hyperlink ref="B242" r:id="rId220"/>
+    <hyperlink ref="B243" r:id="rId221"/>
+    <hyperlink ref="B244" r:id="rId222"/>
+    <hyperlink ref="B245" r:id="rId223"/>
+    <hyperlink ref="B246" r:id="rId224"/>
+    <hyperlink ref="B247" r:id="rId225"/>
+    <hyperlink ref="B248" r:id="rId226"/>
+    <hyperlink ref="B249" r:id="rId227" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B250" r:id="rId228"/>
+    <hyperlink ref="B251" r:id="rId229"/>
+    <hyperlink ref="B252" r:id="rId230"/>
+    <hyperlink ref="B253" r:id="rId231"/>
+    <hyperlink ref="B254" r:id="rId232"/>
+    <hyperlink ref="B255" r:id="rId233"/>
+    <hyperlink ref="B256" r:id="rId234"/>
+    <hyperlink ref="B257" r:id="rId235"/>
+    <hyperlink ref="B258" r:id="rId236"/>
+    <hyperlink ref="B259" r:id="rId237"/>
+    <hyperlink ref="B260" r:id="rId238"/>
+    <hyperlink ref="B261" r:id="rId239"/>
+    <hyperlink ref="B262" r:id="rId240"/>
+    <hyperlink ref="B263" r:id="rId241"/>
+    <hyperlink ref="B264" r:id="rId242"/>
+    <hyperlink ref="B267" r:id="rId243"/>
+    <hyperlink ref="B268" r:id="rId244"/>
+    <hyperlink ref="B269" r:id="rId245"/>
+    <hyperlink ref="B270" r:id="rId246"/>
+    <hyperlink ref="B271" r:id="rId247"/>
+    <hyperlink ref="B272" r:id="rId248"/>
+    <hyperlink ref="B273" r:id="rId249"/>
+    <hyperlink ref="B274" r:id="rId250"/>
+    <hyperlink ref="B275" r:id="rId251"/>
+    <hyperlink ref="B276" r:id="rId252"/>
+    <hyperlink ref="B277" r:id="rId253"/>
+    <hyperlink ref="B278" r:id="rId254"/>
+    <hyperlink ref="B279" r:id="rId255"/>
+    <hyperlink ref="B280" r:id="rId256"/>
+    <hyperlink ref="B281" r:id="rId257"/>
+    <hyperlink ref="B282" r:id="rId258"/>
+    <hyperlink ref="B283" r:id="rId259"/>
+    <hyperlink ref="B284" r:id="rId260"/>
+    <hyperlink ref="B285" r:id="rId261"/>
+    <hyperlink ref="B288" r:id="rId262"/>
+    <hyperlink ref="B289" r:id="rId263"/>
+    <hyperlink ref="B290" r:id="rId264"/>
+    <hyperlink ref="B291" r:id="rId265"/>
+    <hyperlink ref="B292" r:id="rId266"/>
+    <hyperlink ref="B293" r:id="rId267"/>
+    <hyperlink ref="B294" r:id="rId268"/>
+    <hyperlink ref="B295" r:id="rId269"/>
+    <hyperlink ref="B296" r:id="rId270"/>
+    <hyperlink ref="B297" r:id="rId271"/>
+    <hyperlink ref="B298" r:id="rId272" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B299" r:id="rId273"/>
+    <hyperlink ref="B300" r:id="rId274"/>
+    <hyperlink ref="B301" r:id="rId275"/>
+    <hyperlink ref="B302" r:id="rId276"/>
+    <hyperlink ref="B303" r:id="rId277"/>
+    <hyperlink ref="B304" r:id="rId278"/>
+    <hyperlink ref="B305" r:id="rId279"/>
+    <hyperlink ref="B306" r:id="rId280"/>
+    <hyperlink ref="B307" r:id="rId281"/>
+    <hyperlink ref="B308" r:id="rId282"/>
+    <hyperlink ref="B309" r:id="rId283"/>
+    <hyperlink ref="B310" r:id="rId284"/>
+    <hyperlink ref="B311" r:id="rId285"/>
+    <hyperlink ref="B312" r:id="rId286"/>
+    <hyperlink ref="B313" r:id="rId287"/>
+    <hyperlink ref="B314" r:id="rId288"/>
+    <hyperlink ref="B315" r:id="rId289"/>
+    <hyperlink ref="B316" r:id="rId290"/>
+    <hyperlink ref="B317" r:id="rId291"/>
+    <hyperlink ref="B318" r:id="rId292"/>
+    <hyperlink ref="B319" r:id="rId293"/>
+    <hyperlink ref="B320" r:id="rId294"/>
+    <hyperlink ref="B321" r:id="rId295"/>
+    <hyperlink ref="B322" r:id="rId296"/>
+    <hyperlink ref="B323" r:id="rId297"/>
+    <hyperlink ref="B324" r:id="rId298"/>
+    <hyperlink ref="B325" r:id="rId299"/>
+    <hyperlink ref="B328" r:id="rId300"/>
+    <hyperlink ref="B329" r:id="rId301"/>
+    <hyperlink ref="B330" r:id="rId302"/>
+    <hyperlink ref="B331" r:id="rId303"/>
+    <hyperlink ref="B332" r:id="rId304"/>
+    <hyperlink ref="B333" r:id="rId305"/>
+    <hyperlink ref="B334" r:id="rId306"/>
+    <hyperlink ref="B335" r:id="rId307"/>
+    <hyperlink ref="B336" r:id="rId308"/>
+    <hyperlink ref="B337" r:id="rId309"/>
+    <hyperlink ref="B338" r:id="rId310"/>
+    <hyperlink ref="B339" r:id="rId311"/>
+    <hyperlink ref="B340" r:id="rId312"/>
+    <hyperlink ref="B341" r:id="rId313"/>
+    <hyperlink ref="B342" r:id="rId314"/>
+    <hyperlink ref="B343" r:id="rId315"/>
+    <hyperlink ref="B344" r:id="rId316"/>
+    <hyperlink ref="B345" r:id="rId317"/>
+    <hyperlink ref="B349" r:id="rId318"/>
+    <hyperlink ref="B350" r:id="rId319"/>
+    <hyperlink ref="B351" r:id="rId320"/>
+    <hyperlink ref="B352" r:id="rId321"/>
+    <hyperlink ref="B353" r:id="rId322"/>
+    <hyperlink ref="B354" r:id="rId323"/>
+    <hyperlink ref="B355" r:id="rId324"/>
+    <hyperlink ref="B356" r:id="rId325"/>
+    <hyperlink ref="B357" r:id="rId326"/>
+    <hyperlink ref="B358" r:id="rId327"/>
+    <hyperlink ref="B359" r:id="rId328"/>
+    <hyperlink ref="B360" r:id="rId329"/>
+    <hyperlink ref="B361" r:id="rId330"/>
+    <hyperlink ref="B362" r:id="rId331"/>
+    <hyperlink ref="B363" r:id="rId332"/>
+    <hyperlink ref="B364" r:id="rId333"/>
+    <hyperlink ref="B365" r:id="rId334"/>
+    <hyperlink ref="B366" r:id="rId335"/>
+    <hyperlink ref="B367" r:id="rId336"/>
+    <hyperlink ref="B368" r:id="rId337"/>
+    <hyperlink ref="B369" r:id="rId338"/>
+    <hyperlink ref="B370" r:id="rId339"/>
+    <hyperlink ref="B371" r:id="rId340" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B372" r:id="rId341"/>
+    <hyperlink ref="B373" r:id="rId342"/>
+    <hyperlink ref="B374" r:id="rId343"/>
+    <hyperlink ref="B375" r:id="rId344"/>
+    <hyperlink ref="B376" r:id="rId345"/>
+    <hyperlink ref="B377" r:id="rId346"/>
+    <hyperlink ref="B378" r:id="rId347"/>
+    <hyperlink ref="B379" r:id="rId348"/>
+    <hyperlink ref="B380" r:id="rId349"/>
+    <hyperlink ref="B381" r:id="rId350"/>
+    <hyperlink ref="B382" r:id="rId351"/>
+    <hyperlink ref="B383" r:id="rId352"/>
+    <hyperlink ref="B384" r:id="rId353"/>
+    <hyperlink ref="B385" r:id="rId354"/>
+    <hyperlink ref="B386" r:id="rId355"/>
+    <hyperlink ref="B388" r:id="rId356"/>
+    <hyperlink ref="B387" r:id="rId357"/>
+    <hyperlink ref="B389" r:id="rId358"/>
+    <hyperlink ref="B390" r:id="rId359"/>
+    <hyperlink ref="B391" r:id="rId360"/>
+    <hyperlink ref="B394" r:id="rId361"/>
+    <hyperlink ref="B395" r:id="rId362"/>
+    <hyperlink ref="B396" r:id="rId363"/>
+    <hyperlink ref="B397" r:id="rId364"/>
+    <hyperlink ref="B398" r:id="rId365"/>
+    <hyperlink ref="B399" r:id="rId366"/>
+    <hyperlink ref="B402" r:id="rId367"/>
+    <hyperlink ref="B403" r:id="rId368"/>
+    <hyperlink ref="B404" r:id="rId369"/>
+    <hyperlink ref="B405" r:id="rId370"/>
+    <hyperlink ref="B406" r:id="rId371"/>
+    <hyperlink ref="B407" r:id="rId372"/>
+    <hyperlink ref="B408" r:id="rId373"/>
+    <hyperlink ref="B409" r:id="rId374"/>
+    <hyperlink ref="B410" r:id="rId375"/>
+    <hyperlink ref="B411" r:id="rId376"/>
+    <hyperlink ref="B412" r:id="rId377"/>
+    <hyperlink ref="B413" r:id="rId378"/>
+    <hyperlink ref="B414" r:id="rId379"/>
+    <hyperlink ref="B415" r:id="rId380"/>
+    <hyperlink ref="B416" r:id="rId381"/>
+    <hyperlink ref="B417" r:id="rId382"/>
+    <hyperlink ref="B418" r:id="rId383"/>
+    <hyperlink ref="B419" r:id="rId384"/>
+    <hyperlink ref="B420" r:id="rId385"/>
+    <hyperlink ref="B421" r:id="rId386"/>
+    <hyperlink ref="B422" r:id="rId387"/>
+    <hyperlink ref="B423" r:id="rId388"/>
+    <hyperlink ref="B424" r:id="rId389"/>
+    <hyperlink ref="B425" r:id="rId390"/>
+    <hyperlink ref="B426" r:id="rId391"/>
+    <hyperlink ref="B427" r:id="rId392"/>
+    <hyperlink ref="B428" r:id="rId393"/>
+    <hyperlink ref="B429" r:id="rId394"/>
+    <hyperlink ref="B430" r:id="rId395"/>
+    <hyperlink ref="B431" r:id="rId396"/>
+    <hyperlink ref="B432" r:id="rId397"/>
+    <hyperlink ref="B433" r:id="rId398"/>
+    <hyperlink ref="B434" r:id="rId399"/>
+    <hyperlink ref="B435" r:id="rId400"/>
+    <hyperlink ref="B436" r:id="rId401"/>
+    <hyperlink ref="B437" r:id="rId402"/>
+    <hyperlink ref="B438" r:id="rId403"/>
+    <hyperlink ref="B439" r:id="rId404"/>
+    <hyperlink ref="B440" r:id="rId405"/>
+    <hyperlink ref="B441" r:id="rId406"/>
+    <hyperlink ref="B443" r:id="rId407"/>
+    <hyperlink ref="B442" r:id="rId408"/>
+    <hyperlink ref="B444" r:id="rId409"/>
+    <hyperlink ref="B445" r:id="rId410"/>
+    <hyperlink ref="B446" r:id="rId411"/>
+    <hyperlink ref="B447" r:id="rId412"/>
+    <hyperlink ref="B448" r:id="rId413"/>
+    <hyperlink ref="B449" r:id="rId414"/>
+    <hyperlink ref="B450" r:id="rId415"/>
+    <hyperlink ref="B451" r:id="rId416"/>
+    <hyperlink ref="B452" r:id="rId417"/>
+    <hyperlink ref="B453" r:id="rId418"/>
+    <hyperlink ref="B454" r:id="rId419"/>
+    <hyperlink ref="B461" r:id="rId420"/>
+    <hyperlink ref="B460" r:id="rId421"/>
+    <hyperlink ref="B459" r:id="rId422"/>
+    <hyperlink ref="B458" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B456" r:id="rId425"/>
+    <hyperlink ref="B455" r:id="rId426"/>
+    <hyperlink ref="B464" r:id="rId427"/>
+    <hyperlink ref="B465" r:id="rId428"/>
+    <hyperlink ref="B466" r:id="rId429"/>
+    <hyperlink ref="B467" r:id="rId430"/>
+    <hyperlink ref="B468" r:id="rId431"/>
+    <hyperlink ref="B469" r:id="rId432"/>
+    <hyperlink ref="B470" r:id="rId433"/>
+    <hyperlink ref="B473" r:id="rId434"/>
+    <hyperlink ref="B471" r:id="rId435"/>
+    <hyperlink ref="B472" r:id="rId436" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B348" r:id="rId437"/>
+    <hyperlink ref="B2" r:id="rId438"/>
+    <hyperlink ref="D17" r:id="rId439"/>
+    <hyperlink ref="D6" r:id="rId440"/>
+    <hyperlink ref="D8" r:id="rId441"/>
+    <hyperlink ref="D12" r:id="rId442"/>
+    <hyperlink ref="D7" r:id="rId443"/>
+    <hyperlink ref="D9" r:id="rId444"/>
+    <hyperlink ref="D16" r:id="rId445"/>
+    <hyperlink ref="D15" r:id="rId446"/>
+    <hyperlink ref="D21" r:id="rId447"/>
+    <hyperlink ref="D55" r:id="rId448"/>
+    <hyperlink ref="D14" r:id="rId449"/>
+    <hyperlink ref="D32" r:id="rId450"/>
+    <hyperlink ref="D27" r:id="rId451"/>
+    <hyperlink ref="D22" r:id="rId452"/>
+    <hyperlink ref="D19" r:id="rId453"/>
+    <hyperlink ref="D43" r:id="rId454"/>
+    <hyperlink ref="D56" r:id="rId455"/>
+    <hyperlink ref="D57" r:id="rId456"/>
+    <hyperlink ref="D102" r:id="rId457"/>
+    <hyperlink ref="D99" r:id="rId458"/>
+    <hyperlink ref="D109" r:id="rId459"/>
+    <hyperlink ref="D156" r:id="rId460"/>
+    <hyperlink ref="D150" r:id="rId461"/>
+    <hyperlink ref="D133" r:id="rId462"/>
+    <hyperlink ref="D134" r:id="rId463"/>
+    <hyperlink ref="D135" r:id="rId464"/>
+    <hyperlink ref="D138" r:id="rId465"/>
+    <hyperlink ref="D139" r:id="rId466"/>
+    <hyperlink ref="D141" r:id="rId467"/>
+    <hyperlink ref="D146" r:id="rId468"/>
+    <hyperlink ref="D149" r:id="rId469"/>
+    <hyperlink ref="D147" r:id="rId470"/>
+    <hyperlink ref="D148" r:id="rId471"/>
+    <hyperlink ref="D164" r:id="rId472"/>
+    <hyperlink ref="D165" r:id="rId473"/>
+    <hyperlink ref="D140" r:id="rId474"/>
+    <hyperlink ref="D166" r:id="rId475"/>
+    <hyperlink ref="D158" r:id="rId476"/>
+    <hyperlink ref="B160" r:id="rId477" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D161" r:id="rId478"/>
+    <hyperlink ref="D160" r:id="rId479"/>
+    <hyperlink ref="D159" r:id="rId480"/>
+    <hyperlink ref="D155" r:id="rId481"/>
+    <hyperlink ref="D174" r:id="rId482"/>
+    <hyperlink ref="D176" r:id="rId483"/>
+    <hyperlink ref="D175" r:id="rId484"/>
+    <hyperlink ref="D169" r:id="rId485"/>
+    <hyperlink ref="D171" r:id="rId486"/>
+    <hyperlink ref="D182" r:id="rId487"/>
+    <hyperlink ref="D173" r:id="rId488"/>
+    <hyperlink ref="D172" r:id="rId489"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId476"/>
+  <pageSetup orientation="portrait" r:id="rId490"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="514">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1563,6 +1563,9 @@
   </si>
   <si>
     <t>Level order traversal V.V.IMP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
   </si>
 </sst>
 </file>
@@ -2192,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
@@ -4258,7 +4261,10 @@
         <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>3</v>
+        <v>446</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -7852,8 +7858,9 @@
     <hyperlink ref="D182" r:id="rId487"/>
     <hyperlink ref="D173" r:id="rId488"/>
     <hyperlink ref="D172" r:id="rId489"/>
+    <hyperlink ref="D181" r:id="rId490"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId490"/>
+  <pageSetup orientation="portrait" r:id="rId491"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="521">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -527,15 +527,9 @@
     <t>Diagnol Traversal of a Binary tree</t>
   </si>
   <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
     <t>Construct Binary Tree from String with Bracket Representation</t>
   </si>
   <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
     <t>Convert Binary tree into Sum tree</t>
   </si>
   <si>
@@ -566,18 +560,12 @@
     <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
-  </si>
-  <si>
     <t>Print all "K" Sum paths in a Binary tree</t>
   </si>
   <si>
     <t>Find LCA in a Binary tree</t>
   </si>
   <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
     <t>Kth Ancestor of node in a Binary tree</t>
   </si>
   <si>
@@ -1566,13 +1554,46 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/submissions/</t>
+  </si>
+  <si>
+    <t>Maximum Path Sum in Binary Tree [HARD yet EASY]</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/boundary-traversal_790725?utm_source=youtube&amp;utm_medium=affiliate&amp;utm_campaign=Striver_Tree_Videos&amp;leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree  [HARD yet EASY]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>https://www.interviewbit.com/problems/path-to-given-node/</t>
+  </si>
+  <si>
+    <t>Path to a given node from root</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/submissions/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1735,6 +1756,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1784,7 +1822,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,6 +1914,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2195,15 +2238,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="104.19921875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="104.296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" customWidth="1"/>
     <col min="4" max="4" width="36.296875" style="17" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="31.3984375" customWidth="1"/>
@@ -2216,7 +2259,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2227,10 +2270,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2244,10 +2287,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2258,10 +2301,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>446</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2272,10 +2315,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2286,10 +2329,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2300,10 +2343,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2325,10 +2368,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2354,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2365,10 +2408,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2379,10 +2422,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2393,10 +2436,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2421,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2443,10 +2486,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2457,10 +2500,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2515,10 +2558,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2570,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2584,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2682,13 +2725,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2765,7 +2808,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2803,10 +2846,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -2817,10 +2860,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2831,10 +2874,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3284,10 +3327,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3309,7 +3352,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3320,10 +3363,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3400,10 +3443,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3513,7 +3556,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3652,10 +3695,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3666,10 +3709,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3680,10 +3723,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3694,10 +3737,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3708,10 +3751,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3722,10 +3765,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3736,10 +3779,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3750,10 +3793,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3764,10 +3807,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3800,7 +3843,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D144" s="18"/>
     </row>
@@ -3824,10 +3867,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -3838,10 +3881,10 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -3852,10 +3895,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -3866,10 +3909,10 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -3880,10 +3923,10 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -3943,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -3951,13 +3994,13 @@
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
@@ -3965,10 +4008,10 @@
         <v>124</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D157" s="33"/>
     </row>
@@ -3980,27 +4023,27 @@
         <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="F159" s="37" t="s">
         <v>495</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C159" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="D159" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4008,13 +4051,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4022,13 +4065,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4058,13 +4101,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4075,10 +4118,10 @@
         <v>151</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4089,10 +4132,10 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4101,16 +4144,16 @@
     </row>
     <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A169" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4129,13 +4172,13 @@
         <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4146,10 +4189,10 @@
         <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4160,10 +4203,10 @@
         <v>156</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4174,10 +4217,10 @@
         <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4188,10 +4231,10 @@
         <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4202,10 +4245,10 @@
         <v>159</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4216,9 +4259,11 @@
         <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D177" s="21"/>
+        <v>442</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3" t="s">
@@ -4228,7 +4273,10 @@
         <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4261,10 +4309,10 @@
         <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4275,10 +4323,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -4292,15 +4340,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="21">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A184" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B184" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>3</v>
+      <c r="B184" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D184" s="40" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4308,7 +4359,7 @@
         <v>153</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>3</v>
@@ -4319,10 +4370,13 @@
         <v>153</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>169</v>
+        <v>518</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4330,7 +4384,7 @@
         <v>153</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>3</v>
@@ -4341,7 +4395,7 @@
         <v>153</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>3</v>
@@ -4352,7 +4406,7 @@
         <v>153</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>3</v>
@@ -4363,7 +4417,7 @@
         <v>153</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>3</v>
@@ -4374,7 +4428,7 @@
         <v>153</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>3</v>
@@ -4385,7 +4439,7 @@
         <v>153</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>3</v>
@@ -4397,7 +4451,7 @@
         <v>153</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>3</v>
@@ -4408,7 +4462,7 @@
         <v>153</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>3</v>
@@ -4419,7 +4473,7 @@
         <v>153</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>3</v>
@@ -4431,21 +4485,24 @@
         <v>153</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="21">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A197" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B197" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>3</v>
+      <c r="B197" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
@@ -4453,7 +4510,7 @@
         <v>153</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>3</v>
@@ -4464,7 +4521,7 @@
         <v>153</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>3</v>
@@ -4474,11 +4531,14 @@
       <c r="A200" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B200" s="14" t="s">
-        <v>183</v>
+      <c r="B200" s="41" t="s">
+        <v>517</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4486,7 +4546,7 @@
         <v>153</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>3</v>
@@ -4497,7 +4557,7 @@
         <v>153</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>3</v>
@@ -4508,7 +4568,7 @@
         <v>153</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
@@ -4526,21 +4586,24 @@
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>3</v>
@@ -4548,10 +4611,10 @@
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>3</v>
@@ -4559,10 +4622,10 @@
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B209" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -4570,10 +4633,10 @@
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -4581,10 +4644,10 @@
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -4592,10 +4655,10 @@
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -4603,10 +4666,10 @@
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -4614,10 +4677,10 @@
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -4625,10 +4688,10 @@
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -4636,10 +4699,10 @@
     </row>
     <row r="216" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A216" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>3</v>
@@ -4648,10 +4711,10 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
@@ -4659,10 +4722,10 @@
     </row>
     <row r="218" spans="1:4" ht="21">
       <c r="A218" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -4670,10 +4733,10 @@
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -4681,10 +4744,10 @@
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -4692,10 +4755,10 @@
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -4703,10 +4766,10 @@
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4714,10 +4777,10 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -4725,10 +4788,10 @@
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -4736,10 +4799,10 @@
     </row>
     <row r="225" spans="1:4" ht="21">
       <c r="A225" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -4747,10 +4810,10 @@
     </row>
     <row r="226" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A226" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>3</v>
@@ -4759,10 +4822,10 @@
     </row>
     <row r="227" spans="1:4" ht="21">
       <c r="A227" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
@@ -4778,10 +4841,10 @@
     </row>
     <row r="230" spans="1:4" ht="21">
       <c r="A230" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>3</v>
@@ -4789,10 +4852,10 @@
     </row>
     <row r="231" spans="1:4" ht="21">
       <c r="A231" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
@@ -4800,10 +4863,10 @@
     </row>
     <row r="232" spans="1:4" ht="21">
       <c r="A232" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -4811,10 +4874,10 @@
     </row>
     <row r="233" spans="1:4" ht="21">
       <c r="A233" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B233" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>213</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -4822,10 +4885,10 @@
     </row>
     <row r="234" spans="1:4" ht="21">
       <c r="A234" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -4833,10 +4896,10 @@
     </row>
     <row r="235" spans="1:4" ht="21">
       <c r="A235" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -4844,10 +4907,10 @@
     </row>
     <row r="236" spans="1:4" ht="21">
       <c r="A236" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -4855,10 +4918,10 @@
     </row>
     <row r="237" spans="1:4" ht="21">
       <c r="A237" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -4866,10 +4929,10 @@
     </row>
     <row r="238" spans="1:4" ht="21">
       <c r="A238" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -4877,10 +4940,10 @@
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -4888,10 +4951,10 @@
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -4899,10 +4962,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -4910,10 +4973,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -4921,10 +4984,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -4932,10 +4995,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -4943,10 +5006,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -4954,10 +5017,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -4965,10 +5028,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -4976,10 +5039,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -4987,10 +5050,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -4998,10 +5061,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5009,10 +5072,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5020,10 +5083,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5031,10 +5094,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5042,10 +5105,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5053,10 +5116,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5064,10 +5127,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5075,10 +5138,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5086,10 +5149,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5097,10 +5160,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5108,10 +5171,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5119,10 +5182,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5130,10 +5193,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5141,7 +5204,7 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>81</v>
@@ -5152,10 +5215,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5171,10 +5234,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -5182,10 +5245,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -5193,10 +5256,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -5204,10 +5267,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B270" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5215,10 +5278,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5226,10 +5289,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5237,10 +5300,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5248,10 +5311,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5259,10 +5322,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5270,10 +5333,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5281,10 +5344,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5292,10 +5355,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5303,10 +5366,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5314,10 +5377,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5325,10 +5388,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5336,10 +5399,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5347,10 +5410,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5358,10 +5421,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5369,10 +5432,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5388,10 +5451,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -5399,10 +5462,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -5410,10 +5473,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -5421,10 +5484,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5432,10 +5495,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5443,10 +5506,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5454,10 +5517,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5465,10 +5528,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5476,10 +5539,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5487,10 +5550,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5498,10 +5561,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5509,10 +5572,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5520,10 +5583,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5531,10 +5594,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5542,10 +5605,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5553,10 +5616,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5564,10 +5627,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5575,10 +5638,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5586,10 +5649,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5597,10 +5660,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5608,10 +5671,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5619,10 +5682,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5630,10 +5693,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5641,10 +5704,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5652,10 +5715,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5663,10 +5726,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5674,10 +5737,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5685,10 +5748,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5696,10 +5759,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5707,10 +5770,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5718,10 +5781,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5729,10 +5792,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5740,10 +5803,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5751,10 +5814,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5762,10 +5825,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5773,10 +5836,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5784,10 +5847,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5795,10 +5858,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -5814,10 +5877,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -5825,10 +5888,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -5836,10 +5899,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -5847,10 +5910,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B331" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5858,10 +5921,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5869,10 +5932,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5880,10 +5943,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5891,10 +5954,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -5902,10 +5965,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -5913,10 +5976,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -5924,10 +5987,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -5935,10 +5998,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -5946,10 +6009,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -5957,10 +6020,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -5968,10 +6031,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -5979,10 +6042,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -5990,10 +6053,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -6001,10 +6064,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -6020,10 +6083,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -6031,10 +6094,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -6042,10 +6105,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -6053,10 +6116,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6064,10 +6127,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6075,10 +6138,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6086,10 +6149,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6097,10 +6160,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6108,10 +6171,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6119,10 +6182,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6130,10 +6193,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6141,10 +6204,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6152,10 +6215,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6163,10 +6226,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6174,10 +6237,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6185,10 +6248,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6196,10 +6259,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6207,10 +6270,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6218,10 +6281,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6229,10 +6292,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6240,10 +6303,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6251,10 +6314,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6262,10 +6325,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6273,10 +6336,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6284,10 +6347,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6295,10 +6358,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6306,10 +6369,10 @@
     </row>
     <row r="374" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A374" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>3</v>
@@ -6318,10 +6381,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -6329,10 +6392,10 @@
     </row>
     <row r="376" spans="1:4" ht="21">
       <c r="A376" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -6340,10 +6403,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -6351,10 +6414,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6362,10 +6425,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6373,10 +6436,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6384,10 +6447,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6395,10 +6458,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6406,10 +6469,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6417,10 +6480,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6428,10 +6491,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6439,10 +6502,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6450,10 +6513,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6461,10 +6524,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6472,10 +6535,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6483,10 +6546,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6494,10 +6557,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6513,10 +6576,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>3</v>
@@ -6524,10 +6587,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>3</v>
@@ -6535,10 +6598,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6546,7 +6609,7 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>83</v>
@@ -6557,10 +6620,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B398" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>370</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6568,10 +6631,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6587,21 +6650,21 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C402" s="36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>3</v>
@@ -6609,10 +6672,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>3</v>
@@ -6620,10 +6683,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B405" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6631,10 +6694,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6642,21 +6705,21 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>3</v>
@@ -6664,10 +6727,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>3</v>
@@ -6675,10 +6738,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6686,10 +6749,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6697,10 +6760,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6708,10 +6771,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6719,10 +6782,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -6730,10 +6793,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -6741,10 +6804,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -6752,10 +6815,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -6763,10 +6826,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -6774,10 +6837,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -6785,10 +6848,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -6796,10 +6859,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -6807,10 +6870,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -6818,10 +6881,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -6829,10 +6892,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -6840,10 +6903,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -6851,10 +6914,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -6862,10 +6925,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -6873,10 +6936,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -6884,10 +6947,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -6895,10 +6958,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -6906,10 +6969,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -6917,10 +6980,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -6928,10 +6991,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -6939,10 +7002,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -6950,10 +7013,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -6961,10 +7024,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>3</v>
@@ -6972,10 +7035,10 @@
     </row>
     <row r="437" spans="1:4" ht="21">
       <c r="A437" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>3</v>
@@ -6983,10 +7046,10 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>3</v>
@@ -6994,10 +7057,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7005,10 +7068,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7016,10 +7079,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7027,10 +7090,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7038,10 +7101,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7049,10 +7112,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7060,10 +7123,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7071,10 +7134,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -7082,10 +7145,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -7093,10 +7156,10 @@
     </row>
     <row r="448" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A448" s="25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B448" s="26" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C448" s="25" t="s">
         <v>3</v>
@@ -7105,10 +7168,10 @@
     </row>
     <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A449" s="25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B449" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C449" s="25" t="s">
         <v>3</v>
@@ -7117,10 +7180,10 @@
     </row>
     <row r="450" spans="1:4" ht="21">
       <c r="A450" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B450" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>3</v>
@@ -7128,10 +7191,10 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>3</v>
@@ -7139,10 +7202,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -7150,10 +7213,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7161,22 +7224,22 @@
     </row>
     <row r="454" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A454" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D454" s="24"/>
     </row>
     <row r="455" spans="1:4" ht="21">
       <c r="A455" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>3</v>
@@ -7184,10 +7247,10 @@
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B456" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>3</v>
@@ -7195,10 +7258,10 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>3</v>
@@ -7206,10 +7269,10 @@
     </row>
     <row r="458" spans="1:4" ht="21">
       <c r="A458" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>3</v>
@@ -7217,10 +7280,10 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>3</v>
@@ -7228,10 +7291,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7239,10 +7302,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7259,10 +7322,10 @@
     </row>
     <row r="464" spans="1:4" ht="21">
       <c r="A464" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B464" s="14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>3</v>
@@ -7270,10 +7333,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>3</v>
@@ -7281,10 +7344,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7292,10 +7355,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B467" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7303,10 +7366,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7314,21 +7377,21 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>3</v>
@@ -7336,10 +7399,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>3</v>
@@ -7347,10 +7410,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7358,13 +7421,13 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B473" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7534,9 +7597,9 @@
     <hyperlink ref="B181" r:id="rId163"/>
     <hyperlink ref="B182" r:id="rId164"/>
     <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B184" r:id="rId166" display="Boundary traversal of a Binary tree"/>
     <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B186" r:id="rId168" display="Convert Binary tree into Doubly Linked List"/>
     <hyperlink ref="B187" r:id="rId169"/>
     <hyperlink ref="B188" r:id="rId170"/>
     <hyperlink ref="B189" r:id="rId171" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
@@ -7550,317 +7613,324 @@
     <hyperlink ref="B197" r:id="rId179"/>
     <hyperlink ref="B198" r:id="rId180"/>
     <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185"/>
-    <hyperlink ref="B206" r:id="rId186"/>
-    <hyperlink ref="B207" r:id="rId187"/>
-    <hyperlink ref="B208" r:id="rId188"/>
-    <hyperlink ref="B209" r:id="rId189"/>
-    <hyperlink ref="B210" r:id="rId190"/>
-    <hyperlink ref="B211" r:id="rId191"/>
-    <hyperlink ref="B212" r:id="rId192"/>
-    <hyperlink ref="B213" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B230" r:id="rId208"/>
-    <hyperlink ref="B231" r:id="rId209"/>
-    <hyperlink ref="B232" r:id="rId210"/>
-    <hyperlink ref="B233" r:id="rId211"/>
-    <hyperlink ref="B234" r:id="rId212"/>
-    <hyperlink ref="B235" r:id="rId213"/>
-    <hyperlink ref="B236" r:id="rId214"/>
-    <hyperlink ref="B237" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235"/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B267" r:id="rId243"/>
-    <hyperlink ref="B268" r:id="rId244"/>
-    <hyperlink ref="B269" r:id="rId245"/>
-    <hyperlink ref="B270" r:id="rId246"/>
-    <hyperlink ref="B271" r:id="rId247"/>
-    <hyperlink ref="B272" r:id="rId248"/>
-    <hyperlink ref="B273" r:id="rId249"/>
-    <hyperlink ref="B274" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B288" r:id="rId262"/>
-    <hyperlink ref="B289" r:id="rId263"/>
-    <hyperlink ref="B290" r:id="rId264"/>
-    <hyperlink ref="B291" r:id="rId265"/>
-    <hyperlink ref="B292" r:id="rId266"/>
-    <hyperlink ref="B293" r:id="rId267"/>
-    <hyperlink ref="B294" r:id="rId268"/>
-    <hyperlink ref="B295" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280"/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B328" r:id="rId300"/>
-    <hyperlink ref="B329" r:id="rId301"/>
-    <hyperlink ref="B330" r:id="rId302"/>
-    <hyperlink ref="B331" r:id="rId303"/>
-    <hyperlink ref="B332" r:id="rId304"/>
-    <hyperlink ref="B333" r:id="rId305"/>
-    <hyperlink ref="B334" r:id="rId306"/>
-    <hyperlink ref="B335" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B349" r:id="rId318"/>
-    <hyperlink ref="B350" r:id="rId319"/>
-    <hyperlink ref="B351" r:id="rId320"/>
-    <hyperlink ref="B352" r:id="rId321"/>
-    <hyperlink ref="B353" r:id="rId322"/>
-    <hyperlink ref="B354" r:id="rId323"/>
-    <hyperlink ref="B355" r:id="rId324"/>
-    <hyperlink ref="B356" r:id="rId325"/>
-    <hyperlink ref="B357" r:id="rId326"/>
-    <hyperlink ref="B358" r:id="rId327"/>
-    <hyperlink ref="B359" r:id="rId328"/>
-    <hyperlink ref="B360" r:id="rId329"/>
-    <hyperlink ref="B361" r:id="rId330"/>
-    <hyperlink ref="B362" r:id="rId331"/>
-    <hyperlink ref="B363" r:id="rId332"/>
-    <hyperlink ref="B364" r:id="rId333"/>
-    <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
-    <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348"/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B388" r:id="rId356"/>
-    <hyperlink ref="B387" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B394" r:id="rId361"/>
-    <hyperlink ref="B395" r:id="rId362"/>
-    <hyperlink ref="B396" r:id="rId363"/>
-    <hyperlink ref="B397" r:id="rId364"/>
-    <hyperlink ref="B398" r:id="rId365"/>
-    <hyperlink ref="B399" r:id="rId366"/>
-    <hyperlink ref="B402" r:id="rId367"/>
-    <hyperlink ref="B403" r:id="rId368"/>
-    <hyperlink ref="B404" r:id="rId369"/>
-    <hyperlink ref="B405" r:id="rId370"/>
-    <hyperlink ref="B406" r:id="rId371"/>
-    <hyperlink ref="B407" r:id="rId372"/>
-    <hyperlink ref="B408" r:id="rId373"/>
-    <hyperlink ref="B409" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B443" r:id="rId407"/>
-    <hyperlink ref="B442" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B450" r:id="rId415"/>
-    <hyperlink ref="B451" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B461" r:id="rId420"/>
-    <hyperlink ref="B460" r:id="rId421"/>
-    <hyperlink ref="B459" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B457" r:id="rId424"/>
-    <hyperlink ref="B456" r:id="rId425"/>
-    <hyperlink ref="B455" r:id="rId426"/>
-    <hyperlink ref="B464" r:id="rId427"/>
-    <hyperlink ref="B465" r:id="rId428"/>
-    <hyperlink ref="B466" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B468" r:id="rId431"/>
-    <hyperlink ref="B469" r:id="rId432"/>
-    <hyperlink ref="B470" r:id="rId433"/>
-    <hyperlink ref="B473" r:id="rId434"/>
-    <hyperlink ref="B471" r:id="rId435"/>
-    <hyperlink ref="B472" r:id="rId436" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B348" r:id="rId437"/>
-    <hyperlink ref="B2" r:id="rId438"/>
-    <hyperlink ref="D17" r:id="rId439"/>
-    <hyperlink ref="D6" r:id="rId440"/>
-    <hyperlink ref="D8" r:id="rId441"/>
-    <hyperlink ref="D12" r:id="rId442"/>
-    <hyperlink ref="D7" r:id="rId443"/>
-    <hyperlink ref="D9" r:id="rId444"/>
-    <hyperlink ref="D16" r:id="rId445"/>
-    <hyperlink ref="D15" r:id="rId446"/>
-    <hyperlink ref="D21" r:id="rId447"/>
-    <hyperlink ref="D55" r:id="rId448"/>
-    <hyperlink ref="D14" r:id="rId449"/>
-    <hyperlink ref="D32" r:id="rId450"/>
-    <hyperlink ref="D27" r:id="rId451"/>
-    <hyperlink ref="D22" r:id="rId452"/>
-    <hyperlink ref="D19" r:id="rId453"/>
-    <hyperlink ref="D43" r:id="rId454"/>
-    <hyperlink ref="D56" r:id="rId455"/>
-    <hyperlink ref="D57" r:id="rId456"/>
-    <hyperlink ref="D102" r:id="rId457"/>
-    <hyperlink ref="D99" r:id="rId458"/>
-    <hyperlink ref="D109" r:id="rId459"/>
-    <hyperlink ref="D156" r:id="rId460"/>
-    <hyperlink ref="D150" r:id="rId461"/>
-    <hyperlink ref="D133" r:id="rId462"/>
-    <hyperlink ref="D134" r:id="rId463"/>
-    <hyperlink ref="D135" r:id="rId464"/>
-    <hyperlink ref="D138" r:id="rId465"/>
-    <hyperlink ref="D139" r:id="rId466"/>
-    <hyperlink ref="D141" r:id="rId467"/>
-    <hyperlink ref="D146" r:id="rId468"/>
-    <hyperlink ref="D149" r:id="rId469"/>
-    <hyperlink ref="D147" r:id="rId470"/>
-    <hyperlink ref="D148" r:id="rId471"/>
-    <hyperlink ref="D164" r:id="rId472"/>
-    <hyperlink ref="D165" r:id="rId473"/>
-    <hyperlink ref="D140" r:id="rId474"/>
-    <hyperlink ref="D166" r:id="rId475"/>
-    <hyperlink ref="D158" r:id="rId476"/>
-    <hyperlink ref="B160" r:id="rId477" display="Merge K sorted Linked list"/>
-    <hyperlink ref="D161" r:id="rId478"/>
-    <hyperlink ref="D160" r:id="rId479"/>
-    <hyperlink ref="D159" r:id="rId480"/>
-    <hyperlink ref="D155" r:id="rId481"/>
-    <hyperlink ref="D174" r:id="rId482"/>
-    <hyperlink ref="D176" r:id="rId483"/>
-    <hyperlink ref="D175" r:id="rId484"/>
-    <hyperlink ref="D169" r:id="rId485"/>
-    <hyperlink ref="D171" r:id="rId486"/>
-    <hyperlink ref="D182" r:id="rId487"/>
-    <hyperlink ref="D173" r:id="rId488"/>
-    <hyperlink ref="D172" r:id="rId489"/>
-    <hyperlink ref="D181" r:id="rId490"/>
+    <hyperlink ref="B201" r:id="rId182"/>
+    <hyperlink ref="B202" r:id="rId183"/>
+    <hyperlink ref="B203" r:id="rId184"/>
+    <hyperlink ref="B206" r:id="rId185"/>
+    <hyperlink ref="B207" r:id="rId186"/>
+    <hyperlink ref="B208" r:id="rId187"/>
+    <hyperlink ref="B209" r:id="rId188"/>
+    <hyperlink ref="B210" r:id="rId189"/>
+    <hyperlink ref="B211" r:id="rId190"/>
+    <hyperlink ref="B212" r:id="rId191"/>
+    <hyperlink ref="B213" r:id="rId192"/>
+    <hyperlink ref="B214" r:id="rId193"/>
+    <hyperlink ref="B215" r:id="rId194"/>
+    <hyperlink ref="B216" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B217" r:id="rId196"/>
+    <hyperlink ref="B218" r:id="rId197"/>
+    <hyperlink ref="B219" r:id="rId198"/>
+    <hyperlink ref="B220" r:id="rId199"/>
+    <hyperlink ref="B221" r:id="rId200"/>
+    <hyperlink ref="B222" r:id="rId201"/>
+    <hyperlink ref="B223" r:id="rId202"/>
+    <hyperlink ref="B224" r:id="rId203"/>
+    <hyperlink ref="B225" r:id="rId204"/>
+    <hyperlink ref="B226" r:id="rId205"/>
+    <hyperlink ref="B227" r:id="rId206"/>
+    <hyperlink ref="B230" r:id="rId207"/>
+    <hyperlink ref="B231" r:id="rId208"/>
+    <hyperlink ref="B232" r:id="rId209"/>
+    <hyperlink ref="B233" r:id="rId210"/>
+    <hyperlink ref="B234" r:id="rId211"/>
+    <hyperlink ref="B235" r:id="rId212"/>
+    <hyperlink ref="B236" r:id="rId213"/>
+    <hyperlink ref="B237" r:id="rId214"/>
+    <hyperlink ref="B238" r:id="rId215"/>
+    <hyperlink ref="B239" r:id="rId216"/>
+    <hyperlink ref="B240" r:id="rId217"/>
+    <hyperlink ref="B241" r:id="rId218"/>
+    <hyperlink ref="B242" r:id="rId219"/>
+    <hyperlink ref="B243" r:id="rId220"/>
+    <hyperlink ref="B244" r:id="rId221"/>
+    <hyperlink ref="B245" r:id="rId222"/>
+    <hyperlink ref="B246" r:id="rId223"/>
+    <hyperlink ref="B247" r:id="rId224"/>
+    <hyperlink ref="B248" r:id="rId225"/>
+    <hyperlink ref="B249" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B250" r:id="rId227"/>
+    <hyperlink ref="B251" r:id="rId228"/>
+    <hyperlink ref="B252" r:id="rId229"/>
+    <hyperlink ref="B253" r:id="rId230"/>
+    <hyperlink ref="B254" r:id="rId231"/>
+    <hyperlink ref="B255" r:id="rId232"/>
+    <hyperlink ref="B256" r:id="rId233"/>
+    <hyperlink ref="B257" r:id="rId234"/>
+    <hyperlink ref="B258" r:id="rId235"/>
+    <hyperlink ref="B259" r:id="rId236"/>
+    <hyperlink ref="B260" r:id="rId237"/>
+    <hyperlink ref="B261" r:id="rId238"/>
+    <hyperlink ref="B262" r:id="rId239"/>
+    <hyperlink ref="B263" r:id="rId240"/>
+    <hyperlink ref="B264" r:id="rId241"/>
+    <hyperlink ref="B267" r:id="rId242"/>
+    <hyperlink ref="B268" r:id="rId243"/>
+    <hyperlink ref="B269" r:id="rId244"/>
+    <hyperlink ref="B270" r:id="rId245"/>
+    <hyperlink ref="B271" r:id="rId246"/>
+    <hyperlink ref="B272" r:id="rId247"/>
+    <hyperlink ref="B273" r:id="rId248"/>
+    <hyperlink ref="B274" r:id="rId249"/>
+    <hyperlink ref="B275" r:id="rId250"/>
+    <hyperlink ref="B276" r:id="rId251"/>
+    <hyperlink ref="B277" r:id="rId252"/>
+    <hyperlink ref="B278" r:id="rId253"/>
+    <hyperlink ref="B279" r:id="rId254"/>
+    <hyperlink ref="B280" r:id="rId255"/>
+    <hyperlink ref="B281" r:id="rId256"/>
+    <hyperlink ref="B282" r:id="rId257"/>
+    <hyperlink ref="B283" r:id="rId258"/>
+    <hyperlink ref="B284" r:id="rId259"/>
+    <hyperlink ref="B285" r:id="rId260"/>
+    <hyperlink ref="B288" r:id="rId261"/>
+    <hyperlink ref="B289" r:id="rId262"/>
+    <hyperlink ref="B290" r:id="rId263"/>
+    <hyperlink ref="B291" r:id="rId264"/>
+    <hyperlink ref="B292" r:id="rId265"/>
+    <hyperlink ref="B293" r:id="rId266"/>
+    <hyperlink ref="B294" r:id="rId267"/>
+    <hyperlink ref="B295" r:id="rId268"/>
+    <hyperlink ref="B296" r:id="rId269"/>
+    <hyperlink ref="B297" r:id="rId270"/>
+    <hyperlink ref="B298" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B299" r:id="rId272"/>
+    <hyperlink ref="B300" r:id="rId273"/>
+    <hyperlink ref="B301" r:id="rId274"/>
+    <hyperlink ref="B302" r:id="rId275"/>
+    <hyperlink ref="B303" r:id="rId276"/>
+    <hyperlink ref="B304" r:id="rId277"/>
+    <hyperlink ref="B305" r:id="rId278"/>
+    <hyperlink ref="B306" r:id="rId279"/>
+    <hyperlink ref="B307" r:id="rId280"/>
+    <hyperlink ref="B308" r:id="rId281"/>
+    <hyperlink ref="B309" r:id="rId282"/>
+    <hyperlink ref="B310" r:id="rId283"/>
+    <hyperlink ref="B311" r:id="rId284"/>
+    <hyperlink ref="B312" r:id="rId285"/>
+    <hyperlink ref="B313" r:id="rId286"/>
+    <hyperlink ref="B314" r:id="rId287"/>
+    <hyperlink ref="B315" r:id="rId288"/>
+    <hyperlink ref="B316" r:id="rId289"/>
+    <hyperlink ref="B317" r:id="rId290"/>
+    <hyperlink ref="B318" r:id="rId291"/>
+    <hyperlink ref="B319" r:id="rId292"/>
+    <hyperlink ref="B320" r:id="rId293"/>
+    <hyperlink ref="B321" r:id="rId294"/>
+    <hyperlink ref="B322" r:id="rId295"/>
+    <hyperlink ref="B323" r:id="rId296"/>
+    <hyperlink ref="B324" r:id="rId297"/>
+    <hyperlink ref="B325" r:id="rId298"/>
+    <hyperlink ref="B328" r:id="rId299"/>
+    <hyperlink ref="B329" r:id="rId300"/>
+    <hyperlink ref="B330" r:id="rId301"/>
+    <hyperlink ref="B331" r:id="rId302"/>
+    <hyperlink ref="B332" r:id="rId303"/>
+    <hyperlink ref="B333" r:id="rId304"/>
+    <hyperlink ref="B334" r:id="rId305"/>
+    <hyperlink ref="B335" r:id="rId306"/>
+    <hyperlink ref="B336" r:id="rId307"/>
+    <hyperlink ref="B337" r:id="rId308"/>
+    <hyperlink ref="B338" r:id="rId309"/>
+    <hyperlink ref="B339" r:id="rId310"/>
+    <hyperlink ref="B340" r:id="rId311"/>
+    <hyperlink ref="B341" r:id="rId312"/>
+    <hyperlink ref="B342" r:id="rId313"/>
+    <hyperlink ref="B343" r:id="rId314"/>
+    <hyperlink ref="B344" r:id="rId315"/>
+    <hyperlink ref="B345" r:id="rId316"/>
+    <hyperlink ref="B349" r:id="rId317"/>
+    <hyperlink ref="B350" r:id="rId318"/>
+    <hyperlink ref="B351" r:id="rId319"/>
+    <hyperlink ref="B352" r:id="rId320"/>
+    <hyperlink ref="B353" r:id="rId321"/>
+    <hyperlink ref="B354" r:id="rId322"/>
+    <hyperlink ref="B355" r:id="rId323"/>
+    <hyperlink ref="B356" r:id="rId324"/>
+    <hyperlink ref="B357" r:id="rId325"/>
+    <hyperlink ref="B358" r:id="rId326"/>
+    <hyperlink ref="B359" r:id="rId327"/>
+    <hyperlink ref="B360" r:id="rId328"/>
+    <hyperlink ref="B361" r:id="rId329"/>
+    <hyperlink ref="B362" r:id="rId330"/>
+    <hyperlink ref="B363" r:id="rId331"/>
+    <hyperlink ref="B364" r:id="rId332"/>
+    <hyperlink ref="B365" r:id="rId333"/>
+    <hyperlink ref="B366" r:id="rId334"/>
+    <hyperlink ref="B367" r:id="rId335"/>
+    <hyperlink ref="B368" r:id="rId336"/>
+    <hyperlink ref="B369" r:id="rId337"/>
+    <hyperlink ref="B370" r:id="rId338"/>
+    <hyperlink ref="B371" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B372" r:id="rId340"/>
+    <hyperlink ref="B373" r:id="rId341"/>
+    <hyperlink ref="B374" r:id="rId342"/>
+    <hyperlink ref="B375" r:id="rId343"/>
+    <hyperlink ref="B376" r:id="rId344"/>
+    <hyperlink ref="B377" r:id="rId345"/>
+    <hyperlink ref="B378" r:id="rId346"/>
+    <hyperlink ref="B379" r:id="rId347"/>
+    <hyperlink ref="B380" r:id="rId348"/>
+    <hyperlink ref="B381" r:id="rId349"/>
+    <hyperlink ref="B382" r:id="rId350"/>
+    <hyperlink ref="B383" r:id="rId351"/>
+    <hyperlink ref="B384" r:id="rId352"/>
+    <hyperlink ref="B385" r:id="rId353"/>
+    <hyperlink ref="B386" r:id="rId354"/>
+    <hyperlink ref="B388" r:id="rId355"/>
+    <hyperlink ref="B387" r:id="rId356"/>
+    <hyperlink ref="B389" r:id="rId357"/>
+    <hyperlink ref="B390" r:id="rId358"/>
+    <hyperlink ref="B391" r:id="rId359"/>
+    <hyperlink ref="B394" r:id="rId360"/>
+    <hyperlink ref="B395" r:id="rId361"/>
+    <hyperlink ref="B396" r:id="rId362"/>
+    <hyperlink ref="B397" r:id="rId363"/>
+    <hyperlink ref="B398" r:id="rId364"/>
+    <hyperlink ref="B399" r:id="rId365"/>
+    <hyperlink ref="B402" r:id="rId366"/>
+    <hyperlink ref="B403" r:id="rId367"/>
+    <hyperlink ref="B404" r:id="rId368"/>
+    <hyperlink ref="B405" r:id="rId369"/>
+    <hyperlink ref="B406" r:id="rId370"/>
+    <hyperlink ref="B407" r:id="rId371"/>
+    <hyperlink ref="B408" r:id="rId372"/>
+    <hyperlink ref="B409" r:id="rId373"/>
+    <hyperlink ref="B410" r:id="rId374"/>
+    <hyperlink ref="B411" r:id="rId375"/>
+    <hyperlink ref="B412" r:id="rId376"/>
+    <hyperlink ref="B413" r:id="rId377"/>
+    <hyperlink ref="B414" r:id="rId378"/>
+    <hyperlink ref="B415" r:id="rId379"/>
+    <hyperlink ref="B416" r:id="rId380"/>
+    <hyperlink ref="B417" r:id="rId381"/>
+    <hyperlink ref="B418" r:id="rId382"/>
+    <hyperlink ref="B419" r:id="rId383"/>
+    <hyperlink ref="B420" r:id="rId384"/>
+    <hyperlink ref="B421" r:id="rId385"/>
+    <hyperlink ref="B422" r:id="rId386"/>
+    <hyperlink ref="B423" r:id="rId387"/>
+    <hyperlink ref="B424" r:id="rId388"/>
+    <hyperlink ref="B425" r:id="rId389"/>
+    <hyperlink ref="B426" r:id="rId390"/>
+    <hyperlink ref="B427" r:id="rId391"/>
+    <hyperlink ref="B428" r:id="rId392"/>
+    <hyperlink ref="B429" r:id="rId393"/>
+    <hyperlink ref="B430" r:id="rId394"/>
+    <hyperlink ref="B431" r:id="rId395"/>
+    <hyperlink ref="B432" r:id="rId396"/>
+    <hyperlink ref="B433" r:id="rId397"/>
+    <hyperlink ref="B434" r:id="rId398"/>
+    <hyperlink ref="B435" r:id="rId399"/>
+    <hyperlink ref="B436" r:id="rId400"/>
+    <hyperlink ref="B437" r:id="rId401"/>
+    <hyperlink ref="B438" r:id="rId402"/>
+    <hyperlink ref="B439" r:id="rId403"/>
+    <hyperlink ref="B440" r:id="rId404"/>
+    <hyperlink ref="B441" r:id="rId405"/>
+    <hyperlink ref="B443" r:id="rId406"/>
+    <hyperlink ref="B442" r:id="rId407"/>
+    <hyperlink ref="B444" r:id="rId408"/>
+    <hyperlink ref="B445" r:id="rId409"/>
+    <hyperlink ref="B446" r:id="rId410"/>
+    <hyperlink ref="B447" r:id="rId411"/>
+    <hyperlink ref="B448" r:id="rId412"/>
+    <hyperlink ref="B449" r:id="rId413"/>
+    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B451" r:id="rId415"/>
+    <hyperlink ref="B452" r:id="rId416"/>
+    <hyperlink ref="B453" r:id="rId417"/>
+    <hyperlink ref="B454" r:id="rId418"/>
+    <hyperlink ref="B461" r:id="rId419"/>
+    <hyperlink ref="B460" r:id="rId420"/>
+    <hyperlink ref="B459" r:id="rId421"/>
+    <hyperlink ref="B458" r:id="rId422"/>
+    <hyperlink ref="B457" r:id="rId423"/>
+    <hyperlink ref="B456" r:id="rId424"/>
+    <hyperlink ref="B455" r:id="rId425"/>
+    <hyperlink ref="B464" r:id="rId426"/>
+    <hyperlink ref="B465" r:id="rId427"/>
+    <hyperlink ref="B466" r:id="rId428"/>
+    <hyperlink ref="B467" r:id="rId429"/>
+    <hyperlink ref="B468" r:id="rId430"/>
+    <hyperlink ref="B469" r:id="rId431"/>
+    <hyperlink ref="B470" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433"/>
+    <hyperlink ref="B471" r:id="rId434"/>
+    <hyperlink ref="B472" r:id="rId435" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B348" r:id="rId436"/>
+    <hyperlink ref="B2" r:id="rId437"/>
+    <hyperlink ref="D17" r:id="rId438"/>
+    <hyperlink ref="D6" r:id="rId439"/>
+    <hyperlink ref="D8" r:id="rId440"/>
+    <hyperlink ref="D12" r:id="rId441"/>
+    <hyperlink ref="D7" r:id="rId442"/>
+    <hyperlink ref="D9" r:id="rId443"/>
+    <hyperlink ref="D16" r:id="rId444"/>
+    <hyperlink ref="D15" r:id="rId445"/>
+    <hyperlink ref="D21" r:id="rId446"/>
+    <hyperlink ref="D55" r:id="rId447"/>
+    <hyperlink ref="D14" r:id="rId448"/>
+    <hyperlink ref="D32" r:id="rId449"/>
+    <hyperlink ref="D27" r:id="rId450"/>
+    <hyperlink ref="D22" r:id="rId451"/>
+    <hyperlink ref="D19" r:id="rId452"/>
+    <hyperlink ref="D43" r:id="rId453"/>
+    <hyperlink ref="D56" r:id="rId454"/>
+    <hyperlink ref="D57" r:id="rId455"/>
+    <hyperlink ref="D102" r:id="rId456"/>
+    <hyperlink ref="D99" r:id="rId457"/>
+    <hyperlink ref="D109" r:id="rId458"/>
+    <hyperlink ref="D156" r:id="rId459"/>
+    <hyperlink ref="D150" r:id="rId460"/>
+    <hyperlink ref="D133" r:id="rId461"/>
+    <hyperlink ref="D134" r:id="rId462"/>
+    <hyperlink ref="D135" r:id="rId463"/>
+    <hyperlink ref="D138" r:id="rId464"/>
+    <hyperlink ref="D139" r:id="rId465"/>
+    <hyperlink ref="D141" r:id="rId466"/>
+    <hyperlink ref="D146" r:id="rId467"/>
+    <hyperlink ref="D149" r:id="rId468"/>
+    <hyperlink ref="D147" r:id="rId469"/>
+    <hyperlink ref="D148" r:id="rId470"/>
+    <hyperlink ref="D164" r:id="rId471"/>
+    <hyperlink ref="D165" r:id="rId472"/>
+    <hyperlink ref="D140" r:id="rId473"/>
+    <hyperlink ref="D166" r:id="rId474"/>
+    <hyperlink ref="D158" r:id="rId475"/>
+    <hyperlink ref="B160" r:id="rId476" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D161" r:id="rId477"/>
+    <hyperlink ref="D160" r:id="rId478"/>
+    <hyperlink ref="D159" r:id="rId479"/>
+    <hyperlink ref="D155" r:id="rId480"/>
+    <hyperlink ref="D174" r:id="rId481"/>
+    <hyperlink ref="D176" r:id="rId482"/>
+    <hyperlink ref="D175" r:id="rId483"/>
+    <hyperlink ref="D169" r:id="rId484"/>
+    <hyperlink ref="D171" r:id="rId485"/>
+    <hyperlink ref="D182" r:id="rId486"/>
+    <hyperlink ref="D173" r:id="rId487"/>
+    <hyperlink ref="D172" r:id="rId488"/>
+    <hyperlink ref="D181" r:id="rId489"/>
+    <hyperlink ref="D197" r:id="rId490"/>
+    <hyperlink ref="D184" r:id="rId491"/>
+    <hyperlink ref="D177" r:id="rId492"/>
+    <hyperlink ref="D178" r:id="rId493"/>
+    <hyperlink ref="D200" r:id="rId494"/>
+    <hyperlink ref="B200" r:id="rId495"/>
+    <hyperlink ref="D186" r:id="rId496"/>
+    <hyperlink ref="D206" r:id="rId497"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId491"/>
+  <pageSetup orientation="portrait" r:id="rId498"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="522">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -563,9 +563,6 @@
     <t>Print all "K" Sum paths in a Binary tree</t>
   </si>
   <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
     <t>Kth Ancestor of node in a Binary tree</t>
   </si>
   <si>
@@ -1587,6 +1584,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/search-in-a-binary-search-tree/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/submissions/</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree [V.IMP]</t>
   </si>
 </sst>
 </file>
@@ -2236,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F473"/>
+  <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2270,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2287,10 +2290,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2301,10 +2304,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2315,10 +2318,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2329,10 +2332,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2343,10 +2346,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2368,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>442</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2397,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2408,10 +2411,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2422,10 +2425,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2436,10 +2439,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2464,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2486,10 +2489,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2500,10 +2503,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2558,10 +2561,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2613,13 +2616,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2627,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2725,13 +2728,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2808,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2846,10 +2849,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -2860,10 +2863,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2874,10 +2877,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3327,10 +3330,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3352,7 +3355,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3363,10 +3366,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3443,10 +3446,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3556,7 +3559,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3695,10 +3698,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3709,10 +3712,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3723,10 +3726,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3737,10 +3740,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3751,10 +3754,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3765,10 +3768,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3779,10 +3782,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3793,10 +3796,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3807,10 +3810,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3843,7 +3846,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D144" s="18"/>
     </row>
@@ -3867,10 +3870,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -3881,10 +3884,10 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -3895,10 +3898,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -3909,10 +3912,10 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -3923,10 +3926,10 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -3986,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -3994,13 +3997,13 @@
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4008,10 +4011,10 @@
         <v>124</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D157" s="33"/>
     </row>
@@ -4023,27 +4026,27 @@
         <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B159" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="C159" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="D159" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="F159" s="37" t="s">
         <v>494</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4051,13 +4054,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4065,13 +4068,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>487</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4101,13 +4104,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4118,10 +4121,10 @@
         <v>151</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4132,10 +4135,10 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4144,16 +4147,16 @@
     </row>
     <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A169" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="C169" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4172,13 +4175,13 @@
         <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4189,10 +4192,10 @@
         <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4203,10 +4206,10 @@
         <v>156</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4217,10 +4220,10 @@
         <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4231,10 +4234,10 @@
         <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4245,10 +4248,10 @@
         <v>159</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4259,10 +4262,10 @@
         <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4273,10 +4276,10 @@
         <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4309,10 +4312,10 @@
         <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4323,10 +4326,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -4345,13 +4348,13 @@
         <v>153</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4370,13 +4373,13 @@
         <v>153</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D186" s="21" t="s">
         <v>518</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4496,13 +4499,13 @@
         <v>153</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
@@ -4516,15 +4519,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="21">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A199" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B199" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>3</v>
+      <c r="B199" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
@@ -4532,13 +4538,13 @@
         <v>153</v>
       </c>
       <c r="B200" s="41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4546,29 +4552,30 @@
         <v>153</v>
       </c>
       <c r="B201" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A202" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
-      <c r="A202" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C202" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="24"/>
     </row>
     <row r="203" spans="1:4" ht="21">
       <c r="A203" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>3</v>
@@ -4586,24 +4593,24 @@
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B206" s="14" t="s">
-        <v>184</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>3</v>
@@ -4611,10 +4618,10 @@
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>3</v>
@@ -4622,10 +4629,10 @@
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -4633,10 +4640,10 @@
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -4644,10 +4651,10 @@
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -4655,10 +4662,10 @@
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -4666,10 +4673,10 @@
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -4677,10 +4684,10 @@
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -4688,10 +4695,10 @@
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -4699,10 +4706,10 @@
     </row>
     <row r="216" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A216" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>3</v>
@@ -4711,10 +4718,10 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
@@ -4722,10 +4729,10 @@
     </row>
     <row r="218" spans="1:4" ht="21">
       <c r="A218" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -4733,10 +4740,10 @@
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -4744,10 +4751,10 @@
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -4755,10 +4762,10 @@
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -4766,10 +4773,10 @@
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4777,10 +4784,10 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -4788,10 +4795,10 @@
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -4799,10 +4806,10 @@
     </row>
     <row r="225" spans="1:4" ht="21">
       <c r="A225" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -4810,10 +4817,10 @@
     </row>
     <row r="226" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A226" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>3</v>
@@ -4822,10 +4829,10 @@
     </row>
     <row r="227" spans="1:4" ht="21">
       <c r="A227" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>3</v>
@@ -4841,10 +4848,10 @@
     </row>
     <row r="230" spans="1:4" ht="21">
       <c r="A230" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>206</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>3</v>
@@ -4852,10 +4859,10 @@
     </row>
     <row r="231" spans="1:4" ht="21">
       <c r="A231" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>3</v>
@@ -4863,10 +4870,10 @@
     </row>
     <row r="232" spans="1:4" ht="21">
       <c r="A232" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -4874,10 +4881,10 @@
     </row>
     <row r="233" spans="1:4" ht="21">
       <c r="A233" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -4885,10 +4892,10 @@
     </row>
     <row r="234" spans="1:4" ht="21">
       <c r="A234" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -4896,10 +4903,10 @@
     </row>
     <row r="235" spans="1:4" ht="21">
       <c r="A235" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -4907,10 +4914,10 @@
     </row>
     <row r="236" spans="1:4" ht="21">
       <c r="A236" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -4918,10 +4925,10 @@
     </row>
     <row r="237" spans="1:4" ht="21">
       <c r="A237" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -4929,10 +4936,10 @@
     </row>
     <row r="238" spans="1:4" ht="21">
       <c r="A238" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -4940,10 +4947,10 @@
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -4951,10 +4958,10 @@
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -4962,10 +4969,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -4973,10 +4980,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -4984,10 +4991,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -4995,10 +5002,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -5006,10 +5013,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -5017,10 +5024,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -5028,10 +5035,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -5039,10 +5046,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -5050,10 +5057,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -5061,10 +5068,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5072,10 +5079,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5083,10 +5090,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5094,10 +5101,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5105,10 +5112,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5116,10 +5123,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5127,10 +5134,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5138,10 +5145,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5149,10 +5156,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5160,10 +5167,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5171,10 +5178,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5182,10 +5189,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5193,10 +5200,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5204,7 +5211,7 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>81</v>
@@ -5215,10 +5222,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5234,10 +5241,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B267" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>3</v>
@@ -5245,10 +5252,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>3</v>
@@ -5256,10 +5263,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -5267,10 +5274,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5278,10 +5285,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5289,10 +5296,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5300,10 +5307,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5311,10 +5318,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5322,10 +5329,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5333,10 +5340,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5344,10 +5351,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5355,10 +5362,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5366,10 +5373,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5377,10 +5384,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5388,10 +5395,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5399,10 +5406,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5410,10 +5417,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5421,10 +5428,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5432,10 +5439,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5451,10 +5458,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>3</v>
@@ -5462,10 +5469,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>3</v>
@@ -5473,10 +5480,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -5484,10 +5491,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5495,10 +5502,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5506,10 +5513,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5517,10 +5524,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5528,10 +5535,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5539,10 +5546,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5550,10 +5557,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5561,10 +5568,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5572,10 +5579,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5583,10 +5590,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5594,10 +5601,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5605,10 +5612,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5616,10 +5623,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5627,10 +5634,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5638,10 +5645,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5649,10 +5656,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5660,10 +5667,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5671,10 +5678,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5682,10 +5689,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5693,10 +5700,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5704,10 +5711,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5715,10 +5722,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5726,10 +5733,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5737,10 +5744,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5748,10 +5755,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5759,10 +5766,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5770,10 +5777,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5781,10 +5788,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5792,10 +5799,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5803,10 +5810,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5814,10 +5821,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5825,10 +5832,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5836,10 +5843,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5847,10 +5854,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5858,10 +5865,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -5877,10 +5884,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B328" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>3</v>
@@ -5888,10 +5895,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>3</v>
@@ -5899,10 +5906,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -5910,10 +5917,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5921,10 +5928,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5932,10 +5939,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5943,10 +5950,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5954,10 +5961,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -5965,10 +5972,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -5976,10 +5983,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -5987,10 +5994,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -5998,10 +6005,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -6009,10 +6016,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -6020,10 +6027,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -6031,10 +6038,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -6042,10 +6049,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -6053,10 +6060,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -6064,10 +6071,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -6083,10 +6090,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B348" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>319</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>3</v>
@@ -6094,10 +6101,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>3</v>
@@ -6105,10 +6112,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -6116,10 +6123,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6127,10 +6134,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6138,10 +6145,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6149,10 +6156,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6160,10 +6167,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6171,10 +6178,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6182,10 +6189,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6193,10 +6200,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6204,10 +6211,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6215,10 +6222,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6226,10 +6233,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6237,10 +6244,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6248,10 +6255,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6259,10 +6266,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6270,10 +6277,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6281,10 +6288,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6292,10 +6299,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6303,10 +6310,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6314,10 +6321,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6325,10 +6332,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6336,10 +6343,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6347,10 +6354,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6358,10 +6365,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6369,10 +6376,10 @@
     </row>
     <row r="374" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A374" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>3</v>
@@ -6381,10 +6388,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -6392,10 +6399,10 @@
     </row>
     <row r="376" spans="1:4" ht="21">
       <c r="A376" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -6403,10 +6410,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -6414,10 +6421,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6425,10 +6432,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6436,10 +6443,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6447,10 +6454,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6458,7 +6465,7 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B382" s="14" t="s">
         <v>352</v>
@@ -6469,7 +6476,7 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B383" s="14" t="s">
         <v>353</v>
@@ -6480,7 +6487,7 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B384" s="14" t="s">
         <v>354</v>
@@ -6491,7 +6498,7 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B385" s="14" t="s">
         <v>355</v>
@@ -6502,7 +6509,7 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B386" s="14" t="s">
         <v>356</v>
@@ -6513,7 +6520,7 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B387" s="14" t="s">
         <v>357</v>
@@ -6524,7 +6531,7 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B388" s="14" t="s">
         <v>358</v>
@@ -6535,7 +6542,7 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B389" s="14" t="s">
         <v>359</v>
@@ -6546,7 +6553,7 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B390" s="14" t="s">
         <v>360</v>
@@ -6556,27 +6563,27 @@
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
-      <c r="A391" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B391" s="4"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="B392" s="4"/>
       <c r="C392" s="2"/>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="B393" s="4"/>
-      <c r="C393" s="2"/>
+      <c r="A393" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B394" s="14" t="s">
         <v>363</v>
@@ -6587,7 +6594,7 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B395" s="14" t="s">
         <v>364</v>
@@ -6598,10 +6605,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6609,10 +6616,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6620,7 +6627,7 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B398" s="14" t="s">
         <v>366</v>
@@ -6630,38 +6637,38 @@
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B399" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B399" s="4"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="B400" s="4"/>
       <c r="C400" s="2"/>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="4"/>
-      <c r="C401" s="2"/>
+      <c r="A401" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C401" s="36" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B402" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C402" s="36" t="s">
-        <v>442</v>
+      <c r="C402" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B403" s="14" t="s">
         <v>370</v>
@@ -6672,7 +6679,7 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B404" s="14" t="s">
         <v>371</v>
@@ -6683,7 +6690,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B405" s="14" t="s">
         <v>372</v>
@@ -6694,32 +6701,32 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B406" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B407" s="14" t="s">
         <v>374</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>442</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>3</v>
@@ -6727,10 +6734,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>3</v>
@@ -6738,7 +6745,7 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B410" s="14" t="s">
         <v>376</v>
@@ -6749,7 +6756,7 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>377</v>
@@ -6760,7 +6767,7 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B412" s="14" t="s">
         <v>378</v>
@@ -6771,7 +6778,7 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B413" s="14" t="s">
         <v>379</v>
@@ -6782,7 +6789,7 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B414" s="14" t="s">
         <v>380</v>
@@ -6793,7 +6800,7 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B415" s="14" t="s">
         <v>381</v>
@@ -6804,7 +6811,7 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>382</v>
@@ -6815,7 +6822,7 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B417" s="14" t="s">
         <v>383</v>
@@ -6826,7 +6833,7 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B418" s="14" t="s">
         <v>384</v>
@@ -6837,7 +6844,7 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>385</v>
@@ -6848,7 +6855,7 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>386</v>
@@ -6859,7 +6866,7 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>387</v>
@@ -6870,7 +6877,7 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>388</v>
@@ -6881,7 +6888,7 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>389</v>
@@ -6892,7 +6899,7 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>390</v>
@@ -6903,7 +6910,7 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>391</v>
@@ -6914,7 +6921,7 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B426" s="14" t="s">
         <v>392</v>
@@ -6925,7 +6932,7 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B427" s="14" t="s">
         <v>393</v>
@@ -6936,7 +6943,7 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B428" s="14" t="s">
         <v>394</v>
@@ -6947,7 +6954,7 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B429" s="14" t="s">
         <v>395</v>
@@ -6958,7 +6965,7 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B430" s="14" t="s">
         <v>396</v>
@@ -6969,7 +6976,7 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B431" s="14" t="s">
         <v>397</v>
@@ -6980,7 +6987,7 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B432" s="14" t="s">
         <v>398</v>
@@ -6991,7 +6998,7 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B433" s="14" t="s">
         <v>399</v>
@@ -7002,7 +7009,7 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B434" s="14" t="s">
         <v>400</v>
@@ -7013,7 +7020,7 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B435" s="14" t="s">
         <v>401</v>
@@ -7024,7 +7031,7 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B436" s="14" t="s">
         <v>402</v>
@@ -7035,7 +7042,7 @@
     </row>
     <row r="437" spans="1:4" ht="21">
       <c r="A437" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B437" s="14" t="s">
         <v>403</v>
@@ -7046,7 +7053,7 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B438" s="14" t="s">
         <v>404</v>
@@ -7057,7 +7064,7 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B439" s="14" t="s">
         <v>405</v>
@@ -7068,7 +7075,7 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B440" s="14" t="s">
         <v>406</v>
@@ -7079,7 +7086,7 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B441" s="14" t="s">
         <v>407</v>
@@ -7090,7 +7097,7 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B442" s="14" t="s">
         <v>408</v>
@@ -7101,7 +7108,7 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B443" s="14" t="s">
         <v>409</v>
@@ -7112,7 +7119,7 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B444" s="14" t="s">
         <v>410</v>
@@ -7123,7 +7130,7 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B445" s="14" t="s">
         <v>411</v>
@@ -7134,7 +7141,7 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B446" s="14" t="s">
         <v>412</v>
@@ -7143,20 +7150,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="21">
-      <c r="A447" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B447" s="14" t="s">
+    <row r="447" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A447" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B447" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C447" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D447" s="27"/>
     </row>
     <row r="448" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A448" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B448" s="26" t="s">
         <v>414</v>
@@ -7166,21 +7174,20 @@
       </c>
       <c r="D448" s="27"/>
     </row>
-    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A449" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B449" s="26" t="s">
+    <row r="449" spans="1:4" ht="21">
+      <c r="A449" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B449" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C449" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D449" s="27"/>
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="450" spans="1:4" ht="21">
       <c r="A450" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B450" s="14" t="s">
         <v>416</v>
@@ -7191,7 +7198,7 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B451" s="14" t="s">
         <v>417</v>
@@ -7202,7 +7209,7 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B452" s="14" t="s">
         <v>418</v>
@@ -7211,32 +7218,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="21">
-      <c r="A453" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B453" s="14" t="s">
+    <row r="453" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A453" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B453" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A454" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B454" s="7" t="s">
+      <c r="C453" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D453" s="24"/>
+    </row>
+    <row r="454" spans="1:4" ht="21">
+      <c r="A454" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B454" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C454" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D454" s="24"/>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="455" spans="1:4" ht="21">
       <c r="A455" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B455" s="14" t="s">
         <v>421</v>
@@ -7247,7 +7254,7 @@
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B456" s="14" t="s">
         <v>422</v>
@@ -7258,7 +7265,7 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B457" s="14" t="s">
         <v>423</v>
@@ -7269,7 +7276,7 @@
     </row>
     <row r="458" spans="1:4" ht="21">
       <c r="A458" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B458" s="14" t="s">
         <v>424</v>
@@ -7280,7 +7287,7 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B459" s="14" t="s">
         <v>425</v>
@@ -7291,7 +7298,7 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B460" s="14" t="s">
         <v>426</v>
@@ -7301,28 +7308,28 @@
       </c>
     </row>
     <row r="461" spans="1:4" ht="21">
-      <c r="A461" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B461" s="4"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" spans="1:4" ht="21">
+      <c r="A462" s="5"/>
       <c r="B462" s="4"/>
       <c r="C462" s="2"/>
     </row>
     <row r="463" spans="1:4" ht="21">
-      <c r="A463" s="5"/>
-      <c r="B463" s="4"/>
-      <c r="C463" s="2"/>
+      <c r="A463" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="464" spans="1:4" ht="21">
       <c r="A464" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B464" s="14" t="s">
         <v>429</v>
@@ -7333,7 +7340,7 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B465" s="14" t="s">
         <v>430</v>
@@ -7344,7 +7351,7 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B466" s="14" t="s">
         <v>431</v>
@@ -7355,7 +7362,7 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B467" s="14" t="s">
         <v>432</v>
@@ -7366,29 +7373,29 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B468" s="14" t="s">
         <v>433</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B469" s="14" t="s">
         <v>434</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>442</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B470" s="14" t="s">
         <v>435</v>
@@ -7399,7 +7406,7 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B471" s="14" t="s">
         <v>436</v>
@@ -7410,24 +7417,13 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B472" s="14" t="s">
         <v>437</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7612,7 +7608,7 @@
     <hyperlink ref="B196" r:id="rId178"/>
     <hyperlink ref="B197" r:id="rId179"/>
     <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
+    <hyperlink ref="B199" r:id="rId181" display="Find LCA in a Binary tree"/>
     <hyperlink ref="B201" r:id="rId182"/>
     <hyperlink ref="B202" r:id="rId183"/>
     <hyperlink ref="B203" r:id="rId184"/>
@@ -7785,18 +7781,18 @@
     <hyperlink ref="B383" r:id="rId351"/>
     <hyperlink ref="B384" r:id="rId352"/>
     <hyperlink ref="B385" r:id="rId353"/>
-    <hyperlink ref="B386" r:id="rId354"/>
-    <hyperlink ref="B388" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
+    <hyperlink ref="B387" r:id="rId354"/>
+    <hyperlink ref="B386" r:id="rId355"/>
+    <hyperlink ref="B388" r:id="rId356"/>
     <hyperlink ref="B389" r:id="rId357"/>
     <hyperlink ref="B390" r:id="rId358"/>
-    <hyperlink ref="B391" r:id="rId359"/>
+    <hyperlink ref="B393" r:id="rId359"/>
     <hyperlink ref="B394" r:id="rId360"/>
     <hyperlink ref="B395" r:id="rId361"/>
     <hyperlink ref="B396" r:id="rId362"/>
     <hyperlink ref="B397" r:id="rId363"/>
     <hyperlink ref="B398" r:id="rId364"/>
-    <hyperlink ref="B399" r:id="rId365"/>
+    <hyperlink ref="B401" r:id="rId365"/>
     <hyperlink ref="B402" r:id="rId366"/>
     <hyperlink ref="B403" r:id="rId367"/>
     <hyperlink ref="B404" r:id="rId368"/>
@@ -7836,9 +7832,9 @@
     <hyperlink ref="B438" r:id="rId402"/>
     <hyperlink ref="B439" r:id="rId403"/>
     <hyperlink ref="B440" r:id="rId404"/>
-    <hyperlink ref="B441" r:id="rId405"/>
-    <hyperlink ref="B443" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
+    <hyperlink ref="B442" r:id="rId405"/>
+    <hyperlink ref="B441" r:id="rId406"/>
+    <hyperlink ref="B443" r:id="rId407"/>
     <hyperlink ref="B444" r:id="rId408"/>
     <hyperlink ref="B445" r:id="rId409"/>
     <hyperlink ref="B446" r:id="rId410"/>
@@ -7849,86 +7845,86 @@
     <hyperlink ref="B451" r:id="rId415"/>
     <hyperlink ref="B452" r:id="rId416"/>
     <hyperlink ref="B453" r:id="rId417"/>
-    <hyperlink ref="B454" r:id="rId418"/>
-    <hyperlink ref="B461" r:id="rId419"/>
-    <hyperlink ref="B460" r:id="rId420"/>
-    <hyperlink ref="B459" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B457" r:id="rId423"/>
-    <hyperlink ref="B456" r:id="rId424"/>
-    <hyperlink ref="B455" r:id="rId425"/>
+    <hyperlink ref="B460" r:id="rId418"/>
+    <hyperlink ref="B459" r:id="rId419"/>
+    <hyperlink ref="B458" r:id="rId420"/>
+    <hyperlink ref="B457" r:id="rId421"/>
+    <hyperlink ref="B456" r:id="rId422"/>
+    <hyperlink ref="B455" r:id="rId423"/>
+    <hyperlink ref="B454" r:id="rId424"/>
+    <hyperlink ref="B463" r:id="rId425"/>
     <hyperlink ref="B464" r:id="rId426"/>
     <hyperlink ref="B465" r:id="rId427"/>
     <hyperlink ref="B466" r:id="rId428"/>
     <hyperlink ref="B467" r:id="rId429"/>
     <hyperlink ref="B468" r:id="rId430"/>
     <hyperlink ref="B469" r:id="rId431"/>
-    <hyperlink ref="B470" r:id="rId432"/>
-    <hyperlink ref="B473" r:id="rId433"/>
-    <hyperlink ref="B471" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B348" r:id="rId436"/>
-    <hyperlink ref="B2" r:id="rId437"/>
-    <hyperlink ref="D17" r:id="rId438"/>
-    <hyperlink ref="D6" r:id="rId439"/>
-    <hyperlink ref="D8" r:id="rId440"/>
-    <hyperlink ref="D12" r:id="rId441"/>
-    <hyperlink ref="D7" r:id="rId442"/>
-    <hyperlink ref="D9" r:id="rId443"/>
-    <hyperlink ref="D16" r:id="rId444"/>
-    <hyperlink ref="D15" r:id="rId445"/>
-    <hyperlink ref="D21" r:id="rId446"/>
-    <hyperlink ref="D55" r:id="rId447"/>
-    <hyperlink ref="D14" r:id="rId448"/>
-    <hyperlink ref="D32" r:id="rId449"/>
-    <hyperlink ref="D27" r:id="rId450"/>
-    <hyperlink ref="D22" r:id="rId451"/>
-    <hyperlink ref="D19" r:id="rId452"/>
-    <hyperlink ref="D43" r:id="rId453"/>
-    <hyperlink ref="D56" r:id="rId454"/>
-    <hyperlink ref="D57" r:id="rId455"/>
-    <hyperlink ref="D102" r:id="rId456"/>
-    <hyperlink ref="D99" r:id="rId457"/>
-    <hyperlink ref="D109" r:id="rId458"/>
-    <hyperlink ref="D156" r:id="rId459"/>
-    <hyperlink ref="D150" r:id="rId460"/>
-    <hyperlink ref="D133" r:id="rId461"/>
-    <hyperlink ref="D134" r:id="rId462"/>
-    <hyperlink ref="D135" r:id="rId463"/>
-    <hyperlink ref="D138" r:id="rId464"/>
-    <hyperlink ref="D139" r:id="rId465"/>
-    <hyperlink ref="D141" r:id="rId466"/>
-    <hyperlink ref="D146" r:id="rId467"/>
-    <hyperlink ref="D149" r:id="rId468"/>
-    <hyperlink ref="D147" r:id="rId469"/>
-    <hyperlink ref="D148" r:id="rId470"/>
-    <hyperlink ref="D164" r:id="rId471"/>
-    <hyperlink ref="D165" r:id="rId472"/>
-    <hyperlink ref="D140" r:id="rId473"/>
-    <hyperlink ref="D166" r:id="rId474"/>
-    <hyperlink ref="D158" r:id="rId475"/>
-    <hyperlink ref="B160" r:id="rId476" display="Merge K sorted Linked list"/>
-    <hyperlink ref="D161" r:id="rId477"/>
-    <hyperlink ref="D160" r:id="rId478"/>
-    <hyperlink ref="D159" r:id="rId479"/>
-    <hyperlink ref="D155" r:id="rId480"/>
-    <hyperlink ref="D174" r:id="rId481"/>
-    <hyperlink ref="D176" r:id="rId482"/>
-    <hyperlink ref="D175" r:id="rId483"/>
-    <hyperlink ref="D169" r:id="rId484"/>
-    <hyperlink ref="D171" r:id="rId485"/>
-    <hyperlink ref="D182" r:id="rId486"/>
-    <hyperlink ref="D173" r:id="rId487"/>
-    <hyperlink ref="D172" r:id="rId488"/>
-    <hyperlink ref="D181" r:id="rId489"/>
-    <hyperlink ref="D197" r:id="rId490"/>
-    <hyperlink ref="D184" r:id="rId491"/>
-    <hyperlink ref="D177" r:id="rId492"/>
-    <hyperlink ref="D178" r:id="rId493"/>
-    <hyperlink ref="D200" r:id="rId494"/>
-    <hyperlink ref="B200" r:id="rId495"/>
-    <hyperlink ref="D186" r:id="rId496"/>
-    <hyperlink ref="D206" r:id="rId497"/>
+    <hyperlink ref="B472" r:id="rId432"/>
+    <hyperlink ref="B470" r:id="rId433"/>
+    <hyperlink ref="B471" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B348" r:id="rId435"/>
+    <hyperlink ref="B2" r:id="rId436"/>
+    <hyperlink ref="D17" r:id="rId437"/>
+    <hyperlink ref="D6" r:id="rId438"/>
+    <hyperlink ref="D8" r:id="rId439"/>
+    <hyperlink ref="D12" r:id="rId440"/>
+    <hyperlink ref="D7" r:id="rId441"/>
+    <hyperlink ref="D9" r:id="rId442"/>
+    <hyperlink ref="D16" r:id="rId443"/>
+    <hyperlink ref="D15" r:id="rId444"/>
+    <hyperlink ref="D21" r:id="rId445"/>
+    <hyperlink ref="D55" r:id="rId446"/>
+    <hyperlink ref="D14" r:id="rId447"/>
+    <hyperlink ref="D32" r:id="rId448"/>
+    <hyperlink ref="D27" r:id="rId449"/>
+    <hyperlink ref="D22" r:id="rId450"/>
+    <hyperlink ref="D19" r:id="rId451"/>
+    <hyperlink ref="D43" r:id="rId452"/>
+    <hyperlink ref="D56" r:id="rId453"/>
+    <hyperlink ref="D57" r:id="rId454"/>
+    <hyperlink ref="D102" r:id="rId455"/>
+    <hyperlink ref="D99" r:id="rId456"/>
+    <hyperlink ref="D109" r:id="rId457"/>
+    <hyperlink ref="D156" r:id="rId458"/>
+    <hyperlink ref="D150" r:id="rId459"/>
+    <hyperlink ref="D133" r:id="rId460"/>
+    <hyperlink ref="D134" r:id="rId461"/>
+    <hyperlink ref="D135" r:id="rId462"/>
+    <hyperlink ref="D138" r:id="rId463"/>
+    <hyperlink ref="D139" r:id="rId464"/>
+    <hyperlink ref="D141" r:id="rId465"/>
+    <hyperlink ref="D146" r:id="rId466"/>
+    <hyperlink ref="D149" r:id="rId467"/>
+    <hyperlink ref="D147" r:id="rId468"/>
+    <hyperlink ref="D148" r:id="rId469"/>
+    <hyperlink ref="D164" r:id="rId470"/>
+    <hyperlink ref="D165" r:id="rId471"/>
+    <hyperlink ref="D140" r:id="rId472"/>
+    <hyperlink ref="D166" r:id="rId473"/>
+    <hyperlink ref="D158" r:id="rId474"/>
+    <hyperlink ref="B160" r:id="rId475" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D161" r:id="rId476"/>
+    <hyperlink ref="D160" r:id="rId477"/>
+    <hyperlink ref="D159" r:id="rId478"/>
+    <hyperlink ref="D155" r:id="rId479"/>
+    <hyperlink ref="D174" r:id="rId480"/>
+    <hyperlink ref="D176" r:id="rId481"/>
+    <hyperlink ref="D175" r:id="rId482"/>
+    <hyperlink ref="D169" r:id="rId483"/>
+    <hyperlink ref="D171" r:id="rId484"/>
+    <hyperlink ref="D182" r:id="rId485"/>
+    <hyperlink ref="D173" r:id="rId486"/>
+    <hyperlink ref="D172" r:id="rId487"/>
+    <hyperlink ref="D181" r:id="rId488"/>
+    <hyperlink ref="D197" r:id="rId489"/>
+    <hyperlink ref="D184" r:id="rId490"/>
+    <hyperlink ref="D177" r:id="rId491"/>
+    <hyperlink ref="D178" r:id="rId492"/>
+    <hyperlink ref="D200" r:id="rId493"/>
+    <hyperlink ref="B200" r:id="rId494"/>
+    <hyperlink ref="D186" r:id="rId495"/>
+    <hyperlink ref="D206" r:id="rId496"/>
+    <hyperlink ref="D199" r:id="rId497"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId498"/>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="524">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1590,6 +1590,12 @@
   </si>
   <si>
     <t>Find LCA in a Binary tree [V.IMP]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
   </si>
 </sst>
 </file>
@@ -2241,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -4167,7 +4173,10 @@
         <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4401,7 +4410,10 @@
         <v>169</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -7018,16 +7030,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="21">
-      <c r="A435" s="3" t="s">
+    <row r="435" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A435" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B435" s="14" t="s">
+      <c r="B435" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C435" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="24"/>
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
@@ -7252,16 +7265,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="21">
-      <c r="A456" s="3" t="s">
+    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A456" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C456" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D456" s="24"/>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
@@ -7925,8 +7939,10 @@
     <hyperlink ref="D186" r:id="rId495"/>
     <hyperlink ref="D206" r:id="rId496"/>
     <hyperlink ref="D199" r:id="rId497"/>
+    <hyperlink ref="D170" r:id="rId498"/>
+    <hyperlink ref="D188" r:id="rId499"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId498"/>
+  <pageSetup orientation="portrait" r:id="rId500"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="529">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1596,6 +1596,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>Ceil in a BST</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/ceil-from-bst_920464?source=youtube&amp;campaign=Striver_Tree_Videos&amp;utm_source=youtube&amp;utm_medium=affiliate&amp;utm_campaign=Striver_Tree_Videos</t>
+  </si>
+  <si>
+    <t>Insertion in BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/submissions/</t>
   </si>
 </sst>
 </file>
@@ -2245,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F472"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -4469,7 +4484,10 @@
         <v>174</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
@@ -4622,10 +4640,13 @@
         <v>182</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>184</v>
+        <v>525</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4633,10 +4654,13 @@
         <v>182</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>185</v>
+        <v>527</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
+      </c>
+      <c r="D208" s="21" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4644,7 +4668,7 @@
         <v>182</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>3</v>
@@ -4655,7 +4679,7 @@
         <v>182</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -4666,7 +4690,7 @@
         <v>182</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>3</v>
@@ -4676,8 +4700,8 @@
       <c r="A212" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B212" s="16" t="s">
-        <v>189</v>
+      <c r="B212" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -4688,7 +4712,7 @@
         <v>182</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -4698,8 +4722,8 @@
       <c r="A214" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B214" s="14" t="s">
-        <v>191</v>
+      <c r="B214" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -4710,52 +4734,52 @@
         <v>182</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:4" ht="21">
+      <c r="A216" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B216" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="24"/>
+      <c r="B216" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21">
-      <c r="A218" s="3" t="s">
+    <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A218" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B218" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B218" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="24"/>
     </row>
     <row r="219" spans="1:4" ht="21">
       <c r="A219" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>3</v>
@@ -4766,7 +4790,7 @@
         <v>182</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>3</v>
@@ -4777,7 +4801,7 @@
         <v>182</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>3</v>
@@ -4788,7 +4812,7 @@
         <v>182</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4799,7 +4823,7 @@
         <v>182</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -4810,7 +4834,7 @@
         <v>182</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -4821,71 +4845,71 @@
         <v>182</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A226" s="6" t="s">
+    <row r="226" spans="1:4" ht="21">
+      <c r="A226" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B226" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D226" s="24"/>
+      <c r="B226" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="21">
       <c r="A227" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A228" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="24"/>
+    </row>
+    <row r="229" spans="1:4" ht="21">
+      <c r="A229" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B229" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="21">
-      <c r="B228" s="4"/>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:4" ht="21">
-      <c r="B229" s="4"/>
-      <c r="C229" s="2"/>
+      <c r="C229" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="230" spans="1:4" ht="21">
-      <c r="A230" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:4" ht="21">
-      <c r="A231" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:4" ht="21">
       <c r="A232" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>3</v>
@@ -4896,7 +4920,7 @@
         <v>204</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -4907,7 +4931,7 @@
         <v>204</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -4918,7 +4942,7 @@
         <v>204</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -4929,7 +4953,7 @@
         <v>204</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -4940,7 +4964,7 @@
         <v>204</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -4951,7 +4975,7 @@
         <v>204</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -4962,7 +4986,7 @@
         <v>204</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -4973,7 +4997,7 @@
         <v>204</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -4984,7 +5008,7 @@
         <v>204</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -4995,7 +5019,7 @@
         <v>204</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -5006,7 +5030,7 @@
         <v>204</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -5017,7 +5041,7 @@
         <v>204</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -5028,7 +5052,7 @@
         <v>204</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -5039,7 +5063,7 @@
         <v>204</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -5050,7 +5074,7 @@
         <v>204</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -5061,7 +5085,7 @@
         <v>204</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -5072,7 +5096,7 @@
         <v>204</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -5083,7 +5107,7 @@
         <v>204</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5094,7 +5118,7 @@
         <v>204</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5105,7 +5129,7 @@
         <v>204</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5116,7 +5140,7 @@
         <v>204</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5127,7 +5151,7 @@
         <v>204</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5138,7 +5162,7 @@
         <v>204</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5149,7 +5173,7 @@
         <v>204</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5160,7 +5184,7 @@
         <v>204</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5171,7 +5195,7 @@
         <v>204</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5182,7 +5206,7 @@
         <v>204</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5193,7 +5217,7 @@
         <v>204</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5204,7 +5228,7 @@
         <v>204</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5215,7 +5239,7 @@
         <v>204</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5226,7 +5250,7 @@
         <v>204</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -5237,48 +5261,48 @@
         <v>204</v>
       </c>
       <c r="B264" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="21">
+      <c r="A265" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="21">
+      <c r="A266" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B266" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="21">
-      <c r="B265" s="4"/>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="1:3" ht="21">
-      <c r="B266" s="4"/>
-      <c r="C266" s="2"/>
+      <c r="C266" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" ht="21">
-      <c r="A268" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>3</v>
@@ -5289,7 +5313,7 @@
         <v>239</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5300,7 +5324,7 @@
         <v>239</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5311,7 +5335,7 @@
         <v>239</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5322,7 +5346,7 @@
         <v>239</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5333,7 +5357,7 @@
         <v>239</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5344,7 +5368,7 @@
         <v>239</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5355,7 +5379,7 @@
         <v>239</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5366,7 +5390,7 @@
         <v>239</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5377,7 +5401,7 @@
         <v>239</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5388,7 +5412,7 @@
         <v>239</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5399,7 +5423,7 @@
         <v>239</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5410,7 +5434,7 @@
         <v>239</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5421,7 +5445,7 @@
         <v>239</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5432,7 +5456,7 @@
         <v>239</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5443,7 +5467,7 @@
         <v>239</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5454,48 +5478,48 @@
         <v>239</v>
       </c>
       <c r="B285" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="21">
+      <c r="A286" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="21">
+      <c r="A287" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B287" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="21">
-      <c r="B286" s="4"/>
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="1:3" ht="21">
-      <c r="B287" s="4"/>
-      <c r="C287" s="2"/>
+      <c r="C287" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B289" s="4"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>3</v>
@@ -5506,7 +5530,7 @@
         <v>259</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5517,7 +5541,7 @@
         <v>259</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5528,7 +5552,7 @@
         <v>259</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5539,7 +5563,7 @@
         <v>259</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5550,7 +5574,7 @@
         <v>259</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5561,7 +5585,7 @@
         <v>259</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5572,7 +5596,7 @@
         <v>259</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5583,7 +5607,7 @@
         <v>259</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5594,7 +5618,7 @@
         <v>259</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5605,7 +5629,7 @@
         <v>259</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5615,8 +5639,8 @@
       <c r="A301" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B301" s="16" t="s">
-        <v>273</v>
+      <c r="B301" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5627,7 +5651,7 @@
         <v>259</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5637,8 +5661,8 @@
       <c r="A303" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B303" s="14" t="s">
-        <v>275</v>
+      <c r="B303" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5649,7 +5673,7 @@
         <v>259</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5660,7 +5684,7 @@
         <v>259</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5671,7 +5695,7 @@
         <v>259</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5682,7 +5706,7 @@
         <v>259</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5693,7 +5717,7 @@
         <v>259</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5704,7 +5728,7 @@
         <v>259</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5715,7 +5739,7 @@
         <v>259</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5726,7 +5750,7 @@
         <v>259</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5737,7 +5761,7 @@
         <v>259</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5748,7 +5772,7 @@
         <v>259</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5759,7 +5783,7 @@
         <v>259</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5770,7 +5794,7 @@
         <v>259</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5781,7 +5805,7 @@
         <v>259</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5792,7 +5816,7 @@
         <v>259</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5803,7 +5827,7 @@
         <v>259</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5814,7 +5838,7 @@
         <v>259</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5825,7 +5849,7 @@
         <v>259</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5836,7 +5860,7 @@
         <v>259</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5847,7 +5871,7 @@
         <v>259</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5858,7 +5882,7 @@
         <v>259</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5869,7 +5893,7 @@
         <v>259</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5880,48 +5904,48 @@
         <v>259</v>
       </c>
       <c r="B325" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="21">
+      <c r="A326" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B326" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="21">
+      <c r="A327" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B327" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
-      <c r="B326" s="4"/>
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="1:3" ht="21">
-      <c r="B327" s="4"/>
-      <c r="C327" s="2"/>
+      <c r="C327" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="328" spans="1:3" ht="21">
-      <c r="A328" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B328" s="4"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:3" ht="21">
-      <c r="A329" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B329" s="4"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>3</v>
@@ -5932,7 +5956,7 @@
         <v>298</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5943,7 +5967,7 @@
         <v>298</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5954,7 +5978,7 @@
         <v>298</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5965,7 +5989,7 @@
         <v>298</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5976,7 +6000,7 @@
         <v>298</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -5986,8 +6010,8 @@
       <c r="A336" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B336" s="16" t="s">
-        <v>307</v>
+      <c r="B336" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -5998,7 +6022,7 @@
         <v>298</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -6008,8 +6032,8 @@
       <c r="A338" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B338" s="14" t="s">
-        <v>309</v>
+      <c r="B338" s="16" t="s">
+        <v>307</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -6020,7 +6044,7 @@
         <v>298</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -6031,7 +6055,7 @@
         <v>298</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -6042,7 +6066,7 @@
         <v>298</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -6053,7 +6077,7 @@
         <v>298</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -6064,7 +6088,7 @@
         <v>298</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -6075,7 +6099,7 @@
         <v>298</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -6086,48 +6110,48 @@
         <v>298</v>
       </c>
       <c r="B345" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="21">
+      <c r="A346" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B346" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="21">
+      <c r="A347" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B347" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="B346" s="4"/>
-      <c r="C346" s="2"/>
-    </row>
-    <row r="347" spans="1:3" ht="21">
-      <c r="B347" s="4"/>
-      <c r="C347" s="2"/>
+      <c r="C347" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B348" s="4"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B349" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B349" s="4"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>3</v>
@@ -6138,7 +6162,7 @@
         <v>317</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6149,7 +6173,7 @@
         <v>317</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6160,7 +6184,7 @@
         <v>317</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6171,7 +6195,7 @@
         <v>317</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6182,7 +6206,7 @@
         <v>317</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6193,7 +6217,7 @@
         <v>317</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6204,7 +6228,7 @@
         <v>317</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6215,7 +6239,7 @@
         <v>317</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6226,7 +6250,7 @@
         <v>317</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6237,7 +6261,7 @@
         <v>317</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6248,7 +6272,7 @@
         <v>317</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6259,7 +6283,7 @@
         <v>317</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6270,7 +6294,7 @@
         <v>317</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6281,7 +6305,7 @@
         <v>317</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6292,7 +6316,7 @@
         <v>317</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6303,7 +6327,7 @@
         <v>317</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6314,7 +6338,7 @@
         <v>317</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6325,7 +6349,7 @@
         <v>317</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6336,7 +6360,7 @@
         <v>317</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6347,7 +6371,7 @@
         <v>317</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6358,7 +6382,7 @@
         <v>317</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6369,7 +6393,7 @@
         <v>317</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6380,52 +6404,52 @@
         <v>317</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A374" s="6" t="s">
+    <row r="374" spans="1:4" ht="21">
+      <c r="A374" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B374" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D374" s="24"/>
+      <c r="B374" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="21">
-      <c r="A376" s="5" t="s">
+    <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A376" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B376" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B376" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D376" s="24"/>
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>3</v>
@@ -6436,7 +6460,7 @@
         <v>317</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6447,7 +6471,7 @@
         <v>317</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6458,7 +6482,7 @@
         <v>317</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6469,7 +6493,7 @@
         <v>317</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6480,7 +6504,7 @@
         <v>317</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6491,7 +6515,7 @@
         <v>317</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6502,7 +6526,7 @@
         <v>317</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6513,7 +6537,7 @@
         <v>317</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6524,7 +6548,7 @@
         <v>317</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6535,7 +6559,7 @@
         <v>317</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6546,7 +6570,7 @@
         <v>317</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6557,7 +6581,7 @@
         <v>317</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6568,48 +6592,48 @@
         <v>317</v>
       </c>
       <c r="B390" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="21">
+      <c r="A391" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="21">
+      <c r="A392" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B392" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C390" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="21">
-      <c r="B391" s="4"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="1:3" ht="21">
-      <c r="B392" s="4"/>
-      <c r="C392" s="2"/>
+      <c r="C392" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B393" s="4"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="1:3" ht="21">
-      <c r="A394" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B394" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B394" s="4"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>3</v>
@@ -6620,7 +6644,7 @@
         <v>361</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6631,7 +6655,7 @@
         <v>361</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6642,51 +6666,51 @@
         <v>361</v>
       </c>
       <c r="B398" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="21">
+      <c r="A399" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="21">
+      <c r="A400" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B400" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="B399" s="4"/>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="4"/>
-      <c r="C400" s="2"/>
+      <c r="C400" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="A401" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C401" s="36" t="s">
-        <v>441</v>
-      </c>
+      <c r="B401" s="4"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B402" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B402" s="4"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>3</v>
+        <v>368</v>
+      </c>
+      <c r="C403" s="36" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
@@ -6694,7 +6718,7 @@
         <v>367</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>3</v>
@@ -6705,7 +6729,7 @@
         <v>367</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6716,10 +6740,10 @@
         <v>367</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>441</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6727,7 +6751,7 @@
         <v>367</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6738,10 +6762,10 @@
         <v>367</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
@@ -6749,7 +6773,7 @@
         <v>367</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>3</v>
@@ -6760,7 +6784,7 @@
         <v>367</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6771,7 +6795,7 @@
         <v>367</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6782,7 +6806,7 @@
         <v>367</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6793,7 +6817,7 @@
         <v>367</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6804,7 +6828,7 @@
         <v>367</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -6815,7 +6839,7 @@
         <v>367</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -6826,7 +6850,7 @@
         <v>367</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -6837,7 +6861,7 @@
         <v>367</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -6848,7 +6872,7 @@
         <v>367</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -6859,7 +6883,7 @@
         <v>367</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -6870,7 +6894,7 @@
         <v>367</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -6881,7 +6905,7 @@
         <v>367</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -6892,7 +6916,7 @@
         <v>367</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -6903,7 +6927,7 @@
         <v>367</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -6914,7 +6938,7 @@
         <v>367</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -6925,7 +6949,7 @@
         <v>367</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -6936,7 +6960,7 @@
         <v>367</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -6947,7 +6971,7 @@
         <v>367</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -6958,7 +6982,7 @@
         <v>367</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -6969,7 +6993,7 @@
         <v>367</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -6980,7 +7004,7 @@
         <v>367</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -6991,7 +7015,7 @@
         <v>367</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -7002,7 +7026,7 @@
         <v>367</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -7013,7 +7037,7 @@
         <v>367</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -7024,52 +7048,52 @@
         <v>367</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A435" s="6" t="s">
+    <row r="435" spans="1:4" ht="21">
+      <c r="A435" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B435" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C435" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D435" s="24"/>
+      <c r="B435" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="21">
-      <c r="A437" s="3" t="s">
+    <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A437" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B437" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B437" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D437" s="24"/>
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B438" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>3</v>
@@ -7080,7 +7104,7 @@
         <v>367</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7091,7 +7115,7 @@
         <v>367</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7102,7 +7126,7 @@
         <v>367</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7113,7 +7137,7 @@
         <v>367</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7124,7 +7148,7 @@
         <v>367</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7135,7 +7159,7 @@
         <v>367</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7146,7 +7170,7 @@
         <v>367</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7157,64 +7181,64 @@
         <v>367</v>
       </c>
       <c r="B446" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="21">
+      <c r="A447" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="21">
+      <c r="A448" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B448" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A447" s="25" t="s">
+      <c r="C448" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A449" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B447" s="26" t="s">
+      <c r="B449" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C447" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D447" s="27"/>
-    </row>
-    <row r="448" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A448" s="25" t="s">
+      <c r="C449" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449" s="27"/>
+    </row>
+    <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A450" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B448" s="26" t="s">
+      <c r="B450" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="C448" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D448" s="27"/>
-    </row>
-    <row r="449" spans="1:4" ht="21">
-      <c r="A449" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" ht="21">
-      <c r="A450" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B450" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C450" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D450" s="27"/>
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B451" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>3</v>
@@ -7225,86 +7249,86 @@
         <v>367</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A453" s="6" t="s">
+    <row r="453" spans="1:4" ht="21">
+      <c r="A453" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B453" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C453" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D453" s="24"/>
+      <c r="B453" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B454" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A455" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D455" s="24"/>
+    </row>
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B456" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="21">
-      <c r="A455" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B455" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A456" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D456" s="24"/>
+      <c r="C456" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="21">
-      <c r="A458" s="3" t="s">
+    <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A458" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B458" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B458" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D458" s="24"/>
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B459" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>3</v>
@@ -7315,49 +7339,49 @@
         <v>367</v>
       </c>
       <c r="B460" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="21">
+      <c r="A461" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B461" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="21">
+      <c r="A462" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B462" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" ht="21">
-      <c r="B461" s="4"/>
-      <c r="C461" s="2"/>
-    </row>
-    <row r="462" spans="1:4" ht="21">
-      <c r="A462" s="5"/>
-      <c r="B462" s="4"/>
-      <c r="C462" s="2"/>
+      <c r="C462" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="463" spans="1:4" ht="21">
-      <c r="A463" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="1:4" ht="21">
-      <c r="A464" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B464" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A464" s="5"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
         <v>427</v>
       </c>
       <c r="B465" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>3</v>
@@ -7368,7 +7392,7 @@
         <v>427</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7379,7 +7403,7 @@
         <v>427</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7390,10 +7414,10 @@
         <v>427</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>441</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
@@ -7401,7 +7425,7 @@
         <v>427</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7412,10 +7436,10 @@
         <v>427</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>3</v>
+        <v>441</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
@@ -7423,7 +7447,7 @@
         <v>427</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>3</v>
@@ -7434,9 +7458,31 @@
         <v>427</v>
       </c>
       <c r="B472" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="21">
+      <c r="A473" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="21">
+      <c r="A474" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B474" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7627,256 +7673,256 @@
     <hyperlink ref="B202" r:id="rId183"/>
     <hyperlink ref="B203" r:id="rId184"/>
     <hyperlink ref="B206" r:id="rId185"/>
-    <hyperlink ref="B207" r:id="rId186"/>
-    <hyperlink ref="B208" r:id="rId187"/>
-    <hyperlink ref="B209" r:id="rId188"/>
-    <hyperlink ref="B210" r:id="rId189"/>
-    <hyperlink ref="B211" r:id="rId190"/>
-    <hyperlink ref="B212" r:id="rId191"/>
-    <hyperlink ref="B213" r:id="rId192"/>
-    <hyperlink ref="B214" r:id="rId193"/>
-    <hyperlink ref="B215" r:id="rId194"/>
-    <hyperlink ref="B216" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B217" r:id="rId196"/>
-    <hyperlink ref="B218" r:id="rId197"/>
-    <hyperlink ref="B219" r:id="rId198"/>
-    <hyperlink ref="B220" r:id="rId199"/>
-    <hyperlink ref="B221" r:id="rId200"/>
-    <hyperlink ref="B222" r:id="rId201"/>
-    <hyperlink ref="B223" r:id="rId202"/>
-    <hyperlink ref="B224" r:id="rId203"/>
-    <hyperlink ref="B225" r:id="rId204"/>
-    <hyperlink ref="B226" r:id="rId205"/>
-    <hyperlink ref="B227" r:id="rId206"/>
-    <hyperlink ref="B230" r:id="rId207"/>
-    <hyperlink ref="B231" r:id="rId208"/>
-    <hyperlink ref="B232" r:id="rId209"/>
-    <hyperlink ref="B233" r:id="rId210"/>
-    <hyperlink ref="B234" r:id="rId211"/>
-    <hyperlink ref="B235" r:id="rId212"/>
-    <hyperlink ref="B236" r:id="rId213"/>
-    <hyperlink ref="B237" r:id="rId214"/>
-    <hyperlink ref="B238" r:id="rId215"/>
-    <hyperlink ref="B239" r:id="rId216"/>
-    <hyperlink ref="B240" r:id="rId217"/>
-    <hyperlink ref="B241" r:id="rId218"/>
-    <hyperlink ref="B242" r:id="rId219"/>
-    <hyperlink ref="B243" r:id="rId220"/>
-    <hyperlink ref="B244" r:id="rId221"/>
-    <hyperlink ref="B245" r:id="rId222"/>
-    <hyperlink ref="B246" r:id="rId223"/>
-    <hyperlink ref="B247" r:id="rId224"/>
-    <hyperlink ref="B248" r:id="rId225"/>
-    <hyperlink ref="B249" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B250" r:id="rId227"/>
-    <hyperlink ref="B251" r:id="rId228"/>
-    <hyperlink ref="B252" r:id="rId229"/>
-    <hyperlink ref="B253" r:id="rId230"/>
-    <hyperlink ref="B254" r:id="rId231"/>
-    <hyperlink ref="B255" r:id="rId232"/>
-    <hyperlink ref="B256" r:id="rId233"/>
-    <hyperlink ref="B257" r:id="rId234"/>
-    <hyperlink ref="B258" r:id="rId235"/>
-    <hyperlink ref="B259" r:id="rId236"/>
-    <hyperlink ref="B260" r:id="rId237"/>
-    <hyperlink ref="B261" r:id="rId238"/>
-    <hyperlink ref="B262" r:id="rId239"/>
-    <hyperlink ref="B263" r:id="rId240"/>
-    <hyperlink ref="B264" r:id="rId241"/>
-    <hyperlink ref="B267" r:id="rId242"/>
-    <hyperlink ref="B268" r:id="rId243"/>
-    <hyperlink ref="B269" r:id="rId244"/>
-    <hyperlink ref="B270" r:id="rId245"/>
-    <hyperlink ref="B271" r:id="rId246"/>
-    <hyperlink ref="B272" r:id="rId247"/>
-    <hyperlink ref="B273" r:id="rId248"/>
-    <hyperlink ref="B274" r:id="rId249"/>
-    <hyperlink ref="B275" r:id="rId250"/>
-    <hyperlink ref="B276" r:id="rId251"/>
-    <hyperlink ref="B277" r:id="rId252"/>
-    <hyperlink ref="B278" r:id="rId253"/>
-    <hyperlink ref="B279" r:id="rId254"/>
-    <hyperlink ref="B280" r:id="rId255"/>
-    <hyperlink ref="B281" r:id="rId256"/>
-    <hyperlink ref="B282" r:id="rId257"/>
-    <hyperlink ref="B283" r:id="rId258"/>
-    <hyperlink ref="B284" r:id="rId259"/>
-    <hyperlink ref="B285" r:id="rId260"/>
-    <hyperlink ref="B288" r:id="rId261"/>
-    <hyperlink ref="B289" r:id="rId262"/>
-    <hyperlink ref="B290" r:id="rId263"/>
-    <hyperlink ref="B291" r:id="rId264"/>
-    <hyperlink ref="B292" r:id="rId265"/>
-    <hyperlink ref="B293" r:id="rId266"/>
-    <hyperlink ref="B294" r:id="rId267"/>
-    <hyperlink ref="B295" r:id="rId268"/>
-    <hyperlink ref="B296" r:id="rId269"/>
-    <hyperlink ref="B297" r:id="rId270"/>
-    <hyperlink ref="B298" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B299" r:id="rId272"/>
-    <hyperlink ref="B300" r:id="rId273"/>
-    <hyperlink ref="B301" r:id="rId274"/>
-    <hyperlink ref="B302" r:id="rId275"/>
-    <hyperlink ref="B303" r:id="rId276"/>
-    <hyperlink ref="B304" r:id="rId277"/>
-    <hyperlink ref="B305" r:id="rId278"/>
-    <hyperlink ref="B306" r:id="rId279"/>
-    <hyperlink ref="B307" r:id="rId280"/>
-    <hyperlink ref="B308" r:id="rId281"/>
-    <hyperlink ref="B309" r:id="rId282"/>
-    <hyperlink ref="B310" r:id="rId283"/>
-    <hyperlink ref="B311" r:id="rId284"/>
-    <hyperlink ref="B312" r:id="rId285"/>
-    <hyperlink ref="B313" r:id="rId286"/>
-    <hyperlink ref="B314" r:id="rId287"/>
-    <hyperlink ref="B315" r:id="rId288"/>
-    <hyperlink ref="B316" r:id="rId289"/>
-    <hyperlink ref="B317" r:id="rId290"/>
-    <hyperlink ref="B318" r:id="rId291"/>
-    <hyperlink ref="B319" r:id="rId292"/>
-    <hyperlink ref="B320" r:id="rId293"/>
-    <hyperlink ref="B321" r:id="rId294"/>
-    <hyperlink ref="B322" r:id="rId295"/>
-    <hyperlink ref="B323" r:id="rId296"/>
-    <hyperlink ref="B324" r:id="rId297"/>
-    <hyperlink ref="B325" r:id="rId298"/>
-    <hyperlink ref="B328" r:id="rId299"/>
-    <hyperlink ref="B329" r:id="rId300"/>
-    <hyperlink ref="B330" r:id="rId301"/>
-    <hyperlink ref="B331" r:id="rId302"/>
-    <hyperlink ref="B332" r:id="rId303"/>
-    <hyperlink ref="B333" r:id="rId304"/>
-    <hyperlink ref="B334" r:id="rId305"/>
-    <hyperlink ref="B335" r:id="rId306"/>
-    <hyperlink ref="B336" r:id="rId307"/>
-    <hyperlink ref="B337" r:id="rId308"/>
-    <hyperlink ref="B338" r:id="rId309"/>
-    <hyperlink ref="B339" r:id="rId310"/>
-    <hyperlink ref="B340" r:id="rId311"/>
-    <hyperlink ref="B341" r:id="rId312"/>
-    <hyperlink ref="B342" r:id="rId313"/>
-    <hyperlink ref="B343" r:id="rId314"/>
-    <hyperlink ref="B344" r:id="rId315"/>
-    <hyperlink ref="B345" r:id="rId316"/>
-    <hyperlink ref="B349" r:id="rId317"/>
-    <hyperlink ref="B350" r:id="rId318"/>
-    <hyperlink ref="B351" r:id="rId319"/>
-    <hyperlink ref="B352" r:id="rId320"/>
-    <hyperlink ref="B353" r:id="rId321"/>
-    <hyperlink ref="B354" r:id="rId322"/>
-    <hyperlink ref="B355" r:id="rId323"/>
-    <hyperlink ref="B356" r:id="rId324"/>
-    <hyperlink ref="B357" r:id="rId325"/>
-    <hyperlink ref="B358" r:id="rId326"/>
-    <hyperlink ref="B359" r:id="rId327"/>
-    <hyperlink ref="B360" r:id="rId328"/>
-    <hyperlink ref="B361" r:id="rId329"/>
-    <hyperlink ref="B362" r:id="rId330"/>
-    <hyperlink ref="B363" r:id="rId331"/>
-    <hyperlink ref="B364" r:id="rId332"/>
-    <hyperlink ref="B365" r:id="rId333"/>
-    <hyperlink ref="B366" r:id="rId334"/>
-    <hyperlink ref="B367" r:id="rId335"/>
-    <hyperlink ref="B368" r:id="rId336"/>
-    <hyperlink ref="B369" r:id="rId337"/>
-    <hyperlink ref="B370" r:id="rId338"/>
-    <hyperlink ref="B371" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B372" r:id="rId340"/>
-    <hyperlink ref="B373" r:id="rId341"/>
-    <hyperlink ref="B374" r:id="rId342"/>
-    <hyperlink ref="B375" r:id="rId343"/>
-    <hyperlink ref="B376" r:id="rId344"/>
-    <hyperlink ref="B377" r:id="rId345"/>
-    <hyperlink ref="B378" r:id="rId346"/>
-    <hyperlink ref="B379" r:id="rId347"/>
-    <hyperlink ref="B380" r:id="rId348"/>
-    <hyperlink ref="B381" r:id="rId349"/>
-    <hyperlink ref="B382" r:id="rId350"/>
-    <hyperlink ref="B383" r:id="rId351"/>
-    <hyperlink ref="B384" r:id="rId352"/>
-    <hyperlink ref="B385" r:id="rId353"/>
-    <hyperlink ref="B387" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B388" r:id="rId356"/>
-    <hyperlink ref="B389" r:id="rId357"/>
-    <hyperlink ref="B390" r:id="rId358"/>
-    <hyperlink ref="B393" r:id="rId359"/>
-    <hyperlink ref="B394" r:id="rId360"/>
-    <hyperlink ref="B395" r:id="rId361"/>
-    <hyperlink ref="B396" r:id="rId362"/>
-    <hyperlink ref="B397" r:id="rId363"/>
-    <hyperlink ref="B398" r:id="rId364"/>
-    <hyperlink ref="B401" r:id="rId365"/>
-    <hyperlink ref="B402" r:id="rId366"/>
-    <hyperlink ref="B403" r:id="rId367"/>
-    <hyperlink ref="B404" r:id="rId368"/>
-    <hyperlink ref="B405" r:id="rId369"/>
-    <hyperlink ref="B406" r:id="rId370"/>
-    <hyperlink ref="B407" r:id="rId371"/>
-    <hyperlink ref="B408" r:id="rId372"/>
-    <hyperlink ref="B409" r:id="rId373"/>
-    <hyperlink ref="B410" r:id="rId374"/>
-    <hyperlink ref="B411" r:id="rId375"/>
-    <hyperlink ref="B412" r:id="rId376"/>
-    <hyperlink ref="B413" r:id="rId377"/>
-    <hyperlink ref="B414" r:id="rId378"/>
-    <hyperlink ref="B415" r:id="rId379"/>
-    <hyperlink ref="B416" r:id="rId380"/>
-    <hyperlink ref="B417" r:id="rId381"/>
-    <hyperlink ref="B418" r:id="rId382"/>
-    <hyperlink ref="B419" r:id="rId383"/>
-    <hyperlink ref="B420" r:id="rId384"/>
-    <hyperlink ref="B421" r:id="rId385"/>
-    <hyperlink ref="B422" r:id="rId386"/>
-    <hyperlink ref="B423" r:id="rId387"/>
-    <hyperlink ref="B424" r:id="rId388"/>
-    <hyperlink ref="B425" r:id="rId389"/>
-    <hyperlink ref="B426" r:id="rId390"/>
-    <hyperlink ref="B427" r:id="rId391"/>
-    <hyperlink ref="B428" r:id="rId392"/>
-    <hyperlink ref="B429" r:id="rId393"/>
-    <hyperlink ref="B430" r:id="rId394"/>
-    <hyperlink ref="B431" r:id="rId395"/>
-    <hyperlink ref="B432" r:id="rId396"/>
-    <hyperlink ref="B433" r:id="rId397"/>
-    <hyperlink ref="B434" r:id="rId398"/>
-    <hyperlink ref="B435" r:id="rId399"/>
-    <hyperlink ref="B436" r:id="rId400"/>
-    <hyperlink ref="B437" r:id="rId401"/>
-    <hyperlink ref="B438" r:id="rId402"/>
-    <hyperlink ref="B439" r:id="rId403"/>
-    <hyperlink ref="B440" r:id="rId404"/>
-    <hyperlink ref="B442" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B443" r:id="rId407"/>
-    <hyperlink ref="B444" r:id="rId408"/>
-    <hyperlink ref="B445" r:id="rId409"/>
-    <hyperlink ref="B446" r:id="rId410"/>
-    <hyperlink ref="B447" r:id="rId411"/>
-    <hyperlink ref="B448" r:id="rId412"/>
-    <hyperlink ref="B449" r:id="rId413"/>
-    <hyperlink ref="B450" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B452" r:id="rId416"/>
-    <hyperlink ref="B453" r:id="rId417"/>
-    <hyperlink ref="B460" r:id="rId418"/>
-    <hyperlink ref="B459" r:id="rId419"/>
-    <hyperlink ref="B458" r:id="rId420"/>
-    <hyperlink ref="B457" r:id="rId421"/>
-    <hyperlink ref="B456" r:id="rId422"/>
-    <hyperlink ref="B455" r:id="rId423"/>
-    <hyperlink ref="B454" r:id="rId424"/>
-    <hyperlink ref="B463" r:id="rId425"/>
-    <hyperlink ref="B464" r:id="rId426"/>
-    <hyperlink ref="B465" r:id="rId427"/>
-    <hyperlink ref="B466" r:id="rId428"/>
-    <hyperlink ref="B467" r:id="rId429"/>
-    <hyperlink ref="B468" r:id="rId430"/>
-    <hyperlink ref="B469" r:id="rId431"/>
-    <hyperlink ref="B472" r:id="rId432"/>
-    <hyperlink ref="B470" r:id="rId433"/>
-    <hyperlink ref="B471" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B348" r:id="rId435"/>
+    <hyperlink ref="B209" r:id="rId186"/>
+    <hyperlink ref="B210" r:id="rId187"/>
+    <hyperlink ref="B211" r:id="rId188"/>
+    <hyperlink ref="B212" r:id="rId189"/>
+    <hyperlink ref="B213" r:id="rId190"/>
+    <hyperlink ref="B214" r:id="rId191"/>
+    <hyperlink ref="B215" r:id="rId192"/>
+    <hyperlink ref="B216" r:id="rId193"/>
+    <hyperlink ref="B217" r:id="rId194"/>
+    <hyperlink ref="B218" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B219" r:id="rId196"/>
+    <hyperlink ref="B220" r:id="rId197"/>
+    <hyperlink ref="B221" r:id="rId198"/>
+    <hyperlink ref="B222" r:id="rId199"/>
+    <hyperlink ref="B223" r:id="rId200"/>
+    <hyperlink ref="B224" r:id="rId201"/>
+    <hyperlink ref="B225" r:id="rId202"/>
+    <hyperlink ref="B226" r:id="rId203"/>
+    <hyperlink ref="B227" r:id="rId204"/>
+    <hyperlink ref="B228" r:id="rId205"/>
+    <hyperlink ref="B229" r:id="rId206"/>
+    <hyperlink ref="B232" r:id="rId207"/>
+    <hyperlink ref="B233" r:id="rId208"/>
+    <hyperlink ref="B234" r:id="rId209"/>
+    <hyperlink ref="B235" r:id="rId210"/>
+    <hyperlink ref="B236" r:id="rId211"/>
+    <hyperlink ref="B237" r:id="rId212"/>
+    <hyperlink ref="B238" r:id="rId213"/>
+    <hyperlink ref="B239" r:id="rId214"/>
+    <hyperlink ref="B240" r:id="rId215"/>
+    <hyperlink ref="B241" r:id="rId216"/>
+    <hyperlink ref="B242" r:id="rId217"/>
+    <hyperlink ref="B243" r:id="rId218"/>
+    <hyperlink ref="B244" r:id="rId219"/>
+    <hyperlink ref="B245" r:id="rId220"/>
+    <hyperlink ref="B246" r:id="rId221"/>
+    <hyperlink ref="B247" r:id="rId222"/>
+    <hyperlink ref="B248" r:id="rId223"/>
+    <hyperlink ref="B249" r:id="rId224"/>
+    <hyperlink ref="B250" r:id="rId225"/>
+    <hyperlink ref="B251" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B252" r:id="rId227"/>
+    <hyperlink ref="B253" r:id="rId228"/>
+    <hyperlink ref="B254" r:id="rId229"/>
+    <hyperlink ref="B255" r:id="rId230"/>
+    <hyperlink ref="B256" r:id="rId231"/>
+    <hyperlink ref="B257" r:id="rId232"/>
+    <hyperlink ref="B258" r:id="rId233"/>
+    <hyperlink ref="B259" r:id="rId234"/>
+    <hyperlink ref="B260" r:id="rId235"/>
+    <hyperlink ref="B261" r:id="rId236"/>
+    <hyperlink ref="B262" r:id="rId237"/>
+    <hyperlink ref="B263" r:id="rId238"/>
+    <hyperlink ref="B264" r:id="rId239"/>
+    <hyperlink ref="B265" r:id="rId240"/>
+    <hyperlink ref="B266" r:id="rId241"/>
+    <hyperlink ref="B269" r:id="rId242"/>
+    <hyperlink ref="B270" r:id="rId243"/>
+    <hyperlink ref="B271" r:id="rId244"/>
+    <hyperlink ref="B272" r:id="rId245"/>
+    <hyperlink ref="B273" r:id="rId246"/>
+    <hyperlink ref="B274" r:id="rId247"/>
+    <hyperlink ref="B275" r:id="rId248"/>
+    <hyperlink ref="B276" r:id="rId249"/>
+    <hyperlink ref="B277" r:id="rId250"/>
+    <hyperlink ref="B278" r:id="rId251"/>
+    <hyperlink ref="B279" r:id="rId252"/>
+    <hyperlink ref="B280" r:id="rId253"/>
+    <hyperlink ref="B281" r:id="rId254"/>
+    <hyperlink ref="B282" r:id="rId255"/>
+    <hyperlink ref="B283" r:id="rId256"/>
+    <hyperlink ref="B284" r:id="rId257"/>
+    <hyperlink ref="B285" r:id="rId258"/>
+    <hyperlink ref="B286" r:id="rId259"/>
+    <hyperlink ref="B287" r:id="rId260"/>
+    <hyperlink ref="B290" r:id="rId261"/>
+    <hyperlink ref="B291" r:id="rId262"/>
+    <hyperlink ref="B292" r:id="rId263"/>
+    <hyperlink ref="B293" r:id="rId264"/>
+    <hyperlink ref="B294" r:id="rId265"/>
+    <hyperlink ref="B295" r:id="rId266"/>
+    <hyperlink ref="B296" r:id="rId267"/>
+    <hyperlink ref="B297" r:id="rId268"/>
+    <hyperlink ref="B298" r:id="rId269"/>
+    <hyperlink ref="B299" r:id="rId270"/>
+    <hyperlink ref="B300" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B301" r:id="rId272"/>
+    <hyperlink ref="B302" r:id="rId273"/>
+    <hyperlink ref="B303" r:id="rId274"/>
+    <hyperlink ref="B304" r:id="rId275"/>
+    <hyperlink ref="B305" r:id="rId276"/>
+    <hyperlink ref="B306" r:id="rId277"/>
+    <hyperlink ref="B307" r:id="rId278"/>
+    <hyperlink ref="B308" r:id="rId279"/>
+    <hyperlink ref="B309" r:id="rId280"/>
+    <hyperlink ref="B310" r:id="rId281"/>
+    <hyperlink ref="B311" r:id="rId282"/>
+    <hyperlink ref="B312" r:id="rId283"/>
+    <hyperlink ref="B313" r:id="rId284"/>
+    <hyperlink ref="B314" r:id="rId285"/>
+    <hyperlink ref="B315" r:id="rId286"/>
+    <hyperlink ref="B316" r:id="rId287"/>
+    <hyperlink ref="B317" r:id="rId288"/>
+    <hyperlink ref="B318" r:id="rId289"/>
+    <hyperlink ref="B319" r:id="rId290"/>
+    <hyperlink ref="B320" r:id="rId291"/>
+    <hyperlink ref="B321" r:id="rId292"/>
+    <hyperlink ref="B322" r:id="rId293"/>
+    <hyperlink ref="B323" r:id="rId294"/>
+    <hyperlink ref="B324" r:id="rId295"/>
+    <hyperlink ref="B325" r:id="rId296"/>
+    <hyperlink ref="B326" r:id="rId297"/>
+    <hyperlink ref="B327" r:id="rId298"/>
+    <hyperlink ref="B330" r:id="rId299"/>
+    <hyperlink ref="B331" r:id="rId300"/>
+    <hyperlink ref="B332" r:id="rId301"/>
+    <hyperlink ref="B333" r:id="rId302"/>
+    <hyperlink ref="B334" r:id="rId303"/>
+    <hyperlink ref="B335" r:id="rId304"/>
+    <hyperlink ref="B336" r:id="rId305"/>
+    <hyperlink ref="B337" r:id="rId306"/>
+    <hyperlink ref="B338" r:id="rId307"/>
+    <hyperlink ref="B339" r:id="rId308"/>
+    <hyperlink ref="B340" r:id="rId309"/>
+    <hyperlink ref="B341" r:id="rId310"/>
+    <hyperlink ref="B342" r:id="rId311"/>
+    <hyperlink ref="B343" r:id="rId312"/>
+    <hyperlink ref="B344" r:id="rId313"/>
+    <hyperlink ref="B345" r:id="rId314"/>
+    <hyperlink ref="B346" r:id="rId315"/>
+    <hyperlink ref="B347" r:id="rId316"/>
+    <hyperlink ref="B351" r:id="rId317"/>
+    <hyperlink ref="B352" r:id="rId318"/>
+    <hyperlink ref="B353" r:id="rId319"/>
+    <hyperlink ref="B354" r:id="rId320"/>
+    <hyperlink ref="B355" r:id="rId321"/>
+    <hyperlink ref="B356" r:id="rId322"/>
+    <hyperlink ref="B357" r:id="rId323"/>
+    <hyperlink ref="B358" r:id="rId324"/>
+    <hyperlink ref="B359" r:id="rId325"/>
+    <hyperlink ref="B360" r:id="rId326"/>
+    <hyperlink ref="B361" r:id="rId327"/>
+    <hyperlink ref="B362" r:id="rId328"/>
+    <hyperlink ref="B363" r:id="rId329"/>
+    <hyperlink ref="B364" r:id="rId330"/>
+    <hyperlink ref="B365" r:id="rId331"/>
+    <hyperlink ref="B366" r:id="rId332"/>
+    <hyperlink ref="B367" r:id="rId333"/>
+    <hyperlink ref="B368" r:id="rId334"/>
+    <hyperlink ref="B369" r:id="rId335"/>
+    <hyperlink ref="B370" r:id="rId336"/>
+    <hyperlink ref="B371" r:id="rId337"/>
+    <hyperlink ref="B372" r:id="rId338"/>
+    <hyperlink ref="B373" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B374" r:id="rId340"/>
+    <hyperlink ref="B375" r:id="rId341"/>
+    <hyperlink ref="B376" r:id="rId342"/>
+    <hyperlink ref="B377" r:id="rId343"/>
+    <hyperlink ref="B378" r:id="rId344"/>
+    <hyperlink ref="B379" r:id="rId345"/>
+    <hyperlink ref="B380" r:id="rId346"/>
+    <hyperlink ref="B381" r:id="rId347"/>
+    <hyperlink ref="B382" r:id="rId348"/>
+    <hyperlink ref="B383" r:id="rId349"/>
+    <hyperlink ref="B384" r:id="rId350"/>
+    <hyperlink ref="B385" r:id="rId351"/>
+    <hyperlink ref="B386" r:id="rId352"/>
+    <hyperlink ref="B387" r:id="rId353"/>
+    <hyperlink ref="B389" r:id="rId354"/>
+    <hyperlink ref="B388" r:id="rId355"/>
+    <hyperlink ref="B390" r:id="rId356"/>
+    <hyperlink ref="B391" r:id="rId357"/>
+    <hyperlink ref="B392" r:id="rId358"/>
+    <hyperlink ref="B395" r:id="rId359"/>
+    <hyperlink ref="B396" r:id="rId360"/>
+    <hyperlink ref="B397" r:id="rId361"/>
+    <hyperlink ref="B398" r:id="rId362"/>
+    <hyperlink ref="B399" r:id="rId363"/>
+    <hyperlink ref="B400" r:id="rId364"/>
+    <hyperlink ref="B403" r:id="rId365"/>
+    <hyperlink ref="B404" r:id="rId366"/>
+    <hyperlink ref="B405" r:id="rId367"/>
+    <hyperlink ref="B406" r:id="rId368"/>
+    <hyperlink ref="B407" r:id="rId369"/>
+    <hyperlink ref="B408" r:id="rId370"/>
+    <hyperlink ref="B409" r:id="rId371"/>
+    <hyperlink ref="B410" r:id="rId372"/>
+    <hyperlink ref="B411" r:id="rId373"/>
+    <hyperlink ref="B412" r:id="rId374"/>
+    <hyperlink ref="B413" r:id="rId375"/>
+    <hyperlink ref="B414" r:id="rId376"/>
+    <hyperlink ref="B415" r:id="rId377"/>
+    <hyperlink ref="B416" r:id="rId378"/>
+    <hyperlink ref="B417" r:id="rId379"/>
+    <hyperlink ref="B418" r:id="rId380"/>
+    <hyperlink ref="B419" r:id="rId381"/>
+    <hyperlink ref="B420" r:id="rId382"/>
+    <hyperlink ref="B421" r:id="rId383"/>
+    <hyperlink ref="B422" r:id="rId384"/>
+    <hyperlink ref="B423" r:id="rId385"/>
+    <hyperlink ref="B424" r:id="rId386"/>
+    <hyperlink ref="B425" r:id="rId387"/>
+    <hyperlink ref="B426" r:id="rId388"/>
+    <hyperlink ref="B427" r:id="rId389"/>
+    <hyperlink ref="B428" r:id="rId390"/>
+    <hyperlink ref="B429" r:id="rId391"/>
+    <hyperlink ref="B430" r:id="rId392"/>
+    <hyperlink ref="B431" r:id="rId393"/>
+    <hyperlink ref="B432" r:id="rId394"/>
+    <hyperlink ref="B433" r:id="rId395"/>
+    <hyperlink ref="B434" r:id="rId396"/>
+    <hyperlink ref="B435" r:id="rId397"/>
+    <hyperlink ref="B436" r:id="rId398"/>
+    <hyperlink ref="B437" r:id="rId399"/>
+    <hyperlink ref="B438" r:id="rId400"/>
+    <hyperlink ref="B439" r:id="rId401"/>
+    <hyperlink ref="B440" r:id="rId402"/>
+    <hyperlink ref="B441" r:id="rId403"/>
+    <hyperlink ref="B442" r:id="rId404"/>
+    <hyperlink ref="B444" r:id="rId405"/>
+    <hyperlink ref="B443" r:id="rId406"/>
+    <hyperlink ref="B445" r:id="rId407"/>
+    <hyperlink ref="B446" r:id="rId408"/>
+    <hyperlink ref="B447" r:id="rId409"/>
+    <hyperlink ref="B448" r:id="rId410"/>
+    <hyperlink ref="B449" r:id="rId411"/>
+    <hyperlink ref="B450" r:id="rId412"/>
+    <hyperlink ref="B451" r:id="rId413"/>
+    <hyperlink ref="B452" r:id="rId414"/>
+    <hyperlink ref="B453" r:id="rId415"/>
+    <hyperlink ref="B454" r:id="rId416"/>
+    <hyperlink ref="B455" r:id="rId417"/>
+    <hyperlink ref="B462" r:id="rId418"/>
+    <hyperlink ref="B461" r:id="rId419"/>
+    <hyperlink ref="B460" r:id="rId420"/>
+    <hyperlink ref="B459" r:id="rId421"/>
+    <hyperlink ref="B458" r:id="rId422"/>
+    <hyperlink ref="B457" r:id="rId423"/>
+    <hyperlink ref="B456" r:id="rId424"/>
+    <hyperlink ref="B465" r:id="rId425"/>
+    <hyperlink ref="B466" r:id="rId426"/>
+    <hyperlink ref="B467" r:id="rId427"/>
+    <hyperlink ref="B468" r:id="rId428"/>
+    <hyperlink ref="B469" r:id="rId429"/>
+    <hyperlink ref="B470" r:id="rId430"/>
+    <hyperlink ref="B471" r:id="rId431"/>
+    <hyperlink ref="B474" r:id="rId432"/>
+    <hyperlink ref="B472" r:id="rId433"/>
+    <hyperlink ref="B473" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B350" r:id="rId435"/>
     <hyperlink ref="B2" r:id="rId436"/>
     <hyperlink ref="D17" r:id="rId437"/>
     <hyperlink ref="D6" r:id="rId438"/>
@@ -7941,8 +7987,10 @@
     <hyperlink ref="D199" r:id="rId497"/>
     <hyperlink ref="D170" r:id="rId498"/>
     <hyperlink ref="D188" r:id="rId499"/>
+    <hyperlink ref="D193" r:id="rId500"/>
+    <hyperlink ref="D207" r:id="rId501"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId500"/>
+  <pageSetup orientation="portrait" r:id="rId502"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="534">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -575,9 +575,6 @@
     <t>Binary Search Trees</t>
   </si>
   <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
     <t>Deletion of a node in a BST</t>
   </si>
   <si>
@@ -1611,6 +1608,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/submissions/</t>
+  </si>
+  <si>
+    <t>Find a value in a BST</t>
+  </si>
+  <si>
+    <t>kth largest = N-kth smallest where N is the no.of nodes</t>
+  </si>
+  <si>
+    <t>Count Total Nodes in Complete Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-complete-tree-nodes/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/min-and-max-of-binary-tree_5673?leftPanelTab=2</t>
   </si>
 </sst>
 </file>
@@ -2260,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F474"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2283,7 +2298,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2294,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2311,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2325,10 +2340,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2339,10 +2354,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2353,10 +2368,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2367,10 +2382,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2392,10 +2407,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2421,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2432,10 +2447,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2446,10 +2461,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2460,10 +2475,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2488,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2510,10 +2525,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2524,10 +2539,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2582,10 +2597,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2637,13 +2652,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2651,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2749,13 +2764,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2832,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2870,10 +2885,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -2884,10 +2899,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2898,10 +2913,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3351,10 +3366,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3376,7 +3391,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3387,10 +3402,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3467,10 +3482,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3580,7 +3595,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3719,10 +3734,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3733,10 +3748,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3747,10 +3762,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3761,10 +3776,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3775,10 +3790,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3789,10 +3804,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3803,10 +3818,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3817,10 +3832,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3831,10 +3846,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3867,7 +3882,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D144" s="18"/>
     </row>
@@ -3891,10 +3906,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -3905,10 +3920,10 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -3919,10 +3934,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -3933,10 +3948,10 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -3947,10 +3962,10 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -4010,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -4018,13 +4033,13 @@
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>466</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4032,10 +4047,10 @@
         <v>124</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D157" s="33"/>
     </row>
@@ -4047,27 +4062,27 @@
         <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B159" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="C159" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="D159" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="F159" s="37" t="s">
         <v>493</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4075,13 +4090,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4089,13 +4104,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4125,13 +4140,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4142,10 +4157,10 @@
         <v>151</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4156,10 +4171,10 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4168,16 +4183,16 @@
     </row>
     <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A169" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>507</v>
-      </c>
       <c r="C169" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4188,10 +4203,10 @@
         <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4199,13 +4214,13 @@
         <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4216,10 +4231,10 @@
         <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4230,10 +4245,10 @@
         <v>156</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4244,10 +4259,10 @@
         <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4258,10 +4273,10 @@
         <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4272,10 +4287,10 @@
         <v>159</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4286,10 +4301,10 @@
         <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4300,10 +4315,10 @@
         <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4336,10 +4351,10 @@
         <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4350,10 +4365,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -4372,13 +4387,13 @@
         <v>153</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4397,13 +4412,13 @@
         <v>153</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D186" s="21" t="s">
         <v>517</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4425,10 +4440,10 @@
         <v>169</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -4447,10 +4462,13 @@
         <v>153</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>171</v>
+        <v>531</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -4458,163 +4476,169 @@
         <v>153</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
+      <c r="A192" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B192" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A192" s="6" t="s">
+      <c r="C192" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A193" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="24"/>
-    </row>
-    <row r="193" spans="1:4" ht="21">
-      <c r="A193" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>524</v>
-      </c>
+      <c r="C193" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="24"/>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B194" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
+      <c r="A195" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A195" s="6" t="s">
+      <c r="C195" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A196" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="24"/>
-    </row>
-    <row r="196" spans="1:4" ht="21">
-      <c r="A196" s="3" t="s">
+      <c r="C196" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="24"/>
+    </row>
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B197" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A197" s="31" t="s">
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A198" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B197" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="C197" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="D197" s="33" t="s">
+      <c r="B198" s="39" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="21">
-      <c r="A198" s="3" t="s">
+      <c r="C198" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D198" s="33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A199" s="6" t="s">
+      <c r="C199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A200" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D199" s="24" t="s">
+      <c r="B200" s="7" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="21">
-      <c r="A200" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B200" s="41" t="s">
-        <v>516</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>515</v>
+      <c r="C200" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D200" s="24" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A202" s="6" t="s">
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A203" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="24"/>
-    </row>
-    <row r="203" spans="1:4" ht="21">
-      <c r="A203" s="3" t="s">
+      <c r="C203" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="24"/>
+    </row>
+    <row r="204" spans="1:4" ht="21">
+      <c r="A204" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="21">
-      <c r="A204" s="5"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5"/>
@@ -4622,31 +4646,22 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:4" ht="21">
-      <c r="A206" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>519</v>
-      </c>
+      <c r="A206" s="5"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4654,13 +4669,13 @@
         <v>182</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4668,10 +4683,13 @@
         <v>182</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
@@ -4679,7 +4697,7 @@
         <v>182</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>3</v>
@@ -4690,10 +4708,13 @@
         <v>182</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
@@ -4701,7 +4722,7 @@
         <v>182</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>3</v>
@@ -4712,7 +4733,7 @@
         <v>182</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>3</v>
@@ -4722,8 +4743,8 @@
       <c r="A214" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B214" s="16" t="s">
-        <v>189</v>
+      <c r="B214" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>3</v>
@@ -4733,8 +4754,8 @@
       <c r="A215" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B215" s="14" t="s">
-        <v>190</v>
+      <c r="B215" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>3</v>
@@ -4745,7 +4766,7 @@
         <v>182</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -4756,44 +4777,47 @@
         <v>182</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A218" s="6" t="s">
+    <row r="218" spans="1:4" ht="21">
+      <c r="A218" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" s="24"/>
-    </row>
-    <row r="219" spans="1:4" ht="21">
-      <c r="A219" s="3" t="s">
+      <c r="B218" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A219" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B219" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B219" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="24"/>
     </row>
     <row r="220" spans="1:4" ht="21">
       <c r="A220" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
@@ -4801,10 +4825,13 @@
         <v>182</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
@@ -4812,7 +4839,7 @@
         <v>182</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4823,7 +4850,7 @@
         <v>182</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>3</v>
@@ -4834,7 +4861,7 @@
         <v>182</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -4845,7 +4872,7 @@
         <v>182</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -4856,7 +4883,7 @@
         <v>182</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
@@ -4867,60 +4894,60 @@
         <v>182</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="21">
+      <c r="A228" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A229" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B229" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A228" s="6" t="s">
+      <c r="C229" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="24"/>
+    </row>
+    <row r="230" spans="1:4" ht="21">
+      <c r="A230" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B230" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D228" s="24"/>
-    </row>
-    <row r="229" spans="1:4" ht="21">
-      <c r="A229" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="21">
-      <c r="B230" s="4"/>
-      <c r="C230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:4" ht="21">
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:4" ht="21">
-      <c r="A232" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:4" ht="21">
       <c r="A233" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B233" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>206</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -4928,10 +4955,10 @@
     </row>
     <row r="234" spans="1:4" ht="21">
       <c r="A234" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -4939,10 +4966,10 @@
     </row>
     <row r="235" spans="1:4" ht="21">
       <c r="A235" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -4950,10 +4977,10 @@
     </row>
     <row r="236" spans="1:4" ht="21">
       <c r="A236" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -4961,10 +4988,10 @@
     </row>
     <row r="237" spans="1:4" ht="21">
       <c r="A237" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -4972,10 +4999,10 @@
     </row>
     <row r="238" spans="1:4" ht="21">
       <c r="A238" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -4983,10 +5010,10 @@
     </row>
     <row r="239" spans="1:4" ht="21">
       <c r="A239" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -4994,10 +5021,10 @@
     </row>
     <row r="240" spans="1:4" ht="21">
       <c r="A240" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -5005,10 +5032,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -5016,10 +5043,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -5027,10 +5054,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -5038,10 +5065,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -5049,10 +5076,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -5060,10 +5087,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -5071,10 +5098,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -5082,10 +5109,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -5093,10 +5120,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -5104,10 +5131,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5115,10 +5142,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5126,10 +5153,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5137,10 +5164,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5148,10 +5175,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5159,10 +5186,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5170,10 +5197,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5181,10 +5208,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5192,10 +5219,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5203,10 +5230,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5214,10 +5241,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5225,10 +5252,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5236,10 +5263,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5247,10 +5274,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -5258,10 +5285,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5269,10 +5296,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>3</v>
@@ -5280,40 +5307,40 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="B267" s="4"/>
-      <c r="C267" s="2"/>
+      <c r="A267" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="B268" s="4"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B269" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B270" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5321,10 +5348,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5332,10 +5359,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5343,10 +5370,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5354,10 +5381,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5365,10 +5392,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5376,10 +5403,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5387,10 +5414,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5398,10 +5425,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5409,10 +5436,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5420,10 +5447,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5431,10 +5458,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5442,10 +5469,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5453,10 +5480,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5464,10 +5491,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5475,10 +5502,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5486,10 +5513,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>3</v>
@@ -5497,40 +5524,40 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="B288" s="4"/>
-      <c r="C288" s="2"/>
+      <c r="A288" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="B289" s="4"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="A290" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B290" s="4"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5538,10 +5565,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5549,10 +5576,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5560,10 +5587,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5571,10 +5598,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5582,10 +5609,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5593,10 +5620,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5604,10 +5631,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5615,10 +5642,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5626,10 +5653,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5637,10 +5664,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5648,10 +5675,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5659,10 +5686,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B303" s="16" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="B303" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5670,10 +5697,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B304" s="14" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5681,10 +5708,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5692,10 +5719,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5703,10 +5730,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5714,10 +5741,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5725,10 +5752,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5736,10 +5763,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5747,10 +5774,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5758,10 +5785,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5769,10 +5796,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5780,10 +5807,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5791,10 +5818,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5802,10 +5829,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5813,10 +5840,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5824,10 +5851,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5835,10 +5862,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -5846,10 +5873,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -5857,10 +5884,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -5868,10 +5895,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -5879,10 +5906,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -5890,10 +5917,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -5901,10 +5928,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -5912,10 +5939,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>3</v>
@@ -5923,40 +5950,40 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
-      <c r="B328" s="4"/>
-      <c r="C328" s="2"/>
+      <c r="A328" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B328" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="B329" s="4"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" ht="21">
-      <c r="A330" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B330" s="4"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B331" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>3</v>
@@ -5964,10 +5991,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>3</v>
@@ -5975,10 +6002,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>3</v>
@@ -5986,10 +6013,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>3</v>
@@ -5997,10 +6024,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>3</v>
@@ -6008,10 +6035,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>3</v>
@@ -6019,10 +6046,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -6030,10 +6057,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B338" s="16" t="s">
-        <v>307</v>
+        <v>297</v>
+      </c>
+      <c r="B338" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
@@ -6041,10 +6068,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B339" s="14" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>3</v>
@@ -6052,10 +6079,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>3</v>
@@ -6063,10 +6090,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -6074,10 +6101,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
@@ -6085,10 +6112,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
@@ -6096,10 +6123,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>3</v>
@@ -6107,10 +6134,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
@@ -6118,10 +6145,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>3</v>
@@ -6129,40 +6156,40 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
-      <c r="B348" s="4"/>
-      <c r="C348" s="2"/>
+      <c r="A348" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:3" ht="21">
-      <c r="A350" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B350" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B350" s="4"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>319</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6170,10 +6197,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6181,10 +6208,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6192,10 +6219,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6203,10 +6230,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6214,10 +6241,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6225,10 +6252,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6236,10 +6263,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6247,10 +6274,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6258,10 +6285,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6269,10 +6296,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6280,10 +6307,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6291,10 +6318,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6302,10 +6329,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6313,10 +6340,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6324,10 +6351,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6335,10 +6362,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6346,10 +6373,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6357,10 +6384,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6368,10 +6395,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6379,10 +6406,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6390,10 +6417,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6401,10 +6428,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6412,10 +6439,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -6423,44 +6450,44 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B375" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21">
+      <c r="A376" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A377" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B377" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A376" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D376" s="24"/>
-    </row>
-    <row r="377" spans="1:4" ht="21">
-      <c r="A377" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C377" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D377" s="24"/>
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6468,10 +6495,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6479,10 +6506,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6490,10 +6517,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6501,10 +6528,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6512,10 +6539,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6523,10 +6550,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6534,10 +6561,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6545,10 +6572,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6556,10 +6583,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6567,10 +6594,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6578,10 +6605,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6589,10 +6616,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6600,10 +6627,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6611,40 +6638,40 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="B393" s="4"/>
-      <c r="C393" s="2"/>
+      <c r="A393" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="B394" s="4"/>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B395" s="4"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B396" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6652,10 +6679,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6663,10 +6690,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6674,10 +6701,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6685,51 +6712,51 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="4"/>
-      <c r="C401" s="2"/>
+      <c r="A401" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="B402" s="4"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C403" s="36" t="s">
-        <v>441</v>
-      </c>
+      <c r="B403" s="4"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B404" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B404" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>3</v>
+      <c r="C404" s="36" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6737,10 +6764,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6748,10 +6775,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6759,32 +6786,32 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>441</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6792,10 +6819,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6803,10 +6830,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6814,10 +6841,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6825,10 +6852,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -6836,10 +6863,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -6847,10 +6874,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -6858,10 +6885,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -6869,10 +6896,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -6880,10 +6907,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -6891,10 +6918,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -6902,10 +6929,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -6913,10 +6940,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -6924,10 +6951,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -6935,10 +6962,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -6946,10 +6973,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -6957,10 +6984,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -6968,10 +6995,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -6979,10 +7006,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -6990,10 +7017,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -7001,10 +7028,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -7012,10 +7039,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -7023,10 +7050,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -7034,10 +7061,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -7045,10 +7072,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -7056,10 +7083,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -7067,44 +7094,44 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B436" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21">
+      <c r="A437" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A438" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B438" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A437" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B437" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D437" s="24"/>
-    </row>
-    <row r="438" spans="1:4" ht="21">
-      <c r="A438" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B438" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C438" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D438" s="24"/>
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7112,10 +7139,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7123,10 +7150,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7134,10 +7161,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7145,10 +7172,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7156,10 +7183,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7167,10 +7194,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7178,10 +7205,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -7189,10 +7216,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -7200,56 +7227,56 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A449" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B449" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="C449" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D449" s="27"/>
+    <row r="449" spans="1:4" ht="21">
+      <c r="A449" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A450" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C450" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D450" s="27"/>
     </row>
-    <row r="451" spans="1:4" ht="21">
-      <c r="A451" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="451" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A451" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B451" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C451" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D451" s="27"/>
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -7257,10 +7284,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7268,78 +7295,78 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B454" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="21">
+      <c r="A455" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A456" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B456" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A455" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D455" s="24"/>
-    </row>
-    <row r="456" spans="1:4" ht="21">
-      <c r="A456" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C456" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D456" s="24"/>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B457" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21">
+      <c r="A458" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B458" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A459" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B459" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A458" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D458" s="24"/>
-    </row>
-    <row r="459" spans="1:4" ht="21">
-      <c r="A459" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B459" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C459" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D459" s="24"/>
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7347,10 +7374,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7358,41 +7385,41 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="21">
-      <c r="B463" s="4"/>
-      <c r="C463" s="2"/>
+      <c r="A463" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="464" spans="1:4" ht="21">
-      <c r="A464" s="5"/>
       <c r="B464" s="4"/>
       <c r="C464" s="2"/>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A465" s="5"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B466" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>429</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7400,10 +7427,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7411,10 +7438,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7422,10 +7449,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7433,32 +7460,32 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>441</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7466,10 +7493,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>3</v>
@@ -7477,13 +7504,24 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>441</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="21">
+      <c r="A475" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7659,270 +7697,270 @@
     <hyperlink ref="B187" r:id="rId169"/>
     <hyperlink ref="B188" r:id="rId170"/>
     <hyperlink ref="B189" r:id="rId171" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179"/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B201" r:id="rId182"/>
-    <hyperlink ref="B202" r:id="rId183"/>
-    <hyperlink ref="B203" r:id="rId184"/>
-    <hyperlink ref="B206" r:id="rId185"/>
-    <hyperlink ref="B209" r:id="rId186"/>
-    <hyperlink ref="B210" r:id="rId187"/>
-    <hyperlink ref="B211" r:id="rId188"/>
-    <hyperlink ref="B212" r:id="rId189"/>
-    <hyperlink ref="B213" r:id="rId190"/>
-    <hyperlink ref="B214" r:id="rId191"/>
-    <hyperlink ref="B215" r:id="rId192"/>
-    <hyperlink ref="B216" r:id="rId193"/>
-    <hyperlink ref="B217" r:id="rId194"/>
-    <hyperlink ref="B218" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B219" r:id="rId196"/>
-    <hyperlink ref="B220" r:id="rId197"/>
-    <hyperlink ref="B221" r:id="rId198"/>
-    <hyperlink ref="B222" r:id="rId199"/>
-    <hyperlink ref="B223" r:id="rId200"/>
-    <hyperlink ref="B224" r:id="rId201"/>
-    <hyperlink ref="B225" r:id="rId202"/>
-    <hyperlink ref="B226" r:id="rId203"/>
-    <hyperlink ref="B227" r:id="rId204"/>
-    <hyperlink ref="B228" r:id="rId205"/>
-    <hyperlink ref="B229" r:id="rId206"/>
-    <hyperlink ref="B232" r:id="rId207"/>
-    <hyperlink ref="B233" r:id="rId208"/>
-    <hyperlink ref="B234" r:id="rId209"/>
-    <hyperlink ref="B235" r:id="rId210"/>
-    <hyperlink ref="B236" r:id="rId211"/>
-    <hyperlink ref="B237" r:id="rId212"/>
-    <hyperlink ref="B238" r:id="rId213"/>
-    <hyperlink ref="B239" r:id="rId214"/>
-    <hyperlink ref="B240" r:id="rId215"/>
-    <hyperlink ref="B241" r:id="rId216"/>
-    <hyperlink ref="B242" r:id="rId217"/>
-    <hyperlink ref="B243" r:id="rId218"/>
-    <hyperlink ref="B244" r:id="rId219"/>
-    <hyperlink ref="B245" r:id="rId220"/>
-    <hyperlink ref="B246" r:id="rId221"/>
-    <hyperlink ref="B247" r:id="rId222"/>
-    <hyperlink ref="B248" r:id="rId223"/>
-    <hyperlink ref="B249" r:id="rId224"/>
-    <hyperlink ref="B250" r:id="rId225"/>
-    <hyperlink ref="B251" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B252" r:id="rId227"/>
-    <hyperlink ref="B253" r:id="rId228"/>
-    <hyperlink ref="B254" r:id="rId229"/>
-    <hyperlink ref="B255" r:id="rId230"/>
-    <hyperlink ref="B256" r:id="rId231"/>
-    <hyperlink ref="B257" r:id="rId232"/>
-    <hyperlink ref="B258" r:id="rId233"/>
-    <hyperlink ref="B259" r:id="rId234"/>
-    <hyperlink ref="B260" r:id="rId235"/>
-    <hyperlink ref="B261" r:id="rId236"/>
-    <hyperlink ref="B262" r:id="rId237"/>
-    <hyperlink ref="B263" r:id="rId238"/>
-    <hyperlink ref="B264" r:id="rId239"/>
-    <hyperlink ref="B265" r:id="rId240"/>
-    <hyperlink ref="B266" r:id="rId241"/>
-    <hyperlink ref="B269" r:id="rId242"/>
-    <hyperlink ref="B270" r:id="rId243"/>
-    <hyperlink ref="B271" r:id="rId244"/>
-    <hyperlink ref="B272" r:id="rId245"/>
-    <hyperlink ref="B273" r:id="rId246"/>
-    <hyperlink ref="B274" r:id="rId247"/>
-    <hyperlink ref="B275" r:id="rId248"/>
-    <hyperlink ref="B276" r:id="rId249"/>
-    <hyperlink ref="B277" r:id="rId250"/>
-    <hyperlink ref="B278" r:id="rId251"/>
-    <hyperlink ref="B279" r:id="rId252"/>
-    <hyperlink ref="B280" r:id="rId253"/>
-    <hyperlink ref="B281" r:id="rId254"/>
-    <hyperlink ref="B282" r:id="rId255"/>
-    <hyperlink ref="B283" r:id="rId256"/>
-    <hyperlink ref="B284" r:id="rId257"/>
-    <hyperlink ref="B285" r:id="rId258"/>
-    <hyperlink ref="B286" r:id="rId259"/>
-    <hyperlink ref="B287" r:id="rId260"/>
-    <hyperlink ref="B290" r:id="rId261"/>
-    <hyperlink ref="B291" r:id="rId262"/>
-    <hyperlink ref="B292" r:id="rId263"/>
-    <hyperlink ref="B293" r:id="rId264"/>
-    <hyperlink ref="B294" r:id="rId265"/>
-    <hyperlink ref="B295" r:id="rId266"/>
-    <hyperlink ref="B296" r:id="rId267"/>
-    <hyperlink ref="B297" r:id="rId268"/>
-    <hyperlink ref="B298" r:id="rId269"/>
-    <hyperlink ref="B299" r:id="rId270"/>
-    <hyperlink ref="B300" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B301" r:id="rId272"/>
-    <hyperlink ref="B302" r:id="rId273"/>
-    <hyperlink ref="B303" r:id="rId274"/>
-    <hyperlink ref="B304" r:id="rId275"/>
-    <hyperlink ref="B305" r:id="rId276"/>
-    <hyperlink ref="B306" r:id="rId277"/>
-    <hyperlink ref="B307" r:id="rId278"/>
-    <hyperlink ref="B308" r:id="rId279"/>
-    <hyperlink ref="B309" r:id="rId280"/>
-    <hyperlink ref="B310" r:id="rId281"/>
-    <hyperlink ref="B311" r:id="rId282"/>
-    <hyperlink ref="B312" r:id="rId283"/>
-    <hyperlink ref="B313" r:id="rId284"/>
-    <hyperlink ref="B314" r:id="rId285"/>
-    <hyperlink ref="B315" r:id="rId286"/>
-    <hyperlink ref="B316" r:id="rId287"/>
-    <hyperlink ref="B317" r:id="rId288"/>
-    <hyperlink ref="B318" r:id="rId289"/>
-    <hyperlink ref="B319" r:id="rId290"/>
-    <hyperlink ref="B320" r:id="rId291"/>
-    <hyperlink ref="B321" r:id="rId292"/>
-    <hyperlink ref="B322" r:id="rId293"/>
-    <hyperlink ref="B323" r:id="rId294"/>
-    <hyperlink ref="B324" r:id="rId295"/>
-    <hyperlink ref="B325" r:id="rId296"/>
-    <hyperlink ref="B326" r:id="rId297"/>
-    <hyperlink ref="B327" r:id="rId298"/>
-    <hyperlink ref="B330" r:id="rId299"/>
-    <hyperlink ref="B331" r:id="rId300"/>
-    <hyperlink ref="B332" r:id="rId301"/>
-    <hyperlink ref="B333" r:id="rId302"/>
-    <hyperlink ref="B334" r:id="rId303"/>
-    <hyperlink ref="B335" r:id="rId304"/>
-    <hyperlink ref="B336" r:id="rId305"/>
-    <hyperlink ref="B337" r:id="rId306"/>
-    <hyperlink ref="B338" r:id="rId307"/>
-    <hyperlink ref="B339" r:id="rId308"/>
-    <hyperlink ref="B340" r:id="rId309"/>
-    <hyperlink ref="B341" r:id="rId310"/>
-    <hyperlink ref="B342" r:id="rId311"/>
-    <hyperlink ref="B343" r:id="rId312"/>
-    <hyperlink ref="B344" r:id="rId313"/>
-    <hyperlink ref="B345" r:id="rId314"/>
-    <hyperlink ref="B346" r:id="rId315"/>
-    <hyperlink ref="B347" r:id="rId316"/>
-    <hyperlink ref="B351" r:id="rId317"/>
-    <hyperlink ref="B352" r:id="rId318"/>
-    <hyperlink ref="B353" r:id="rId319"/>
-    <hyperlink ref="B354" r:id="rId320"/>
-    <hyperlink ref="B355" r:id="rId321"/>
-    <hyperlink ref="B356" r:id="rId322"/>
-    <hyperlink ref="B357" r:id="rId323"/>
-    <hyperlink ref="B358" r:id="rId324"/>
-    <hyperlink ref="B359" r:id="rId325"/>
-    <hyperlink ref="B360" r:id="rId326"/>
-    <hyperlink ref="B361" r:id="rId327"/>
-    <hyperlink ref="B362" r:id="rId328"/>
-    <hyperlink ref="B363" r:id="rId329"/>
-    <hyperlink ref="B364" r:id="rId330"/>
-    <hyperlink ref="B365" r:id="rId331"/>
-    <hyperlink ref="B366" r:id="rId332"/>
-    <hyperlink ref="B367" r:id="rId333"/>
-    <hyperlink ref="B368" r:id="rId334"/>
-    <hyperlink ref="B369" r:id="rId335"/>
-    <hyperlink ref="B370" r:id="rId336"/>
-    <hyperlink ref="B371" r:id="rId337"/>
-    <hyperlink ref="B372" r:id="rId338"/>
-    <hyperlink ref="B373" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B374" r:id="rId340"/>
-    <hyperlink ref="B375" r:id="rId341"/>
-    <hyperlink ref="B376" r:id="rId342"/>
-    <hyperlink ref="B377" r:id="rId343"/>
-    <hyperlink ref="B378" r:id="rId344"/>
-    <hyperlink ref="B379" r:id="rId345"/>
-    <hyperlink ref="B380" r:id="rId346"/>
-    <hyperlink ref="B381" r:id="rId347"/>
-    <hyperlink ref="B382" r:id="rId348"/>
-    <hyperlink ref="B383" r:id="rId349"/>
-    <hyperlink ref="B384" r:id="rId350"/>
-    <hyperlink ref="B385" r:id="rId351"/>
-    <hyperlink ref="B386" r:id="rId352"/>
-    <hyperlink ref="B387" r:id="rId353"/>
-    <hyperlink ref="B389" r:id="rId354"/>
-    <hyperlink ref="B388" r:id="rId355"/>
-    <hyperlink ref="B390" r:id="rId356"/>
-    <hyperlink ref="B391" r:id="rId357"/>
-    <hyperlink ref="B392" r:id="rId358"/>
-    <hyperlink ref="B395" r:id="rId359"/>
-    <hyperlink ref="B396" r:id="rId360"/>
-    <hyperlink ref="B397" r:id="rId361"/>
-    <hyperlink ref="B398" r:id="rId362"/>
-    <hyperlink ref="B399" r:id="rId363"/>
-    <hyperlink ref="B400" r:id="rId364"/>
-    <hyperlink ref="B403" r:id="rId365"/>
-    <hyperlink ref="B404" r:id="rId366"/>
-    <hyperlink ref="B405" r:id="rId367"/>
-    <hyperlink ref="B406" r:id="rId368"/>
-    <hyperlink ref="B407" r:id="rId369"/>
-    <hyperlink ref="B408" r:id="rId370"/>
-    <hyperlink ref="B409" r:id="rId371"/>
-    <hyperlink ref="B410" r:id="rId372"/>
-    <hyperlink ref="B411" r:id="rId373"/>
-    <hyperlink ref="B412" r:id="rId374"/>
-    <hyperlink ref="B413" r:id="rId375"/>
-    <hyperlink ref="B414" r:id="rId376"/>
-    <hyperlink ref="B415" r:id="rId377"/>
-    <hyperlink ref="B416" r:id="rId378"/>
-    <hyperlink ref="B417" r:id="rId379"/>
-    <hyperlink ref="B418" r:id="rId380"/>
-    <hyperlink ref="B419" r:id="rId381"/>
-    <hyperlink ref="B420" r:id="rId382"/>
-    <hyperlink ref="B421" r:id="rId383"/>
-    <hyperlink ref="B422" r:id="rId384"/>
-    <hyperlink ref="B423" r:id="rId385"/>
-    <hyperlink ref="B424" r:id="rId386"/>
-    <hyperlink ref="B425" r:id="rId387"/>
-    <hyperlink ref="B426" r:id="rId388"/>
-    <hyperlink ref="B427" r:id="rId389"/>
-    <hyperlink ref="B428" r:id="rId390"/>
-    <hyperlink ref="B429" r:id="rId391"/>
-    <hyperlink ref="B430" r:id="rId392"/>
-    <hyperlink ref="B431" r:id="rId393"/>
-    <hyperlink ref="B432" r:id="rId394"/>
-    <hyperlink ref="B433" r:id="rId395"/>
-    <hyperlink ref="B434" r:id="rId396"/>
-    <hyperlink ref="B435" r:id="rId397"/>
-    <hyperlink ref="B436" r:id="rId398"/>
-    <hyperlink ref="B437" r:id="rId399"/>
-    <hyperlink ref="B438" r:id="rId400"/>
-    <hyperlink ref="B439" r:id="rId401"/>
-    <hyperlink ref="B440" r:id="rId402"/>
-    <hyperlink ref="B441" r:id="rId403"/>
-    <hyperlink ref="B442" r:id="rId404"/>
-    <hyperlink ref="B444" r:id="rId405"/>
-    <hyperlink ref="B443" r:id="rId406"/>
-    <hyperlink ref="B445" r:id="rId407"/>
-    <hyperlink ref="B446" r:id="rId408"/>
-    <hyperlink ref="B447" r:id="rId409"/>
-    <hyperlink ref="B448" r:id="rId410"/>
-    <hyperlink ref="B449" r:id="rId411"/>
-    <hyperlink ref="B450" r:id="rId412"/>
-    <hyperlink ref="B451" r:id="rId413"/>
-    <hyperlink ref="B452" r:id="rId414"/>
-    <hyperlink ref="B453" r:id="rId415"/>
-    <hyperlink ref="B454" r:id="rId416"/>
-    <hyperlink ref="B455" r:id="rId417"/>
-    <hyperlink ref="B462" r:id="rId418"/>
-    <hyperlink ref="B461" r:id="rId419"/>
-    <hyperlink ref="B460" r:id="rId420"/>
-    <hyperlink ref="B459" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B457" r:id="rId423"/>
-    <hyperlink ref="B456" r:id="rId424"/>
-    <hyperlink ref="B465" r:id="rId425"/>
-    <hyperlink ref="B466" r:id="rId426"/>
-    <hyperlink ref="B467" r:id="rId427"/>
-    <hyperlink ref="B468" r:id="rId428"/>
-    <hyperlink ref="B469" r:id="rId429"/>
-    <hyperlink ref="B470" r:id="rId430"/>
-    <hyperlink ref="B471" r:id="rId431"/>
-    <hyperlink ref="B474" r:id="rId432"/>
-    <hyperlink ref="B472" r:id="rId433"/>
-    <hyperlink ref="B473" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B350" r:id="rId435"/>
+    <hyperlink ref="B191" r:id="rId172"/>
+    <hyperlink ref="B192" r:id="rId173"/>
+    <hyperlink ref="B193" r:id="rId174"/>
+    <hyperlink ref="B194" r:id="rId175"/>
+    <hyperlink ref="B195" r:id="rId176"/>
+    <hyperlink ref="B196" r:id="rId177" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B197" r:id="rId178"/>
+    <hyperlink ref="B198" r:id="rId179"/>
+    <hyperlink ref="B199" r:id="rId180"/>
+    <hyperlink ref="B200" r:id="rId181" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B202" r:id="rId182"/>
+    <hyperlink ref="B203" r:id="rId183"/>
+    <hyperlink ref="B204" r:id="rId184"/>
+    <hyperlink ref="B207" r:id="rId185" display="Fina a value in a BST"/>
+    <hyperlink ref="B210" r:id="rId186"/>
+    <hyperlink ref="B211" r:id="rId187"/>
+    <hyperlink ref="B212" r:id="rId188"/>
+    <hyperlink ref="B213" r:id="rId189"/>
+    <hyperlink ref="B214" r:id="rId190"/>
+    <hyperlink ref="B215" r:id="rId191"/>
+    <hyperlink ref="B216" r:id="rId192"/>
+    <hyperlink ref="B217" r:id="rId193"/>
+    <hyperlink ref="B218" r:id="rId194"/>
+    <hyperlink ref="B219" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B220" r:id="rId196"/>
+    <hyperlink ref="B221" r:id="rId197"/>
+    <hyperlink ref="B222" r:id="rId198"/>
+    <hyperlink ref="B223" r:id="rId199"/>
+    <hyperlink ref="B224" r:id="rId200"/>
+    <hyperlink ref="B225" r:id="rId201"/>
+    <hyperlink ref="B226" r:id="rId202"/>
+    <hyperlink ref="B227" r:id="rId203"/>
+    <hyperlink ref="B228" r:id="rId204"/>
+    <hyperlink ref="B229" r:id="rId205"/>
+    <hyperlink ref="B230" r:id="rId206"/>
+    <hyperlink ref="B233" r:id="rId207"/>
+    <hyperlink ref="B234" r:id="rId208"/>
+    <hyperlink ref="B235" r:id="rId209"/>
+    <hyperlink ref="B236" r:id="rId210"/>
+    <hyperlink ref="B237" r:id="rId211"/>
+    <hyperlink ref="B238" r:id="rId212"/>
+    <hyperlink ref="B239" r:id="rId213"/>
+    <hyperlink ref="B240" r:id="rId214"/>
+    <hyperlink ref="B241" r:id="rId215"/>
+    <hyperlink ref="B242" r:id="rId216"/>
+    <hyperlink ref="B243" r:id="rId217"/>
+    <hyperlink ref="B244" r:id="rId218"/>
+    <hyperlink ref="B245" r:id="rId219"/>
+    <hyperlink ref="B246" r:id="rId220"/>
+    <hyperlink ref="B247" r:id="rId221"/>
+    <hyperlink ref="B248" r:id="rId222"/>
+    <hyperlink ref="B249" r:id="rId223"/>
+    <hyperlink ref="B250" r:id="rId224"/>
+    <hyperlink ref="B251" r:id="rId225"/>
+    <hyperlink ref="B252" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B253" r:id="rId227"/>
+    <hyperlink ref="B254" r:id="rId228"/>
+    <hyperlink ref="B255" r:id="rId229"/>
+    <hyperlink ref="B256" r:id="rId230"/>
+    <hyperlink ref="B257" r:id="rId231"/>
+    <hyperlink ref="B258" r:id="rId232"/>
+    <hyperlink ref="B259" r:id="rId233"/>
+    <hyperlink ref="B260" r:id="rId234"/>
+    <hyperlink ref="B261" r:id="rId235"/>
+    <hyperlink ref="B262" r:id="rId236"/>
+    <hyperlink ref="B263" r:id="rId237"/>
+    <hyperlink ref="B264" r:id="rId238"/>
+    <hyperlink ref="B265" r:id="rId239"/>
+    <hyperlink ref="B266" r:id="rId240"/>
+    <hyperlink ref="B267" r:id="rId241"/>
+    <hyperlink ref="B270" r:id="rId242"/>
+    <hyperlink ref="B271" r:id="rId243"/>
+    <hyperlink ref="B272" r:id="rId244"/>
+    <hyperlink ref="B273" r:id="rId245"/>
+    <hyperlink ref="B274" r:id="rId246"/>
+    <hyperlink ref="B275" r:id="rId247"/>
+    <hyperlink ref="B276" r:id="rId248"/>
+    <hyperlink ref="B277" r:id="rId249"/>
+    <hyperlink ref="B278" r:id="rId250"/>
+    <hyperlink ref="B279" r:id="rId251"/>
+    <hyperlink ref="B280" r:id="rId252"/>
+    <hyperlink ref="B281" r:id="rId253"/>
+    <hyperlink ref="B282" r:id="rId254"/>
+    <hyperlink ref="B283" r:id="rId255"/>
+    <hyperlink ref="B284" r:id="rId256"/>
+    <hyperlink ref="B285" r:id="rId257"/>
+    <hyperlink ref="B286" r:id="rId258"/>
+    <hyperlink ref="B287" r:id="rId259"/>
+    <hyperlink ref="B288" r:id="rId260"/>
+    <hyperlink ref="B291" r:id="rId261"/>
+    <hyperlink ref="B292" r:id="rId262"/>
+    <hyperlink ref="B293" r:id="rId263"/>
+    <hyperlink ref="B294" r:id="rId264"/>
+    <hyperlink ref="B295" r:id="rId265"/>
+    <hyperlink ref="B296" r:id="rId266"/>
+    <hyperlink ref="B297" r:id="rId267"/>
+    <hyperlink ref="B298" r:id="rId268"/>
+    <hyperlink ref="B299" r:id="rId269"/>
+    <hyperlink ref="B300" r:id="rId270"/>
+    <hyperlink ref="B301" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B302" r:id="rId272"/>
+    <hyperlink ref="B303" r:id="rId273"/>
+    <hyperlink ref="B304" r:id="rId274"/>
+    <hyperlink ref="B305" r:id="rId275"/>
+    <hyperlink ref="B306" r:id="rId276"/>
+    <hyperlink ref="B307" r:id="rId277"/>
+    <hyperlink ref="B308" r:id="rId278"/>
+    <hyperlink ref="B309" r:id="rId279"/>
+    <hyperlink ref="B310" r:id="rId280"/>
+    <hyperlink ref="B311" r:id="rId281"/>
+    <hyperlink ref="B312" r:id="rId282"/>
+    <hyperlink ref="B313" r:id="rId283"/>
+    <hyperlink ref="B314" r:id="rId284"/>
+    <hyperlink ref="B315" r:id="rId285"/>
+    <hyperlink ref="B316" r:id="rId286"/>
+    <hyperlink ref="B317" r:id="rId287"/>
+    <hyperlink ref="B318" r:id="rId288"/>
+    <hyperlink ref="B319" r:id="rId289"/>
+    <hyperlink ref="B320" r:id="rId290"/>
+    <hyperlink ref="B321" r:id="rId291"/>
+    <hyperlink ref="B322" r:id="rId292"/>
+    <hyperlink ref="B323" r:id="rId293"/>
+    <hyperlink ref="B324" r:id="rId294"/>
+    <hyperlink ref="B325" r:id="rId295"/>
+    <hyperlink ref="B326" r:id="rId296"/>
+    <hyperlink ref="B327" r:id="rId297"/>
+    <hyperlink ref="B328" r:id="rId298"/>
+    <hyperlink ref="B331" r:id="rId299"/>
+    <hyperlink ref="B332" r:id="rId300"/>
+    <hyperlink ref="B333" r:id="rId301"/>
+    <hyperlink ref="B334" r:id="rId302"/>
+    <hyperlink ref="B335" r:id="rId303"/>
+    <hyperlink ref="B336" r:id="rId304"/>
+    <hyperlink ref="B337" r:id="rId305"/>
+    <hyperlink ref="B338" r:id="rId306"/>
+    <hyperlink ref="B339" r:id="rId307"/>
+    <hyperlink ref="B340" r:id="rId308"/>
+    <hyperlink ref="B341" r:id="rId309"/>
+    <hyperlink ref="B342" r:id="rId310"/>
+    <hyperlink ref="B343" r:id="rId311"/>
+    <hyperlink ref="B344" r:id="rId312"/>
+    <hyperlink ref="B345" r:id="rId313"/>
+    <hyperlink ref="B346" r:id="rId314"/>
+    <hyperlink ref="B347" r:id="rId315"/>
+    <hyperlink ref="B348" r:id="rId316"/>
+    <hyperlink ref="B352" r:id="rId317"/>
+    <hyperlink ref="B353" r:id="rId318"/>
+    <hyperlink ref="B354" r:id="rId319"/>
+    <hyperlink ref="B355" r:id="rId320"/>
+    <hyperlink ref="B356" r:id="rId321"/>
+    <hyperlink ref="B357" r:id="rId322"/>
+    <hyperlink ref="B358" r:id="rId323"/>
+    <hyperlink ref="B359" r:id="rId324"/>
+    <hyperlink ref="B360" r:id="rId325"/>
+    <hyperlink ref="B361" r:id="rId326"/>
+    <hyperlink ref="B362" r:id="rId327"/>
+    <hyperlink ref="B363" r:id="rId328"/>
+    <hyperlink ref="B364" r:id="rId329"/>
+    <hyperlink ref="B365" r:id="rId330"/>
+    <hyperlink ref="B366" r:id="rId331"/>
+    <hyperlink ref="B367" r:id="rId332"/>
+    <hyperlink ref="B368" r:id="rId333"/>
+    <hyperlink ref="B369" r:id="rId334"/>
+    <hyperlink ref="B370" r:id="rId335"/>
+    <hyperlink ref="B371" r:id="rId336"/>
+    <hyperlink ref="B372" r:id="rId337"/>
+    <hyperlink ref="B373" r:id="rId338"/>
+    <hyperlink ref="B374" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B375" r:id="rId340"/>
+    <hyperlink ref="B376" r:id="rId341"/>
+    <hyperlink ref="B377" r:id="rId342"/>
+    <hyperlink ref="B378" r:id="rId343"/>
+    <hyperlink ref="B379" r:id="rId344"/>
+    <hyperlink ref="B380" r:id="rId345"/>
+    <hyperlink ref="B381" r:id="rId346"/>
+    <hyperlink ref="B382" r:id="rId347"/>
+    <hyperlink ref="B383" r:id="rId348"/>
+    <hyperlink ref="B384" r:id="rId349"/>
+    <hyperlink ref="B385" r:id="rId350"/>
+    <hyperlink ref="B386" r:id="rId351"/>
+    <hyperlink ref="B387" r:id="rId352"/>
+    <hyperlink ref="B388" r:id="rId353"/>
+    <hyperlink ref="B390" r:id="rId354"/>
+    <hyperlink ref="B389" r:id="rId355"/>
+    <hyperlink ref="B391" r:id="rId356"/>
+    <hyperlink ref="B392" r:id="rId357"/>
+    <hyperlink ref="B393" r:id="rId358"/>
+    <hyperlink ref="B396" r:id="rId359"/>
+    <hyperlink ref="B397" r:id="rId360"/>
+    <hyperlink ref="B398" r:id="rId361"/>
+    <hyperlink ref="B399" r:id="rId362"/>
+    <hyperlink ref="B400" r:id="rId363"/>
+    <hyperlink ref="B401" r:id="rId364"/>
+    <hyperlink ref="B404" r:id="rId365"/>
+    <hyperlink ref="B405" r:id="rId366"/>
+    <hyperlink ref="B406" r:id="rId367"/>
+    <hyperlink ref="B407" r:id="rId368"/>
+    <hyperlink ref="B408" r:id="rId369"/>
+    <hyperlink ref="B409" r:id="rId370"/>
+    <hyperlink ref="B410" r:id="rId371"/>
+    <hyperlink ref="B411" r:id="rId372"/>
+    <hyperlink ref="B412" r:id="rId373"/>
+    <hyperlink ref="B413" r:id="rId374"/>
+    <hyperlink ref="B414" r:id="rId375"/>
+    <hyperlink ref="B415" r:id="rId376"/>
+    <hyperlink ref="B416" r:id="rId377"/>
+    <hyperlink ref="B417" r:id="rId378"/>
+    <hyperlink ref="B418" r:id="rId379"/>
+    <hyperlink ref="B419" r:id="rId380"/>
+    <hyperlink ref="B420" r:id="rId381"/>
+    <hyperlink ref="B421" r:id="rId382"/>
+    <hyperlink ref="B422" r:id="rId383"/>
+    <hyperlink ref="B423" r:id="rId384"/>
+    <hyperlink ref="B424" r:id="rId385"/>
+    <hyperlink ref="B425" r:id="rId386"/>
+    <hyperlink ref="B426" r:id="rId387"/>
+    <hyperlink ref="B427" r:id="rId388"/>
+    <hyperlink ref="B428" r:id="rId389"/>
+    <hyperlink ref="B429" r:id="rId390"/>
+    <hyperlink ref="B430" r:id="rId391"/>
+    <hyperlink ref="B431" r:id="rId392"/>
+    <hyperlink ref="B432" r:id="rId393"/>
+    <hyperlink ref="B433" r:id="rId394"/>
+    <hyperlink ref="B434" r:id="rId395"/>
+    <hyperlink ref="B435" r:id="rId396"/>
+    <hyperlink ref="B436" r:id="rId397"/>
+    <hyperlink ref="B437" r:id="rId398"/>
+    <hyperlink ref="B438" r:id="rId399"/>
+    <hyperlink ref="B439" r:id="rId400"/>
+    <hyperlink ref="B440" r:id="rId401"/>
+    <hyperlink ref="B441" r:id="rId402"/>
+    <hyperlink ref="B442" r:id="rId403"/>
+    <hyperlink ref="B443" r:id="rId404"/>
+    <hyperlink ref="B445" r:id="rId405"/>
+    <hyperlink ref="B444" r:id="rId406"/>
+    <hyperlink ref="B446" r:id="rId407"/>
+    <hyperlink ref="B447" r:id="rId408"/>
+    <hyperlink ref="B448" r:id="rId409"/>
+    <hyperlink ref="B449" r:id="rId410"/>
+    <hyperlink ref="B450" r:id="rId411"/>
+    <hyperlink ref="B451" r:id="rId412"/>
+    <hyperlink ref="B452" r:id="rId413"/>
+    <hyperlink ref="B453" r:id="rId414"/>
+    <hyperlink ref="B454" r:id="rId415"/>
+    <hyperlink ref="B455" r:id="rId416"/>
+    <hyperlink ref="B456" r:id="rId417"/>
+    <hyperlink ref="B463" r:id="rId418"/>
+    <hyperlink ref="B462" r:id="rId419"/>
+    <hyperlink ref="B461" r:id="rId420"/>
+    <hyperlink ref="B460" r:id="rId421"/>
+    <hyperlink ref="B459" r:id="rId422"/>
+    <hyperlink ref="B458" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B466" r:id="rId425"/>
+    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B468" r:id="rId427"/>
+    <hyperlink ref="B469" r:id="rId428"/>
+    <hyperlink ref="B470" r:id="rId429"/>
+    <hyperlink ref="B471" r:id="rId430"/>
+    <hyperlink ref="B472" r:id="rId431"/>
+    <hyperlink ref="B475" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433"/>
+    <hyperlink ref="B474" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B351" r:id="rId435"/>
     <hyperlink ref="B2" r:id="rId436"/>
     <hyperlink ref="D17" r:id="rId437"/>
     <hyperlink ref="D6" r:id="rId438"/>
@@ -7976,21 +8014,24 @@
     <hyperlink ref="D173" r:id="rId486"/>
     <hyperlink ref="D172" r:id="rId487"/>
     <hyperlink ref="D181" r:id="rId488"/>
-    <hyperlink ref="D197" r:id="rId489"/>
+    <hyperlink ref="D198" r:id="rId489"/>
     <hyperlink ref="D184" r:id="rId490"/>
     <hyperlink ref="D177" r:id="rId491"/>
     <hyperlink ref="D178" r:id="rId492"/>
-    <hyperlink ref="D200" r:id="rId493"/>
-    <hyperlink ref="B200" r:id="rId494"/>
+    <hyperlink ref="D201" r:id="rId493"/>
+    <hyperlink ref="B201" r:id="rId494"/>
     <hyperlink ref="D186" r:id="rId495"/>
-    <hyperlink ref="D206" r:id="rId496"/>
-    <hyperlink ref="D199" r:id="rId497"/>
+    <hyperlink ref="D207" r:id="rId496"/>
+    <hyperlink ref="D200" r:id="rId497"/>
     <hyperlink ref="D170" r:id="rId498"/>
     <hyperlink ref="D188" r:id="rId499"/>
-    <hyperlink ref="D193" r:id="rId500"/>
-    <hyperlink ref="D207" r:id="rId501"/>
+    <hyperlink ref="D194" r:id="rId500"/>
+    <hyperlink ref="D208" r:id="rId501"/>
+    <hyperlink ref="D221" r:id="rId502"/>
+    <hyperlink ref="D190" r:id="rId503"/>
+    <hyperlink ref="D211" r:id="rId504"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId502"/>
+  <pageSetup orientation="portrait" r:id="rId505"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="535">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1626,6 +1626,9 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/min-and-max-of-binary-tree_5673?leftPanelTab=2</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/notes/factorial-of-large-number/</t>
   </si>
 </sst>
 </file>
@@ -2277,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2586,7 +2589,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -8030,8 +8036,9 @@
     <hyperlink ref="D221" r:id="rId502"/>
     <hyperlink ref="D190" r:id="rId503"/>
     <hyperlink ref="D211" r:id="rId504"/>
+    <hyperlink ref="D26" r:id="rId505"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId505"/>
+  <pageSetup orientation="portrait" r:id="rId506"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="538">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1629,6 +1629,15 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/practice/notes/factorial-of-large-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/library/count-bst-nodes-that-lie-in-a-given-range</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/submissions/</t>
   </si>
 </sst>
 </file>
@@ -2280,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -4742,7 +4751,10 @@
         <v>186</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
@@ -4764,7 +4776,10 @@
         <v>188</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
@@ -4870,7 +4885,10 @@
         <v>196</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D224" s="21" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="21">
@@ -8037,8 +8055,11 @@
     <hyperlink ref="D190" r:id="rId503"/>
     <hyperlink ref="D211" r:id="rId504"/>
     <hyperlink ref="D26" r:id="rId505"/>
+    <hyperlink ref="D213" r:id="rId506"/>
+    <hyperlink ref="D224" r:id="rId507"/>
+    <hyperlink ref="D215" r:id="rId508"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId506"/>
+  <pageSetup orientation="portrait" r:id="rId509"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="539">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1638,6 +1638,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/submissions/</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1876,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1970,6 +1973,9 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2289,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2672,7 +2678,7 @@
       <c r="C32" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="42" t="s">
         <v>453</v>
       </c>
     </row>
@@ -2784,7 +2790,7 @@
       <c r="C43" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="23" t="s">
         <v>458</v>
       </c>
     </row>
@@ -2863,6 +2869,9 @@
       </c>
       <c r="C50" s="2" t="s">
         <v>440</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -8058,8 +8067,9 @@
     <hyperlink ref="D213" r:id="rId506"/>
     <hyperlink ref="D224" r:id="rId507"/>
     <hyperlink ref="D215" r:id="rId508"/>
+    <hyperlink ref="D50" r:id="rId509"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId509"/>
+  <pageSetup orientation="portrait" r:id="rId510"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="541">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1641,6 +1641,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/rotate-image/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/predecessor-and-successor_920476?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>brute force would be to pass the value at each node to ValidateBST and check if it is valid or not and if valid count the total no. of nodes using any traversal</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1869,6 +1875,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1876,7 +1922,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1974,6 +2020,31 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -2295,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -4749,7 +4820,10 @@
         <v>185</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D212" s="21" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
@@ -4836,31 +4910,31 @@
       </c>
       <c r="D219" s="24"/>
     </row>
-    <row r="220" spans="1:4" ht="21">
-      <c r="A220" s="3" t="s">
+    <row r="220" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A220" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D220" s="17" t="s">
+      <c r="C220" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D220" s="46" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21">
-      <c r="A221" s="3" t="s">
+    <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
+      <c r="A221" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D221" s="21" t="s">
+      <c r="C221" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D221" s="51" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4900,7 +4974,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21">
+    <row r="225" spans="1:6" ht="21">
       <c r="A225" s="3" t="s">
         <v>182</v>
       </c>
@@ -4911,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21">
+    <row r="226" spans="1:6" ht="21">
       <c r="A226" s="3" t="s">
         <v>182</v>
       </c>
@@ -4922,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21">
+    <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
         <v>182</v>
       </c>
@@ -4932,8 +5006,9 @@
       <c r="C227" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="21">
+      <c r="D227" s="53"/>
+    </row>
+    <row r="228" spans="1:6" ht="21">
       <c r="A228" s="3" t="s">
         <v>182</v>
       </c>
@@ -4944,7 +5019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="229" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A229" s="6" t="s">
         <v>182</v>
       </c>
@@ -4952,11 +5027,14 @@
         <v>201</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="D229" s="24"/>
-    </row>
-    <row r="230" spans="1:4" ht="21">
+      <c r="F229" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="21">
       <c r="A230" s="3" t="s">
         <v>182</v>
       </c>
@@ -4967,15 +5045,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21">
+    <row r="231" spans="1:6" ht="21">
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="1:4" ht="21">
+    <row r="232" spans="1:6" ht="21">
       <c r="B232" s="4"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:4" ht="21">
+    <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
         <v>203</v>
       </c>
@@ -4986,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21">
+    <row r="234" spans="1:6" ht="21">
       <c r="A234" s="3" t="s">
         <v>203</v>
       </c>
@@ -4997,7 +5075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21">
+    <row r="235" spans="1:6" ht="21">
       <c r="A235" s="3" t="s">
         <v>203</v>
       </c>
@@ -5008,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21">
+    <row r="236" spans="1:6" ht="21">
       <c r="A236" s="3" t="s">
         <v>203</v>
       </c>
@@ -5019,7 +5097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="21">
+    <row r="237" spans="1:6" ht="21">
       <c r="A237" s="3" t="s">
         <v>203</v>
       </c>
@@ -5030,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="21">
+    <row r="238" spans="1:6" ht="21">
       <c r="A238" s="3" t="s">
         <v>203</v>
       </c>
@@ -5041,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="21">
+    <row r="239" spans="1:6" ht="21">
       <c r="A239" s="3" t="s">
         <v>203</v>
       </c>
@@ -5052,7 +5130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21">
+    <row r="240" spans="1:6" ht="21">
       <c r="A240" s="3" t="s">
         <v>203</v>
       </c>
@@ -8068,8 +8146,9 @@
     <hyperlink ref="D224" r:id="rId507"/>
     <hyperlink ref="D215" r:id="rId508"/>
     <hyperlink ref="D50" r:id="rId509"/>
+    <hyperlink ref="D212" r:id="rId510"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId510"/>
+  <pageSetup orientation="portrait" r:id="rId511"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="542">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1647,6 +1647,9 @@
   </si>
   <si>
     <t>brute force would be to pass the value at each node to ValidateBST and check if it is valid or not and if valid count the total no. of nodes using any traversal</t>
+  </si>
+  <si>
+    <t>folder</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1925,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2046,6 +2049,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2366,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -5993,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
         <v>258</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
         <v>258</v>
       </c>
@@ -6015,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
         <v>258</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
         <v>258</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
         <v>258</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
         <v>258</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
         <v>258</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="3" t="s">
         <v>258</v>
       </c>
@@ -6081,15 +6087,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" spans="1:4" ht="21">
       <c r="B329" s="4"/>
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" spans="1:4" ht="21">
       <c r="B330" s="4"/>
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>297</v>
       </c>
@@ -6097,10 +6103,13 @@
         <v>298</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="21">
+        <v>440</v>
+      </c>
+      <c r="D331" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="5" t="s">
         <v>297</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
         <v>297</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
         <v>297</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="A335" s="5" t="s">
         <v>297</v>
       </c>
@@ -6144,18 +6153,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="5" t="s">
+    <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A336" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
+      <c r="C336" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336" s="24"/>
+    </row>
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="5" t="s">
         <v>297</v>
       </c>
@@ -6166,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="5" t="s">
         <v>297</v>
       </c>
@@ -6177,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="5" t="s">
         <v>297</v>
       </c>
@@ -6188,18 +6198,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
-      <c r="A340" s="5" t="s">
+    <row r="340" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A340" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
+      <c r="C340" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D340" s="24"/>
+    </row>
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="5" t="s">
         <v>297</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="5" t="s">
         <v>297</v>
       </c>
@@ -6221,7 +6232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="5" t="s">
         <v>297</v>
       </c>
@@ -6232,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="5" t="s">
         <v>297</v>
       </c>
@@ -6243,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="5" t="s">
         <v>297</v>
       </c>
@@ -6254,18 +6265,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="5" t="s">
+    <row r="346" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A346" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="21">
+      <c r="C346" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D346" s="54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="5" t="s">
         <v>297</v>
       </c>
@@ -6276,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="5" t="s">
         <v>297</v>
       </c>
@@ -6287,15 +6301,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" spans="1:4" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" spans="1:4" ht="21">
       <c r="B350" s="4"/>
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="5" t="s">
         <v>316</v>
       </c>
@@ -6306,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="5" t="s">
         <v>316</v>
       </c>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="544">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1650,6 +1650,12 @@
   </si>
   <si>
     <t>folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above one </t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/connect-n-ropes-with-minimum-cost_630476?leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2379,7 @@
   <dimension ref="A1:F475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A330" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+      <selection activeCell="F338" sqref="F338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -6117,19 +6123,23 @@
         <v>299</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="21">
-      <c r="A333" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A333" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B333" s="14" t="s">
+      <c r="B333" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C333" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D333" s="24"/>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
@@ -6139,7 +6149,10 @@
         <v>301</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D334" s="21" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="21">
@@ -6150,7 +6163,10 @@
         <v>302</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
@@ -6251,7 +6267,10 @@
         <v>311</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>3</v>
+        <v>440</v>
+      </c>
+      <c r="D344" s="21" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="21">
@@ -8161,8 +8180,10 @@
     <hyperlink ref="D215" r:id="rId508"/>
     <hyperlink ref="D50" r:id="rId509"/>
     <hyperlink ref="D212" r:id="rId510"/>
+    <hyperlink ref="D334" r:id="rId511"/>
+    <hyperlink ref="D344" r:id="rId512"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId511"/>
+  <pageSetup orientation="portrait" r:id="rId513"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="548">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -947,9 +947,6 @@
     <t>Leetcode- reorganize strings</t>
   </si>
   <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
     <t>Smallest range in “K” Lists</t>
   </si>
   <si>
@@ -1656,6 +1653,21 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/connect-n-ropes-with-minimum-cost_630476?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]    [HARD YET EASY]</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/minimum-sum-of-two-numbers-formed-from-digits-of-an-array_1171162?leftPanelTab=3</t>
+  </si>
+  <si>
+    <t>failing on some edge test case</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2399,7 +2411,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2410,10 +2422,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2427,10 +2439,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2441,10 +2453,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2455,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2469,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2483,10 +2495,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2508,10 +2520,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>440</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2537,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2548,10 +2560,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2562,10 +2574,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2576,10 +2588,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2604,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2626,10 +2638,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2640,10 +2652,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2687,10 +2699,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2701,10 +2713,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2756,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2770,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2868,13 +2880,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2951,10 +2963,10 @@
         <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2992,10 +3004,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -3006,10 +3018,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -3020,10 +3032,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3473,10 +3485,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3498,7 +3510,7 @@
         <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3509,10 +3521,10 @@
         <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3589,10 +3601,10 @@
         <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3702,7 +3714,7 @@
         <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3841,10 +3853,10 @@
         <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3855,10 +3867,10 @@
         <v>126</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3869,10 +3881,10 @@
         <v>127</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3883,10 +3895,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3897,10 +3909,10 @@
         <v>129</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3911,10 +3923,10 @@
         <v>130</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3925,10 +3937,10 @@
         <v>131</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3939,10 +3951,10 @@
         <v>132</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3953,10 +3965,10 @@
         <v>133</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3989,7 +4001,7 @@
         <v>136</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D144" s="18"/>
     </row>
@@ -4013,10 +4025,10 @@
         <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -4027,10 +4039,10 @@
         <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -4041,10 +4053,10 @@
         <v>140</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4055,10 +4067,10 @@
         <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4069,10 +4081,10 @@
         <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -4132,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -4140,13 +4152,13 @@
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4154,10 +4166,10 @@
         <v>124</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D157" s="33"/>
     </row>
@@ -4169,27 +4181,27 @@
         <v>148</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B159" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="C159" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="D159" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="F159" s="37" t="s">
         <v>492</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4197,13 +4209,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4211,13 +4223,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>485</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4247,13 +4259,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4264,10 +4276,10 @@
         <v>151</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4278,10 +4290,10 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4290,16 +4302,16 @@
     </row>
     <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A169" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="C169" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4310,10 +4322,10 @@
         <v>154</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4321,13 +4333,13 @@
         <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4338,10 +4350,10 @@
         <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4352,10 +4364,10 @@
         <v>156</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4366,10 +4378,10 @@
         <v>157</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4380,10 +4392,10 @@
         <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4394,10 +4406,10 @@
         <v>159</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4408,10 +4420,10 @@
         <v>160</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4422,10 +4434,10 @@
         <v>161</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4458,10 +4470,10 @@
         <v>164</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4472,10 +4484,10 @@
         <v>165</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -4494,13 +4506,13 @@
         <v>153</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4519,13 +4531,13 @@
         <v>153</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D186" s="21" t="s">
         <v>516</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4547,10 +4559,10 @@
         <v>169</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -4569,13 +4581,13 @@
         <v>153</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>531</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -4620,10 +4632,10 @@
         <v>174</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="21">
@@ -4665,13 +4677,13 @@
         <v>153</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="21">
@@ -4690,13 +4702,13 @@
         <v>153</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4704,13 +4716,13 @@
         <v>153</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="21">
@@ -4762,13 +4774,13 @@
         <v>182</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4776,13 +4788,13 @@
         <v>182</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D208" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4790,13 +4802,13 @@
         <v>182</v>
       </c>
       <c r="B209" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D209" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
@@ -4818,10 +4830,10 @@
         <v>184</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
@@ -4832,10 +4844,10 @@
         <v>185</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
@@ -4846,10 +4858,10 @@
         <v>186</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
@@ -4871,10 +4883,10 @@
         <v>188</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
@@ -4915,7 +4927,7 @@
         <v>182</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>3</v>
@@ -4930,10 +4942,10 @@
         <v>192</v>
       </c>
       <c r="C220" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
@@ -4944,10 +4956,10 @@
         <v>193</v>
       </c>
       <c r="C221" s="50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D221" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
@@ -4980,10 +4992,10 @@
         <v>196</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
@@ -5039,11 +5051,11 @@
         <v>201</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D229" s="24"/>
       <c r="F229" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
@@ -6109,10 +6121,10 @@
         <v>298</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="21">
@@ -6123,10 +6135,10 @@
         <v>299</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
@@ -6149,10 +6161,10 @@
         <v>301</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="21">
@@ -6163,10 +6175,10 @@
         <v>302</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
@@ -6181,7 +6193,7 @@
       </c>
       <c r="D336" s="24"/>
     </row>
-    <row r="337" spans="1:4" ht="21">
+    <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
         <v>297</v>
       </c>
@@ -6192,7 +6204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="21">
+    <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
         <v>297</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="21">
+    <row r="339" spans="1:6" ht="21">
       <c r="A339" s="5" t="s">
         <v>297</v>
       </c>
@@ -6213,138 +6225,149 @@
       <c r="C339" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="D339" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A340" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D340" s="24"/>
-    </row>
-    <row r="341" spans="1:4" ht="21">
+        <v>439</v>
+      </c>
+      <c r="D340" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="21">
       <c r="A341" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="21">
+    <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="21">
+    <row r="343" spans="1:6" ht="21">
       <c r="A343" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="21">
+    <row r="344" spans="1:6" ht="21">
       <c r="A344" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="21">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="21">
       <c r="A345" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="346" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A346" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D346" s="54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="21">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="21">
+    <row r="348" spans="1:6" ht="21">
       <c r="A348" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="21">
+        <v>439</v>
+      </c>
+      <c r="D348" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="F348" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="1:4" ht="21">
+    <row r="350" spans="1:6" ht="21">
       <c r="B350" s="4"/>
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="1:4" ht="21">
+    <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="C351" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="21">
+      <c r="A352" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B352" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="21">
-      <c r="A352" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6352,10 +6375,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6363,10 +6386,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6374,10 +6397,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6385,10 +6408,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6396,10 +6419,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6407,10 +6430,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6418,10 +6441,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6429,10 +6452,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6440,10 +6463,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6451,10 +6474,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6462,10 +6485,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6473,10 +6496,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6484,10 +6507,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6495,10 +6518,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6506,10 +6529,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6517,10 +6540,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6528,10 +6551,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6539,10 +6562,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6550,10 +6573,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6561,10 +6584,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6572,10 +6595,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6583,10 +6606,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -6594,10 +6617,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>3</v>
@@ -6605,10 +6628,10 @@
     </row>
     <row r="376" spans="1:4" ht="21">
       <c r="A376" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>3</v>
@@ -6616,10 +6639,10 @@
     </row>
     <row r="377" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A377" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>3</v>
@@ -6628,10 +6651,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6639,10 +6662,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6650,10 +6673,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6661,10 +6684,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6672,10 +6695,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6683,10 +6706,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6694,10 +6717,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6705,10 +6728,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6716,10 +6739,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6727,10 +6750,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6738,10 +6761,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6749,10 +6772,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6760,10 +6783,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6771,10 +6794,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6782,10 +6805,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>3</v>
@@ -6793,10 +6816,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>3</v>
@@ -6812,10 +6835,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B396" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6823,10 +6846,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6834,10 +6857,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6845,7 +6868,7 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>83</v>
@@ -6856,10 +6879,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>3</v>
@@ -6867,10 +6890,10 @@
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>3</v>
@@ -6886,21 +6909,21 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B404" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B404" s="14" t="s">
-        <v>367</v>
-      </c>
       <c r="C404" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6908,10 +6931,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6919,10 +6942,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6930,10 +6953,10 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>3</v>
@@ -6941,21 +6964,21 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6963,7 +6986,7 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>246</v>
@@ -6974,10 +6997,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -6985,10 +7008,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -6996,10 +7019,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -7007,10 +7030,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -7018,10 +7041,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -7029,10 +7052,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -7040,10 +7063,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -7051,10 +7074,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -7062,10 +7085,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -7073,10 +7096,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -7084,10 +7107,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -7095,10 +7118,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -7106,10 +7129,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -7117,10 +7140,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -7128,10 +7151,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -7139,10 +7162,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -7150,10 +7173,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -7161,10 +7184,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -7172,10 +7195,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -7183,10 +7206,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -7194,10 +7217,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -7205,10 +7228,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -7216,10 +7239,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -7227,10 +7250,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -7238,10 +7261,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>3</v>
@@ -7249,10 +7272,10 @@
     </row>
     <row r="437" spans="1:4" ht="21">
       <c r="A437" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B437" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>3</v>
@@ -7260,10 +7283,10 @@
     </row>
     <row r="438" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A438" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>3</v>
@@ -7272,10 +7295,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7283,10 +7306,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7294,10 +7317,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7305,10 +7328,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7316,10 +7339,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7327,10 +7350,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7338,10 +7361,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7349,10 +7372,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -7360,10 +7383,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -7371,10 +7394,10 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>3</v>
@@ -7382,10 +7405,10 @@
     </row>
     <row r="449" spans="1:4" ht="21">
       <c r="A449" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B449" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>3</v>
@@ -7393,10 +7416,10 @@
     </row>
     <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A450" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C450" s="25" t="s">
         <v>3</v>
@@ -7405,10 +7428,10 @@
     </row>
     <row r="451" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A451" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B451" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C451" s="25" t="s">
         <v>3</v>
@@ -7417,10 +7440,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -7428,10 +7451,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7439,10 +7462,10 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B454" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>3</v>
@@ -7450,10 +7473,10 @@
     </row>
     <row r="455" spans="1:4" ht="21">
       <c r="A455" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>3</v>
@@ -7461,22 +7484,22 @@
     </row>
     <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A456" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D456" s="24"/>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B457" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>3</v>
@@ -7484,10 +7507,10 @@
     </row>
     <row r="458" spans="1:4" ht="21">
       <c r="A458" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B458" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>3</v>
@@ -7495,10 +7518,10 @@
     </row>
     <row r="459" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A459" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>3</v>
@@ -7507,10 +7530,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7518,10 +7541,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7529,10 +7552,10 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>3</v>
@@ -7540,10 +7563,10 @@
     </row>
     <row r="463" spans="1:4" ht="21">
       <c r="A463" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B463" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>3</v>
@@ -7560,10 +7583,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B466" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="B466" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7571,10 +7594,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7582,10 +7605,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7593,10 +7616,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7604,10 +7627,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>3</v>
@@ -7615,21 +7638,21 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7637,10 +7660,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>3</v>
@@ -7648,10 +7671,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>3</v>
@@ -7659,13 +7682,13 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -7977,7 +8000,7 @@
     <hyperlink ref="B337" r:id="rId305"/>
     <hyperlink ref="B338" r:id="rId306"/>
     <hyperlink ref="B339" r:id="rId307"/>
-    <hyperlink ref="B340" r:id="rId308"/>
+    <hyperlink ref="B340" r:id="rId308" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
     <hyperlink ref="B341" r:id="rId309"/>
     <hyperlink ref="B342" r:id="rId310"/>
     <hyperlink ref="B343" r:id="rId311"/>
@@ -8182,8 +8205,11 @@
     <hyperlink ref="D212" r:id="rId510"/>
     <hyperlink ref="D334" r:id="rId511"/>
     <hyperlink ref="D344" r:id="rId512"/>
+    <hyperlink ref="D340" r:id="rId513"/>
+    <hyperlink ref="D348" r:id="rId514"/>
+    <hyperlink ref="D339" r:id="rId515"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId513"/>
+  <pageSetup orientation="portrait" r:id="rId516"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -1364,9 +1364,6 @@
     <t>https://leetcode.com/problems/merge-sorted-array/</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
   </si>
   <si>
@@ -1668,6 +1665,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reorganize-string/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/move-all-negative-numbers-to-beginning-and-positive-to-end_1112620?leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B338" sqref="B338"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>437</v>
@@ -2497,8 +2497,8 @@
       <c r="C10" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>446</v>
+      <c r="D10" s="21" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2563,7 +2563,7 @@
         <v>439</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2641,7 +2641,7 @@
         <v>439</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2655,7 +2655,7 @@
         <v>439</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2702,7 +2702,7 @@
         <v>439</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2716,7 +2716,7 @@
         <v>439</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2768,13 +2768,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>439</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2880,13 +2880,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2966,7 +2966,7 @@
         <v>439</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -3021,7 +3021,7 @@
         <v>439</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -3035,7 +3035,7 @@
         <v>439</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3488,7 +3488,7 @@
         <v>439</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3524,7 +3524,7 @@
         <v>439</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3604,7 +3604,7 @@
         <v>439</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3856,7 +3856,7 @@
         <v>439</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3870,7 +3870,7 @@
         <v>439</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3884,7 +3884,7 @@
         <v>439</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3898,7 +3898,7 @@
         <v>439</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3912,7 +3912,7 @@
         <v>439</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3926,7 +3926,7 @@
         <v>439</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3940,7 +3940,7 @@
         <v>439</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3954,7 +3954,7 @@
         <v>439</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3968,7 +3968,7 @@
         <v>439</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -4028,7 +4028,7 @@
         <v>439</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -4042,7 +4042,7 @@
         <v>439</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -4056,7 +4056,7 @@
         <v>439</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4070,7 +4070,7 @@
         <v>439</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4084,7 +4084,7 @@
         <v>439</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="21">
@@ -4152,13 +4152,13 @@
         <v>124</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>464</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4166,7 +4166,7 @@
         <v>124</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C157" s="31" t="s">
         <v>439</v>
@@ -4184,24 +4184,24 @@
         <v>439</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B159" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="C159" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="C159" s="31" t="s">
+      <c r="D159" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="D159" s="38" t="s">
+      <c r="F159" s="37" t="s">
         <v>491</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
@@ -4209,13 +4209,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C160" s="31" t="s">
         <v>439</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4223,13 +4223,13 @@
         <v>124</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4259,13 +4259,13 @@
         <v>124</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C164" s="22" t="s">
         <v>439</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4279,7 +4279,7 @@
         <v>439</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -4293,7 +4293,7 @@
         <v>439</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -4302,16 +4302,16 @@
     </row>
     <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A169" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="C169" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4325,7 +4325,7 @@
         <v>439</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4333,13 +4333,13 @@
         <v>153</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4353,7 +4353,7 @@
         <v>439</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4367,7 +4367,7 @@
         <v>439</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4381,7 +4381,7 @@
         <v>439</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4395,7 +4395,7 @@
         <v>439</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4409,7 +4409,7 @@
         <v>439</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4423,7 +4423,7 @@
         <v>439</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4437,7 +4437,7 @@
         <v>439</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4473,7 +4473,7 @@
         <v>439</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4487,7 +4487,7 @@
         <v>439</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -4506,13 +4506,13 @@
         <v>153</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C184" s="31" t="s">
         <v>439</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4531,13 +4531,13 @@
         <v>153</v>
       </c>
       <c r="B186" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D186" s="21" t="s">
         <v>515</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4562,7 +4562,7 @@
         <v>439</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -4581,13 +4581,13 @@
         <v>153</v>
       </c>
       <c r="B190" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>530</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -4635,7 +4635,7 @@
         <v>439</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="21">
@@ -4677,13 +4677,13 @@
         <v>153</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C198" s="31" t="s">
         <v>439</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="21">
@@ -4702,13 +4702,13 @@
         <v>153</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4716,13 +4716,13 @@
         <v>153</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="21">
@@ -4774,13 +4774,13 @@
         <v>182</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4788,13 +4788,13 @@
         <v>182</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D208" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4802,13 +4802,13 @@
         <v>182</v>
       </c>
       <c r="B209" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D209" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
@@ -4833,7 +4833,7 @@
         <v>439</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
@@ -4847,7 +4847,7 @@
         <v>439</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
@@ -4861,7 +4861,7 @@
         <v>439</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
@@ -4886,7 +4886,7 @@
         <v>439</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
@@ -4927,7 +4927,7 @@
         <v>182</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>3</v>
@@ -4945,7 +4945,7 @@
         <v>439</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
@@ -4959,7 +4959,7 @@
         <v>439</v>
       </c>
       <c r="D221" s="51" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
@@ -4995,7 +4995,7 @@
         <v>439</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="D229" s="24"/>
       <c r="F229" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
@@ -6124,7 +6124,7 @@
         <v>439</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="21">
@@ -6138,7 +6138,7 @@
         <v>439</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
@@ -6178,7 +6178,7 @@
         <v>439</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
@@ -6226,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="7" customFormat="1" ht="21">
@@ -6234,13 +6234,13 @@
         <v>297</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="21">
@@ -6287,7 +6287,7 @@
         <v>439</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21">
@@ -6312,7 +6312,7 @@
         <v>439</v>
       </c>
       <c r="D346" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21">
@@ -6337,10 +6337,10 @@
         <v>439</v>
       </c>
       <c r="D348" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="F348" t="s">
         <v>545</v>
-      </c>
-      <c r="F348" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="21">
@@ -8208,8 +8208,9 @@
     <hyperlink ref="D340" r:id="rId513"/>
     <hyperlink ref="D348" r:id="rId514"/>
     <hyperlink ref="D339" r:id="rId515"/>
+    <hyperlink ref="D10" r:id="rId516"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId516"/>
+  <pageSetup orientation="portrait" r:id="rId517"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="549">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Minimum no. of operations required to make an array palindrome</t>
   </si>
   <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
     <t>Matrix</t>
   </si>
   <si>
@@ -917,9 +911,6 @@
     <t>Next Smaller Element</t>
   </si>
   <si>
-    <t>Heap</t>
-  </si>
-  <si>
     <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
   </si>
   <si>
@@ -1668,6 +1659,18 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/move-all-negative-numbers-to-beginning-and-positive-to-end_1112620?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/submissions/</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays [HARD] YET VERY EASY</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/alternatives_893342?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>Heap / priorityQueue</t>
   </si>
 </sst>
 </file>
@@ -2388,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B349" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -2422,10 +2425,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2439,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2453,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2467,10 +2470,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2481,10 +2484,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2495,10 +2498,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2520,10 +2523,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2549,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2560,10 +2563,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2574,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2588,10 +2591,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2616,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2638,10 +2641,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2652,10 +2655,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2677,7 +2680,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2699,10 +2705,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2713,10 +2719,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2768,13 +2774,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
@@ -2782,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>3</v>
@@ -2844,57 +2850,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A39" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
+      <c r="B39" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="21">
+      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="21">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>456</v>
+    <row r="42" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -2902,10 +2911,10 @@
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
@@ -2913,10 +2922,10 @@
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -2924,10 +2933,10 @@
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -2935,10 +2944,10 @@
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -2946,104 +2955,104 @@
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>536</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="21">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>459</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -3051,10 +3060,10 @@
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
@@ -3062,10 +3071,10 @@
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -3073,10 +3082,10 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>3</v>
@@ -3084,10 +3093,10 @@
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -3095,10 +3104,10 @@
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
@@ -3106,32 +3115,33 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="9" customFormat="1" ht="19.8">
+      <c r="A65" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="21">
-      <c r="A65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A66" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>3</v>
@@ -3140,10 +3150,10 @@
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A67" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>3</v>
@@ -3152,10 +3162,10 @@
     </row>
     <row r="68" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A68" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>3</v>
@@ -3164,34 +3174,33 @@
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A69" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" ht="21">
+      <c r="A70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="18"/>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" ht="19.8">
-      <c r="A70" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="18"/>
+      <c r="C70" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>3</v>
@@ -3199,10 +3208,10 @@
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -3210,10 +3219,10 @@
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -3221,10 +3230,10 @@
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -3232,10 +3241,10 @@
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
@@ -3243,10 +3252,10 @@
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -3254,10 +3263,10 @@
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -3265,10 +3274,10 @@
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -3276,10 +3285,10 @@
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
@@ -3287,10 +3296,10 @@
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -3298,10 +3307,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -3309,10 +3318,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -3320,10 +3329,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>3</v>
@@ -3331,10 +3340,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -3342,10 +3351,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
@@ -3353,10 +3362,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -3364,10 +3373,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -3375,10 +3384,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -3386,10 +3395,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>3</v>
@@ -3397,10 +3406,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -3408,10 +3417,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
@@ -3419,10 +3428,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -3430,10 +3439,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>3</v>
@@ -3441,10 +3450,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -3452,87 +3461,87 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
+      <c r="A97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="21">
+      <c r="A98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="14" t="s">
+      <c r="B98" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="21">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="21">
       <c r="A99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
       <c r="A100" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>460</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>3</v>
@@ -3540,10 +3549,10 @@
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
@@ -3551,10 +3560,10 @@
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>3</v>
@@ -3562,10 +3571,10 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>3</v>
@@ -3573,46 +3582,46 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A108" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="21">
-      <c r="A108" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="14" t="s">
+      <c r="C108" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
+      <c r="A109" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A109" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>462</v>
+      <c r="C109" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>3</v>
@@ -3620,10 +3629,10 @@
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>3</v>
@@ -3631,10 +3640,10 @@
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>3</v>
@@ -3642,10 +3651,10 @@
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>3</v>
@@ -3653,10 +3662,10 @@
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
@@ -3664,10 +3673,10 @@
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>3</v>
@@ -3675,10 +3684,10 @@
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
@@ -3686,10 +3695,10 @@
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>3</v>
@@ -3697,67 +3706,67 @@
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B119" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A120" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="21">
-      <c r="A120" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C120" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A121" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B121" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="1:4" ht="21">
+      <c r="A122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="27"/>
-    </row>
-    <row r="122" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A122" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="27"/>
+      <c r="C122" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>3</v>
@@ -3765,44 +3774,44 @@
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A125" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="21">
-      <c r="A125" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="C125" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="1:4" ht="21">
+      <c r="A126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A126" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="27"/>
+      <c r="C126" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
@@ -3810,10 +3819,10 @@
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>3</v>
@@ -3821,631 +3830,631 @@
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21">
+      <c r="B131" s="4"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="21">
+      <c r="A132" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21">
-      <c r="A130" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B130" s="14" t="s">
+      <c r="B132" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="21">
-      <c r="B132" s="4"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="21">
-      <c r="A133" s="5" t="s">
+      <c r="C132" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A133" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="C133" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21">
+      <c r="A134" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A134" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>467</v>
+      <c r="C134" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D135" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
       <c r="A137" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>471</v>
+        <v>436</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="A138" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>472</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A143" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C143" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A144" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="18"/>
+    </row>
+    <row r="145" spans="1:6" ht="21">
+      <c r="A145" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D144" s="18"/>
-    </row>
-    <row r="145" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A145" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="18"/>
+      <c r="C145" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>465</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B151" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A152" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C152" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="24"/>
     </row>
     <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="24"/>
+    </row>
+    <row r="154" spans="1:6" ht="21">
+      <c r="A154" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A154" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="24"/>
+      <c r="C154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A157" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B157" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A156" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D156" s="33"/>
+    </row>
+    <row r="157" spans="1:6" ht="21">
+      <c r="A157" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C157" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D157" s="33"/>
-    </row>
-    <row r="158" spans="1:6" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>482</v>
+    </row>
+    <row r="158" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A158" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D158" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="F158" s="37" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A160" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B160" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C160" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="21">
+      <c r="A160" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>484</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B162" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A163" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
+      <c r="A164" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B164" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="4" customFormat="1" ht="21">
-      <c r="A164" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>476</v>
+      <c r="C164" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>439</v>
+        <v>150</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B166" s="14" t="s">
+    <row r="167" spans="1:4" ht="21">
+      <c r="B167" s="4"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A168" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
+      <c r="A169" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B169" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D166" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
-      <c r="B168" s="4"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A169" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>496</v>
+      <c r="C169" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>154</v>
+        <v>495</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B171" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="C171" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
       <c r="A175" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>510</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>3</v>
@@ -4453,311 +4462,305 @@
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B182" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A183" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D183" s="40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B184" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="21">
-      <c r="A183" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A184" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B184" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C184" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D184" s="40" t="s">
-        <v>508</v>
+      <c r="C184" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>514</v>
+        <v>166</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>515</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>520</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>170</v>
+        <v>526</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>529</v>
+        <v>169</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>530</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A192" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="21">
-      <c r="A192" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B192" s="14" t="s">
+      <c r="C192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="24"/>
+    </row>
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B193" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A193" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="24"/>
+      <c r="C193" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B194" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A195" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="21">
-      <c r="A195" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B195" s="14" t="s">
+      <c r="C195" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="24"/>
+    </row>
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B196" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A196" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="C196" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A197" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B197" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C197" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B198" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="24"/>
-    </row>
-    <row r="197" spans="1:4" ht="21">
-      <c r="A197" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A198" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B198" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="C198" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="D198" s="33" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="21">
-      <c r="A199" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A200" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>517</v>
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A199" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B201" s="41" t="s">
-        <v>513</v>
+        <v>151</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D201" s="21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
-      <c r="A202" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B202" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A202" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="24"/>
+    </row>
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B203" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A203" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="24"/>
+      <c r="C203" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="21">
-      <c r="A204" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A204" s="5"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5"/>
@@ -4765,136 +4768,142 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:4" ht="21">
-      <c r="A206" s="5"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="2"/>
+      <c r="A206" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D208" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>524</v>
+        <v>181</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>525</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B210" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B210" s="14" t="s">
-        <v>183</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D210" s="21" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>533</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B214" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D214" s="21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D215" s="21" t="s">
-        <v>535</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -4902,72 +4911,72 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B217" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A218" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="24"/>
+    </row>
+    <row r="219" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A219" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B219" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
-      <c r="A218" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B218" s="14" t="s">
+      <c r="C219" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="D219" s="46" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="52" customFormat="1" ht="21">
+      <c r="A220" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B220" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A219" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" s="47" customFormat="1" ht="21">
-      <c r="A220" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B220" s="44" t="s">
+      <c r="C220" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="D220" s="51" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
+      <c r="A221" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C220" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="D220" s="46" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
-      <c r="A221" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B221" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C221" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="D221" s="51" t="s">
-        <v>526</v>
+      <c r="C221" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4975,35 +4984,35 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D224" s="21" t="s">
-        <v>534</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -5011,78 +5020,78 @@
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D226" s="53"/>
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A228" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D227" s="53"/>
-    </row>
-    <row r="228" spans="1:6" ht="21">
-      <c r="A228" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B228" s="14" t="s">
+      <c r="C228" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D228" s="24"/>
+      <c r="F228" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="21">
+      <c r="A229" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B229" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A229" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D229" s="24"/>
-      <c r="F229" s="7" t="s">
-        <v>538</v>
+      <c r="C229" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
-      <c r="A230" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:6" ht="21">
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="21">
-      <c r="B232" s="4"/>
-      <c r="C232" s="2"/>
+      <c r="A232" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B233" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="B233" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -5090,10 +5099,10 @@
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -5101,10 +5110,10 @@
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -5112,10 +5121,10 @@
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="A236" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -5123,10 +5132,10 @@
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="A237" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -5134,10 +5143,10 @@
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -5145,10 +5154,10 @@
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -5156,10 +5165,10 @@
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -5167,10 +5176,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -5178,10 +5187,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -5189,10 +5198,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -5200,10 +5209,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -5211,10 +5220,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -5222,10 +5231,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -5233,10 +5242,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -5244,10 +5253,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -5255,10 +5264,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -5266,10 +5275,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5277,10 +5286,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5288,10 +5297,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5299,10 +5308,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5310,10 +5319,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5321,10 +5330,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5332,10 +5341,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5343,10 +5352,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5354,10 +5363,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5365,10 +5374,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5376,10 +5385,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5387,10 +5396,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5398,10 +5407,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5409,10 +5418,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -5420,10 +5429,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5431,10 +5440,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>3</v>
@@ -5442,40 +5451,40 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="B268" s="4"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="B269" s="4"/>
-      <c r="C269" s="2"/>
+      <c r="A269" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B270" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B270" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5483,10 +5492,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5494,10 +5503,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5505,10 +5514,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5516,10 +5525,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5527,10 +5536,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5538,10 +5547,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5549,10 +5558,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5560,10 +5569,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5571,10 +5580,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5582,10 +5591,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5593,10 +5602,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5604,10 +5613,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5615,10 +5624,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5626,10 +5635,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5637,10 +5646,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5648,10 +5657,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>3</v>
@@ -5659,40 +5668,40 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="B289" s="4"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="B290" s="4"/>
-      <c r="C290" s="2"/>
+      <c r="A290" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>259</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5700,10 +5709,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5711,10 +5720,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5722,10 +5731,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5733,10 +5742,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5744,10 +5753,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5755,10 +5764,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5766,10 +5775,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5777,10 +5786,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5788,10 +5797,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5799,10 +5808,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5810,10 +5819,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5821,10 +5830,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>271</v>
+        <v>256</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5832,10 +5841,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B304" s="16" t="s">
-        <v>272</v>
+        <v>256</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5843,10 +5852,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5854,10 +5863,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5865,10 +5874,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5876,10 +5885,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5887,10 +5896,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5898,10 +5907,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5909,10 +5918,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5920,10 +5929,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5931,10 +5940,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5942,10 +5951,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5953,10 +5962,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5964,10 +5973,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5975,10 +5984,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5986,10 +5995,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -5997,10 +6006,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -6008,10 +6017,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -6019,10 +6028,10 @@
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -6030,10 +6039,10 @@
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -6041,10 +6050,10 @@
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -6052,10 +6061,10 @@
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -6063,10 +6072,10 @@
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -6074,10 +6083,10 @@
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>3</v>
@@ -6085,120 +6094,120 @@
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="21">
-      <c r="A328" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B328" s="4"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:4" ht="21">
       <c r="B329" s="4"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:4" ht="21">
-      <c r="B330" s="4"/>
-      <c r="C330" s="2"/>
+      <c r="A330" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B330" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D330" s="22" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A332" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B331" s="14" t="s">
+      <c r="C332" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D332" s="24"/>
+    </row>
+    <row r="333" spans="1:4" ht="21">
+      <c r="A333" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B333" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C333" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D333" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="D331" s="22" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="21">
-      <c r="A332" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B332" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A333" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D333" s="24"/>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B334" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A335" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D335" s="24"/>
+    </row>
+    <row r="336" spans="1:4" ht="21">
+      <c r="A336" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B336" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D334" s="21" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="21">
-      <c r="A335" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B335" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A336" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D336" s="24"/>
+      <c r="C336" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -6206,49 +6215,49 @@
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B338" s="14" t="s">
-        <v>305</v>
+        <v>548</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="21">
+      <c r="D338" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A339" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B339" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D339" s="21" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" s="7" customFormat="1" ht="21">
+        <v>548</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D339" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="21">
       <c r="A340" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D340" s="23" t="s">
-        <v>542</v>
+        <v>548</v>
+      </c>
+      <c r="B340" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="21">
       <c r="A341" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -6256,107 +6265,107 @@
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21">
-      <c r="A343" s="5" t="s">
-        <v>297</v>
+      <c r="A343" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D343" s="21" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21">
       <c r="A344" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B344" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A345" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D345" s="54" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="21">
+      <c r="A346" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B346" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D344" s="21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="21">
-      <c r="A345" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B345" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A346" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D346" s="54" t="s">
-        <v>539</v>
+      <c r="C346" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="F347" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
-      <c r="A348" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D348" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="F348" t="s">
-        <v>545</v>
-      </c>
+      <c r="B348" s="4"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:6" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:6" ht="21">
-      <c r="B350" s="4"/>
-      <c r="C350" s="2"/>
+      <c r="A350" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B350" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6364,10 +6373,10 @@
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B352" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>317</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6375,10 +6384,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6386,10 +6395,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6397,10 +6406,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6408,10 +6417,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6419,10 +6428,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6430,10 +6439,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6441,10 +6450,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6452,10 +6461,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6463,10 +6472,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6474,10 +6483,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6485,10 +6494,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6496,10 +6505,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6507,10 +6516,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6518,10 +6527,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6529,10 +6538,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6540,10 +6549,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6551,10 +6560,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6562,10 +6571,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6573,10 +6582,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6584,10 +6593,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6595,10 +6604,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6606,10 +6615,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -6617,44 +6626,44 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B375" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A376" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D376" s="24"/>
+    </row>
+    <row r="377" spans="1:4" ht="21">
+      <c r="A377" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B377" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="21">
-      <c r="A376" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B376" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A377" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D377" s="24"/>
+      <c r="C377" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6662,10 +6671,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6673,10 +6682,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6684,10 +6693,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6695,10 +6704,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6706,10 +6715,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6717,10 +6726,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6728,10 +6737,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6739,10 +6748,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6750,10 +6759,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6761,10 +6770,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6772,10 +6781,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6783,10 +6792,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6794,10 +6803,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6805,40 +6814,40 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B393" s="4"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="B394" s="4"/>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="B395" s="4"/>
-      <c r="C395" s="2"/>
+      <c r="A395" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6846,10 +6855,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B397" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6857,10 +6866,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6868,10 +6877,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6879,51 +6888,51 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="A401" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B401" s="4"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="B402" s="4"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="B403" s="4"/>
-      <c r="C403" s="2"/>
+      <c r="A403" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C403" s="36" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="C404" s="36" t="s">
-        <v>439</v>
+        <v>364</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B405" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>367</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6931,10 +6940,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6942,10 +6951,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6953,32 +6962,32 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6986,10 +6995,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -6997,10 +7006,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -7008,10 +7017,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -7019,10 +7028,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -7030,10 +7039,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -7041,10 +7050,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -7052,10 +7061,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -7063,10 +7072,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -7074,10 +7083,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -7085,10 +7094,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -7096,10 +7105,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -7107,10 +7116,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -7118,10 +7127,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -7129,10 +7138,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -7140,10 +7149,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -7151,10 +7160,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -7162,10 +7171,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -7173,10 +7182,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -7184,10 +7193,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -7195,10 +7204,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -7206,10 +7215,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -7217,10 +7226,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -7228,10 +7237,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -7239,10 +7248,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -7250,10 +7259,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -7261,44 +7270,44 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B436" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A437" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D437" s="24"/>
+    </row>
+    <row r="438" spans="1:4" ht="21">
+      <c r="A438" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B438" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="21">
-      <c r="A437" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B437" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A438" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B438" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D438" s="24"/>
+      <c r="C438" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7306,10 +7315,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7317,10 +7326,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7328,10 +7337,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7339,10 +7348,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7350,10 +7359,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7361,10 +7370,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7372,10 +7381,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -7383,10 +7392,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -7394,56 +7403,56 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B448" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="21">
-      <c r="A449" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A449" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B449" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C449" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449" s="27"/>
     </row>
     <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A450" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C450" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D450" s="27"/>
     </row>
-    <row r="451" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A451" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C451" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D451" s="27"/>
+    <row r="451" spans="1:4" ht="21">
+      <c r="A451" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -7451,10 +7460,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7462,78 +7471,78 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B454" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A455" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D455" s="24"/>
+    </row>
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B456" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="21">
-      <c r="A455" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B455" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A456" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D456" s="24"/>
+      <c r="C456" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B457" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A458" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D458" s="24"/>
+    </row>
+    <row r="459" spans="1:4" ht="21">
+      <c r="A459" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B459" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" ht="21">
-      <c r="A458" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A459" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B459" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D459" s="24"/>
+      <c r="C459" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7541,10 +7550,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7552,41 +7561,41 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B462" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="21">
-      <c r="A463" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="1:4" ht="21">
+      <c r="A464" s="5"/>
       <c r="B464" s="4"/>
       <c r="C464" s="2"/>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5"/>
-      <c r="B465" s="4"/>
-      <c r="C465" s="2"/>
+      <c r="A465" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B465" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7594,10 +7603,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B467" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7605,10 +7614,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7616,10 +7625,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7627,32 +7636,32 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7660,10 +7669,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>3</v>
@@ -7671,24 +7680,13 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B474" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7726,9 +7724,9 @@
     <hyperlink ref="B36" r:id="rId31"/>
     <hyperlink ref="B37" r:id="rId32"/>
     <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B43" r:id="rId36" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B39" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B42" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B43" r:id="rId36"/>
     <hyperlink ref="B44" r:id="rId37"/>
     <hyperlink ref="B45" r:id="rId38"/>
     <hyperlink ref="B46" r:id="rId39"/>
@@ -7737,7 +7735,7 @@
     <hyperlink ref="B49" r:id="rId42"/>
     <hyperlink ref="B50" r:id="rId43"/>
     <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B54" r:id="rId45"/>
     <hyperlink ref="B55" r:id="rId46"/>
     <hyperlink ref="B56" r:id="rId47"/>
     <hyperlink ref="B57" r:id="rId48"/>
@@ -7779,17 +7777,17 @@
     <hyperlink ref="B93" r:id="rId84"/>
     <hyperlink ref="B94" r:id="rId85"/>
     <hyperlink ref="B95" r:id="rId86"/>
-    <hyperlink ref="B96" r:id="rId87"/>
+    <hyperlink ref="B98" r:id="rId87"/>
     <hyperlink ref="B99" r:id="rId88"/>
     <hyperlink ref="B100" r:id="rId89"/>
     <hyperlink ref="B101" r:id="rId90"/>
-    <hyperlink ref="B102" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B103" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B104" r:id="rId92"/>
     <hyperlink ref="B105" r:id="rId93"/>
     <hyperlink ref="B106" r:id="rId94"/>
     <hyperlink ref="B107" r:id="rId95"/>
     <hyperlink ref="B108" r:id="rId96"/>
-    <hyperlink ref="B109" r:id="rId97"/>
+    <hyperlink ref="B110" r:id="rId97"/>
     <hyperlink ref="B111" r:id="rId98"/>
     <hyperlink ref="B112" r:id="rId99"/>
     <hyperlink ref="B113" r:id="rId100"/>
@@ -7809,9 +7807,9 @@
     <hyperlink ref="B127" r:id="rId114"/>
     <hyperlink ref="B128" r:id="rId115"/>
     <hyperlink ref="B129" r:id="rId116"/>
-    <hyperlink ref="B130" r:id="rId117"/>
-    <hyperlink ref="B103" r:id="rId118"/>
-    <hyperlink ref="B110" r:id="rId119"/>
+    <hyperlink ref="B102" r:id="rId117"/>
+    <hyperlink ref="B109" r:id="rId118"/>
+    <hyperlink ref="B132" r:id="rId119"/>
     <hyperlink ref="B133" r:id="rId120"/>
     <hyperlink ref="B134" r:id="rId121"/>
     <hyperlink ref="B135" r:id="rId122"/>
@@ -7833,19 +7831,19 @@
     <hyperlink ref="B151" r:id="rId138"/>
     <hyperlink ref="B152" r:id="rId139"/>
     <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B154" r:id="rId141"/>
-    <hyperlink ref="B157" r:id="rId142" display="Flatten a Linked List"/>
-    <hyperlink ref="B158" r:id="rId143"/>
-    <hyperlink ref="B159" r:id="rId144" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B161" r:id="rId145" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B156" r:id="rId141" display="Flatten a Linked List"/>
+    <hyperlink ref="B157" r:id="rId142"/>
+    <hyperlink ref="B158" r:id="rId143" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B160" r:id="rId144" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B161" r:id="rId145"/>
     <hyperlink ref="B162" r:id="rId146"/>
     <hyperlink ref="B163" r:id="rId147"/>
     <hyperlink ref="B164" r:id="rId148"/>
     <hyperlink ref="B165" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B169" r:id="rId151" display="level order traversal"/>
-    <hyperlink ref="B170" r:id="rId152"/>
-    <hyperlink ref="B171" r:id="rId153" display="Height of a tree"/>
+    <hyperlink ref="B168" r:id="rId150" display="level order traversal"/>
+    <hyperlink ref="B169" r:id="rId151"/>
+    <hyperlink ref="B170" r:id="rId152" display="Height of a tree"/>
+    <hyperlink ref="B171" r:id="rId153"/>
     <hyperlink ref="B172" r:id="rId154"/>
     <hyperlink ref="B173" r:id="rId155"/>
     <hyperlink ref="B174" r:id="rId156"/>
@@ -7857,27 +7855,27 @@
     <hyperlink ref="B180" r:id="rId162"/>
     <hyperlink ref="B181" r:id="rId163"/>
     <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B183" r:id="rId165" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B186" r:id="rId168"/>
     <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B188" r:id="rId170" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B190" r:id="rId171"/>
     <hyperlink ref="B191" r:id="rId172"/>
     <hyperlink ref="B192" r:id="rId173"/>
     <hyperlink ref="B193" r:id="rId174"/>
     <hyperlink ref="B194" r:id="rId175"/>
-    <hyperlink ref="B195" r:id="rId176"/>
-    <hyperlink ref="B196" r:id="rId177" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B195" r:id="rId176" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B196" r:id="rId177"/>
     <hyperlink ref="B197" r:id="rId178"/>
     <hyperlink ref="B198" r:id="rId179"/>
-    <hyperlink ref="B199" r:id="rId180"/>
-    <hyperlink ref="B200" r:id="rId181" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B199" r:id="rId180" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B201" r:id="rId181"/>
     <hyperlink ref="B202" r:id="rId182"/>
     <hyperlink ref="B203" r:id="rId183"/>
-    <hyperlink ref="B204" r:id="rId184"/>
-    <hyperlink ref="B207" r:id="rId185" display="Fina a value in a BST"/>
+    <hyperlink ref="B206" r:id="rId184" display="Fina a value in a BST"/>
+    <hyperlink ref="B209" r:id="rId185"/>
     <hyperlink ref="B210" r:id="rId186"/>
     <hyperlink ref="B211" r:id="rId187"/>
     <hyperlink ref="B212" r:id="rId188"/>
@@ -7886,8 +7884,8 @@
     <hyperlink ref="B215" r:id="rId191"/>
     <hyperlink ref="B216" r:id="rId192"/>
     <hyperlink ref="B217" r:id="rId193"/>
-    <hyperlink ref="B218" r:id="rId194"/>
-    <hyperlink ref="B219" r:id="rId195" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B218" r:id="rId194" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B219" r:id="rId195"/>
     <hyperlink ref="B220" r:id="rId196"/>
     <hyperlink ref="B221" r:id="rId197"/>
     <hyperlink ref="B222" r:id="rId198"/>
@@ -7898,7 +7896,7 @@
     <hyperlink ref="B227" r:id="rId203"/>
     <hyperlink ref="B228" r:id="rId204"/>
     <hyperlink ref="B229" r:id="rId205"/>
-    <hyperlink ref="B230" r:id="rId206"/>
+    <hyperlink ref="B232" r:id="rId206"/>
     <hyperlink ref="B233" r:id="rId207"/>
     <hyperlink ref="B234" r:id="rId208"/>
     <hyperlink ref="B235" r:id="rId209"/>
@@ -7917,8 +7915,8 @@
     <hyperlink ref="B248" r:id="rId222"/>
     <hyperlink ref="B249" r:id="rId223"/>
     <hyperlink ref="B250" r:id="rId224"/>
-    <hyperlink ref="B251" r:id="rId225"/>
-    <hyperlink ref="B252" r:id="rId226" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B251" r:id="rId225" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B252" r:id="rId226"/>
     <hyperlink ref="B253" r:id="rId227"/>
     <hyperlink ref="B254" r:id="rId228"/>
     <hyperlink ref="B255" r:id="rId229"/>
@@ -7933,7 +7931,7 @@
     <hyperlink ref="B264" r:id="rId238"/>
     <hyperlink ref="B265" r:id="rId239"/>
     <hyperlink ref="B266" r:id="rId240"/>
-    <hyperlink ref="B267" r:id="rId241"/>
+    <hyperlink ref="B269" r:id="rId241"/>
     <hyperlink ref="B270" r:id="rId242"/>
     <hyperlink ref="B271" r:id="rId243"/>
     <hyperlink ref="B272" r:id="rId244"/>
@@ -7952,7 +7950,7 @@
     <hyperlink ref="B285" r:id="rId257"/>
     <hyperlink ref="B286" r:id="rId258"/>
     <hyperlink ref="B287" r:id="rId259"/>
-    <hyperlink ref="B288" r:id="rId260"/>
+    <hyperlink ref="B290" r:id="rId260"/>
     <hyperlink ref="B291" r:id="rId261"/>
     <hyperlink ref="B292" r:id="rId262"/>
     <hyperlink ref="B293" r:id="rId263"/>
@@ -7962,8 +7960,8 @@
     <hyperlink ref="B297" r:id="rId267"/>
     <hyperlink ref="B298" r:id="rId268"/>
     <hyperlink ref="B299" r:id="rId269"/>
-    <hyperlink ref="B300" r:id="rId270"/>
-    <hyperlink ref="B301" r:id="rId271" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B300" r:id="rId270" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B301" r:id="rId271"/>
     <hyperlink ref="B302" r:id="rId272"/>
     <hyperlink ref="B303" r:id="rId273"/>
     <hyperlink ref="B304" r:id="rId274"/>
@@ -7990,7 +7988,7 @@
     <hyperlink ref="B325" r:id="rId295"/>
     <hyperlink ref="B326" r:id="rId296"/>
     <hyperlink ref="B327" r:id="rId297"/>
-    <hyperlink ref="B328" r:id="rId298"/>
+    <hyperlink ref="B330" r:id="rId298"/>
     <hyperlink ref="B331" r:id="rId299"/>
     <hyperlink ref="B332" r:id="rId300"/>
     <hyperlink ref="B333" r:id="rId301"/>
@@ -7999,8 +7997,8 @@
     <hyperlink ref="B336" r:id="rId304"/>
     <hyperlink ref="B337" r:id="rId305"/>
     <hyperlink ref="B338" r:id="rId306"/>
-    <hyperlink ref="B339" r:id="rId307"/>
-    <hyperlink ref="B340" r:id="rId308" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B339" r:id="rId307" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B340" r:id="rId308"/>
     <hyperlink ref="B341" r:id="rId309"/>
     <hyperlink ref="B342" r:id="rId310"/>
     <hyperlink ref="B343" r:id="rId311"/>
@@ -8008,7 +8006,7 @@
     <hyperlink ref="B345" r:id="rId313"/>
     <hyperlink ref="B346" r:id="rId314"/>
     <hyperlink ref="B347" r:id="rId315"/>
-    <hyperlink ref="B348" r:id="rId316"/>
+    <hyperlink ref="B351" r:id="rId316"/>
     <hyperlink ref="B352" r:id="rId317"/>
     <hyperlink ref="B353" r:id="rId318"/>
     <hyperlink ref="B354" r:id="rId319"/>
@@ -8030,8 +8028,8 @@
     <hyperlink ref="B370" r:id="rId335"/>
     <hyperlink ref="B371" r:id="rId336"/>
     <hyperlink ref="B372" r:id="rId337"/>
-    <hyperlink ref="B373" r:id="rId338"/>
-    <hyperlink ref="B374" r:id="rId339" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B373" r:id="rId338" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B374" r:id="rId339"/>
     <hyperlink ref="B375" r:id="rId340"/>
     <hyperlink ref="B376" r:id="rId341"/>
     <hyperlink ref="B377" r:id="rId342"/>
@@ -8045,18 +8043,18 @@
     <hyperlink ref="B385" r:id="rId350"/>
     <hyperlink ref="B386" r:id="rId351"/>
     <hyperlink ref="B387" r:id="rId352"/>
-    <hyperlink ref="B388" r:id="rId353"/>
-    <hyperlink ref="B390" r:id="rId354"/>
-    <hyperlink ref="B389" r:id="rId355"/>
+    <hyperlink ref="B389" r:id="rId353"/>
+    <hyperlink ref="B388" r:id="rId354"/>
+    <hyperlink ref="B390" r:id="rId355"/>
     <hyperlink ref="B391" r:id="rId356"/>
     <hyperlink ref="B392" r:id="rId357"/>
-    <hyperlink ref="B393" r:id="rId358"/>
+    <hyperlink ref="B395" r:id="rId358"/>
     <hyperlink ref="B396" r:id="rId359"/>
     <hyperlink ref="B397" r:id="rId360"/>
     <hyperlink ref="B398" r:id="rId361"/>
     <hyperlink ref="B399" r:id="rId362"/>
     <hyperlink ref="B400" r:id="rId363"/>
-    <hyperlink ref="B401" r:id="rId364"/>
+    <hyperlink ref="B403" r:id="rId364"/>
     <hyperlink ref="B404" r:id="rId365"/>
     <hyperlink ref="B405" r:id="rId366"/>
     <hyperlink ref="B406" r:id="rId367"/>
@@ -8096,9 +8094,9 @@
     <hyperlink ref="B440" r:id="rId401"/>
     <hyperlink ref="B441" r:id="rId402"/>
     <hyperlink ref="B442" r:id="rId403"/>
-    <hyperlink ref="B443" r:id="rId404"/>
-    <hyperlink ref="B445" r:id="rId405"/>
-    <hyperlink ref="B444" r:id="rId406"/>
+    <hyperlink ref="B444" r:id="rId404"/>
+    <hyperlink ref="B443" r:id="rId405"/>
+    <hyperlink ref="B445" r:id="rId406"/>
     <hyperlink ref="B446" r:id="rId407"/>
     <hyperlink ref="B447" r:id="rId408"/>
     <hyperlink ref="B448" r:id="rId409"/>
@@ -8109,108 +8107,109 @@
     <hyperlink ref="B453" r:id="rId414"/>
     <hyperlink ref="B454" r:id="rId415"/>
     <hyperlink ref="B455" r:id="rId416"/>
-    <hyperlink ref="B456" r:id="rId417"/>
-    <hyperlink ref="B463" r:id="rId418"/>
-    <hyperlink ref="B462" r:id="rId419"/>
-    <hyperlink ref="B461" r:id="rId420"/>
-    <hyperlink ref="B460" r:id="rId421"/>
-    <hyperlink ref="B459" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B462" r:id="rId417"/>
+    <hyperlink ref="B461" r:id="rId418"/>
+    <hyperlink ref="B460" r:id="rId419"/>
+    <hyperlink ref="B459" r:id="rId420"/>
+    <hyperlink ref="B458" r:id="rId421"/>
+    <hyperlink ref="B457" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B465" r:id="rId424"/>
     <hyperlink ref="B466" r:id="rId425"/>
     <hyperlink ref="B467" r:id="rId426"/>
     <hyperlink ref="B468" r:id="rId427"/>
     <hyperlink ref="B469" r:id="rId428"/>
     <hyperlink ref="B470" r:id="rId429"/>
     <hyperlink ref="B471" r:id="rId430"/>
-    <hyperlink ref="B472" r:id="rId431"/>
-    <hyperlink ref="B475" r:id="rId432"/>
-    <hyperlink ref="B473" r:id="rId433"/>
-    <hyperlink ref="B474" r:id="rId434" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B351" r:id="rId435"/>
-    <hyperlink ref="B2" r:id="rId436"/>
-    <hyperlink ref="D17" r:id="rId437"/>
-    <hyperlink ref="D6" r:id="rId438"/>
-    <hyperlink ref="D8" r:id="rId439"/>
-    <hyperlink ref="D12" r:id="rId440"/>
-    <hyperlink ref="D7" r:id="rId441"/>
-    <hyperlink ref="D9" r:id="rId442"/>
-    <hyperlink ref="D16" r:id="rId443"/>
-    <hyperlink ref="D15" r:id="rId444"/>
-    <hyperlink ref="D21" r:id="rId445"/>
-    <hyperlink ref="D55" r:id="rId446"/>
-    <hyperlink ref="D14" r:id="rId447"/>
-    <hyperlink ref="D32" r:id="rId448"/>
-    <hyperlink ref="D27" r:id="rId449"/>
-    <hyperlink ref="D22" r:id="rId450"/>
-    <hyperlink ref="D19" r:id="rId451"/>
-    <hyperlink ref="D43" r:id="rId452"/>
+    <hyperlink ref="B474" r:id="rId431"/>
+    <hyperlink ref="B472" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B350" r:id="rId434"/>
+    <hyperlink ref="B2" r:id="rId435"/>
+    <hyperlink ref="D17" r:id="rId436"/>
+    <hyperlink ref="D6" r:id="rId437"/>
+    <hyperlink ref="D8" r:id="rId438"/>
+    <hyperlink ref="D12" r:id="rId439"/>
+    <hyperlink ref="D7" r:id="rId440"/>
+    <hyperlink ref="D9" r:id="rId441"/>
+    <hyperlink ref="D16" r:id="rId442"/>
+    <hyperlink ref="D15" r:id="rId443"/>
+    <hyperlink ref="D21" r:id="rId444"/>
+    <hyperlink ref="D54" r:id="rId445"/>
+    <hyperlink ref="D14" r:id="rId446"/>
+    <hyperlink ref="D32" r:id="rId447"/>
+    <hyperlink ref="D27" r:id="rId448"/>
+    <hyperlink ref="D22" r:id="rId449"/>
+    <hyperlink ref="D19" r:id="rId450"/>
+    <hyperlink ref="D42" r:id="rId451"/>
+    <hyperlink ref="D55" r:id="rId452"/>
     <hyperlink ref="D56" r:id="rId453"/>
-    <hyperlink ref="D57" r:id="rId454"/>
-    <hyperlink ref="D102" r:id="rId455"/>
-    <hyperlink ref="D99" r:id="rId456"/>
-    <hyperlink ref="D109" r:id="rId457"/>
-    <hyperlink ref="D156" r:id="rId458"/>
-    <hyperlink ref="D150" r:id="rId459"/>
+    <hyperlink ref="D101" r:id="rId454"/>
+    <hyperlink ref="D98" r:id="rId455"/>
+    <hyperlink ref="D108" r:id="rId456"/>
+    <hyperlink ref="D155" r:id="rId457"/>
+    <hyperlink ref="D149" r:id="rId458"/>
+    <hyperlink ref="D132" r:id="rId459"/>
     <hyperlink ref="D133" r:id="rId460"/>
     <hyperlink ref="D134" r:id="rId461"/>
-    <hyperlink ref="D135" r:id="rId462"/>
+    <hyperlink ref="D137" r:id="rId462"/>
     <hyperlink ref="D138" r:id="rId463"/>
-    <hyperlink ref="D139" r:id="rId464"/>
-    <hyperlink ref="D141" r:id="rId465"/>
-    <hyperlink ref="D146" r:id="rId466"/>
-    <hyperlink ref="D149" r:id="rId467"/>
+    <hyperlink ref="D140" r:id="rId464"/>
+    <hyperlink ref="D145" r:id="rId465"/>
+    <hyperlink ref="D148" r:id="rId466"/>
+    <hyperlink ref="D146" r:id="rId467"/>
     <hyperlink ref="D147" r:id="rId468"/>
-    <hyperlink ref="D148" r:id="rId469"/>
+    <hyperlink ref="D163" r:id="rId469"/>
     <hyperlink ref="D164" r:id="rId470"/>
-    <hyperlink ref="D165" r:id="rId471"/>
-    <hyperlink ref="D140" r:id="rId472"/>
-    <hyperlink ref="D166" r:id="rId473"/>
-    <hyperlink ref="D158" r:id="rId474"/>
-    <hyperlink ref="B160" r:id="rId475" display="Merge K sorted Linked list"/>
-    <hyperlink ref="D161" r:id="rId476"/>
-    <hyperlink ref="D160" r:id="rId477"/>
-    <hyperlink ref="D159" r:id="rId478"/>
-    <hyperlink ref="D155" r:id="rId479"/>
-    <hyperlink ref="D174" r:id="rId480"/>
-    <hyperlink ref="D176" r:id="rId481"/>
-    <hyperlink ref="D175" r:id="rId482"/>
-    <hyperlink ref="D169" r:id="rId483"/>
-    <hyperlink ref="D171" r:id="rId484"/>
-    <hyperlink ref="D182" r:id="rId485"/>
-    <hyperlink ref="D173" r:id="rId486"/>
-    <hyperlink ref="D172" r:id="rId487"/>
-    <hyperlink ref="D181" r:id="rId488"/>
-    <hyperlink ref="D198" r:id="rId489"/>
-    <hyperlink ref="D184" r:id="rId490"/>
+    <hyperlink ref="D139" r:id="rId471"/>
+    <hyperlink ref="D165" r:id="rId472"/>
+    <hyperlink ref="D157" r:id="rId473"/>
+    <hyperlink ref="B159" r:id="rId474" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D160" r:id="rId475"/>
+    <hyperlink ref="D159" r:id="rId476"/>
+    <hyperlink ref="D158" r:id="rId477"/>
+    <hyperlink ref="D154" r:id="rId478"/>
+    <hyperlink ref="D173" r:id="rId479"/>
+    <hyperlink ref="D175" r:id="rId480"/>
+    <hyperlink ref="D174" r:id="rId481"/>
+    <hyperlink ref="D168" r:id="rId482"/>
+    <hyperlink ref="D170" r:id="rId483"/>
+    <hyperlink ref="D181" r:id="rId484"/>
+    <hyperlink ref="D172" r:id="rId485"/>
+    <hyperlink ref="D171" r:id="rId486"/>
+    <hyperlink ref="D180" r:id="rId487"/>
+    <hyperlink ref="D197" r:id="rId488"/>
+    <hyperlink ref="D183" r:id="rId489"/>
+    <hyperlink ref="D176" r:id="rId490"/>
     <hyperlink ref="D177" r:id="rId491"/>
-    <hyperlink ref="D178" r:id="rId492"/>
-    <hyperlink ref="D201" r:id="rId493"/>
-    <hyperlink ref="B201" r:id="rId494"/>
-    <hyperlink ref="D186" r:id="rId495"/>
-    <hyperlink ref="D207" r:id="rId496"/>
-    <hyperlink ref="D200" r:id="rId497"/>
-    <hyperlink ref="D170" r:id="rId498"/>
-    <hyperlink ref="D188" r:id="rId499"/>
-    <hyperlink ref="D194" r:id="rId500"/>
-    <hyperlink ref="D208" r:id="rId501"/>
-    <hyperlink ref="D221" r:id="rId502"/>
-    <hyperlink ref="D190" r:id="rId503"/>
-    <hyperlink ref="D211" r:id="rId504"/>
-    <hyperlink ref="D26" r:id="rId505"/>
-    <hyperlink ref="D213" r:id="rId506"/>
-    <hyperlink ref="D224" r:id="rId507"/>
-    <hyperlink ref="D215" r:id="rId508"/>
-    <hyperlink ref="D50" r:id="rId509"/>
-    <hyperlink ref="D212" r:id="rId510"/>
-    <hyperlink ref="D334" r:id="rId511"/>
-    <hyperlink ref="D344" r:id="rId512"/>
-    <hyperlink ref="D340" r:id="rId513"/>
-    <hyperlink ref="D348" r:id="rId514"/>
-    <hyperlink ref="D339" r:id="rId515"/>
-    <hyperlink ref="D10" r:id="rId516"/>
+    <hyperlink ref="D200" r:id="rId492"/>
+    <hyperlink ref="B200" r:id="rId493"/>
+    <hyperlink ref="D185" r:id="rId494"/>
+    <hyperlink ref="D206" r:id="rId495"/>
+    <hyperlink ref="D199" r:id="rId496"/>
+    <hyperlink ref="D169" r:id="rId497"/>
+    <hyperlink ref="D187" r:id="rId498"/>
+    <hyperlink ref="D193" r:id="rId499"/>
+    <hyperlink ref="D207" r:id="rId500"/>
+    <hyperlink ref="D220" r:id="rId501"/>
+    <hyperlink ref="D189" r:id="rId502"/>
+    <hyperlink ref="D210" r:id="rId503"/>
+    <hyperlink ref="D26" r:id="rId504"/>
+    <hyperlink ref="D212" r:id="rId505"/>
+    <hyperlink ref="D223" r:id="rId506"/>
+    <hyperlink ref="D214" r:id="rId507"/>
+    <hyperlink ref="D49" r:id="rId508"/>
+    <hyperlink ref="D211" r:id="rId509"/>
+    <hyperlink ref="D333" r:id="rId510"/>
+    <hyperlink ref="D343" r:id="rId511"/>
+    <hyperlink ref="D339" r:id="rId512"/>
+    <hyperlink ref="D347" r:id="rId513"/>
+    <hyperlink ref="D338" r:id="rId514"/>
+    <hyperlink ref="D10" r:id="rId515"/>
+    <hyperlink ref="D39" r:id="rId516"/>
+    <hyperlink ref="D24" r:id="rId517"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId517"/>
+  <pageSetup orientation="portrait" r:id="rId518"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="551">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1671,6 +1671,12 @@
   </si>
   <si>
     <t>Heap / priorityQueue</t>
+  </si>
+  <si>
+    <t>Candy [HARD] YET VERY EASY</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/candy/submissions/</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1952,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2073,6 +2079,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2391,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F474"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2850,52 +2859,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:4" s="29" customFormat="1" ht="21">
+      <c r="A39" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21">
-      <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:4" s="29" customFormat="1" ht="21">
+      <c r="A40" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="21">
-      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:4" ht="21">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C43" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="21">
-      <c r="A43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2903,7 +2915,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -2914,7 +2926,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>3</v>
@@ -2925,7 +2937,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -2936,7 +2948,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -2947,7 +2959,7 @@
         <v>36</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -2958,13 +2970,10 @@
         <v>36</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>533</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -2972,10 +2981,13 @@
         <v>36</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2983,43 +2995,40 @@
         <v>36</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
+      <c r="A52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="21">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="21">
-      <c r="A54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>438</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -3027,13 +3036,13 @@
         <v>46</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -3041,10 +3050,13 @@
         <v>46</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -3052,7 +3064,7 @@
         <v>46</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -3063,7 +3075,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
@@ -3074,7 +3086,7 @@
         <v>46</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -3085,7 +3097,7 @@
         <v>46</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>3</v>
@@ -3096,7 +3108,7 @@
         <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -3107,7 +3119,7 @@
         <v>46</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
@@ -3118,30 +3130,29 @@
         <v>46</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="9" customFormat="1" ht="19.8">
-      <c r="A65" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="18"/>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A66" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>3</v>
@@ -3153,7 +3164,7 @@
         <v>46</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>3</v>
@@ -3165,7 +3176,7 @@
         <v>46</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>3</v>
@@ -3177,30 +3188,31 @@
         <v>46</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" s="9" customFormat="1" ht="19.8">
+      <c r="A70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="18"/>
-    </row>
-    <row r="70" spans="1:4" ht="21">
-      <c r="A70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>3</v>
@@ -3211,7 +3223,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -3222,7 +3234,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -3233,7 +3245,7 @@
         <v>46</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -3244,7 +3256,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
@@ -3255,7 +3267,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -3266,7 +3278,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -3277,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -3288,7 +3300,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
@@ -3299,7 +3311,7 @@
         <v>46</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -3310,7 +3322,7 @@
         <v>46</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -3321,7 +3333,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -3332,7 +3344,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>3</v>
@@ -3343,7 +3355,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -3354,7 +3366,7 @@
         <v>46</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
@@ -3365,7 +3377,7 @@
         <v>46</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -3376,7 +3388,7 @@
         <v>46</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
@@ -3387,7 +3399,7 @@
         <v>46</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -3398,7 +3410,7 @@
         <v>46</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>3</v>
@@ -3409,7 +3421,7 @@
         <v>46</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -3420,7 +3432,7 @@
         <v>46</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
@@ -3431,7 +3443,7 @@
         <v>46</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -3442,7 +3454,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>3</v>
@@ -3453,7 +3465,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -3464,40 +3476,40 @@
         <v>46</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="21">
+      <c r="A96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="21">
-      <c r="A97" s="5"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="21">
-      <c r="A98" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>458</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:4" ht="21">
       <c r="A99" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3505,10 +3517,10 @@
         <v>89</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
@@ -3516,13 +3528,10 @@
         <v>89</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3530,10 +3539,13 @@
         <v>89</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3541,7 +3553,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>3</v>
@@ -3552,7 +3564,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
@@ -3563,7 +3575,7 @@
         <v>89</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>3</v>
@@ -3574,7 +3586,7 @@
         <v>89</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>3</v>
@@ -3585,35 +3597,35 @@
         <v>89</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="21">
+      <c r="A108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A108" s="6" t="s">
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A109" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" s="24" t="s">
+      <c r="C109" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="21">
-      <c r="A109" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3621,7 +3633,7 @@
         <v>89</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>3</v>
@@ -3632,7 +3644,7 @@
         <v>89</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>3</v>
@@ -3643,7 +3655,7 @@
         <v>89</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>3</v>
@@ -3654,7 +3666,7 @@
         <v>89</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>3</v>
@@ -3665,7 +3677,7 @@
         <v>89</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
@@ -3676,7 +3688,7 @@
         <v>89</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>3</v>
@@ -3687,7 +3699,7 @@
         <v>89</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
@@ -3698,7 +3710,7 @@
         <v>89</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>3</v>
@@ -3709,10 +3721,10 @@
         <v>89</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3720,53 +3732,53 @@
         <v>89</v>
       </c>
       <c r="B119" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21">
+      <c r="A120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A120" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="27"/>
+      <c r="C120" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A121" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B121" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A122" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="27"/>
-    </row>
-    <row r="122" spans="1:4" ht="21">
-      <c r="A122" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C122" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="27"/>
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>3</v>
@@ -3777,41 +3789,41 @@
         <v>89</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21">
+      <c r="A125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A125" s="25" t="s">
+      <c r="C125" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A126" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B126" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="27"/>
-    </row>
-    <row r="126" spans="1:4" ht="21">
-      <c r="A126" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C126" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="27"/>
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
@@ -3822,7 +3834,7 @@
         <v>89</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>3</v>
@@ -3833,56 +3845,53 @@
         <v>89</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="21">
+      <c r="A130" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="21">
-      <c r="B131" s="4"/>
-      <c r="C131" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="21">
-      <c r="A132" s="5" t="s">
+      <c r="B132" s="4"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="21">
+      <c r="A133" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B133" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D132" s="21" t="s">
+      <c r="C133" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A133" s="6" t="s">
+    <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A134" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D133" s="23" t="s">
+      <c r="C134" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D134" s="23" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3890,13 +3899,13 @@
         <v>122</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>468</v>
+      <c r="D135" s="21" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3904,7 +3913,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>436</v>
@@ -3918,13 +3927,13 @@
         <v>122</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D137" s="21" t="s">
-        <v>466</v>
+      <c r="D137" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3932,13 +3941,13 @@
         <v>122</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -3946,13 +3955,13 @@
         <v>122</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -3960,13 +3969,13 @@
         <v>122</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -3974,10 +3983,13 @@
         <v>122</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
@@ -3985,62 +3997,59 @@
         <v>122</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
+      <c r="A143" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A143" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D143" s="18"/>
+      <c r="C143" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A144" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D144" s="18"/>
+    </row>
+    <row r="145" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A145" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="18"/>
-    </row>
-    <row r="145" spans="1:6" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>470</v>
-      </c>
+      <c r="C145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -4048,13 +4057,13 @@
         <v>122</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -4062,13 +4071,13 @@
         <v>122</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4076,13 +4085,13 @@
         <v>122</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4090,10 +4099,13 @@
         <v>122</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
@@ -4101,133 +4113,130 @@
         <v>122</v>
       </c>
       <c r="B151" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="21">
+      <c r="A152" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A152" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="24"/>
+      <c r="C152" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="24"/>
+    </row>
+    <row r="154" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A154" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:6" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>489</v>
-      </c>
+      <c r="C154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="24"/>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="21">
+      <c r="A156" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D155" s="21" t="s">
+      <c r="C156" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A156" s="31" t="s">
+    <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A157" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B157" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="C156" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D156" s="33"/>
-    </row>
-    <row r="157" spans="1:6" ht="21">
-      <c r="A157" s="5" t="s">
+      <c r="C157" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D157" s="33"/>
+    </row>
+    <row r="158" spans="1:6" ht="21">
+      <c r="A158" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B158" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D157" s="21" t="s">
+      <c r="C158" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A158" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="B158" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="C158" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="D158" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="F158" s="37" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
       <c r="A159" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="F159" s="37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
+      <c r="A160" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B160" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="C159" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D159" s="38" t="s">
+      <c r="C160" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D160" s="38" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4235,10 +4244,13 @@
         <v>122</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>147</v>
+        <v>480</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -4246,38 +4258,35 @@
         <v>122</v>
       </c>
       <c r="B162" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
+      <c r="A163" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="4" customFormat="1" ht="21">
-      <c r="A163" s="34" t="s">
+      <c r="C163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A164" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B164" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C163" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="D163" s="35" t="s">
+      <c r="C164" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" s="35" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4285,45 +4294,45 @@
         <v>122</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
+      <c r="A166" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D165" s="21" t="s">
+      <c r="C166" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D166" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21">
-      <c r="B167" s="4"/>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:4" ht="21">
+      <c r="B168" s="4"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A169" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D168" s="24" t="s">
+      <c r="C169" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="21">
-      <c r="A169" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4331,13 +4340,13 @@
         <v>151</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4345,13 +4354,13 @@
         <v>151</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>153</v>
+        <v>495</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4359,13 +4368,13 @@
         <v>151</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4373,13 +4382,13 @@
         <v>151</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4387,13 +4396,13 @@
         <v>151</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4401,13 +4410,13 @@
         <v>151</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4415,13 +4424,13 @@
         <v>151</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4429,13 +4438,13 @@
         <v>151</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4443,10 +4452,13 @@
         <v>151</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -4454,7 +4466,7 @@
         <v>151</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>3</v>
@@ -4465,13 +4477,10 @@
         <v>151</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>502</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
@@ -4479,13 +4488,13 @@
         <v>151</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4493,35 +4502,38 @@
         <v>151</v>
       </c>
       <c r="B182" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
+      <c r="A183" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A183" s="31" t="s">
+      <c r="C183" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A184" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B184" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="C183" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D183" s="40" t="s">
+      <c r="C184" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D184" s="40" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="21">
-      <c r="A184" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4529,13 +4541,10 @@
         <v>151</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>512</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
@@ -4543,10 +4552,13 @@
         <v>151</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>166</v>
+        <v>511</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4554,13 +4566,10 @@
         <v>151</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D187" s="21" t="s">
-        <v>517</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
@@ -4568,10 +4577,13 @@
         <v>151</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -4579,13 +4591,10 @@
         <v>151</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>526</v>
+        <v>168</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>527</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
@@ -4593,10 +4602,13 @@
         <v>151</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>169</v>
+        <v>526</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -4604,163 +4616,169 @@
         <v>151</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
+      <c r="A192" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B192" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A192" s="6" t="s">
+      <c r="C192" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A193" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="24"/>
-    </row>
-    <row r="193" spans="1:4" ht="21">
-      <c r="A193" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>518</v>
-      </c>
+      <c r="C193" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="24"/>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B194" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
+      <c r="A195" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B195" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A195" s="6" t="s">
+      <c r="C195" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A196" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="24"/>
-    </row>
-    <row r="196" spans="1:4" ht="21">
-      <c r="A196" s="3" t="s">
+      <c r="C196" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196" s="24"/>
+    </row>
+    <row r="197" spans="1:4" ht="21">
+      <c r="A197" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B197" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A197" s="31" t="s">
+      <c r="C197" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="32" customFormat="1" ht="21">
+      <c r="A198" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B197" s="39" t="s">
+      <c r="B198" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="C197" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D197" s="33" t="s">
+      <c r="C198" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D198" s="33" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="21">
-      <c r="A198" s="3" t="s">
+    <row r="199" spans="1:4" ht="21">
+      <c r="A199" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B199" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A199" s="6" t="s">
+      <c r="C199" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A200" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B200" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D199" s="24" t="s">
+      <c r="C200" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="21">
-      <c r="A200" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B200" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="21">
+      <c r="A202" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B202" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A202" s="6" t="s">
+      <c r="C202" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A203" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="24"/>
-    </row>
-    <row r="203" spans="1:4" ht="21">
-      <c r="A203" s="3" t="s">
+      <c r="C203" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="24"/>
+    </row>
+    <row r="204" spans="1:4" ht="21">
+      <c r="A204" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B204" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="21">
-      <c r="A204" s="5"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="2"/>
+      <c r="C204" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5"/>
@@ -4768,31 +4786,22 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:4" ht="21">
-      <c r="A206" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D206" s="21" t="s">
-        <v>513</v>
-      </c>
+      <c r="A206" s="5"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4800,13 +4809,13 @@
         <v>180</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4814,10 +4823,13 @@
         <v>180</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>181</v>
+        <v>521</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
@@ -4825,13 +4837,10 @@
         <v>180</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
@@ -4839,13 +4848,13 @@
         <v>180</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
@@ -4853,13 +4862,13 @@
         <v>180</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
@@ -4867,35 +4876,38 @@
         <v>180</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D213" s="21" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B214" s="16" t="s">
-        <v>186</v>
+      <c r="B214" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D214" s="21" t="s">
-        <v>532</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B215" s="14" t="s">
-        <v>187</v>
+      <c r="B215" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D215" s="21" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
@@ -4903,7 +4915,7 @@
         <v>180</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>3</v>
@@ -4914,61 +4926,61 @@
         <v>180</v>
       </c>
       <c r="B217" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="21">
+      <c r="A218" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A218" s="6" t="s">
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A219" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B219" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" s="24"/>
-    </row>
-    <row r="219" spans="1:4" s="47" customFormat="1" ht="21">
-      <c r="A219" s="43" t="s">
+      <c r="C219" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="24"/>
+    </row>
+    <row r="220" spans="1:4" s="47" customFormat="1" ht="21">
+      <c r="A220" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B219" s="44" t="s">
+      <c r="B220" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C219" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="D219" s="46" t="s">
+      <c r="C220" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="D220" s="46" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="52" customFormat="1" ht="21">
-      <c r="A220" s="48" t="s">
+    <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
+      <c r="A221" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="B220" s="49" t="s">
+      <c r="B221" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C220" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="D220" s="51" t="s">
+      <c r="C221" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="D221" s="51" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="21">
-      <c r="A221" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
@@ -4976,7 +4988,7 @@
         <v>180</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>3</v>
@@ -4987,13 +4999,10 @@
         <v>180</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>531</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
@@ -5001,10 +5010,13 @@
         <v>180</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="D224" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
@@ -5012,7 +5024,7 @@
         <v>180</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>3</v>
@@ -5023,75 +5035,75 @@
         <v>180</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D226" s="53"/>
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="53"/>
+    </row>
+    <row r="228" spans="1:6" ht="21">
+      <c r="A228" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A228" s="6" t="s">
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A229" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B229" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D228" s="24"/>
-      <c r="F228" s="7" t="s">
+      <c r="C229" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D229" s="24"/>
+      <c r="F229" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="21">
-      <c r="A229" s="3" t="s">
+    <row r="230" spans="1:6" ht="21">
+      <c r="A230" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B229" s="14" t="s">
+      <c r="B230" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="21">
-      <c r="B230" s="4"/>
-      <c r="C230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:6" ht="21">
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="21">
-      <c r="A232" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B232" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>3</v>
@@ -5102,7 +5114,7 @@
         <v>201</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>3</v>
@@ -5113,7 +5125,7 @@
         <v>201</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>3</v>
@@ -5124,7 +5136,7 @@
         <v>201</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>3</v>
@@ -5135,7 +5147,7 @@
         <v>201</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>3</v>
@@ -5146,7 +5158,7 @@
         <v>201</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>3</v>
@@ -5157,7 +5169,7 @@
         <v>201</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>3</v>
@@ -5168,7 +5180,7 @@
         <v>201</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>3</v>
@@ -5179,7 +5191,7 @@
         <v>201</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>3</v>
@@ -5190,7 +5202,7 @@
         <v>201</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>3</v>
@@ -5201,7 +5213,7 @@
         <v>201</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>3</v>
@@ -5212,7 +5224,7 @@
         <v>201</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>3</v>
@@ -5223,7 +5235,7 @@
         <v>201</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>3</v>
@@ -5234,7 +5246,7 @@
         <v>201</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>3</v>
@@ -5245,7 +5257,7 @@
         <v>201</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>3</v>
@@ -5256,7 +5268,7 @@
         <v>201</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>3</v>
@@ -5267,7 +5279,7 @@
         <v>201</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>3</v>
@@ -5278,7 +5290,7 @@
         <v>201</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>3</v>
@@ -5289,7 +5301,7 @@
         <v>201</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>3</v>
@@ -5300,7 +5312,7 @@
         <v>201</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>3</v>
@@ -5311,7 +5323,7 @@
         <v>201</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>3</v>
@@ -5322,7 +5334,7 @@
         <v>201</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>3</v>
@@ -5333,7 +5345,7 @@
         <v>201</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>3</v>
@@ -5344,7 +5356,7 @@
         <v>201</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>3</v>
@@ -5355,7 +5367,7 @@
         <v>201</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>3</v>
@@ -5366,7 +5378,7 @@
         <v>201</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>3</v>
@@ -5377,7 +5389,7 @@
         <v>201</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>3</v>
@@ -5388,7 +5400,7 @@
         <v>201</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>3</v>
@@ -5399,7 +5411,7 @@
         <v>201</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>3</v>
@@ -5410,7 +5422,7 @@
         <v>201</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>3</v>
@@ -5421,7 +5433,7 @@
         <v>201</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>3</v>
@@ -5432,7 +5444,7 @@
         <v>201</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>3</v>
@@ -5443,7 +5455,7 @@
         <v>201</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>3</v>
@@ -5454,37 +5466,37 @@
         <v>201</v>
       </c>
       <c r="B266" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="21">
+      <c r="A267" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B267" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="21">
-      <c r="B267" s="4"/>
-      <c r="C267" s="2"/>
+      <c r="C267" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="B268" s="4"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B269" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>3</v>
@@ -5495,7 +5507,7 @@
         <v>236</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>3</v>
@@ -5506,7 +5518,7 @@
         <v>236</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>3</v>
@@ -5517,7 +5529,7 @@
         <v>236</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>3</v>
@@ -5528,7 +5540,7 @@
         <v>236</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>3</v>
@@ -5539,7 +5551,7 @@
         <v>236</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>3</v>
@@ -5550,7 +5562,7 @@
         <v>236</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>3</v>
@@ -5561,7 +5573,7 @@
         <v>236</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>3</v>
@@ -5572,7 +5584,7 @@
         <v>236</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>3</v>
@@ -5583,7 +5595,7 @@
         <v>236</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>3</v>
@@ -5594,7 +5606,7 @@
         <v>236</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>3</v>
@@ -5605,7 +5617,7 @@
         <v>236</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>3</v>
@@ -5616,7 +5628,7 @@
         <v>236</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>3</v>
@@ -5627,7 +5639,7 @@
         <v>236</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>3</v>
@@ -5638,7 +5650,7 @@
         <v>236</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>3</v>
@@ -5649,7 +5661,7 @@
         <v>236</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>3</v>
@@ -5660,7 +5672,7 @@
         <v>236</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>3</v>
@@ -5671,37 +5683,37 @@
         <v>236</v>
       </c>
       <c r="B287" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="21">
+      <c r="A288" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="21">
-      <c r="B288" s="4"/>
-      <c r="C288" s="2"/>
+      <c r="C288" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="B289" s="4"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="A290" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B290" s="4"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>3</v>
@@ -5712,7 +5724,7 @@
         <v>256</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>3</v>
@@ -5723,7 +5735,7 @@
         <v>256</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>3</v>
@@ -5734,7 +5746,7 @@
         <v>256</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>3</v>
@@ -5745,7 +5757,7 @@
         <v>256</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>3</v>
@@ -5756,7 +5768,7 @@
         <v>256</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>3</v>
@@ -5767,7 +5779,7 @@
         <v>256</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>3</v>
@@ -5778,7 +5790,7 @@
         <v>256</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>3</v>
@@ -5789,7 +5801,7 @@
         <v>256</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>3</v>
@@ -5800,7 +5812,7 @@
         <v>256</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>3</v>
@@ -5811,7 +5823,7 @@
         <v>256</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>3</v>
@@ -5822,7 +5834,7 @@
         <v>256</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>3</v>
@@ -5832,8 +5844,8 @@
       <c r="A303" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B303" s="16" t="s">
-        <v>270</v>
+      <c r="B303" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>3</v>
@@ -5843,8 +5855,8 @@
       <c r="A304" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B304" s="14" t="s">
-        <v>271</v>
+      <c r="B304" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>3</v>
@@ -5855,7 +5867,7 @@
         <v>256</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>3</v>
@@ -5866,7 +5878,7 @@
         <v>256</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>3</v>
@@ -5877,7 +5889,7 @@
         <v>256</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>3</v>
@@ -5888,7 +5900,7 @@
         <v>256</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>3</v>
@@ -5899,7 +5911,7 @@
         <v>256</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>3</v>
@@ -5910,7 +5922,7 @@
         <v>256</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>3</v>
@@ -5921,7 +5933,7 @@
         <v>256</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>3</v>
@@ -5932,7 +5944,7 @@
         <v>256</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>3</v>
@@ -5943,7 +5955,7 @@
         <v>256</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>3</v>
@@ -5954,7 +5966,7 @@
         <v>256</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>3</v>
@@ -5965,7 +5977,7 @@
         <v>256</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>3</v>
@@ -5976,7 +5988,7 @@
         <v>256</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>3</v>
@@ -5987,7 +5999,7 @@
         <v>256</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>3</v>
@@ -5998,7 +6010,7 @@
         <v>256</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>3</v>
@@ -6009,7 +6021,7 @@
         <v>256</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>3</v>
@@ -6020,7 +6032,7 @@
         <v>256</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>3</v>
@@ -6031,7 +6043,7 @@
         <v>256</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>3</v>
@@ -6042,7 +6054,7 @@
         <v>256</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>3</v>
@@ -6053,7 +6065,7 @@
         <v>256</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>3</v>
@@ -6064,7 +6076,7 @@
         <v>256</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>3</v>
@@ -6075,7 +6087,7 @@
         <v>256</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>3</v>
@@ -6086,7 +6098,7 @@
         <v>256</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>3</v>
@@ -6097,117 +6109,117 @@
         <v>256</v>
       </c>
       <c r="B327" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="21">
+      <c r="A328" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B328" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="21">
-      <c r="B328" s="4"/>
-      <c r="C328" s="2"/>
+      <c r="C328" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="329" spans="1:4" ht="21">
       <c r="B329" s="4"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:4" ht="21">
-      <c r="A330" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D330" s="22" t="s">
-        <v>536</v>
-      </c>
+      <c r="B330" s="4"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B331" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D331" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="21">
+      <c r="A332" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B332" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D331" s="17" t="s">
+      <c r="C332" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D332" s="17" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A332" s="6" t="s">
+    <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A333" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B333" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C332" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D332" s="24"/>
-    </row>
-    <row r="333" spans="1:4" ht="21">
-      <c r="A333" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B333" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D333" s="21" t="s">
-        <v>439</v>
-      </c>
+      <c r="C333" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D333" s="24"/>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B334" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D334" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="21">
+      <c r="A335" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B335" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D334" s="17" t="s">
+      <c r="C335" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D335" s="17" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A335" s="6" t="s">
+    <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A336" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B336" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C335" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D335" s="24"/>
-    </row>
-    <row r="336" spans="1:4" ht="21">
-      <c r="A336" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B336" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C336" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336" s="24"/>
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>3</v>
@@ -6217,47 +6229,47 @@
       <c r="A338" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B338" s="16" t="s">
-        <v>303</v>
+      <c r="B338" s="14" t="s">
+        <v>302</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D338" s="21" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
+    </row>
+    <row r="339" spans="1:6" ht="21">
       <c r="A339" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A340" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D339" s="23" t="s">
+      <c r="C340" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D340" s="23" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="21">
-      <c r="A340" s="6" t="s">
+    <row r="341" spans="1:6" ht="21">
+      <c r="A341" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B341" s="14" t="s">
         <v>304</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="21">
-      <c r="A341" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B341" s="14" t="s">
-        <v>305</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>3</v>
@@ -6268,60 +6280,60 @@
         <v>548</v>
       </c>
       <c r="B342" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="21">
+      <c r="A343" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B343" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="21">
-      <c r="A343" s="6" t="s">
+      <c r="C343" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="21">
+      <c r="A344" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B344" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D343" s="21" t="s">
+      <c r="C344" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D344" s="21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="21">
-      <c r="A344" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B344" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
+    <row r="345" spans="1:6" ht="21">
       <c r="A345" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B345" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D345" s="54" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" ht="21">
+      <c r="B345" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A346" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B346" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>3</v>
+      <c r="B346" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D346" s="54" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21">
@@ -6329,43 +6341,43 @@
         <v>548</v>
       </c>
       <c r="B347" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="21">
+      <c r="A348" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B348" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D347" s="21" t="s">
+      <c r="C348" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D348" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F348" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="21">
-      <c r="B348" s="4"/>
-      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:6" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:6" ht="21">
-      <c r="A350" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B350" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B350" s="4"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>3</v>
@@ -6376,7 +6388,7 @@
         <v>312</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>3</v>
@@ -6387,7 +6399,7 @@
         <v>312</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>3</v>
@@ -6398,7 +6410,7 @@
         <v>312</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>3</v>
@@ -6409,7 +6421,7 @@
         <v>312</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>3</v>
@@ -6420,7 +6432,7 @@
         <v>312</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>3</v>
@@ -6431,7 +6443,7 @@
         <v>312</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>3</v>
@@ -6442,7 +6454,7 @@
         <v>312</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>3</v>
@@ -6453,7 +6465,7 @@
         <v>312</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>3</v>
@@ -6464,7 +6476,7 @@
         <v>312</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>3</v>
@@ -6475,7 +6487,7 @@
         <v>312</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>3</v>
@@ -6486,7 +6498,7 @@
         <v>312</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>3</v>
@@ -6497,7 +6509,7 @@
         <v>312</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>3</v>
@@ -6508,7 +6520,7 @@
         <v>312</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>3</v>
@@ -6519,7 +6531,7 @@
         <v>312</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>3</v>
@@ -6530,7 +6542,7 @@
         <v>312</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>3</v>
@@ -6541,7 +6553,7 @@
         <v>312</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>3</v>
@@ -6552,7 +6564,7 @@
         <v>312</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>3</v>
@@ -6563,7 +6575,7 @@
         <v>312</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>3</v>
@@ -6574,7 +6586,7 @@
         <v>312</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>3</v>
@@ -6585,7 +6597,7 @@
         <v>312</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>3</v>
@@ -6596,7 +6608,7 @@
         <v>312</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>3</v>
@@ -6607,7 +6619,7 @@
         <v>312</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>3</v>
@@ -6618,7 +6630,7 @@
         <v>312</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>3</v>
@@ -6629,41 +6641,41 @@
         <v>312</v>
       </c>
       <c r="B375" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="21">
+      <c r="A376" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B376" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A376" s="6" t="s">
+      <c r="C376" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A377" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B377" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C376" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D376" s="24"/>
-    </row>
-    <row r="377" spans="1:4" ht="21">
-      <c r="A377" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C377" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D377" s="24"/>
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>3</v>
@@ -6674,7 +6686,7 @@
         <v>312</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>3</v>
@@ -6685,7 +6697,7 @@
         <v>312</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>3</v>
@@ -6696,7 +6708,7 @@
         <v>312</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>3</v>
@@ -6707,7 +6719,7 @@
         <v>312</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>3</v>
@@ -6718,7 +6730,7 @@
         <v>312</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>3</v>
@@ -6729,7 +6741,7 @@
         <v>312</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>3</v>
@@ -6740,7 +6752,7 @@
         <v>312</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>3</v>
@@ -6751,7 +6763,7 @@
         <v>312</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>3</v>
@@ -6762,7 +6774,7 @@
         <v>312</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>3</v>
@@ -6773,7 +6785,7 @@
         <v>312</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>3</v>
@@ -6784,7 +6796,7 @@
         <v>312</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>3</v>
@@ -6795,7 +6807,7 @@
         <v>312</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>3</v>
@@ -6806,7 +6818,7 @@
         <v>312</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>3</v>
@@ -6817,37 +6829,37 @@
         <v>312</v>
       </c>
       <c r="B392" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="21">
+      <c r="A393" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B393" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="21">
-      <c r="B393" s="4"/>
-      <c r="C393" s="2"/>
+      <c r="C393" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="B394" s="4"/>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B395" s="4"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>3</v>
@@ -6858,7 +6870,7 @@
         <v>356</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>3</v>
@@ -6869,7 +6881,7 @@
         <v>356</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>3</v>
@@ -6880,7 +6892,7 @@
         <v>356</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>3</v>
@@ -6891,40 +6903,40 @@
         <v>356</v>
       </c>
       <c r="B400" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="21">
+      <c r="A401" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B401" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="4"/>
-      <c r="C401" s="2"/>
+      <c r="C401" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="B402" s="4"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C403" s="36" t="s">
-        <v>436</v>
-      </c>
+      <c r="B403" s="4"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>3</v>
+        <v>363</v>
+      </c>
+      <c r="C404" s="36" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
@@ -6932,7 +6944,7 @@
         <v>362</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>3</v>
@@ -6943,7 +6955,7 @@
         <v>362</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>3</v>
@@ -6954,7 +6966,7 @@
         <v>362</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>3</v>
@@ -6965,10 +6977,10 @@
         <v>362</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
@@ -6976,10 +6988,10 @@
         <v>362</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
@@ -6987,7 +6999,7 @@
         <v>362</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>3</v>
@@ -6998,7 +7010,7 @@
         <v>362</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>3</v>
@@ -7009,7 +7021,7 @@
         <v>362</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>3</v>
@@ -7020,7 +7032,7 @@
         <v>362</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>3</v>
@@ -7031,7 +7043,7 @@
         <v>362</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>3</v>
@@ -7042,7 +7054,7 @@
         <v>362</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>3</v>
@@ -7053,7 +7065,7 @@
         <v>362</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>3</v>
@@ -7064,7 +7076,7 @@
         <v>362</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>3</v>
@@ -7075,7 +7087,7 @@
         <v>362</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>3</v>
@@ -7086,7 +7098,7 @@
         <v>362</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>3</v>
@@ -7097,7 +7109,7 @@
         <v>362</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>3</v>
@@ -7108,7 +7120,7 @@
         <v>362</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>3</v>
@@ -7119,7 +7131,7 @@
         <v>362</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>3</v>
@@ -7130,7 +7142,7 @@
         <v>362</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>3</v>
@@ -7141,7 +7153,7 @@
         <v>362</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>3</v>
@@ -7152,7 +7164,7 @@
         <v>362</v>
       </c>
       <c r="B425" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>3</v>
@@ -7163,7 +7175,7 @@
         <v>362</v>
       </c>
       <c r="B426" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>3</v>
@@ -7174,7 +7186,7 @@
         <v>362</v>
       </c>
       <c r="B427" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>3</v>
@@ -7185,7 +7197,7 @@
         <v>362</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>3</v>
@@ -7196,7 +7208,7 @@
         <v>362</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>3</v>
@@ -7207,7 +7219,7 @@
         <v>362</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>3</v>
@@ -7218,7 +7230,7 @@
         <v>362</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>3</v>
@@ -7229,7 +7241,7 @@
         <v>362</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>3</v>
@@ -7240,7 +7252,7 @@
         <v>362</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>3</v>
@@ -7251,7 +7263,7 @@
         <v>362</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>3</v>
@@ -7262,7 +7274,7 @@
         <v>362</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>3</v>
@@ -7273,41 +7285,41 @@
         <v>362</v>
       </c>
       <c r="B436" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="21">
+      <c r="A437" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B437" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A437" s="6" t="s">
+      <c r="C437" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A438" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B438" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C437" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D437" s="24"/>
-    </row>
-    <row r="438" spans="1:4" ht="21">
-      <c r="A438" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B438" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C438" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D438" s="24"/>
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B439" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>3</v>
@@ -7318,7 +7330,7 @@
         <v>362</v>
       </c>
       <c r="B440" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>3</v>
@@ -7329,7 +7341,7 @@
         <v>362</v>
       </c>
       <c r="B441" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>3</v>
@@ -7340,7 +7352,7 @@
         <v>362</v>
       </c>
       <c r="B442" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>3</v>
@@ -7351,7 +7363,7 @@
         <v>362</v>
       </c>
       <c r="B443" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>3</v>
@@ -7362,7 +7374,7 @@
         <v>362</v>
       </c>
       <c r="B444" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>3</v>
@@ -7373,7 +7385,7 @@
         <v>362</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>3</v>
@@ -7384,7 +7396,7 @@
         <v>362</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>3</v>
@@ -7395,7 +7407,7 @@
         <v>362</v>
       </c>
       <c r="B447" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>3</v>
@@ -7406,53 +7418,53 @@
         <v>362</v>
       </c>
       <c r="B448" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="21">
+      <c r="A449" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B449" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A449" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B449" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C449" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D449" s="27"/>
+      <c r="C449" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
       <c r="A450" s="25" t="s">
         <v>362</v>
       </c>
       <c r="B450" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C450" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D450" s="27"/>
+    </row>
+    <row r="451" spans="1:4" s="26" customFormat="1" ht="21">
+      <c r="A451" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B451" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C450" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D450" s="27"/>
-    </row>
-    <row r="451" spans="1:4" ht="21">
-      <c r="A451" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C451" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D451" s="27"/>
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>3</v>
@@ -7463,7 +7475,7 @@
         <v>362</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>3</v>
@@ -7474,75 +7486,75 @@
         <v>362</v>
       </c>
       <c r="B454" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="21">
+      <c r="A455" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B455" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A455" s="6" t="s">
+      <c r="C455" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A456" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B456" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C455" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D455" s="24"/>
-    </row>
-    <row r="456" spans="1:4" ht="21">
-      <c r="A456" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B456" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C456" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D456" s="24"/>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B457" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="21">
+      <c r="A458" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B458" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A458" s="6" t="s">
+      <c r="C458" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A459" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B459" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C458" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D458" s="24"/>
-    </row>
-    <row r="459" spans="1:4" ht="21">
-      <c r="A459" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B459" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C459" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D459" s="24"/>
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
         <v>362</v>
       </c>
       <c r="B460" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>3</v>
@@ -7553,7 +7565,7 @@
         <v>362</v>
       </c>
       <c r="B461" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>3</v>
@@ -7564,38 +7576,38 @@
         <v>362</v>
       </c>
       <c r="B462" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="21">
+      <c r="A463" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B463" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" ht="21">
-      <c r="B463" s="4"/>
-      <c r="C463" s="2"/>
+      <c r="C463" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="464" spans="1:4" ht="21">
-      <c r="A464" s="5"/>
       <c r="B464" s="4"/>
       <c r="C464" s="2"/>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B465" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A465" s="5"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B466" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>3</v>
@@ -7606,7 +7618,7 @@
         <v>422</v>
       </c>
       <c r="B467" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>3</v>
@@ -7617,7 +7629,7 @@
         <v>422</v>
       </c>
       <c r="B468" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>3</v>
@@ -7628,7 +7640,7 @@
         <v>422</v>
       </c>
       <c r="B469" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>3</v>
@@ -7639,10 +7651,10 @@
         <v>422</v>
       </c>
       <c r="B470" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>436</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
@@ -7650,10 +7662,10 @@
         <v>422</v>
       </c>
       <c r="B471" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>3</v>
+        <v>436</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
@@ -7661,7 +7673,7 @@
         <v>422</v>
       </c>
       <c r="B472" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>3</v>
@@ -7672,7 +7684,7 @@
         <v>422</v>
       </c>
       <c r="B473" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>3</v>
@@ -7683,9 +7695,20 @@
         <v>422</v>
       </c>
       <c r="B474" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="21">
+      <c r="A475" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B475" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="C474" s="2" t="s">
+      <c r="C475" s="2" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7725,406 +7748,406 @@
     <hyperlink ref="B37" r:id="rId32"/>
     <hyperlink ref="B38" r:id="rId33"/>
     <hyperlink ref="B39" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B42" r:id="rId35" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B43" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B54" r:id="rId45"/>
-    <hyperlink ref="B55" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B59" r:id="rId50"/>
-    <hyperlink ref="B60" r:id="rId51"/>
-    <hyperlink ref="B61" r:id="rId52"/>
-    <hyperlink ref="B62" r:id="rId53"/>
-    <hyperlink ref="B63" r:id="rId54"/>
-    <hyperlink ref="B64" r:id="rId55"/>
-    <hyperlink ref="B65" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
-    <hyperlink ref="B75" r:id="rId66"/>
-    <hyperlink ref="B76" r:id="rId67"/>
-    <hyperlink ref="B77" r:id="rId68"/>
-    <hyperlink ref="B78" r:id="rId69"/>
-    <hyperlink ref="B79" r:id="rId70"/>
-    <hyperlink ref="B80" r:id="rId71"/>
-    <hyperlink ref="B81" r:id="rId72"/>
-    <hyperlink ref="B82" r:id="rId73"/>
-    <hyperlink ref="B83" r:id="rId74"/>
-    <hyperlink ref="B84" r:id="rId75"/>
-    <hyperlink ref="B85" r:id="rId76"/>
-    <hyperlink ref="B86" r:id="rId77"/>
-    <hyperlink ref="B87" r:id="rId78"/>
-    <hyperlink ref="B88" r:id="rId79"/>
-    <hyperlink ref="B89" r:id="rId80"/>
-    <hyperlink ref="B90" r:id="rId81"/>
-    <hyperlink ref="B91" r:id="rId82"/>
-    <hyperlink ref="B92" r:id="rId83"/>
-    <hyperlink ref="B93" r:id="rId84"/>
-    <hyperlink ref="B94" r:id="rId85"/>
-    <hyperlink ref="B95" r:id="rId86"/>
-    <hyperlink ref="B98" r:id="rId87"/>
-    <hyperlink ref="B99" r:id="rId88"/>
-    <hyperlink ref="B100" r:id="rId89"/>
-    <hyperlink ref="B101" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B105" r:id="rId93"/>
-    <hyperlink ref="B106" r:id="rId94"/>
-    <hyperlink ref="B107" r:id="rId95"/>
-    <hyperlink ref="B108" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
-    <hyperlink ref="B111" r:id="rId98"/>
-    <hyperlink ref="B112" r:id="rId99"/>
-    <hyperlink ref="B113" r:id="rId100"/>
-    <hyperlink ref="B114" r:id="rId101"/>
-    <hyperlink ref="B115" r:id="rId102"/>
-    <hyperlink ref="B116" r:id="rId103"/>
-    <hyperlink ref="B117" r:id="rId104"/>
-    <hyperlink ref="B118" r:id="rId105"/>
-    <hyperlink ref="B119" r:id="rId106"/>
-    <hyperlink ref="B120" r:id="rId107"/>
-    <hyperlink ref="B121" r:id="rId108"/>
-    <hyperlink ref="B122" r:id="rId109"/>
-    <hyperlink ref="B123" r:id="rId110"/>
-    <hyperlink ref="B124" r:id="rId111"/>
-    <hyperlink ref="B125" r:id="rId112"/>
-    <hyperlink ref="B126" r:id="rId113"/>
-    <hyperlink ref="B127" r:id="rId114"/>
-    <hyperlink ref="B128" r:id="rId115"/>
-    <hyperlink ref="B129" r:id="rId116"/>
-    <hyperlink ref="B102" r:id="rId117"/>
-    <hyperlink ref="B109" r:id="rId118"/>
-    <hyperlink ref="B132" r:id="rId119"/>
-    <hyperlink ref="B133" r:id="rId120"/>
-    <hyperlink ref="B134" r:id="rId121"/>
-    <hyperlink ref="B135" r:id="rId122"/>
-    <hyperlink ref="B136" r:id="rId123"/>
-    <hyperlink ref="B137" r:id="rId124"/>
-    <hyperlink ref="B138" r:id="rId125"/>
-    <hyperlink ref="B139" r:id="rId126"/>
-    <hyperlink ref="B140" r:id="rId127"/>
-    <hyperlink ref="B141" r:id="rId128"/>
-    <hyperlink ref="B142" r:id="rId129"/>
-    <hyperlink ref="B143" r:id="rId130"/>
-    <hyperlink ref="B144" r:id="rId131"/>
-    <hyperlink ref="B145" r:id="rId132"/>
-    <hyperlink ref="B146" r:id="rId133"/>
-    <hyperlink ref="B147" r:id="rId134"/>
-    <hyperlink ref="B148" r:id="rId135"/>
-    <hyperlink ref="B149" r:id="rId136"/>
-    <hyperlink ref="B150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="B152" r:id="rId139"/>
-    <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B156" r:id="rId141" display="Flatten a Linked List"/>
-    <hyperlink ref="B157" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B160" r:id="rId144" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B161" r:id="rId145"/>
-    <hyperlink ref="B162" r:id="rId146"/>
-    <hyperlink ref="B163" r:id="rId147"/>
-    <hyperlink ref="B164" r:id="rId148"/>
-    <hyperlink ref="B165" r:id="rId149"/>
-    <hyperlink ref="B168" r:id="rId150" display="level order traversal"/>
-    <hyperlink ref="B169" r:id="rId151"/>
-    <hyperlink ref="B170" r:id="rId152" display="Height of a tree"/>
-    <hyperlink ref="B171" r:id="rId153"/>
-    <hyperlink ref="B172" r:id="rId154"/>
-    <hyperlink ref="B173" r:id="rId155"/>
-    <hyperlink ref="B174" r:id="rId156"/>
-    <hyperlink ref="B175" r:id="rId157"/>
-    <hyperlink ref="B176" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B190" r:id="rId171"/>
-    <hyperlink ref="B191" r:id="rId172"/>
-    <hyperlink ref="B192" r:id="rId173"/>
-    <hyperlink ref="B193" r:id="rId174"/>
-    <hyperlink ref="B194" r:id="rId175"/>
-    <hyperlink ref="B195" r:id="rId176" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B196" r:id="rId177"/>
-    <hyperlink ref="B197" r:id="rId178"/>
-    <hyperlink ref="B198" r:id="rId179"/>
-    <hyperlink ref="B199" r:id="rId180" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B201" r:id="rId181"/>
-    <hyperlink ref="B202" r:id="rId182"/>
-    <hyperlink ref="B203" r:id="rId183"/>
-    <hyperlink ref="B206" r:id="rId184" display="Fina a value in a BST"/>
-    <hyperlink ref="B209" r:id="rId185"/>
-    <hyperlink ref="B210" r:id="rId186"/>
-    <hyperlink ref="B211" r:id="rId187"/>
-    <hyperlink ref="B212" r:id="rId188"/>
-    <hyperlink ref="B213" r:id="rId189"/>
-    <hyperlink ref="B214" r:id="rId190"/>
-    <hyperlink ref="B215" r:id="rId191"/>
-    <hyperlink ref="B216" r:id="rId192"/>
-    <hyperlink ref="B217" r:id="rId193"/>
-    <hyperlink ref="B218" r:id="rId194" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B219" r:id="rId195"/>
-    <hyperlink ref="B220" r:id="rId196"/>
-    <hyperlink ref="B221" r:id="rId197"/>
-    <hyperlink ref="B222" r:id="rId198"/>
-    <hyperlink ref="B223" r:id="rId199"/>
-    <hyperlink ref="B224" r:id="rId200"/>
-    <hyperlink ref="B225" r:id="rId201"/>
-    <hyperlink ref="B226" r:id="rId202"/>
-    <hyperlink ref="B227" r:id="rId203"/>
-    <hyperlink ref="B228" r:id="rId204"/>
-    <hyperlink ref="B229" r:id="rId205"/>
-    <hyperlink ref="B232" r:id="rId206"/>
-    <hyperlink ref="B233" r:id="rId207"/>
-    <hyperlink ref="B234" r:id="rId208"/>
-    <hyperlink ref="B235" r:id="rId209"/>
-    <hyperlink ref="B236" r:id="rId210"/>
-    <hyperlink ref="B237" r:id="rId211"/>
-    <hyperlink ref="B238" r:id="rId212"/>
-    <hyperlink ref="B239" r:id="rId213"/>
-    <hyperlink ref="B240" r:id="rId214"/>
-    <hyperlink ref="B241" r:id="rId215"/>
-    <hyperlink ref="B242" r:id="rId216"/>
-    <hyperlink ref="B243" r:id="rId217"/>
-    <hyperlink ref="B244" r:id="rId218"/>
-    <hyperlink ref="B245" r:id="rId219"/>
-    <hyperlink ref="B246" r:id="rId220"/>
-    <hyperlink ref="B247" r:id="rId221"/>
-    <hyperlink ref="B248" r:id="rId222"/>
-    <hyperlink ref="B249" r:id="rId223"/>
-    <hyperlink ref="B250" r:id="rId224"/>
-    <hyperlink ref="B251" r:id="rId225" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B252" r:id="rId226"/>
-    <hyperlink ref="B253" r:id="rId227"/>
-    <hyperlink ref="B254" r:id="rId228"/>
-    <hyperlink ref="B255" r:id="rId229"/>
-    <hyperlink ref="B256" r:id="rId230"/>
-    <hyperlink ref="B257" r:id="rId231"/>
-    <hyperlink ref="B258" r:id="rId232"/>
-    <hyperlink ref="B259" r:id="rId233"/>
-    <hyperlink ref="B260" r:id="rId234"/>
-    <hyperlink ref="B261" r:id="rId235"/>
-    <hyperlink ref="B262" r:id="rId236"/>
-    <hyperlink ref="B263" r:id="rId237"/>
-    <hyperlink ref="B264" r:id="rId238"/>
-    <hyperlink ref="B265" r:id="rId239"/>
-    <hyperlink ref="B266" r:id="rId240"/>
-    <hyperlink ref="B269" r:id="rId241"/>
-    <hyperlink ref="B270" r:id="rId242"/>
-    <hyperlink ref="B271" r:id="rId243"/>
-    <hyperlink ref="B272" r:id="rId244"/>
-    <hyperlink ref="B273" r:id="rId245"/>
-    <hyperlink ref="B274" r:id="rId246"/>
-    <hyperlink ref="B275" r:id="rId247"/>
-    <hyperlink ref="B276" r:id="rId248"/>
-    <hyperlink ref="B277" r:id="rId249"/>
-    <hyperlink ref="B278" r:id="rId250"/>
-    <hyperlink ref="B279" r:id="rId251"/>
-    <hyperlink ref="B280" r:id="rId252"/>
-    <hyperlink ref="B281" r:id="rId253"/>
-    <hyperlink ref="B282" r:id="rId254"/>
-    <hyperlink ref="B283" r:id="rId255"/>
-    <hyperlink ref="B284" r:id="rId256"/>
-    <hyperlink ref="B285" r:id="rId257"/>
-    <hyperlink ref="B286" r:id="rId258"/>
-    <hyperlink ref="B287" r:id="rId259"/>
-    <hyperlink ref="B290" r:id="rId260"/>
-    <hyperlink ref="B291" r:id="rId261"/>
-    <hyperlink ref="B292" r:id="rId262"/>
-    <hyperlink ref="B293" r:id="rId263"/>
-    <hyperlink ref="B294" r:id="rId264"/>
-    <hyperlink ref="B295" r:id="rId265"/>
-    <hyperlink ref="B296" r:id="rId266"/>
-    <hyperlink ref="B297" r:id="rId267"/>
-    <hyperlink ref="B298" r:id="rId268"/>
-    <hyperlink ref="B299" r:id="rId269"/>
-    <hyperlink ref="B300" r:id="rId270" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B301" r:id="rId271"/>
-    <hyperlink ref="B302" r:id="rId272"/>
-    <hyperlink ref="B303" r:id="rId273"/>
-    <hyperlink ref="B304" r:id="rId274"/>
-    <hyperlink ref="B305" r:id="rId275"/>
-    <hyperlink ref="B306" r:id="rId276"/>
-    <hyperlink ref="B307" r:id="rId277"/>
-    <hyperlink ref="B308" r:id="rId278"/>
-    <hyperlink ref="B309" r:id="rId279"/>
-    <hyperlink ref="B310" r:id="rId280"/>
-    <hyperlink ref="B311" r:id="rId281"/>
-    <hyperlink ref="B312" r:id="rId282"/>
-    <hyperlink ref="B313" r:id="rId283"/>
-    <hyperlink ref="B314" r:id="rId284"/>
-    <hyperlink ref="B315" r:id="rId285"/>
-    <hyperlink ref="B316" r:id="rId286"/>
-    <hyperlink ref="B317" r:id="rId287"/>
-    <hyperlink ref="B318" r:id="rId288"/>
-    <hyperlink ref="B319" r:id="rId289"/>
-    <hyperlink ref="B320" r:id="rId290"/>
-    <hyperlink ref="B321" r:id="rId291"/>
-    <hyperlink ref="B322" r:id="rId292"/>
-    <hyperlink ref="B323" r:id="rId293"/>
-    <hyperlink ref="B324" r:id="rId294"/>
-    <hyperlink ref="B325" r:id="rId295"/>
-    <hyperlink ref="B326" r:id="rId296"/>
-    <hyperlink ref="B327" r:id="rId297"/>
-    <hyperlink ref="B330" r:id="rId298"/>
-    <hyperlink ref="B331" r:id="rId299"/>
-    <hyperlink ref="B332" r:id="rId300"/>
-    <hyperlink ref="B333" r:id="rId301"/>
-    <hyperlink ref="B334" r:id="rId302"/>
-    <hyperlink ref="B335" r:id="rId303"/>
-    <hyperlink ref="B336" r:id="rId304"/>
-    <hyperlink ref="B337" r:id="rId305"/>
-    <hyperlink ref="B338" r:id="rId306"/>
-    <hyperlink ref="B339" r:id="rId307" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B340" r:id="rId308"/>
-    <hyperlink ref="B341" r:id="rId309"/>
-    <hyperlink ref="B342" r:id="rId310"/>
-    <hyperlink ref="B343" r:id="rId311"/>
-    <hyperlink ref="B344" r:id="rId312"/>
-    <hyperlink ref="B345" r:id="rId313"/>
-    <hyperlink ref="B346" r:id="rId314"/>
-    <hyperlink ref="B347" r:id="rId315"/>
-    <hyperlink ref="B351" r:id="rId316"/>
-    <hyperlink ref="B352" r:id="rId317"/>
-    <hyperlink ref="B353" r:id="rId318"/>
-    <hyperlink ref="B354" r:id="rId319"/>
-    <hyperlink ref="B355" r:id="rId320"/>
-    <hyperlink ref="B356" r:id="rId321"/>
-    <hyperlink ref="B357" r:id="rId322"/>
-    <hyperlink ref="B358" r:id="rId323"/>
-    <hyperlink ref="B359" r:id="rId324"/>
-    <hyperlink ref="B360" r:id="rId325"/>
-    <hyperlink ref="B361" r:id="rId326"/>
-    <hyperlink ref="B362" r:id="rId327"/>
-    <hyperlink ref="B363" r:id="rId328"/>
-    <hyperlink ref="B364" r:id="rId329"/>
-    <hyperlink ref="B365" r:id="rId330"/>
-    <hyperlink ref="B366" r:id="rId331"/>
-    <hyperlink ref="B367" r:id="rId332"/>
-    <hyperlink ref="B368" r:id="rId333"/>
-    <hyperlink ref="B369" r:id="rId334"/>
-    <hyperlink ref="B370" r:id="rId335"/>
-    <hyperlink ref="B371" r:id="rId336"/>
-    <hyperlink ref="B372" r:id="rId337"/>
-    <hyperlink ref="B373" r:id="rId338" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B374" r:id="rId339"/>
-    <hyperlink ref="B375" r:id="rId340"/>
-    <hyperlink ref="B376" r:id="rId341"/>
-    <hyperlink ref="B377" r:id="rId342"/>
-    <hyperlink ref="B378" r:id="rId343"/>
-    <hyperlink ref="B379" r:id="rId344"/>
-    <hyperlink ref="B380" r:id="rId345"/>
-    <hyperlink ref="B381" r:id="rId346"/>
-    <hyperlink ref="B382" r:id="rId347"/>
-    <hyperlink ref="B383" r:id="rId348"/>
-    <hyperlink ref="B384" r:id="rId349"/>
-    <hyperlink ref="B385" r:id="rId350"/>
-    <hyperlink ref="B386" r:id="rId351"/>
-    <hyperlink ref="B387" r:id="rId352"/>
-    <hyperlink ref="B389" r:id="rId353"/>
-    <hyperlink ref="B388" r:id="rId354"/>
-    <hyperlink ref="B390" r:id="rId355"/>
-    <hyperlink ref="B391" r:id="rId356"/>
-    <hyperlink ref="B392" r:id="rId357"/>
-    <hyperlink ref="B395" r:id="rId358"/>
-    <hyperlink ref="B396" r:id="rId359"/>
-    <hyperlink ref="B397" r:id="rId360"/>
-    <hyperlink ref="B398" r:id="rId361"/>
-    <hyperlink ref="B399" r:id="rId362"/>
-    <hyperlink ref="B400" r:id="rId363"/>
-    <hyperlink ref="B403" r:id="rId364"/>
-    <hyperlink ref="B404" r:id="rId365"/>
-    <hyperlink ref="B405" r:id="rId366"/>
-    <hyperlink ref="B406" r:id="rId367"/>
-    <hyperlink ref="B407" r:id="rId368"/>
-    <hyperlink ref="B408" r:id="rId369"/>
-    <hyperlink ref="B409" r:id="rId370"/>
-    <hyperlink ref="B410" r:id="rId371"/>
-    <hyperlink ref="B411" r:id="rId372"/>
-    <hyperlink ref="B412" r:id="rId373"/>
-    <hyperlink ref="B413" r:id="rId374"/>
-    <hyperlink ref="B414" r:id="rId375"/>
-    <hyperlink ref="B415" r:id="rId376"/>
-    <hyperlink ref="B416" r:id="rId377"/>
-    <hyperlink ref="B417" r:id="rId378"/>
-    <hyperlink ref="B418" r:id="rId379"/>
-    <hyperlink ref="B419" r:id="rId380"/>
-    <hyperlink ref="B420" r:id="rId381"/>
-    <hyperlink ref="B421" r:id="rId382"/>
-    <hyperlink ref="B422" r:id="rId383"/>
-    <hyperlink ref="B423" r:id="rId384"/>
-    <hyperlink ref="B424" r:id="rId385"/>
-    <hyperlink ref="B425" r:id="rId386"/>
-    <hyperlink ref="B426" r:id="rId387"/>
-    <hyperlink ref="B427" r:id="rId388"/>
-    <hyperlink ref="B428" r:id="rId389"/>
-    <hyperlink ref="B429" r:id="rId390"/>
-    <hyperlink ref="B430" r:id="rId391"/>
-    <hyperlink ref="B431" r:id="rId392"/>
-    <hyperlink ref="B432" r:id="rId393"/>
-    <hyperlink ref="B433" r:id="rId394"/>
-    <hyperlink ref="B434" r:id="rId395"/>
-    <hyperlink ref="B435" r:id="rId396"/>
-    <hyperlink ref="B436" r:id="rId397"/>
-    <hyperlink ref="B437" r:id="rId398"/>
-    <hyperlink ref="B438" r:id="rId399"/>
-    <hyperlink ref="B439" r:id="rId400"/>
-    <hyperlink ref="B440" r:id="rId401"/>
-    <hyperlink ref="B441" r:id="rId402"/>
-    <hyperlink ref="B442" r:id="rId403"/>
-    <hyperlink ref="B444" r:id="rId404"/>
-    <hyperlink ref="B443" r:id="rId405"/>
-    <hyperlink ref="B445" r:id="rId406"/>
-    <hyperlink ref="B446" r:id="rId407"/>
-    <hyperlink ref="B447" r:id="rId408"/>
-    <hyperlink ref="B448" r:id="rId409"/>
-    <hyperlink ref="B449" r:id="rId410"/>
-    <hyperlink ref="B450" r:id="rId411"/>
-    <hyperlink ref="B451" r:id="rId412"/>
-    <hyperlink ref="B452" r:id="rId413"/>
-    <hyperlink ref="B453" r:id="rId414"/>
-    <hyperlink ref="B454" r:id="rId415"/>
-    <hyperlink ref="B455" r:id="rId416"/>
-    <hyperlink ref="B462" r:id="rId417"/>
-    <hyperlink ref="B461" r:id="rId418"/>
-    <hyperlink ref="B460" r:id="rId419"/>
-    <hyperlink ref="B459" r:id="rId420"/>
-    <hyperlink ref="B458" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B456" r:id="rId423"/>
-    <hyperlink ref="B465" r:id="rId424"/>
-    <hyperlink ref="B466" r:id="rId425"/>
-    <hyperlink ref="B467" r:id="rId426"/>
-    <hyperlink ref="B468" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B470" r:id="rId429"/>
-    <hyperlink ref="B471" r:id="rId430"/>
-    <hyperlink ref="B474" r:id="rId431"/>
-    <hyperlink ref="B472" r:id="rId432"/>
-    <hyperlink ref="B473" r:id="rId433" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B350" r:id="rId434"/>
+    <hyperlink ref="B43" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B44" r:id="rId36"/>
+    <hyperlink ref="B45" r:id="rId37"/>
+    <hyperlink ref="B46" r:id="rId38"/>
+    <hyperlink ref="B47" r:id="rId39"/>
+    <hyperlink ref="B48" r:id="rId40"/>
+    <hyperlink ref="B49" r:id="rId41"/>
+    <hyperlink ref="B50" r:id="rId42"/>
+    <hyperlink ref="B51" r:id="rId43"/>
+    <hyperlink ref="B52" r:id="rId44"/>
+    <hyperlink ref="B55" r:id="rId45"/>
+    <hyperlink ref="B56" r:id="rId46"/>
+    <hyperlink ref="B57" r:id="rId47"/>
+    <hyperlink ref="B58" r:id="rId48"/>
+    <hyperlink ref="B59" r:id="rId49"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B68" r:id="rId58"/>
+    <hyperlink ref="B69" r:id="rId59"/>
+    <hyperlink ref="B70" r:id="rId60"/>
+    <hyperlink ref="B71" r:id="rId61"/>
+    <hyperlink ref="B72" r:id="rId62"/>
+    <hyperlink ref="B73" r:id="rId63"/>
+    <hyperlink ref="B74" r:id="rId64"/>
+    <hyperlink ref="B75" r:id="rId65"/>
+    <hyperlink ref="B76" r:id="rId66"/>
+    <hyperlink ref="B77" r:id="rId67"/>
+    <hyperlink ref="B78" r:id="rId68"/>
+    <hyperlink ref="B79" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B81" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B85" r:id="rId75"/>
+    <hyperlink ref="B86" r:id="rId76"/>
+    <hyperlink ref="B87" r:id="rId77"/>
+    <hyperlink ref="B88" r:id="rId78"/>
+    <hyperlink ref="B89" r:id="rId79"/>
+    <hyperlink ref="B90" r:id="rId80"/>
+    <hyperlink ref="B91" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B95" r:id="rId85"/>
+    <hyperlink ref="B96" r:id="rId86"/>
+    <hyperlink ref="B99" r:id="rId87"/>
+    <hyperlink ref="B100" r:id="rId88"/>
+    <hyperlink ref="B101" r:id="rId89"/>
+    <hyperlink ref="B102" r:id="rId90"/>
+    <hyperlink ref="B104" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B105" r:id="rId92"/>
+    <hyperlink ref="B106" r:id="rId93"/>
+    <hyperlink ref="B107" r:id="rId94"/>
+    <hyperlink ref="B108" r:id="rId95"/>
+    <hyperlink ref="B109" r:id="rId96"/>
+    <hyperlink ref="B111" r:id="rId97"/>
+    <hyperlink ref="B112" r:id="rId98"/>
+    <hyperlink ref="B113" r:id="rId99"/>
+    <hyperlink ref="B114" r:id="rId100"/>
+    <hyperlink ref="B115" r:id="rId101"/>
+    <hyperlink ref="B116" r:id="rId102"/>
+    <hyperlink ref="B117" r:id="rId103"/>
+    <hyperlink ref="B118" r:id="rId104"/>
+    <hyperlink ref="B119" r:id="rId105"/>
+    <hyperlink ref="B120" r:id="rId106"/>
+    <hyperlink ref="B121" r:id="rId107"/>
+    <hyperlink ref="B122" r:id="rId108"/>
+    <hyperlink ref="B123" r:id="rId109"/>
+    <hyperlink ref="B124" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B126" r:id="rId112"/>
+    <hyperlink ref="B127" r:id="rId113"/>
+    <hyperlink ref="B128" r:id="rId114"/>
+    <hyperlink ref="B129" r:id="rId115"/>
+    <hyperlink ref="B130" r:id="rId116"/>
+    <hyperlink ref="B103" r:id="rId117"/>
+    <hyperlink ref="B110" r:id="rId118"/>
+    <hyperlink ref="B133" r:id="rId119"/>
+    <hyperlink ref="B134" r:id="rId120"/>
+    <hyperlink ref="B135" r:id="rId121"/>
+    <hyperlink ref="B136" r:id="rId122"/>
+    <hyperlink ref="B137" r:id="rId123"/>
+    <hyperlink ref="B138" r:id="rId124"/>
+    <hyperlink ref="B139" r:id="rId125"/>
+    <hyperlink ref="B140" r:id="rId126"/>
+    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B142" r:id="rId128"/>
+    <hyperlink ref="B143" r:id="rId129"/>
+    <hyperlink ref="B144" r:id="rId130"/>
+    <hyperlink ref="B145" r:id="rId131"/>
+    <hyperlink ref="B146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="B148" r:id="rId134"/>
+    <hyperlink ref="B149" r:id="rId135"/>
+    <hyperlink ref="B150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="B152" r:id="rId138"/>
+    <hyperlink ref="B153" r:id="rId139"/>
+    <hyperlink ref="B154" r:id="rId140"/>
+    <hyperlink ref="B157" r:id="rId141" display="Flatten a Linked List"/>
+    <hyperlink ref="B158" r:id="rId142"/>
+    <hyperlink ref="B159" r:id="rId143" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B161" r:id="rId144" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B162" r:id="rId145"/>
+    <hyperlink ref="B163" r:id="rId146"/>
+    <hyperlink ref="B164" r:id="rId147"/>
+    <hyperlink ref="B165" r:id="rId148"/>
+    <hyperlink ref="B166" r:id="rId149"/>
+    <hyperlink ref="B169" r:id="rId150" display="level order traversal"/>
+    <hyperlink ref="B170" r:id="rId151"/>
+    <hyperlink ref="B171" r:id="rId152" display="Height of a tree"/>
+    <hyperlink ref="B172" r:id="rId153"/>
+    <hyperlink ref="B173" r:id="rId154"/>
+    <hyperlink ref="B174" r:id="rId155"/>
+    <hyperlink ref="B175" r:id="rId156"/>
+    <hyperlink ref="B176" r:id="rId157"/>
+    <hyperlink ref="B177" r:id="rId158"/>
+    <hyperlink ref="B178" r:id="rId159"/>
+    <hyperlink ref="B179" r:id="rId160"/>
+    <hyperlink ref="B180" r:id="rId161"/>
+    <hyperlink ref="B181" r:id="rId162"/>
+    <hyperlink ref="B182" r:id="rId163"/>
+    <hyperlink ref="B183" r:id="rId164"/>
+    <hyperlink ref="B184" r:id="rId165" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B185" r:id="rId166"/>
+    <hyperlink ref="B186" r:id="rId167" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B187" r:id="rId168"/>
+    <hyperlink ref="B188" r:id="rId169"/>
+    <hyperlink ref="B189" r:id="rId170" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B191" r:id="rId171"/>
+    <hyperlink ref="B192" r:id="rId172"/>
+    <hyperlink ref="B193" r:id="rId173"/>
+    <hyperlink ref="B194" r:id="rId174"/>
+    <hyperlink ref="B195" r:id="rId175"/>
+    <hyperlink ref="B196" r:id="rId176" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B197" r:id="rId177"/>
+    <hyperlink ref="B198" r:id="rId178"/>
+    <hyperlink ref="B199" r:id="rId179"/>
+    <hyperlink ref="B200" r:id="rId180" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B202" r:id="rId181"/>
+    <hyperlink ref="B203" r:id="rId182"/>
+    <hyperlink ref="B204" r:id="rId183"/>
+    <hyperlink ref="B207" r:id="rId184" display="Fina a value in a BST"/>
+    <hyperlink ref="B210" r:id="rId185"/>
+    <hyperlink ref="B211" r:id="rId186"/>
+    <hyperlink ref="B212" r:id="rId187"/>
+    <hyperlink ref="B213" r:id="rId188"/>
+    <hyperlink ref="B214" r:id="rId189"/>
+    <hyperlink ref="B215" r:id="rId190"/>
+    <hyperlink ref="B216" r:id="rId191"/>
+    <hyperlink ref="B217" r:id="rId192"/>
+    <hyperlink ref="B218" r:id="rId193"/>
+    <hyperlink ref="B219" r:id="rId194" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B220" r:id="rId195"/>
+    <hyperlink ref="B221" r:id="rId196"/>
+    <hyperlink ref="B222" r:id="rId197"/>
+    <hyperlink ref="B223" r:id="rId198"/>
+    <hyperlink ref="B224" r:id="rId199"/>
+    <hyperlink ref="B225" r:id="rId200"/>
+    <hyperlink ref="B226" r:id="rId201"/>
+    <hyperlink ref="B227" r:id="rId202"/>
+    <hyperlink ref="B228" r:id="rId203"/>
+    <hyperlink ref="B229" r:id="rId204"/>
+    <hyperlink ref="B230" r:id="rId205"/>
+    <hyperlink ref="B233" r:id="rId206"/>
+    <hyperlink ref="B234" r:id="rId207"/>
+    <hyperlink ref="B235" r:id="rId208"/>
+    <hyperlink ref="B236" r:id="rId209"/>
+    <hyperlink ref="B237" r:id="rId210"/>
+    <hyperlink ref="B238" r:id="rId211"/>
+    <hyperlink ref="B239" r:id="rId212"/>
+    <hyperlink ref="B240" r:id="rId213"/>
+    <hyperlink ref="B241" r:id="rId214"/>
+    <hyperlink ref="B242" r:id="rId215"/>
+    <hyperlink ref="B243" r:id="rId216"/>
+    <hyperlink ref="B244" r:id="rId217"/>
+    <hyperlink ref="B245" r:id="rId218"/>
+    <hyperlink ref="B246" r:id="rId219"/>
+    <hyperlink ref="B247" r:id="rId220"/>
+    <hyperlink ref="B248" r:id="rId221"/>
+    <hyperlink ref="B249" r:id="rId222"/>
+    <hyperlink ref="B250" r:id="rId223"/>
+    <hyperlink ref="B251" r:id="rId224"/>
+    <hyperlink ref="B252" r:id="rId225" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B253" r:id="rId226"/>
+    <hyperlink ref="B254" r:id="rId227"/>
+    <hyperlink ref="B255" r:id="rId228"/>
+    <hyperlink ref="B256" r:id="rId229"/>
+    <hyperlink ref="B257" r:id="rId230"/>
+    <hyperlink ref="B258" r:id="rId231"/>
+    <hyperlink ref="B259" r:id="rId232"/>
+    <hyperlink ref="B260" r:id="rId233"/>
+    <hyperlink ref="B261" r:id="rId234"/>
+    <hyperlink ref="B262" r:id="rId235"/>
+    <hyperlink ref="B263" r:id="rId236"/>
+    <hyperlink ref="B264" r:id="rId237"/>
+    <hyperlink ref="B265" r:id="rId238"/>
+    <hyperlink ref="B266" r:id="rId239"/>
+    <hyperlink ref="B267" r:id="rId240"/>
+    <hyperlink ref="B270" r:id="rId241"/>
+    <hyperlink ref="B271" r:id="rId242"/>
+    <hyperlink ref="B272" r:id="rId243"/>
+    <hyperlink ref="B273" r:id="rId244"/>
+    <hyperlink ref="B274" r:id="rId245"/>
+    <hyperlink ref="B275" r:id="rId246"/>
+    <hyperlink ref="B276" r:id="rId247"/>
+    <hyperlink ref="B277" r:id="rId248"/>
+    <hyperlink ref="B278" r:id="rId249"/>
+    <hyperlink ref="B279" r:id="rId250"/>
+    <hyperlink ref="B280" r:id="rId251"/>
+    <hyperlink ref="B281" r:id="rId252"/>
+    <hyperlink ref="B282" r:id="rId253"/>
+    <hyperlink ref="B283" r:id="rId254"/>
+    <hyperlink ref="B284" r:id="rId255"/>
+    <hyperlink ref="B285" r:id="rId256"/>
+    <hyperlink ref="B286" r:id="rId257"/>
+    <hyperlink ref="B287" r:id="rId258"/>
+    <hyperlink ref="B288" r:id="rId259"/>
+    <hyperlink ref="B291" r:id="rId260"/>
+    <hyperlink ref="B292" r:id="rId261"/>
+    <hyperlink ref="B293" r:id="rId262"/>
+    <hyperlink ref="B294" r:id="rId263"/>
+    <hyperlink ref="B295" r:id="rId264"/>
+    <hyperlink ref="B296" r:id="rId265"/>
+    <hyperlink ref="B297" r:id="rId266"/>
+    <hyperlink ref="B298" r:id="rId267"/>
+    <hyperlink ref="B299" r:id="rId268"/>
+    <hyperlink ref="B300" r:id="rId269"/>
+    <hyperlink ref="B301" r:id="rId270" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B302" r:id="rId271"/>
+    <hyperlink ref="B303" r:id="rId272"/>
+    <hyperlink ref="B304" r:id="rId273"/>
+    <hyperlink ref="B305" r:id="rId274"/>
+    <hyperlink ref="B306" r:id="rId275"/>
+    <hyperlink ref="B307" r:id="rId276"/>
+    <hyperlink ref="B308" r:id="rId277"/>
+    <hyperlink ref="B309" r:id="rId278"/>
+    <hyperlink ref="B310" r:id="rId279"/>
+    <hyperlink ref="B311" r:id="rId280"/>
+    <hyperlink ref="B312" r:id="rId281"/>
+    <hyperlink ref="B313" r:id="rId282"/>
+    <hyperlink ref="B314" r:id="rId283"/>
+    <hyperlink ref="B315" r:id="rId284"/>
+    <hyperlink ref="B316" r:id="rId285"/>
+    <hyperlink ref="B317" r:id="rId286"/>
+    <hyperlink ref="B318" r:id="rId287"/>
+    <hyperlink ref="B319" r:id="rId288"/>
+    <hyperlink ref="B320" r:id="rId289"/>
+    <hyperlink ref="B321" r:id="rId290"/>
+    <hyperlink ref="B322" r:id="rId291"/>
+    <hyperlink ref="B323" r:id="rId292"/>
+    <hyperlink ref="B324" r:id="rId293"/>
+    <hyperlink ref="B325" r:id="rId294"/>
+    <hyperlink ref="B326" r:id="rId295"/>
+    <hyperlink ref="B327" r:id="rId296"/>
+    <hyperlink ref="B328" r:id="rId297"/>
+    <hyperlink ref="B331" r:id="rId298"/>
+    <hyperlink ref="B332" r:id="rId299"/>
+    <hyperlink ref="B333" r:id="rId300"/>
+    <hyperlink ref="B334" r:id="rId301"/>
+    <hyperlink ref="B335" r:id="rId302"/>
+    <hyperlink ref="B336" r:id="rId303"/>
+    <hyperlink ref="B337" r:id="rId304"/>
+    <hyperlink ref="B338" r:id="rId305"/>
+    <hyperlink ref="B339" r:id="rId306"/>
+    <hyperlink ref="B340" r:id="rId307" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B341" r:id="rId308"/>
+    <hyperlink ref="B342" r:id="rId309"/>
+    <hyperlink ref="B343" r:id="rId310"/>
+    <hyperlink ref="B344" r:id="rId311"/>
+    <hyperlink ref="B345" r:id="rId312"/>
+    <hyperlink ref="B346" r:id="rId313"/>
+    <hyperlink ref="B347" r:id="rId314"/>
+    <hyperlink ref="B348" r:id="rId315"/>
+    <hyperlink ref="B352" r:id="rId316"/>
+    <hyperlink ref="B353" r:id="rId317"/>
+    <hyperlink ref="B354" r:id="rId318"/>
+    <hyperlink ref="B355" r:id="rId319"/>
+    <hyperlink ref="B356" r:id="rId320"/>
+    <hyperlink ref="B357" r:id="rId321"/>
+    <hyperlink ref="B358" r:id="rId322"/>
+    <hyperlink ref="B359" r:id="rId323"/>
+    <hyperlink ref="B360" r:id="rId324"/>
+    <hyperlink ref="B361" r:id="rId325"/>
+    <hyperlink ref="B362" r:id="rId326"/>
+    <hyperlink ref="B363" r:id="rId327"/>
+    <hyperlink ref="B364" r:id="rId328"/>
+    <hyperlink ref="B365" r:id="rId329"/>
+    <hyperlink ref="B366" r:id="rId330"/>
+    <hyperlink ref="B367" r:id="rId331"/>
+    <hyperlink ref="B368" r:id="rId332"/>
+    <hyperlink ref="B369" r:id="rId333"/>
+    <hyperlink ref="B370" r:id="rId334"/>
+    <hyperlink ref="B371" r:id="rId335"/>
+    <hyperlink ref="B372" r:id="rId336"/>
+    <hyperlink ref="B373" r:id="rId337"/>
+    <hyperlink ref="B374" r:id="rId338" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B375" r:id="rId339"/>
+    <hyperlink ref="B376" r:id="rId340"/>
+    <hyperlink ref="B377" r:id="rId341"/>
+    <hyperlink ref="B378" r:id="rId342"/>
+    <hyperlink ref="B379" r:id="rId343"/>
+    <hyperlink ref="B380" r:id="rId344"/>
+    <hyperlink ref="B381" r:id="rId345"/>
+    <hyperlink ref="B382" r:id="rId346"/>
+    <hyperlink ref="B383" r:id="rId347"/>
+    <hyperlink ref="B384" r:id="rId348"/>
+    <hyperlink ref="B385" r:id="rId349"/>
+    <hyperlink ref="B386" r:id="rId350"/>
+    <hyperlink ref="B387" r:id="rId351"/>
+    <hyperlink ref="B388" r:id="rId352"/>
+    <hyperlink ref="B390" r:id="rId353"/>
+    <hyperlink ref="B389" r:id="rId354"/>
+    <hyperlink ref="B391" r:id="rId355"/>
+    <hyperlink ref="B392" r:id="rId356"/>
+    <hyperlink ref="B393" r:id="rId357"/>
+    <hyperlink ref="B396" r:id="rId358"/>
+    <hyperlink ref="B397" r:id="rId359"/>
+    <hyperlink ref="B398" r:id="rId360"/>
+    <hyperlink ref="B399" r:id="rId361"/>
+    <hyperlink ref="B400" r:id="rId362"/>
+    <hyperlink ref="B401" r:id="rId363"/>
+    <hyperlink ref="B404" r:id="rId364"/>
+    <hyperlink ref="B405" r:id="rId365"/>
+    <hyperlink ref="B406" r:id="rId366"/>
+    <hyperlink ref="B407" r:id="rId367"/>
+    <hyperlink ref="B408" r:id="rId368"/>
+    <hyperlink ref="B409" r:id="rId369"/>
+    <hyperlink ref="B410" r:id="rId370"/>
+    <hyperlink ref="B411" r:id="rId371"/>
+    <hyperlink ref="B412" r:id="rId372"/>
+    <hyperlink ref="B413" r:id="rId373"/>
+    <hyperlink ref="B414" r:id="rId374"/>
+    <hyperlink ref="B415" r:id="rId375"/>
+    <hyperlink ref="B416" r:id="rId376"/>
+    <hyperlink ref="B417" r:id="rId377"/>
+    <hyperlink ref="B418" r:id="rId378"/>
+    <hyperlink ref="B419" r:id="rId379"/>
+    <hyperlink ref="B420" r:id="rId380"/>
+    <hyperlink ref="B421" r:id="rId381"/>
+    <hyperlink ref="B422" r:id="rId382"/>
+    <hyperlink ref="B423" r:id="rId383"/>
+    <hyperlink ref="B424" r:id="rId384"/>
+    <hyperlink ref="B425" r:id="rId385"/>
+    <hyperlink ref="B426" r:id="rId386"/>
+    <hyperlink ref="B427" r:id="rId387"/>
+    <hyperlink ref="B428" r:id="rId388"/>
+    <hyperlink ref="B429" r:id="rId389"/>
+    <hyperlink ref="B430" r:id="rId390"/>
+    <hyperlink ref="B431" r:id="rId391"/>
+    <hyperlink ref="B432" r:id="rId392"/>
+    <hyperlink ref="B433" r:id="rId393"/>
+    <hyperlink ref="B434" r:id="rId394"/>
+    <hyperlink ref="B435" r:id="rId395"/>
+    <hyperlink ref="B436" r:id="rId396"/>
+    <hyperlink ref="B437" r:id="rId397"/>
+    <hyperlink ref="B438" r:id="rId398"/>
+    <hyperlink ref="B439" r:id="rId399"/>
+    <hyperlink ref="B440" r:id="rId400"/>
+    <hyperlink ref="B441" r:id="rId401"/>
+    <hyperlink ref="B442" r:id="rId402"/>
+    <hyperlink ref="B443" r:id="rId403"/>
+    <hyperlink ref="B445" r:id="rId404"/>
+    <hyperlink ref="B444" r:id="rId405"/>
+    <hyperlink ref="B446" r:id="rId406"/>
+    <hyperlink ref="B447" r:id="rId407"/>
+    <hyperlink ref="B448" r:id="rId408"/>
+    <hyperlink ref="B449" r:id="rId409"/>
+    <hyperlink ref="B450" r:id="rId410"/>
+    <hyperlink ref="B451" r:id="rId411"/>
+    <hyperlink ref="B452" r:id="rId412"/>
+    <hyperlink ref="B453" r:id="rId413"/>
+    <hyperlink ref="B454" r:id="rId414"/>
+    <hyperlink ref="B455" r:id="rId415"/>
+    <hyperlink ref="B456" r:id="rId416"/>
+    <hyperlink ref="B463" r:id="rId417"/>
+    <hyperlink ref="B462" r:id="rId418"/>
+    <hyperlink ref="B461" r:id="rId419"/>
+    <hyperlink ref="B460" r:id="rId420"/>
+    <hyperlink ref="B459" r:id="rId421"/>
+    <hyperlink ref="B458" r:id="rId422"/>
+    <hyperlink ref="B457" r:id="rId423"/>
+    <hyperlink ref="B466" r:id="rId424"/>
+    <hyperlink ref="B467" r:id="rId425"/>
+    <hyperlink ref="B468" r:id="rId426"/>
+    <hyperlink ref="B469" r:id="rId427"/>
+    <hyperlink ref="B470" r:id="rId428"/>
+    <hyperlink ref="B471" r:id="rId429"/>
+    <hyperlink ref="B472" r:id="rId430"/>
+    <hyperlink ref="B475" r:id="rId431"/>
+    <hyperlink ref="B473" r:id="rId432"/>
+    <hyperlink ref="B474" r:id="rId433" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B351" r:id="rId434"/>
     <hyperlink ref="B2" r:id="rId435"/>
     <hyperlink ref="D17" r:id="rId436"/>
     <hyperlink ref="D6" r:id="rId437"/>
@@ -8135,81 +8158,83 @@
     <hyperlink ref="D16" r:id="rId442"/>
     <hyperlink ref="D15" r:id="rId443"/>
     <hyperlink ref="D21" r:id="rId444"/>
-    <hyperlink ref="D54" r:id="rId445"/>
+    <hyperlink ref="D55" r:id="rId445"/>
     <hyperlink ref="D14" r:id="rId446"/>
     <hyperlink ref="D32" r:id="rId447"/>
     <hyperlink ref="D27" r:id="rId448"/>
     <hyperlink ref="D22" r:id="rId449"/>
     <hyperlink ref="D19" r:id="rId450"/>
-    <hyperlink ref="D42" r:id="rId451"/>
-    <hyperlink ref="D55" r:id="rId452"/>
-    <hyperlink ref="D56" r:id="rId453"/>
-    <hyperlink ref="D101" r:id="rId454"/>
-    <hyperlink ref="D98" r:id="rId455"/>
-    <hyperlink ref="D108" r:id="rId456"/>
-    <hyperlink ref="D155" r:id="rId457"/>
-    <hyperlink ref="D149" r:id="rId458"/>
-    <hyperlink ref="D132" r:id="rId459"/>
-    <hyperlink ref="D133" r:id="rId460"/>
-    <hyperlink ref="D134" r:id="rId461"/>
-    <hyperlink ref="D137" r:id="rId462"/>
-    <hyperlink ref="D138" r:id="rId463"/>
-    <hyperlink ref="D140" r:id="rId464"/>
-    <hyperlink ref="D145" r:id="rId465"/>
-    <hyperlink ref="D148" r:id="rId466"/>
-    <hyperlink ref="D146" r:id="rId467"/>
-    <hyperlink ref="D147" r:id="rId468"/>
-    <hyperlink ref="D163" r:id="rId469"/>
-    <hyperlink ref="D164" r:id="rId470"/>
-    <hyperlink ref="D139" r:id="rId471"/>
-    <hyperlink ref="D165" r:id="rId472"/>
-    <hyperlink ref="D157" r:id="rId473"/>
-    <hyperlink ref="B159" r:id="rId474" display="Merge K sorted Linked list"/>
-    <hyperlink ref="D160" r:id="rId475"/>
-    <hyperlink ref="D159" r:id="rId476"/>
-    <hyperlink ref="D158" r:id="rId477"/>
-    <hyperlink ref="D154" r:id="rId478"/>
-    <hyperlink ref="D173" r:id="rId479"/>
-    <hyperlink ref="D175" r:id="rId480"/>
-    <hyperlink ref="D174" r:id="rId481"/>
-    <hyperlink ref="D168" r:id="rId482"/>
-    <hyperlink ref="D170" r:id="rId483"/>
-    <hyperlink ref="D181" r:id="rId484"/>
-    <hyperlink ref="D172" r:id="rId485"/>
-    <hyperlink ref="D171" r:id="rId486"/>
-    <hyperlink ref="D180" r:id="rId487"/>
-    <hyperlink ref="D197" r:id="rId488"/>
-    <hyperlink ref="D183" r:id="rId489"/>
-    <hyperlink ref="D176" r:id="rId490"/>
-    <hyperlink ref="D177" r:id="rId491"/>
-    <hyperlink ref="D200" r:id="rId492"/>
-    <hyperlink ref="B200" r:id="rId493"/>
-    <hyperlink ref="D185" r:id="rId494"/>
-    <hyperlink ref="D206" r:id="rId495"/>
-    <hyperlink ref="D199" r:id="rId496"/>
-    <hyperlink ref="D169" r:id="rId497"/>
-    <hyperlink ref="D187" r:id="rId498"/>
-    <hyperlink ref="D193" r:id="rId499"/>
-    <hyperlink ref="D207" r:id="rId500"/>
-    <hyperlink ref="D220" r:id="rId501"/>
-    <hyperlink ref="D189" r:id="rId502"/>
-    <hyperlink ref="D210" r:id="rId503"/>
+    <hyperlink ref="D43" r:id="rId451"/>
+    <hyperlink ref="D56" r:id="rId452"/>
+    <hyperlink ref="D57" r:id="rId453"/>
+    <hyperlink ref="D102" r:id="rId454"/>
+    <hyperlink ref="D99" r:id="rId455"/>
+    <hyperlink ref="D109" r:id="rId456"/>
+    <hyperlink ref="D156" r:id="rId457"/>
+    <hyperlink ref="D150" r:id="rId458"/>
+    <hyperlink ref="D133" r:id="rId459"/>
+    <hyperlink ref="D134" r:id="rId460"/>
+    <hyperlink ref="D135" r:id="rId461"/>
+    <hyperlink ref="D138" r:id="rId462"/>
+    <hyperlink ref="D139" r:id="rId463"/>
+    <hyperlink ref="D141" r:id="rId464"/>
+    <hyperlink ref="D146" r:id="rId465"/>
+    <hyperlink ref="D149" r:id="rId466"/>
+    <hyperlink ref="D147" r:id="rId467"/>
+    <hyperlink ref="D148" r:id="rId468"/>
+    <hyperlink ref="D164" r:id="rId469"/>
+    <hyperlink ref="D165" r:id="rId470"/>
+    <hyperlink ref="D140" r:id="rId471"/>
+    <hyperlink ref="D166" r:id="rId472"/>
+    <hyperlink ref="D158" r:id="rId473"/>
+    <hyperlink ref="B160" r:id="rId474" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D161" r:id="rId475"/>
+    <hyperlink ref="D160" r:id="rId476"/>
+    <hyperlink ref="D159" r:id="rId477"/>
+    <hyperlink ref="D155" r:id="rId478"/>
+    <hyperlink ref="D174" r:id="rId479"/>
+    <hyperlink ref="D176" r:id="rId480"/>
+    <hyperlink ref="D175" r:id="rId481"/>
+    <hyperlink ref="D169" r:id="rId482"/>
+    <hyperlink ref="D171" r:id="rId483"/>
+    <hyperlink ref="D182" r:id="rId484"/>
+    <hyperlink ref="D173" r:id="rId485"/>
+    <hyperlink ref="D172" r:id="rId486"/>
+    <hyperlink ref="D181" r:id="rId487"/>
+    <hyperlink ref="D198" r:id="rId488"/>
+    <hyperlink ref="D184" r:id="rId489"/>
+    <hyperlink ref="D177" r:id="rId490"/>
+    <hyperlink ref="D178" r:id="rId491"/>
+    <hyperlink ref="D201" r:id="rId492"/>
+    <hyperlink ref="B201" r:id="rId493"/>
+    <hyperlink ref="D186" r:id="rId494"/>
+    <hyperlink ref="D207" r:id="rId495"/>
+    <hyperlink ref="D200" r:id="rId496"/>
+    <hyperlink ref="D170" r:id="rId497"/>
+    <hyperlink ref="D188" r:id="rId498"/>
+    <hyperlink ref="D194" r:id="rId499"/>
+    <hyperlink ref="D208" r:id="rId500"/>
+    <hyperlink ref="D221" r:id="rId501"/>
+    <hyperlink ref="D190" r:id="rId502"/>
+    <hyperlink ref="D211" r:id="rId503"/>
     <hyperlink ref="D26" r:id="rId504"/>
-    <hyperlink ref="D212" r:id="rId505"/>
-    <hyperlink ref="D223" r:id="rId506"/>
-    <hyperlink ref="D214" r:id="rId507"/>
-    <hyperlink ref="D49" r:id="rId508"/>
-    <hyperlink ref="D211" r:id="rId509"/>
-    <hyperlink ref="D333" r:id="rId510"/>
-    <hyperlink ref="D343" r:id="rId511"/>
-    <hyperlink ref="D339" r:id="rId512"/>
-    <hyperlink ref="D347" r:id="rId513"/>
-    <hyperlink ref="D338" r:id="rId514"/>
+    <hyperlink ref="D213" r:id="rId505"/>
+    <hyperlink ref="D224" r:id="rId506"/>
+    <hyperlink ref="D215" r:id="rId507"/>
+    <hyperlink ref="D50" r:id="rId508"/>
+    <hyperlink ref="D212" r:id="rId509"/>
+    <hyperlink ref="D334" r:id="rId510"/>
+    <hyperlink ref="D344" r:id="rId511"/>
+    <hyperlink ref="D340" r:id="rId512"/>
+    <hyperlink ref="D348" r:id="rId513"/>
+    <hyperlink ref="D339" r:id="rId514"/>
     <hyperlink ref="D10" r:id="rId515"/>
     <hyperlink ref="D39" r:id="rId516"/>
     <hyperlink ref="D24" r:id="rId517"/>
+    <hyperlink ref="B40" r:id="rId518" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="D40" r:id="rId519"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId518"/>
+  <pageSetup orientation="portrait" r:id="rId520"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="551">
-  <si>
-    <t>Questions by Love Babbar:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="555">
   <si>
     <t>Topic:</t>
   </si>
@@ -119,9 +116,6 @@
     <t>Find whether an array is a subset of another array</t>
   </si>
   <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
     <t>Smallest Subarray with sum greater than a given value</t>
   </si>
   <si>
@@ -1325,9 +1319,6 @@
     <t>Power Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
-  </si>
-  <si>
     <t>LeetCode Link :</t>
   </si>
   <si>
@@ -1677,6 +1668,40 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/candy/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/chocolate-problem_893280?leftPanelTab=1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chocolate Distribution problem  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[IMP]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/row-with-maximum-1-s_1112656?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/submissions/</t>
+  </si>
+  <si>
+    <t>just simply use minHeap like in kth smallest element in row column wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Questions by Love Babbar:</t>
   </si>
 </sst>
 </file>
@@ -1779,13 +1804,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1857,6 +1875,14 @@
     </font>
     <font>
       <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1950,9 +1976,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,14 +2005,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1995,13 +2020,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2017,21 +2042,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2040,33 +2065,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2074,7 +2099,7 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2400,2385 +2425,2400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="104.296875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="104.296875" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.296875" customWidth="1"/>
-    <col min="4" max="4" width="36.296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="36.296875" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>436</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
       <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>441</v>
+        <v>433</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>544</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="19.8">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" ht="19.8">
-      <c r="A13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>447</v>
+        <v>433</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" ht="21">
+      <c r="A16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="A17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="C16" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.8">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.8">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="19.8">
+      <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="21">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" ht="19.8">
-      <c r="A21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>444</v>
+      <c r="C21" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
       <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>451</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
       <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
       <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>547</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
       <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
       <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>529</v>
+        <v>433</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
       <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>450</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
       <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
       <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
       <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="28" customFormat="1" ht="21">
+      <c r="A32" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="29" customFormat="1" ht="21">
-      <c r="A33" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="B32" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="B33" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="21">
       <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
       <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
       <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
       <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="28" customFormat="1" ht="21">
+      <c r="A38" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="28" customFormat="1" ht="21">
+      <c r="A39" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="29" customFormat="1" ht="21">
-      <c r="A39" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="29" customFormat="1" ht="21">
-      <c r="A40" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>550</v>
-      </c>
+      <c r="C39" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
+      <c r="B40" s="4"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="21">
+      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="21">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>453</v>
+    <row r="42" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21">
+      <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>533</v>
+        <v>433</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="21">
+      <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="21">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>455</v>
+        <v>433</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>456</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="9" customFormat="1" ht="19.8">
+      <c r="A65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="21">
-      <c r="A65" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A66" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A67" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A68" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A69" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" ht="21">
+      <c r="A70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="18"/>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" ht="19.8">
-      <c r="A70" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="18"/>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>72</v>
+        <v>44</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>85</v>
+        <v>44</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>86</v>
+        <v>44</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
+      <c r="A97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="21">
+      <c r="A98" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="21">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="21">
       <c r="A99" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>458</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
       <c r="A100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>457</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A108" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="21">
-      <c r="A108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="14" t="s">
+      <c r="C108" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
+      <c r="A109" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A109" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>459</v>
+      <c r="C109" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B119" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A120" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="21">
-      <c r="A120" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B120" s="14" t="s">
+      <c r="C120" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A121" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A121" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B121" s="26" t="s">
+      <c r="C121" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="1:4" ht="21">
+      <c r="A122" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="27"/>
-    </row>
-    <row r="122" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A122" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="27"/>
+      <c r="C122" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>114</v>
+        <v>87</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B124" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A125" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B125" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="21">
-      <c r="A125" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B125" s="14" t="s">
+      <c r="C125" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D125" s="26"/>
+    </row>
+    <row r="126" spans="1:4" ht="21">
+      <c r="A126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A126" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="27"/>
+      <c r="C126" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>118</v>
+        <v>87</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B129" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21">
+      <c r="B131" s="4"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="21">
+      <c r="A132" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="21">
-      <c r="A130" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="21">
-      <c r="B132" s="4"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" ht="21">
-      <c r="A133" s="5" t="s">
+      <c r="C132" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A133" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="C133" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21">
+      <c r="A134" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A134" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>464</v>
+      <c r="C134" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D135" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" s="16" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>468</v>
+        <v>433</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
       <c r="A137" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>468</v>
+        <v>433</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="A138" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>466</v>
+        <v>433</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>467</v>
+        <v>433</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>477</v>
+        <v>433</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>469</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B142" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A143" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C143" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A144" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="17"/>
+    </row>
+    <row r="145" spans="1:6" ht="21">
+      <c r="A145" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D144" s="18"/>
-    </row>
-    <row r="145" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A145" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="18"/>
+      <c r="C145" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>470</v>
+        <v>433</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>137</v>
+        <v>120</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>471</v>
+        <v>433</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>472</v>
+        <v>433</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>455</v>
+        <v>433</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>140</v>
+        <v>120</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>462</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B151" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A152" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C152" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="23"/>
     </row>
     <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="23"/>
+    </row>
+    <row r="154" spans="1:6" ht="21">
+      <c r="A154" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A154" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="24"/>
+      <c r="C154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>145</v>
+        <v>457</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A157" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B157" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="31" customFormat="1" ht="21">
+      <c r="A156" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D156" s="32"/>
+    </row>
+    <row r="157" spans="1:6" ht="21">
+      <c r="A157" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D157" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="C157" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D157" s="33"/>
-    </row>
-    <row r="158" spans="1:6" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D158" s="21" t="s">
+    </row>
+    <row r="158" spans="1:6" s="31" customFormat="1" ht="21">
+      <c r="A158" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="F158" s="36" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="31" customFormat="1" ht="21">
+      <c r="A159" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D159" s="37" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A159" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="C159" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="D159" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="F159" s="37" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="32" customFormat="1" ht="21">
-      <c r="A160" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B160" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="C160" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D160" s="38" t="s">
-        <v>482</v>
+    <row r="160" spans="1:6" ht="21">
+      <c r="A160" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>480</v>
+        <v>120</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>481</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B162" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A163" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="21">
+      <c r="A164" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B164" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="4" customFormat="1" ht="21">
-      <c r="A164" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>473</v>
+      <c r="C164" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B165" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
+      <c r="B167" s="4"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A168" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
+      <c r="A169" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B166" s="14" t="s">
+      <c r="B169" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D166" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="21">
-      <c r="B168" s="4"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A169" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>493</v>
+      <c r="C169" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D169" s="20" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>492</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D170" s="21" t="s">
-        <v>516</v>
+        <v>433</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="C171" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D171" s="20" t="s">
         <v>495</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>498</v>
+        <v>433</v>
+      </c>
+      <c r="D172" s="20" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>497</v>
+        <v>433</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>491</v>
+        <v>433</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
       <c r="A175" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B175" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>492</v>
+        <v>433</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>490</v>
+        <v>433</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>508</v>
+        <v>433</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>507</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B180" s="14" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>502</v>
+        <v>433</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B182" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="31" customFormat="1" ht="21">
+      <c r="A183" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D183" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
+      <c r="A184" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="21">
-      <c r="A183" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A184" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B184" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C184" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D184" s="40" t="s">
-        <v>505</v>
+      <c r="C184" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D185" s="20" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>511</v>
+        <v>149</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>512</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>166</v>
+        <v>149</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D187" s="20" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>517</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>168</v>
+        <v>149</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>523</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>526</v>
+        <v>149</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>527</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B191" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A192" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="21">
-      <c r="A192" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B192" s="14" t="s">
+      <c r="C192" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="1:4" ht="21">
+      <c r="A193" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B193" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A193" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="24"/>
+      <c r="C193" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D193" s="20" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B194" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A195" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B195" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="21">
-      <c r="A195" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B195" s="14" t="s">
+      <c r="C195" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="1:4" ht="21">
+      <c r="A196" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A196" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="31" customFormat="1" ht="21">
+      <c r="A197" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B197" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D197" s="32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="21">
+      <c r="A198" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="24"/>
-    </row>
-    <row r="197" spans="1:4" ht="21">
-      <c r="A197" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="32" customFormat="1" ht="21">
-      <c r="A198" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B198" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="C198" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="D198" s="33" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="21">
-      <c r="A199" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A200" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>514</v>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A199" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
+      <c r="A200" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D200" s="20" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B201" s="41" t="s">
-        <v>510</v>
+        <v>149</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D201" s="21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="21">
-      <c r="A202" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B202" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A202" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="23"/>
+    </row>
+    <row r="203" spans="1:4" ht="21">
+      <c r="A203" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B203" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A203" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="24"/>
+      <c r="C203" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="21">
-      <c r="A204" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A204" s="5"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5"/>
@@ -4786,3455 +4826,3453 @@
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:4" ht="21">
-      <c r="A206" s="5"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="2"/>
+      <c r="A206" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>524</v>
+        <v>178</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>516</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D207" s="21" t="s">
-        <v>513</v>
+        <v>433</v>
+      </c>
+      <c r="D207" s="20" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B208" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>519</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>521</v>
+        <v>178</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>522</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B210" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B210" s="14" t="s">
-        <v>181</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>528</v>
+        <v>433</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D212" s="21" t="s">
-        <v>534</v>
+        <v>433</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>530</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B214" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D214" s="20" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B215" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D215" s="21" t="s">
-        <v>532</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B217" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A218" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="23"/>
+    </row>
+    <row r="219" spans="1:4" s="46" customFormat="1" ht="21">
+      <c r="A219" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B219" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="21">
-      <c r="A218" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B218" s="14" t="s">
+      <c r="C219" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D219" s="45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="51" customFormat="1" ht="21">
+      <c r="A220" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B220" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A219" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" s="47" customFormat="1" ht="21">
-      <c r="A220" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B220" s="44" t="s">
+      <c r="C220" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D220" s="50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="21">
+      <c r="A221" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C220" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="D220" s="46" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="52" customFormat="1" ht="21">
-      <c r="A221" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B221" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C221" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="D221" s="51" t="s">
-        <v>523</v>
+      <c r="C221" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>192</v>
+        <v>178</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>193</v>
+        <v>178</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D223" s="20" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>194</v>
+        <v>178</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D224" s="21" t="s">
-        <v>531</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>195</v>
+        <v>178</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>196</v>
+        <v>178</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D226" s="52"/>
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B227" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A228" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B228" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D227" s="53"/>
-    </row>
-    <row r="228" spans="1:6" ht="21">
-      <c r="A228" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B228" s="14" t="s">
+      <c r="C228" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D228" s="23"/>
+      <c r="F228" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="21">
+      <c r="A229" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B229" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A229" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D229" s="24"/>
-      <c r="F229" s="7" t="s">
-        <v>535</v>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21">
-      <c r="A230" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:6" ht="21">
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:6" ht="21">
-      <c r="B232" s="4"/>
-      <c r="C232" s="2"/>
+      <c r="A232" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B233" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B233" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B235" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="A236" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="A237" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>207</v>
+        <v>199</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B239" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B240" s="14" t="s">
-        <v>209</v>
+        <v>199</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>210</v>
+        <v>199</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>212</v>
+        <v>199</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>213</v>
+        <v>199</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>214</v>
+        <v>199</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B246" s="14" t="s">
-        <v>215</v>
+        <v>199</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>216</v>
+        <v>199</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>217</v>
+        <v>199</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B250" s="14" t="s">
-        <v>219</v>
+        <v>199</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>220</v>
+        <v>199</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>221</v>
+        <v>199</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>222</v>
+        <v>199</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B254" s="14" t="s">
-        <v>223</v>
+        <v>199</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>224</v>
+        <v>199</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B256" s="14" t="s">
-        <v>225</v>
+        <v>199</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>226</v>
+        <v>199</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B258" s="14" t="s">
-        <v>227</v>
+        <v>199</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B259" s="14" t="s">
-        <v>228</v>
+        <v>199</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B260" s="14" t="s">
-        <v>229</v>
+        <v>199</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B261" s="14" t="s">
-        <v>230</v>
+        <v>199</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>231</v>
+        <v>199</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>232</v>
+        <v>199</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B264" s="14" t="s">
-        <v>233</v>
+        <v>199</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B265" s="14" t="s">
-        <v>234</v>
+        <v>199</v>
+      </c>
+      <c r="B265" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B266" s="14" t="s">
-        <v>79</v>
+        <v>199</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B267" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="B268" s="4"/>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="B269" s="4"/>
-      <c r="C269" s="2"/>
+      <c r="A269" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B270" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B270" s="14" t="s">
-        <v>237</v>
-      </c>
       <c r="C270" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B271" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B274" s="14" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B275" s="14" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B277" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B278" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B280" s="14" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B281" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B282" s="14" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B287" s="14" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="B289" s="4"/>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="B290" s="4"/>
-      <c r="C290" s="2"/>
+      <c r="A290" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B291" s="14" t="s">
-        <v>257</v>
-      </c>
       <c r="C291" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B293" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="B293" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B294" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="B294" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>261</v>
+        <v>254</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B296" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B297" s="14" t="s">
-        <v>263</v>
+        <v>254</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B299" s="14" t="s">
-        <v>265</v>
+        <v>254</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B300" s="14" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B301" s="14" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>268</v>
+        <v>254</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B303" s="14" t="s">
-        <v>269</v>
+        <v>254</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B304" s="16" t="s">
-        <v>270</v>
+        <v>254</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="B305" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B307" s="14" t="s">
-        <v>273</v>
+        <v>254</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>274</v>
+        <v>254</v>
+      </c>
+      <c r="B308" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>275</v>
+        <v>254</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>276</v>
+        <v>254</v>
+      </c>
+      <c r="B310" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>277</v>
+        <v>254</v>
+      </c>
+      <c r="B311" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>278</v>
+        <v>254</v>
+      </c>
+      <c r="B312" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B313" s="14" t="s">
-        <v>279</v>
+        <v>254</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>280</v>
+        <v>254</v>
+      </c>
+      <c r="B314" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>281</v>
+        <v>254</v>
+      </c>
+      <c r="B315" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>282</v>
+        <v>254</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>283</v>
+        <v>254</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>284</v>
+        <v>254</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="B319" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>286</v>
+        <v>254</v>
+      </c>
+      <c r="B320" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B321" s="14" t="s">
-        <v>287</v>
+        <v>254</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>286</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B322" s="14" t="s">
-        <v>288</v>
+        <v>254</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>289</v>
+        <v>254</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>290</v>
+        <v>254</v>
+      </c>
+      <c r="B324" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B325" s="14" t="s">
-        <v>291</v>
+        <v>254</v>
+      </c>
+      <c r="B325" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B326" s="14" t="s">
-        <v>292</v>
+        <v>254</v>
+      </c>
+      <c r="B326" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B327" s="14" t="s">
-        <v>293</v>
+        <v>254</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="21">
-      <c r="A328" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B328" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B328" s="4"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:4" ht="21">
       <c r="B329" s="4"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:4" ht="21">
-      <c r="B330" s="4"/>
-      <c r="C330" s="2"/>
+      <c r="A330" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B330" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B331" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D331" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A332" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B332" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C332" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" s="23"/>
+    </row>
+    <row r="333" spans="1:4" ht="21">
+      <c r="A333" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B333" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D333" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="D331" s="22" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="21">
-      <c r="A332" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B332" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A333" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D333" s="24"/>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B334" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D334" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A335" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D334" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="21">
-      <c r="A335" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B335" s="14" t="s">
+      <c r="C335" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="23"/>
+    </row>
+    <row r="336" spans="1:4" ht="21">
+      <c r="A336" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B336" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A336" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B336" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D336" s="24"/>
+      <c r="C336" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B337" s="14" t="s">
-        <v>301</v>
+        <v>545</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B338" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A339" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D339" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="21">
+      <c r="A340" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B340" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="21">
-      <c r="A339" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B339" s="16" t="s">
+      <c r="C340" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="21">
+      <c r="A341" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B341" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D339" s="21" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A340" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B340" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D340" s="23" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" ht="21">
-      <c r="A341" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B341" s="14" t="s">
-        <v>304</v>
-      </c>
       <c r="C341" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B342" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="21">
+      <c r="A343" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B343" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" ht="21">
-      <c r="A343" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B343" s="14" t="s">
+      <c r="C343" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D343" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="21">
+      <c r="A344" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B344" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" ht="21">
-      <c r="A344" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B344" s="14" t="s">
+      <c r="C344" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A345" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D344" s="21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="21">
-      <c r="A345" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B345" s="14" t="s">
+      <c r="C345" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D345" s="53" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="21">
+      <c r="A346" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B346" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A346" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B346" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D346" s="54" t="s">
-        <v>536</v>
+      <c r="C346" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B347" s="14" t="s">
-        <v>310</v>
+        <v>545</v>
+      </c>
+      <c r="B347" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
+      </c>
+      <c r="D347" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="F347" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
-      <c r="A348" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B348" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D348" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="F348" t="s">
-        <v>542</v>
-      </c>
+      <c r="B348" s="4"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:6" ht="21">
       <c r="B349" s="4"/>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:6" ht="21">
-      <c r="B350" s="4"/>
-      <c r="C350" s="2"/>
+      <c r="A350" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B351" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B351" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="C351" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B352" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="B352" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="B353" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B354" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="B354" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B355" s="14" t="s">
-        <v>317</v>
+        <v>310</v>
+      </c>
+      <c r="B355" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B356" s="14" t="s">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="B356" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B357" s="14" t="s">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="B357" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B358" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
+      </c>
+      <c r="B358" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B359" s="14" t="s">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="B359" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B360" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
+      </c>
+      <c r="B360" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B361" s="14" t="s">
-        <v>323</v>
+        <v>310</v>
+      </c>
+      <c r="B361" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B362" s="14" t="s">
-        <v>324</v>
+        <v>310</v>
+      </c>
+      <c r="B362" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B363" s="14" t="s">
-        <v>325</v>
+        <v>310</v>
+      </c>
+      <c r="B363" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B364" s="14" t="s">
-        <v>326</v>
+        <v>310</v>
+      </c>
+      <c r="B364" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+      <c r="B365" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B366" s="14" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="B366" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B367" s="14" t="s">
-        <v>329</v>
+        <v>310</v>
+      </c>
+      <c r="B367" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B368" s="14" t="s">
-        <v>330</v>
+        <v>310</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B369" s="14" t="s">
-        <v>331</v>
+        <v>310</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B370" s="14" t="s">
-        <v>332</v>
+        <v>310</v>
+      </c>
+      <c r="B370" s="13" t="s">
+        <v>331</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B371" s="14" t="s">
-        <v>333</v>
+        <v>310</v>
+      </c>
+      <c r="B371" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B372" s="14" t="s">
-        <v>334</v>
+        <v>310</v>
+      </c>
+      <c r="B372" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B373" s="14" t="s">
-        <v>335</v>
+        <v>310</v>
+      </c>
+      <c r="B373" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>336</v>
+        <v>310</v>
+      </c>
+      <c r="B374" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B375" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B375" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A376" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B376" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" ht="21">
-      <c r="A376" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B376" s="14" t="s">
+      <c r="C376" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D376" s="23"/>
+    </row>
+    <row r="377" spans="1:4" ht="21">
+      <c r="A377" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B377" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A377" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D377" s="24"/>
+      <c r="C377" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>340</v>
+        <v>310</v>
+      </c>
+      <c r="B378" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>341</v>
+        <v>310</v>
+      </c>
+      <c r="B379" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B380" s="14" t="s">
-        <v>342</v>
+        <v>310</v>
+      </c>
+      <c r="B380" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>343</v>
+        <v>310</v>
+      </c>
+      <c r="B381" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>344</v>
+        <v>310</v>
+      </c>
+      <c r="B382" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>345</v>
+        <v>310</v>
+      </c>
+      <c r="B383" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B384" s="14" t="s">
-        <v>346</v>
+        <v>310</v>
+      </c>
+      <c r="B384" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B385" s="14" t="s">
-        <v>347</v>
+        <v>310</v>
+      </c>
+      <c r="B385" s="13" t="s">
+        <v>346</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>348</v>
+        <v>310</v>
+      </c>
+      <c r="B386" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>349</v>
+        <v>310</v>
+      </c>
+      <c r="B387" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B388" s="14" t="s">
-        <v>350</v>
+        <v>310</v>
+      </c>
+      <c r="B388" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>351</v>
+        <v>310</v>
+      </c>
+      <c r="B389" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>352</v>
+        <v>310</v>
+      </c>
+      <c r="B390" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>353</v>
+        <v>310</v>
+      </c>
+      <c r="B391" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B392" s="14" t="s">
-        <v>354</v>
+        <v>310</v>
+      </c>
+      <c r="B392" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B393" s="4"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="B394" s="4"/>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="B395" s="4"/>
-      <c r="C395" s="2"/>
+      <c r="A395" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B395" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B396" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B396" s="14" t="s">
-        <v>357</v>
-      </c>
       <c r="C396" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="B397" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B398" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B399" s="14" t="s">
-        <v>81</v>
+        <v>354</v>
+      </c>
+      <c r="B399" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B400" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
+      </c>
+      <c r="B400" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="A401" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B401" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B401" s="4"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="B402" s="4"/>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="B403" s="4"/>
-      <c r="C403" s="2"/>
+      <c r="A403" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B403" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C403" s="35" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B404" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B404" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C404" s="36" t="s">
-        <v>436</v>
+      <c r="C404" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
+      </c>
+      <c r="B405" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="B406" s="13" t="s">
+        <v>364</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
+      </c>
+      <c r="B407" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>367</v>
+        <v>360</v>
+      </c>
+      <c r="B408" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B409" s="14" t="s">
-        <v>368</v>
+        <v>360</v>
+      </c>
+      <c r="B409" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B410" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
+      </c>
+      <c r="B410" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B411" s="14" t="s">
-        <v>244</v>
+        <v>360</v>
+      </c>
+      <c r="B411" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B412" s="14" t="s">
-        <v>370</v>
+        <v>360</v>
+      </c>
+      <c r="B412" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="B413" s="13" t="s">
+        <v>370</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B414" s="14" t="s">
-        <v>372</v>
+        <v>360</v>
+      </c>
+      <c r="B414" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>373</v>
+        <v>360</v>
+      </c>
+      <c r="B415" s="13" t="s">
+        <v>372</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>374</v>
+        <v>360</v>
+      </c>
+      <c r="B416" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B417" s="14" t="s">
-        <v>375</v>
+        <v>360</v>
+      </c>
+      <c r="B417" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B418" s="14" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+      <c r="B418" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B419" s="14" t="s">
-        <v>377</v>
+        <v>360</v>
+      </c>
+      <c r="B419" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B420" s="14" t="s">
-        <v>378</v>
+        <v>360</v>
+      </c>
+      <c r="B420" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>379</v>
+        <v>360</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>380</v>
+        <v>360</v>
+      </c>
+      <c r="B422" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>381</v>
+        <v>360</v>
+      </c>
+      <c r="B423" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B424" s="14" t="s">
-        <v>382</v>
+        <v>360</v>
+      </c>
+      <c r="B424" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>383</v>
+        <v>360</v>
+      </c>
+      <c r="B425" s="13" t="s">
+        <v>382</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>384</v>
+        <v>360</v>
+      </c>
+      <c r="B426" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B427" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
+      </c>
+      <c r="B427" s="13" t="s">
+        <v>384</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B428" s="14" t="s">
-        <v>386</v>
+        <v>360</v>
+      </c>
+      <c r="B428" s="13" t="s">
+        <v>385</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>387</v>
+        <v>360</v>
+      </c>
+      <c r="B429" s="13" t="s">
+        <v>386</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B430" s="14" t="s">
-        <v>388</v>
+        <v>360</v>
+      </c>
+      <c r="B430" s="13" t="s">
+        <v>387</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B431" s="14" t="s">
-        <v>389</v>
+        <v>360</v>
+      </c>
+      <c r="B431" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B432" s="14" t="s">
-        <v>390</v>
+        <v>360</v>
+      </c>
+      <c r="B432" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B433" s="14" t="s">
-        <v>391</v>
+        <v>360</v>
+      </c>
+      <c r="B433" s="13" t="s">
+        <v>390</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B434" s="14" t="s">
-        <v>392</v>
+        <v>360</v>
+      </c>
+      <c r="B434" s="13" t="s">
+        <v>391</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B435" s="14" t="s">
-        <v>393</v>
+        <v>360</v>
+      </c>
+      <c r="B435" s="13" t="s">
+        <v>392</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B436" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B436" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A437" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B437" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="21">
-      <c r="A437" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B437" s="14" t="s">
+      <c r="C437" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D437" s="23"/>
+    </row>
+    <row r="438" spans="1:4" ht="21">
+      <c r="A438" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B438" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A438" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B438" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D438" s="24"/>
+      <c r="C438" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B439" s="14" t="s">
-        <v>397</v>
+        <v>360</v>
+      </c>
+      <c r="B439" s="13" t="s">
+        <v>396</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B440" s="14" t="s">
-        <v>398</v>
+        <v>360</v>
+      </c>
+      <c r="B440" s="13" t="s">
+        <v>397</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B441" s="14" t="s">
-        <v>399</v>
+        <v>360</v>
+      </c>
+      <c r="B441" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B442" s="14" t="s">
-        <v>400</v>
+        <v>360</v>
+      </c>
+      <c r="B442" s="13" t="s">
+        <v>399</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>401</v>
+        <v>360</v>
+      </c>
+      <c r="B443" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>402</v>
+        <v>360</v>
+      </c>
+      <c r="B444" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B445" s="14" t="s">
-        <v>403</v>
+        <v>360</v>
+      </c>
+      <c r="B445" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>404</v>
+        <v>360</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B447" s="14" t="s">
-        <v>405</v>
+        <v>360</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B448" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B448" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A449" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B449" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="21">
-      <c r="A449" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B449" s="14" t="s">
+      <c r="C449" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" s="26"/>
+    </row>
+    <row r="450" spans="1:4" s="25" customFormat="1" ht="21">
+      <c r="A450" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B450" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A450" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B450" s="26" t="s">
+      <c r="C450" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D450" s="26"/>
+    </row>
+    <row r="451" spans="1:4" ht="21">
+      <c r="A451" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B451" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="C450" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D450" s="27"/>
-    </row>
-    <row r="451" spans="1:4" s="26" customFormat="1" ht="21">
-      <c r="A451" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="C451" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D451" s="27"/>
+      <c r="C451" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B452" s="14" t="s">
-        <v>410</v>
+        <v>360</v>
+      </c>
+      <c r="B452" s="13" t="s">
+        <v>409</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B453" s="14" t="s">
-        <v>411</v>
+        <v>360</v>
+      </c>
+      <c r="B453" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B454" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B454" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A455" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B455" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" ht="21">
-      <c r="A455" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B455" s="14" t="s">
+      <c r="C455" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D455" s="23"/>
+    </row>
+    <row r="456" spans="1:4" ht="21">
+      <c r="A456" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B456" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A456" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D456" s="24"/>
+      <c r="C456" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B457" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B457" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A458" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B458" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" ht="21">
-      <c r="A458" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B458" s="14" t="s">
+      <c r="C458" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" s="23"/>
+    </row>
+    <row r="459" spans="1:4" ht="21">
+      <c r="A459" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B459" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A459" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B459" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D459" s="24"/>
+      <c r="C459" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B460" s="14" t="s">
-        <v>418</v>
+        <v>360</v>
+      </c>
+      <c r="B460" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B461" s="14" t="s">
-        <v>419</v>
+        <v>360</v>
+      </c>
+      <c r="B461" s="13" t="s">
+        <v>418</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B462" s="14" t="s">
-        <v>420</v>
+        <v>360</v>
+      </c>
+      <c r="B462" s="13" t="s">
+        <v>419</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="21">
-      <c r="A463" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B463" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="1:4" ht="21">
+      <c r="A464" s="5"/>
       <c r="B464" s="4"/>
       <c r="C464" s="2"/>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5"/>
-      <c r="B465" s="4"/>
-      <c r="C465" s="2"/>
+      <c r="A465" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B465" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B466" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B466" s="14" t="s">
-        <v>423</v>
-      </c>
       <c r="C466" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B467" s="14" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="B467" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B468" s="14" t="s">
-        <v>425</v>
+        <v>420</v>
+      </c>
+      <c r="B468" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B469" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
+      </c>
+      <c r="B469" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B470" s="14" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>426</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>3</v>
+        <v>433</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B471" s="14" t="s">
-        <v>428</v>
+        <v>420</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B472" s="14" t="s">
-        <v>429</v>
+        <v>420</v>
+      </c>
+      <c r="B472" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B473" s="14" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="B473" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B474" s="14" t="s">
-        <v>431</v>
+        <v>420</v>
+      </c>
+      <c r="B474" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B33" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B43" r:id="rId35" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B44" r:id="rId36"/>
-    <hyperlink ref="B45" r:id="rId37"/>
-    <hyperlink ref="B46" r:id="rId38"/>
-    <hyperlink ref="B47" r:id="rId39"/>
-    <hyperlink ref="B48" r:id="rId40"/>
-    <hyperlink ref="B49" r:id="rId41"/>
-    <hyperlink ref="B50" r:id="rId42"/>
-    <hyperlink ref="B51" r:id="rId43"/>
-    <hyperlink ref="B52" r:id="rId44"/>
-    <hyperlink ref="B55" r:id="rId45"/>
-    <hyperlink ref="B56" r:id="rId46"/>
-    <hyperlink ref="B57" r:id="rId47"/>
-    <hyperlink ref="B58" r:id="rId48"/>
-    <hyperlink ref="B59" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B99" r:id="rId87"/>
-    <hyperlink ref="B100" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B104" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B105" r:id="rId92"/>
-    <hyperlink ref="B106" r:id="rId93"/>
-    <hyperlink ref="B107" r:id="rId94"/>
-    <hyperlink ref="B108" r:id="rId95"/>
-    <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B111" r:id="rId97"/>
-    <hyperlink ref="B112" r:id="rId98"/>
-    <hyperlink ref="B113" r:id="rId99"/>
-    <hyperlink ref="B114" r:id="rId100"/>
-    <hyperlink ref="B115" r:id="rId101"/>
-    <hyperlink ref="B116" r:id="rId102"/>
-    <hyperlink ref="B117" r:id="rId103"/>
-    <hyperlink ref="B118" r:id="rId104"/>
-    <hyperlink ref="B119" r:id="rId105"/>
-    <hyperlink ref="B120" r:id="rId106"/>
-    <hyperlink ref="B121" r:id="rId107"/>
-    <hyperlink ref="B122" r:id="rId108"/>
-    <hyperlink ref="B123" r:id="rId109"/>
-    <hyperlink ref="B124" r:id="rId110"/>
-    <hyperlink ref="B125" r:id="rId111"/>
-    <hyperlink ref="B126" r:id="rId112"/>
-    <hyperlink ref="B127" r:id="rId113"/>
-    <hyperlink ref="B128" r:id="rId114"/>
-    <hyperlink ref="B129" r:id="rId115"/>
-    <hyperlink ref="B130" r:id="rId116"/>
-    <hyperlink ref="B103" r:id="rId117"/>
-    <hyperlink ref="B110" r:id="rId118"/>
-    <hyperlink ref="B133" r:id="rId119"/>
-    <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B136" r:id="rId122"/>
-    <hyperlink ref="B137" r:id="rId123"/>
-    <hyperlink ref="B138" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B157" r:id="rId141" display="Flatten a Linked List"/>
-    <hyperlink ref="B158" r:id="rId142"/>
-    <hyperlink ref="B159" r:id="rId143" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B161" r:id="rId144" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B162" r:id="rId145"/>
-    <hyperlink ref="B163" r:id="rId146"/>
-    <hyperlink ref="B164" r:id="rId147"/>
-    <hyperlink ref="B165" r:id="rId148"/>
-    <hyperlink ref="B166" r:id="rId149"/>
-    <hyperlink ref="B169" r:id="rId150" display="level order traversal"/>
-    <hyperlink ref="B170" r:id="rId151"/>
-    <hyperlink ref="B171" r:id="rId152" display="Height of a tree"/>
-    <hyperlink ref="B172" r:id="rId153"/>
-    <hyperlink ref="B173" r:id="rId154"/>
-    <hyperlink ref="B174" r:id="rId155"/>
-    <hyperlink ref="B175" r:id="rId156"/>
-    <hyperlink ref="B176" r:id="rId157"/>
-    <hyperlink ref="B177" r:id="rId158"/>
-    <hyperlink ref="B178" r:id="rId159"/>
-    <hyperlink ref="B179" r:id="rId160"/>
-    <hyperlink ref="B180" r:id="rId161"/>
-    <hyperlink ref="B181" r:id="rId162"/>
-    <hyperlink ref="B182" r:id="rId163"/>
-    <hyperlink ref="B183" r:id="rId164"/>
-    <hyperlink ref="B184" r:id="rId165" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B185" r:id="rId166"/>
-    <hyperlink ref="B186" r:id="rId167" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B187" r:id="rId168"/>
-    <hyperlink ref="B188" r:id="rId169"/>
-    <hyperlink ref="B189" r:id="rId170" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B191" r:id="rId171"/>
-    <hyperlink ref="B192" r:id="rId172"/>
-    <hyperlink ref="B193" r:id="rId173"/>
-    <hyperlink ref="B194" r:id="rId174"/>
-    <hyperlink ref="B195" r:id="rId175"/>
-    <hyperlink ref="B196" r:id="rId176" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B197" r:id="rId177"/>
-    <hyperlink ref="B198" r:id="rId178"/>
-    <hyperlink ref="B199" r:id="rId179"/>
-    <hyperlink ref="B200" r:id="rId180" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B202" r:id="rId181"/>
-    <hyperlink ref="B203" r:id="rId182"/>
-    <hyperlink ref="B204" r:id="rId183"/>
-    <hyperlink ref="B207" r:id="rId184" display="Fina a value in a BST"/>
-    <hyperlink ref="B210" r:id="rId185"/>
-    <hyperlink ref="B211" r:id="rId186"/>
-    <hyperlink ref="B212" r:id="rId187"/>
-    <hyperlink ref="B213" r:id="rId188"/>
-    <hyperlink ref="B214" r:id="rId189"/>
-    <hyperlink ref="B215" r:id="rId190"/>
-    <hyperlink ref="B216" r:id="rId191"/>
-    <hyperlink ref="B217" r:id="rId192"/>
-    <hyperlink ref="B218" r:id="rId193"/>
-    <hyperlink ref="B219" r:id="rId194" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B220" r:id="rId195"/>
-    <hyperlink ref="B221" r:id="rId196"/>
-    <hyperlink ref="B222" r:id="rId197"/>
-    <hyperlink ref="B223" r:id="rId198"/>
-    <hyperlink ref="B224" r:id="rId199"/>
-    <hyperlink ref="B225" r:id="rId200"/>
-    <hyperlink ref="B226" r:id="rId201"/>
-    <hyperlink ref="B227" r:id="rId202"/>
-    <hyperlink ref="B228" r:id="rId203"/>
-    <hyperlink ref="B229" r:id="rId204"/>
-    <hyperlink ref="B230" r:id="rId205"/>
-    <hyperlink ref="B233" r:id="rId206"/>
-    <hyperlink ref="B234" r:id="rId207"/>
-    <hyperlink ref="B235" r:id="rId208"/>
-    <hyperlink ref="B236" r:id="rId209"/>
-    <hyperlink ref="B237" r:id="rId210"/>
-    <hyperlink ref="B238" r:id="rId211"/>
-    <hyperlink ref="B239" r:id="rId212"/>
-    <hyperlink ref="B240" r:id="rId213"/>
-    <hyperlink ref="B241" r:id="rId214"/>
-    <hyperlink ref="B242" r:id="rId215"/>
-    <hyperlink ref="B243" r:id="rId216"/>
-    <hyperlink ref="B244" r:id="rId217"/>
-    <hyperlink ref="B245" r:id="rId218"/>
-    <hyperlink ref="B246" r:id="rId219"/>
-    <hyperlink ref="B247" r:id="rId220"/>
-    <hyperlink ref="B248" r:id="rId221"/>
-    <hyperlink ref="B249" r:id="rId222"/>
-    <hyperlink ref="B250" r:id="rId223"/>
-    <hyperlink ref="B251" r:id="rId224"/>
-    <hyperlink ref="B252" r:id="rId225" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B253" r:id="rId226"/>
-    <hyperlink ref="B254" r:id="rId227"/>
-    <hyperlink ref="B255" r:id="rId228"/>
-    <hyperlink ref="B256" r:id="rId229"/>
-    <hyperlink ref="B257" r:id="rId230"/>
-    <hyperlink ref="B258" r:id="rId231"/>
-    <hyperlink ref="B259" r:id="rId232"/>
-    <hyperlink ref="B260" r:id="rId233"/>
-    <hyperlink ref="B261" r:id="rId234"/>
-    <hyperlink ref="B262" r:id="rId235"/>
-    <hyperlink ref="B263" r:id="rId236"/>
-    <hyperlink ref="B264" r:id="rId237"/>
-    <hyperlink ref="B265" r:id="rId238"/>
-    <hyperlink ref="B266" r:id="rId239"/>
-    <hyperlink ref="B267" r:id="rId240"/>
-    <hyperlink ref="B270" r:id="rId241"/>
-    <hyperlink ref="B271" r:id="rId242"/>
-    <hyperlink ref="B272" r:id="rId243"/>
-    <hyperlink ref="B273" r:id="rId244"/>
-    <hyperlink ref="B274" r:id="rId245"/>
-    <hyperlink ref="B275" r:id="rId246"/>
-    <hyperlink ref="B276" r:id="rId247"/>
-    <hyperlink ref="B277" r:id="rId248"/>
-    <hyperlink ref="B278" r:id="rId249"/>
-    <hyperlink ref="B279" r:id="rId250"/>
-    <hyperlink ref="B280" r:id="rId251"/>
-    <hyperlink ref="B281" r:id="rId252"/>
-    <hyperlink ref="B282" r:id="rId253"/>
-    <hyperlink ref="B283" r:id="rId254"/>
-    <hyperlink ref="B284" r:id="rId255"/>
-    <hyperlink ref="B285" r:id="rId256"/>
-    <hyperlink ref="B286" r:id="rId257"/>
-    <hyperlink ref="B287" r:id="rId258"/>
-    <hyperlink ref="B288" r:id="rId259"/>
-    <hyperlink ref="B291" r:id="rId260"/>
-    <hyperlink ref="B292" r:id="rId261"/>
-    <hyperlink ref="B293" r:id="rId262"/>
-    <hyperlink ref="B294" r:id="rId263"/>
-    <hyperlink ref="B295" r:id="rId264"/>
-    <hyperlink ref="B296" r:id="rId265"/>
-    <hyperlink ref="B297" r:id="rId266"/>
-    <hyperlink ref="B298" r:id="rId267"/>
-    <hyperlink ref="B299" r:id="rId268"/>
-    <hyperlink ref="B300" r:id="rId269"/>
-    <hyperlink ref="B301" r:id="rId270" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B302" r:id="rId271"/>
-    <hyperlink ref="B303" r:id="rId272"/>
-    <hyperlink ref="B304" r:id="rId273"/>
-    <hyperlink ref="B305" r:id="rId274"/>
-    <hyperlink ref="B306" r:id="rId275"/>
-    <hyperlink ref="B307" r:id="rId276"/>
-    <hyperlink ref="B308" r:id="rId277"/>
-    <hyperlink ref="B309" r:id="rId278"/>
-    <hyperlink ref="B310" r:id="rId279"/>
-    <hyperlink ref="B311" r:id="rId280"/>
-    <hyperlink ref="B312" r:id="rId281"/>
-    <hyperlink ref="B313" r:id="rId282"/>
-    <hyperlink ref="B314" r:id="rId283"/>
-    <hyperlink ref="B315" r:id="rId284"/>
-    <hyperlink ref="B316" r:id="rId285"/>
-    <hyperlink ref="B317" r:id="rId286"/>
-    <hyperlink ref="B318" r:id="rId287"/>
-    <hyperlink ref="B319" r:id="rId288"/>
-    <hyperlink ref="B320" r:id="rId289"/>
-    <hyperlink ref="B321" r:id="rId290"/>
-    <hyperlink ref="B322" r:id="rId291"/>
-    <hyperlink ref="B323" r:id="rId292"/>
-    <hyperlink ref="B324" r:id="rId293"/>
-    <hyperlink ref="B325" r:id="rId294"/>
-    <hyperlink ref="B326" r:id="rId295"/>
-    <hyperlink ref="B327" r:id="rId296"/>
-    <hyperlink ref="B328" r:id="rId297"/>
-    <hyperlink ref="B331" r:id="rId298"/>
-    <hyperlink ref="B332" r:id="rId299"/>
-    <hyperlink ref="B333" r:id="rId300"/>
-    <hyperlink ref="B334" r:id="rId301"/>
-    <hyperlink ref="B335" r:id="rId302"/>
-    <hyperlink ref="B336" r:id="rId303"/>
-    <hyperlink ref="B337" r:id="rId304"/>
-    <hyperlink ref="B338" r:id="rId305"/>
-    <hyperlink ref="B339" r:id="rId306"/>
-    <hyperlink ref="B340" r:id="rId307" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B341" r:id="rId308"/>
-    <hyperlink ref="B342" r:id="rId309"/>
-    <hyperlink ref="B343" r:id="rId310"/>
-    <hyperlink ref="B344" r:id="rId311"/>
-    <hyperlink ref="B345" r:id="rId312"/>
-    <hyperlink ref="B346" r:id="rId313"/>
-    <hyperlink ref="B347" r:id="rId314"/>
-    <hyperlink ref="B348" r:id="rId315"/>
-    <hyperlink ref="B352" r:id="rId316"/>
-    <hyperlink ref="B353" r:id="rId317"/>
-    <hyperlink ref="B354" r:id="rId318"/>
-    <hyperlink ref="B355" r:id="rId319"/>
-    <hyperlink ref="B356" r:id="rId320"/>
-    <hyperlink ref="B357" r:id="rId321"/>
-    <hyperlink ref="B358" r:id="rId322"/>
-    <hyperlink ref="B359" r:id="rId323"/>
-    <hyperlink ref="B360" r:id="rId324"/>
-    <hyperlink ref="B361" r:id="rId325"/>
-    <hyperlink ref="B362" r:id="rId326"/>
-    <hyperlink ref="B363" r:id="rId327"/>
-    <hyperlink ref="B364" r:id="rId328"/>
-    <hyperlink ref="B365" r:id="rId329"/>
-    <hyperlink ref="B366" r:id="rId330"/>
-    <hyperlink ref="B367" r:id="rId331"/>
-    <hyperlink ref="B368" r:id="rId332"/>
-    <hyperlink ref="B369" r:id="rId333"/>
-    <hyperlink ref="B370" r:id="rId334"/>
-    <hyperlink ref="B371" r:id="rId335"/>
-    <hyperlink ref="B372" r:id="rId336"/>
-    <hyperlink ref="B373" r:id="rId337"/>
-    <hyperlink ref="B374" r:id="rId338" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B375" r:id="rId339"/>
-    <hyperlink ref="B376" r:id="rId340"/>
-    <hyperlink ref="B377" r:id="rId341"/>
-    <hyperlink ref="B378" r:id="rId342"/>
-    <hyperlink ref="B379" r:id="rId343"/>
-    <hyperlink ref="B380" r:id="rId344"/>
-    <hyperlink ref="B381" r:id="rId345"/>
-    <hyperlink ref="B382" r:id="rId346"/>
-    <hyperlink ref="B383" r:id="rId347"/>
-    <hyperlink ref="B384" r:id="rId348"/>
-    <hyperlink ref="B385" r:id="rId349"/>
-    <hyperlink ref="B386" r:id="rId350"/>
-    <hyperlink ref="B387" r:id="rId351"/>
-    <hyperlink ref="B388" r:id="rId352"/>
-    <hyperlink ref="B390" r:id="rId353"/>
-    <hyperlink ref="B389" r:id="rId354"/>
-    <hyperlink ref="B391" r:id="rId355"/>
-    <hyperlink ref="B392" r:id="rId356"/>
-    <hyperlink ref="B393" r:id="rId357"/>
-    <hyperlink ref="B396" r:id="rId358"/>
-    <hyperlink ref="B397" r:id="rId359"/>
-    <hyperlink ref="B398" r:id="rId360"/>
-    <hyperlink ref="B399" r:id="rId361"/>
-    <hyperlink ref="B400" r:id="rId362"/>
-    <hyperlink ref="B401" r:id="rId363"/>
-    <hyperlink ref="B404" r:id="rId364"/>
-    <hyperlink ref="B405" r:id="rId365"/>
-    <hyperlink ref="B406" r:id="rId366"/>
-    <hyperlink ref="B407" r:id="rId367"/>
-    <hyperlink ref="B408" r:id="rId368"/>
-    <hyperlink ref="B409" r:id="rId369"/>
-    <hyperlink ref="B410" r:id="rId370"/>
-    <hyperlink ref="B411" r:id="rId371"/>
-    <hyperlink ref="B412" r:id="rId372"/>
-    <hyperlink ref="B413" r:id="rId373"/>
-    <hyperlink ref="B414" r:id="rId374"/>
-    <hyperlink ref="B415" r:id="rId375"/>
-    <hyperlink ref="B416" r:id="rId376"/>
-    <hyperlink ref="B417" r:id="rId377"/>
-    <hyperlink ref="B418" r:id="rId378"/>
-    <hyperlink ref="B419" r:id="rId379"/>
-    <hyperlink ref="B420" r:id="rId380"/>
-    <hyperlink ref="B421" r:id="rId381"/>
-    <hyperlink ref="B422" r:id="rId382"/>
-    <hyperlink ref="B423" r:id="rId383"/>
-    <hyperlink ref="B424" r:id="rId384"/>
-    <hyperlink ref="B425" r:id="rId385"/>
-    <hyperlink ref="B426" r:id="rId386"/>
-    <hyperlink ref="B427" r:id="rId387"/>
-    <hyperlink ref="B428" r:id="rId388"/>
-    <hyperlink ref="B429" r:id="rId389"/>
-    <hyperlink ref="B430" r:id="rId390"/>
-    <hyperlink ref="B431" r:id="rId391"/>
-    <hyperlink ref="B432" r:id="rId392"/>
-    <hyperlink ref="B433" r:id="rId393"/>
-    <hyperlink ref="B434" r:id="rId394"/>
-    <hyperlink ref="B435" r:id="rId395"/>
-    <hyperlink ref="B436" r:id="rId396"/>
-    <hyperlink ref="B437" r:id="rId397"/>
-    <hyperlink ref="B438" r:id="rId398"/>
-    <hyperlink ref="B439" r:id="rId399"/>
-    <hyperlink ref="B440" r:id="rId400"/>
-    <hyperlink ref="B441" r:id="rId401"/>
-    <hyperlink ref="B442" r:id="rId402"/>
-    <hyperlink ref="B443" r:id="rId403"/>
-    <hyperlink ref="B445" r:id="rId404"/>
-    <hyperlink ref="B444" r:id="rId405"/>
-    <hyperlink ref="B446" r:id="rId406"/>
-    <hyperlink ref="B447" r:id="rId407"/>
-    <hyperlink ref="B448" r:id="rId408"/>
-    <hyperlink ref="B449" r:id="rId409"/>
-    <hyperlink ref="B450" r:id="rId410"/>
-    <hyperlink ref="B451" r:id="rId411"/>
-    <hyperlink ref="B452" r:id="rId412"/>
-    <hyperlink ref="B453" r:id="rId413"/>
-    <hyperlink ref="B454" r:id="rId414"/>
-    <hyperlink ref="B455" r:id="rId415"/>
-    <hyperlink ref="B456" r:id="rId416"/>
-    <hyperlink ref="B463" r:id="rId417"/>
-    <hyperlink ref="B462" r:id="rId418"/>
-    <hyperlink ref="B461" r:id="rId419"/>
-    <hyperlink ref="B460" r:id="rId420"/>
-    <hyperlink ref="B459" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B457" r:id="rId423"/>
-    <hyperlink ref="B466" r:id="rId424"/>
-    <hyperlink ref="B467" r:id="rId425"/>
-    <hyperlink ref="B468" r:id="rId426"/>
-    <hyperlink ref="B469" r:id="rId427"/>
-    <hyperlink ref="B470" r:id="rId428"/>
-    <hyperlink ref="B471" r:id="rId429"/>
-    <hyperlink ref="B472" r:id="rId430"/>
-    <hyperlink ref="B475" r:id="rId431"/>
-    <hyperlink ref="B473" r:id="rId432"/>
-    <hyperlink ref="B474" r:id="rId433" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B351" r:id="rId434"/>
-    <hyperlink ref="B2" r:id="rId435"/>
-    <hyperlink ref="D17" r:id="rId436"/>
-    <hyperlink ref="D6" r:id="rId437"/>
-    <hyperlink ref="D8" r:id="rId438"/>
-    <hyperlink ref="D12" r:id="rId439"/>
-    <hyperlink ref="D7" r:id="rId440"/>
-    <hyperlink ref="D9" r:id="rId441"/>
-    <hyperlink ref="D16" r:id="rId442"/>
-    <hyperlink ref="D15" r:id="rId443"/>
-    <hyperlink ref="D21" r:id="rId444"/>
-    <hyperlink ref="D55" r:id="rId445"/>
-    <hyperlink ref="D14" r:id="rId446"/>
-    <hyperlink ref="D32" r:id="rId447"/>
-    <hyperlink ref="D27" r:id="rId448"/>
-    <hyperlink ref="D22" r:id="rId449"/>
-    <hyperlink ref="D19" r:id="rId450"/>
-    <hyperlink ref="D43" r:id="rId451"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B32" r:id="rId28" display="Trapping Rain water problem"/>
+    <hyperlink ref="B33" r:id="rId29" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B38" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B42" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B47" r:id="rId40"/>
+    <hyperlink ref="B48" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B54" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B56" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B58" r:id="rId49"/>
+    <hyperlink ref="B59" r:id="rId50"/>
+    <hyperlink ref="B60" r:id="rId51"/>
+    <hyperlink ref="B61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B82" r:id="rId73"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
+    <hyperlink ref="B85" r:id="rId76"/>
+    <hyperlink ref="B86" r:id="rId77"/>
+    <hyperlink ref="B87" r:id="rId78"/>
+    <hyperlink ref="B88" r:id="rId79"/>
+    <hyperlink ref="B89" r:id="rId80"/>
+    <hyperlink ref="B90" r:id="rId81"/>
+    <hyperlink ref="B91" r:id="rId82"/>
+    <hyperlink ref="B92" r:id="rId83"/>
+    <hyperlink ref="B93" r:id="rId84"/>
+    <hyperlink ref="B94" r:id="rId85"/>
+    <hyperlink ref="B95" r:id="rId86"/>
+    <hyperlink ref="B98" r:id="rId87"/>
+    <hyperlink ref="B99" r:id="rId88"/>
+    <hyperlink ref="B100" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B103" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B104" r:id="rId92"/>
+    <hyperlink ref="B105" r:id="rId93"/>
+    <hyperlink ref="B106" r:id="rId94"/>
+    <hyperlink ref="B107" r:id="rId95"/>
+    <hyperlink ref="B108" r:id="rId96"/>
+    <hyperlink ref="B110" r:id="rId97"/>
+    <hyperlink ref="B111" r:id="rId98"/>
+    <hyperlink ref="B112" r:id="rId99"/>
+    <hyperlink ref="B113" r:id="rId100"/>
+    <hyperlink ref="B114" r:id="rId101"/>
+    <hyperlink ref="B115" r:id="rId102"/>
+    <hyperlink ref="B116" r:id="rId103"/>
+    <hyperlink ref="B117" r:id="rId104"/>
+    <hyperlink ref="B118" r:id="rId105"/>
+    <hyperlink ref="B119" r:id="rId106"/>
+    <hyperlink ref="B120" r:id="rId107"/>
+    <hyperlink ref="B121" r:id="rId108"/>
+    <hyperlink ref="B122" r:id="rId109"/>
+    <hyperlink ref="B123" r:id="rId110"/>
+    <hyperlink ref="B124" r:id="rId111"/>
+    <hyperlink ref="B125" r:id="rId112"/>
+    <hyperlink ref="B126" r:id="rId113"/>
+    <hyperlink ref="B127" r:id="rId114"/>
+    <hyperlink ref="B128" r:id="rId115"/>
+    <hyperlink ref="B129" r:id="rId116"/>
+    <hyperlink ref="B102" r:id="rId117"/>
+    <hyperlink ref="B109" r:id="rId118"/>
+    <hyperlink ref="B132" r:id="rId119"/>
+    <hyperlink ref="B133" r:id="rId120"/>
+    <hyperlink ref="B134" r:id="rId121"/>
+    <hyperlink ref="B135" r:id="rId122"/>
+    <hyperlink ref="B136" r:id="rId123"/>
+    <hyperlink ref="B137" r:id="rId124"/>
+    <hyperlink ref="B138" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B156" r:id="rId141" display="Flatten a Linked List"/>
+    <hyperlink ref="B157" r:id="rId142"/>
+    <hyperlink ref="B158" r:id="rId143" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B160" r:id="rId144" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B161" r:id="rId145"/>
+    <hyperlink ref="B162" r:id="rId146"/>
+    <hyperlink ref="B163" r:id="rId147"/>
+    <hyperlink ref="B164" r:id="rId148"/>
+    <hyperlink ref="B165" r:id="rId149"/>
+    <hyperlink ref="B168" r:id="rId150" display="level order traversal"/>
+    <hyperlink ref="B169" r:id="rId151"/>
+    <hyperlink ref="B170" r:id="rId152" display="Height of a tree"/>
+    <hyperlink ref="B171" r:id="rId153"/>
+    <hyperlink ref="B172" r:id="rId154"/>
+    <hyperlink ref="B173" r:id="rId155"/>
+    <hyperlink ref="B174" r:id="rId156"/>
+    <hyperlink ref="B175" r:id="rId157"/>
+    <hyperlink ref="B176" r:id="rId158"/>
+    <hyperlink ref="B177" r:id="rId159"/>
+    <hyperlink ref="B178" r:id="rId160"/>
+    <hyperlink ref="B179" r:id="rId161"/>
+    <hyperlink ref="B180" r:id="rId162"/>
+    <hyperlink ref="B181" r:id="rId163"/>
+    <hyperlink ref="B182" r:id="rId164"/>
+    <hyperlink ref="B183" r:id="rId165" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B187" r:id="rId169"/>
+    <hyperlink ref="B188" r:id="rId170" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B190" r:id="rId171"/>
+    <hyperlink ref="B191" r:id="rId172"/>
+    <hyperlink ref="B192" r:id="rId173"/>
+    <hyperlink ref="B193" r:id="rId174"/>
+    <hyperlink ref="B194" r:id="rId175"/>
+    <hyperlink ref="B195" r:id="rId176" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B196" r:id="rId177"/>
+    <hyperlink ref="B197" r:id="rId178"/>
+    <hyperlink ref="B198" r:id="rId179"/>
+    <hyperlink ref="B199" r:id="rId180" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B201" r:id="rId181"/>
+    <hyperlink ref="B202" r:id="rId182"/>
+    <hyperlink ref="B203" r:id="rId183"/>
+    <hyperlink ref="B206" r:id="rId184" display="Fina a value in a BST"/>
+    <hyperlink ref="B209" r:id="rId185"/>
+    <hyperlink ref="B210" r:id="rId186"/>
+    <hyperlink ref="B211" r:id="rId187"/>
+    <hyperlink ref="B212" r:id="rId188"/>
+    <hyperlink ref="B213" r:id="rId189"/>
+    <hyperlink ref="B214" r:id="rId190"/>
+    <hyperlink ref="B215" r:id="rId191"/>
+    <hyperlink ref="B216" r:id="rId192"/>
+    <hyperlink ref="B217" r:id="rId193"/>
+    <hyperlink ref="B218" r:id="rId194" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B219" r:id="rId195"/>
+    <hyperlink ref="B220" r:id="rId196"/>
+    <hyperlink ref="B221" r:id="rId197"/>
+    <hyperlink ref="B222" r:id="rId198"/>
+    <hyperlink ref="B223" r:id="rId199"/>
+    <hyperlink ref="B224" r:id="rId200"/>
+    <hyperlink ref="B225" r:id="rId201"/>
+    <hyperlink ref="B226" r:id="rId202"/>
+    <hyperlink ref="B227" r:id="rId203"/>
+    <hyperlink ref="B228" r:id="rId204"/>
+    <hyperlink ref="B229" r:id="rId205"/>
+    <hyperlink ref="B232" r:id="rId206"/>
+    <hyperlink ref="B233" r:id="rId207"/>
+    <hyperlink ref="B234" r:id="rId208"/>
+    <hyperlink ref="B235" r:id="rId209"/>
+    <hyperlink ref="B236" r:id="rId210"/>
+    <hyperlink ref="B237" r:id="rId211"/>
+    <hyperlink ref="B238" r:id="rId212"/>
+    <hyperlink ref="B239" r:id="rId213"/>
+    <hyperlink ref="B240" r:id="rId214"/>
+    <hyperlink ref="B241" r:id="rId215"/>
+    <hyperlink ref="B242" r:id="rId216"/>
+    <hyperlink ref="B243" r:id="rId217"/>
+    <hyperlink ref="B244" r:id="rId218"/>
+    <hyperlink ref="B245" r:id="rId219"/>
+    <hyperlink ref="B246" r:id="rId220"/>
+    <hyperlink ref="B247" r:id="rId221"/>
+    <hyperlink ref="B248" r:id="rId222"/>
+    <hyperlink ref="B249" r:id="rId223"/>
+    <hyperlink ref="B250" r:id="rId224"/>
+    <hyperlink ref="B251" r:id="rId225" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B252" r:id="rId226"/>
+    <hyperlink ref="B253" r:id="rId227"/>
+    <hyperlink ref="B254" r:id="rId228"/>
+    <hyperlink ref="B255" r:id="rId229"/>
+    <hyperlink ref="B256" r:id="rId230"/>
+    <hyperlink ref="B257" r:id="rId231"/>
+    <hyperlink ref="B258" r:id="rId232"/>
+    <hyperlink ref="B259" r:id="rId233"/>
+    <hyperlink ref="B260" r:id="rId234"/>
+    <hyperlink ref="B261" r:id="rId235"/>
+    <hyperlink ref="B262" r:id="rId236"/>
+    <hyperlink ref="B263" r:id="rId237"/>
+    <hyperlink ref="B264" r:id="rId238"/>
+    <hyperlink ref="B265" r:id="rId239"/>
+    <hyperlink ref="B266" r:id="rId240"/>
+    <hyperlink ref="B269" r:id="rId241"/>
+    <hyperlink ref="B270" r:id="rId242"/>
+    <hyperlink ref="B271" r:id="rId243"/>
+    <hyperlink ref="B272" r:id="rId244"/>
+    <hyperlink ref="B273" r:id="rId245"/>
+    <hyperlink ref="B274" r:id="rId246"/>
+    <hyperlink ref="B275" r:id="rId247"/>
+    <hyperlink ref="B276" r:id="rId248"/>
+    <hyperlink ref="B277" r:id="rId249"/>
+    <hyperlink ref="B278" r:id="rId250"/>
+    <hyperlink ref="B279" r:id="rId251"/>
+    <hyperlink ref="B280" r:id="rId252"/>
+    <hyperlink ref="B281" r:id="rId253"/>
+    <hyperlink ref="B282" r:id="rId254"/>
+    <hyperlink ref="B283" r:id="rId255"/>
+    <hyperlink ref="B284" r:id="rId256"/>
+    <hyperlink ref="B285" r:id="rId257"/>
+    <hyperlink ref="B286" r:id="rId258"/>
+    <hyperlink ref="B287" r:id="rId259"/>
+    <hyperlink ref="B290" r:id="rId260"/>
+    <hyperlink ref="B291" r:id="rId261"/>
+    <hyperlink ref="B292" r:id="rId262"/>
+    <hyperlink ref="B293" r:id="rId263"/>
+    <hyperlink ref="B294" r:id="rId264"/>
+    <hyperlink ref="B295" r:id="rId265"/>
+    <hyperlink ref="B296" r:id="rId266"/>
+    <hyperlink ref="B297" r:id="rId267"/>
+    <hyperlink ref="B298" r:id="rId268"/>
+    <hyperlink ref="B299" r:id="rId269"/>
+    <hyperlink ref="B300" r:id="rId270" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B301" r:id="rId271"/>
+    <hyperlink ref="B302" r:id="rId272"/>
+    <hyperlink ref="B303" r:id="rId273"/>
+    <hyperlink ref="B304" r:id="rId274"/>
+    <hyperlink ref="B305" r:id="rId275"/>
+    <hyperlink ref="B306" r:id="rId276"/>
+    <hyperlink ref="B307" r:id="rId277"/>
+    <hyperlink ref="B308" r:id="rId278"/>
+    <hyperlink ref="B309" r:id="rId279"/>
+    <hyperlink ref="B310" r:id="rId280"/>
+    <hyperlink ref="B311" r:id="rId281"/>
+    <hyperlink ref="B312" r:id="rId282"/>
+    <hyperlink ref="B313" r:id="rId283"/>
+    <hyperlink ref="B314" r:id="rId284"/>
+    <hyperlink ref="B315" r:id="rId285"/>
+    <hyperlink ref="B316" r:id="rId286"/>
+    <hyperlink ref="B317" r:id="rId287"/>
+    <hyperlink ref="B318" r:id="rId288"/>
+    <hyperlink ref="B319" r:id="rId289"/>
+    <hyperlink ref="B320" r:id="rId290"/>
+    <hyperlink ref="B321" r:id="rId291"/>
+    <hyperlink ref="B322" r:id="rId292"/>
+    <hyperlink ref="B323" r:id="rId293"/>
+    <hyperlink ref="B324" r:id="rId294"/>
+    <hyperlink ref="B325" r:id="rId295"/>
+    <hyperlink ref="B326" r:id="rId296"/>
+    <hyperlink ref="B327" r:id="rId297"/>
+    <hyperlink ref="B330" r:id="rId298"/>
+    <hyperlink ref="B331" r:id="rId299"/>
+    <hyperlink ref="B332" r:id="rId300"/>
+    <hyperlink ref="B333" r:id="rId301"/>
+    <hyperlink ref="B334" r:id="rId302"/>
+    <hyperlink ref="B335" r:id="rId303"/>
+    <hyperlink ref="B336" r:id="rId304"/>
+    <hyperlink ref="B337" r:id="rId305"/>
+    <hyperlink ref="B338" r:id="rId306"/>
+    <hyperlink ref="B339" r:id="rId307" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B340" r:id="rId308"/>
+    <hyperlink ref="B341" r:id="rId309"/>
+    <hyperlink ref="B342" r:id="rId310"/>
+    <hyperlink ref="B343" r:id="rId311"/>
+    <hyperlink ref="B344" r:id="rId312"/>
+    <hyperlink ref="B345" r:id="rId313"/>
+    <hyperlink ref="B346" r:id="rId314"/>
+    <hyperlink ref="B347" r:id="rId315"/>
+    <hyperlink ref="B351" r:id="rId316"/>
+    <hyperlink ref="B352" r:id="rId317"/>
+    <hyperlink ref="B353" r:id="rId318"/>
+    <hyperlink ref="B354" r:id="rId319"/>
+    <hyperlink ref="B355" r:id="rId320"/>
+    <hyperlink ref="B356" r:id="rId321"/>
+    <hyperlink ref="B357" r:id="rId322"/>
+    <hyperlink ref="B358" r:id="rId323"/>
+    <hyperlink ref="B359" r:id="rId324"/>
+    <hyperlink ref="B360" r:id="rId325"/>
+    <hyperlink ref="B361" r:id="rId326"/>
+    <hyperlink ref="B362" r:id="rId327"/>
+    <hyperlink ref="B363" r:id="rId328"/>
+    <hyperlink ref="B364" r:id="rId329"/>
+    <hyperlink ref="B365" r:id="rId330"/>
+    <hyperlink ref="B366" r:id="rId331"/>
+    <hyperlink ref="B367" r:id="rId332"/>
+    <hyperlink ref="B368" r:id="rId333"/>
+    <hyperlink ref="B369" r:id="rId334"/>
+    <hyperlink ref="B370" r:id="rId335"/>
+    <hyperlink ref="B371" r:id="rId336"/>
+    <hyperlink ref="B372" r:id="rId337"/>
+    <hyperlink ref="B373" r:id="rId338" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B374" r:id="rId339"/>
+    <hyperlink ref="B375" r:id="rId340"/>
+    <hyperlink ref="B376" r:id="rId341"/>
+    <hyperlink ref="B377" r:id="rId342"/>
+    <hyperlink ref="B378" r:id="rId343"/>
+    <hyperlink ref="B379" r:id="rId344"/>
+    <hyperlink ref="B380" r:id="rId345"/>
+    <hyperlink ref="B381" r:id="rId346"/>
+    <hyperlink ref="B382" r:id="rId347"/>
+    <hyperlink ref="B383" r:id="rId348"/>
+    <hyperlink ref="B384" r:id="rId349"/>
+    <hyperlink ref="B385" r:id="rId350"/>
+    <hyperlink ref="B386" r:id="rId351"/>
+    <hyperlink ref="B387" r:id="rId352"/>
+    <hyperlink ref="B389" r:id="rId353"/>
+    <hyperlink ref="B388" r:id="rId354"/>
+    <hyperlink ref="B390" r:id="rId355"/>
+    <hyperlink ref="B391" r:id="rId356"/>
+    <hyperlink ref="B392" r:id="rId357"/>
+    <hyperlink ref="B395" r:id="rId358"/>
+    <hyperlink ref="B396" r:id="rId359"/>
+    <hyperlink ref="B397" r:id="rId360"/>
+    <hyperlink ref="B398" r:id="rId361"/>
+    <hyperlink ref="B399" r:id="rId362"/>
+    <hyperlink ref="B400" r:id="rId363"/>
+    <hyperlink ref="B403" r:id="rId364"/>
+    <hyperlink ref="B404" r:id="rId365"/>
+    <hyperlink ref="B405" r:id="rId366"/>
+    <hyperlink ref="B406" r:id="rId367"/>
+    <hyperlink ref="B407" r:id="rId368"/>
+    <hyperlink ref="B408" r:id="rId369"/>
+    <hyperlink ref="B409" r:id="rId370"/>
+    <hyperlink ref="B410" r:id="rId371"/>
+    <hyperlink ref="B411" r:id="rId372"/>
+    <hyperlink ref="B412" r:id="rId373"/>
+    <hyperlink ref="B413" r:id="rId374"/>
+    <hyperlink ref="B414" r:id="rId375"/>
+    <hyperlink ref="B415" r:id="rId376"/>
+    <hyperlink ref="B416" r:id="rId377"/>
+    <hyperlink ref="B417" r:id="rId378"/>
+    <hyperlink ref="B418" r:id="rId379"/>
+    <hyperlink ref="B419" r:id="rId380"/>
+    <hyperlink ref="B420" r:id="rId381"/>
+    <hyperlink ref="B421" r:id="rId382"/>
+    <hyperlink ref="B422" r:id="rId383"/>
+    <hyperlink ref="B423" r:id="rId384"/>
+    <hyperlink ref="B424" r:id="rId385"/>
+    <hyperlink ref="B425" r:id="rId386"/>
+    <hyperlink ref="B426" r:id="rId387"/>
+    <hyperlink ref="B427" r:id="rId388"/>
+    <hyperlink ref="B428" r:id="rId389"/>
+    <hyperlink ref="B429" r:id="rId390"/>
+    <hyperlink ref="B430" r:id="rId391"/>
+    <hyperlink ref="B431" r:id="rId392"/>
+    <hyperlink ref="B432" r:id="rId393"/>
+    <hyperlink ref="B433" r:id="rId394"/>
+    <hyperlink ref="B434" r:id="rId395"/>
+    <hyperlink ref="B435" r:id="rId396"/>
+    <hyperlink ref="B436" r:id="rId397"/>
+    <hyperlink ref="B437" r:id="rId398"/>
+    <hyperlink ref="B438" r:id="rId399"/>
+    <hyperlink ref="B439" r:id="rId400"/>
+    <hyperlink ref="B440" r:id="rId401"/>
+    <hyperlink ref="B441" r:id="rId402"/>
+    <hyperlink ref="B442" r:id="rId403"/>
+    <hyperlink ref="B444" r:id="rId404"/>
+    <hyperlink ref="B443" r:id="rId405"/>
+    <hyperlink ref="B445" r:id="rId406"/>
+    <hyperlink ref="B446" r:id="rId407"/>
+    <hyperlink ref="B447" r:id="rId408"/>
+    <hyperlink ref="B448" r:id="rId409"/>
+    <hyperlink ref="B449" r:id="rId410"/>
+    <hyperlink ref="B450" r:id="rId411"/>
+    <hyperlink ref="B451" r:id="rId412"/>
+    <hyperlink ref="B452" r:id="rId413"/>
+    <hyperlink ref="B453" r:id="rId414"/>
+    <hyperlink ref="B454" r:id="rId415"/>
+    <hyperlink ref="B455" r:id="rId416"/>
+    <hyperlink ref="B462" r:id="rId417"/>
+    <hyperlink ref="B461" r:id="rId418"/>
+    <hyperlink ref="B460" r:id="rId419"/>
+    <hyperlink ref="B459" r:id="rId420"/>
+    <hyperlink ref="B458" r:id="rId421"/>
+    <hyperlink ref="B457" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B465" r:id="rId424"/>
+    <hyperlink ref="B466" r:id="rId425"/>
+    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B468" r:id="rId427"/>
+    <hyperlink ref="B469" r:id="rId428"/>
+    <hyperlink ref="B470" r:id="rId429"/>
+    <hyperlink ref="B471" r:id="rId430"/>
+    <hyperlink ref="B474" r:id="rId431"/>
+    <hyperlink ref="B472" r:id="rId432"/>
+    <hyperlink ref="B473" r:id="rId433" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B350" r:id="rId434"/>
+    <hyperlink ref="D16" r:id="rId435"/>
+    <hyperlink ref="D5" r:id="rId436"/>
+    <hyperlink ref="D7" r:id="rId437"/>
+    <hyperlink ref="D11" r:id="rId438"/>
+    <hyperlink ref="D6" r:id="rId439"/>
+    <hyperlink ref="D8" r:id="rId440"/>
+    <hyperlink ref="D15" r:id="rId441"/>
+    <hyperlink ref="D14" r:id="rId442"/>
+    <hyperlink ref="D20" r:id="rId443"/>
+    <hyperlink ref="D54" r:id="rId444"/>
+    <hyperlink ref="D13" r:id="rId445"/>
+    <hyperlink ref="D31" r:id="rId446"/>
+    <hyperlink ref="D26" r:id="rId447"/>
+    <hyperlink ref="D21" r:id="rId448"/>
+    <hyperlink ref="D18" r:id="rId449"/>
+    <hyperlink ref="D42" r:id="rId450"/>
+    <hyperlink ref="D55" r:id="rId451"/>
     <hyperlink ref="D56" r:id="rId452"/>
-    <hyperlink ref="D57" r:id="rId453"/>
-    <hyperlink ref="D102" r:id="rId454"/>
-    <hyperlink ref="D99" r:id="rId455"/>
-    <hyperlink ref="D109" r:id="rId456"/>
-    <hyperlink ref="D156" r:id="rId457"/>
-    <hyperlink ref="D150" r:id="rId458"/>
+    <hyperlink ref="D101" r:id="rId453"/>
+    <hyperlink ref="D98" r:id="rId454"/>
+    <hyperlink ref="D108" r:id="rId455"/>
+    <hyperlink ref="D155" r:id="rId456"/>
+    <hyperlink ref="D149" r:id="rId457"/>
+    <hyperlink ref="D132" r:id="rId458"/>
     <hyperlink ref="D133" r:id="rId459"/>
     <hyperlink ref="D134" r:id="rId460"/>
-    <hyperlink ref="D135" r:id="rId461"/>
+    <hyperlink ref="D137" r:id="rId461"/>
     <hyperlink ref="D138" r:id="rId462"/>
-    <hyperlink ref="D139" r:id="rId463"/>
-    <hyperlink ref="D141" r:id="rId464"/>
-    <hyperlink ref="D146" r:id="rId465"/>
-    <hyperlink ref="D149" r:id="rId466"/>
+    <hyperlink ref="D140" r:id="rId463"/>
+    <hyperlink ref="D145" r:id="rId464"/>
+    <hyperlink ref="D148" r:id="rId465"/>
+    <hyperlink ref="D146" r:id="rId466"/>
     <hyperlink ref="D147" r:id="rId467"/>
-    <hyperlink ref="D148" r:id="rId468"/>
+    <hyperlink ref="D163" r:id="rId468"/>
     <hyperlink ref="D164" r:id="rId469"/>
-    <hyperlink ref="D165" r:id="rId470"/>
-    <hyperlink ref="D140" r:id="rId471"/>
-    <hyperlink ref="D166" r:id="rId472"/>
-    <hyperlink ref="D158" r:id="rId473"/>
-    <hyperlink ref="B160" r:id="rId474" display="Merge K sorted Linked list"/>
-    <hyperlink ref="D161" r:id="rId475"/>
-    <hyperlink ref="D160" r:id="rId476"/>
-    <hyperlink ref="D159" r:id="rId477"/>
-    <hyperlink ref="D155" r:id="rId478"/>
-    <hyperlink ref="D174" r:id="rId479"/>
-    <hyperlink ref="D176" r:id="rId480"/>
-    <hyperlink ref="D175" r:id="rId481"/>
-    <hyperlink ref="D169" r:id="rId482"/>
-    <hyperlink ref="D171" r:id="rId483"/>
-    <hyperlink ref="D182" r:id="rId484"/>
-    <hyperlink ref="D173" r:id="rId485"/>
-    <hyperlink ref="D172" r:id="rId486"/>
-    <hyperlink ref="D181" r:id="rId487"/>
-    <hyperlink ref="D198" r:id="rId488"/>
-    <hyperlink ref="D184" r:id="rId489"/>
+    <hyperlink ref="D139" r:id="rId470"/>
+    <hyperlink ref="D165" r:id="rId471"/>
+    <hyperlink ref="D157" r:id="rId472"/>
+    <hyperlink ref="B159" r:id="rId473" display="Merge K sorted Linked list"/>
+    <hyperlink ref="D160" r:id="rId474"/>
+    <hyperlink ref="D159" r:id="rId475"/>
+    <hyperlink ref="D158" r:id="rId476"/>
+    <hyperlink ref="D154" r:id="rId477"/>
+    <hyperlink ref="D173" r:id="rId478"/>
+    <hyperlink ref="D175" r:id="rId479"/>
+    <hyperlink ref="D174" r:id="rId480"/>
+    <hyperlink ref="D168" r:id="rId481"/>
+    <hyperlink ref="D170" r:id="rId482"/>
+    <hyperlink ref="D181" r:id="rId483"/>
+    <hyperlink ref="D172" r:id="rId484"/>
+    <hyperlink ref="D171" r:id="rId485"/>
+    <hyperlink ref="D180" r:id="rId486"/>
+    <hyperlink ref="D197" r:id="rId487"/>
+    <hyperlink ref="D183" r:id="rId488"/>
+    <hyperlink ref="D176" r:id="rId489"/>
     <hyperlink ref="D177" r:id="rId490"/>
-    <hyperlink ref="D178" r:id="rId491"/>
-    <hyperlink ref="D201" r:id="rId492"/>
-    <hyperlink ref="B201" r:id="rId493"/>
-    <hyperlink ref="D186" r:id="rId494"/>
-    <hyperlink ref="D207" r:id="rId495"/>
-    <hyperlink ref="D200" r:id="rId496"/>
-    <hyperlink ref="D170" r:id="rId497"/>
-    <hyperlink ref="D188" r:id="rId498"/>
-    <hyperlink ref="D194" r:id="rId499"/>
-    <hyperlink ref="D208" r:id="rId500"/>
-    <hyperlink ref="D221" r:id="rId501"/>
-    <hyperlink ref="D190" r:id="rId502"/>
-    <hyperlink ref="D211" r:id="rId503"/>
-    <hyperlink ref="D26" r:id="rId504"/>
-    <hyperlink ref="D213" r:id="rId505"/>
-    <hyperlink ref="D224" r:id="rId506"/>
-    <hyperlink ref="D215" r:id="rId507"/>
-    <hyperlink ref="D50" r:id="rId508"/>
-    <hyperlink ref="D212" r:id="rId509"/>
-    <hyperlink ref="D334" r:id="rId510"/>
-    <hyperlink ref="D344" r:id="rId511"/>
-    <hyperlink ref="D340" r:id="rId512"/>
-    <hyperlink ref="D348" r:id="rId513"/>
-    <hyperlink ref="D339" r:id="rId514"/>
-    <hyperlink ref="D10" r:id="rId515"/>
-    <hyperlink ref="D39" r:id="rId516"/>
-    <hyperlink ref="D24" r:id="rId517"/>
-    <hyperlink ref="B40" r:id="rId518" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="D40" r:id="rId519"/>
+    <hyperlink ref="D200" r:id="rId491"/>
+    <hyperlink ref="B200" r:id="rId492"/>
+    <hyperlink ref="D185" r:id="rId493"/>
+    <hyperlink ref="D206" r:id="rId494"/>
+    <hyperlink ref="D199" r:id="rId495"/>
+    <hyperlink ref="D169" r:id="rId496"/>
+    <hyperlink ref="D187" r:id="rId497"/>
+    <hyperlink ref="D193" r:id="rId498"/>
+    <hyperlink ref="D207" r:id="rId499"/>
+    <hyperlink ref="D220" r:id="rId500"/>
+    <hyperlink ref="D189" r:id="rId501"/>
+    <hyperlink ref="D210" r:id="rId502"/>
+    <hyperlink ref="D25" r:id="rId503"/>
+    <hyperlink ref="D212" r:id="rId504"/>
+    <hyperlink ref="D223" r:id="rId505"/>
+    <hyperlink ref="D214" r:id="rId506"/>
+    <hyperlink ref="D49" r:id="rId507"/>
+    <hyperlink ref="D211" r:id="rId508"/>
+    <hyperlink ref="D333" r:id="rId509"/>
+    <hyperlink ref="D343" r:id="rId510"/>
+    <hyperlink ref="D339" r:id="rId511"/>
+    <hyperlink ref="D347" r:id="rId512"/>
+    <hyperlink ref="D338" r:id="rId513"/>
+    <hyperlink ref="D9" r:id="rId514"/>
+    <hyperlink ref="D38" r:id="rId515"/>
+    <hyperlink ref="D23" r:id="rId516"/>
+    <hyperlink ref="B39" r:id="rId517" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="D39" r:id="rId518"/>
+    <hyperlink ref="D33" r:id="rId519"/>
+    <hyperlink ref="D43" r:id="rId520"/>
+    <hyperlink ref="D45" r:id="rId521"/>
+    <hyperlink ref="D50" r:id="rId522"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId520"/>
+  <pageSetup orientation="portrait" r:id="rId523"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="556">
   <si>
     <t>Topic:</t>
   </si>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
   </si>
   <si>
     <t>Find Maximum number possible by doing at-most K swaps</t>
@@ -1702,6 +1699,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Questions by Love Babbar:</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/submissions/</t>
+  </si>
+  <si>
+    <t>Combinational Sum [V.IMP]</t>
   </si>
 </sst>
 </file>
@@ -2427,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2443,7 +2446,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -2454,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2471,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -2485,10 +2488,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2499,10 +2502,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2513,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2527,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2552,10 +2555,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2581,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2592,10 +2595,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2606,10 +2609,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2620,10 +2623,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2648,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2670,10 +2673,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2684,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2709,10 +2712,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2734,10 +2737,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2748,10 +2751,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2803,13 +2806,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2817,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>2</v>
@@ -2829,13 +2832,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2887,13 +2890,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2901,13 +2904,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>546</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2924,13 +2927,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
@@ -2941,10 +2944,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -2966,10 +2969,10 @@
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2980,10 +2983,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -3016,10 +3019,10 @@
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -3030,10 +3033,10 @@
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -3060,10 +3063,10 @@
         <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -3074,10 +3077,10 @@
         <v>46</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -3088,10 +3091,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -3541,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="21">
@@ -3566,7 +3569,7 @@
         <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
@@ -3577,10 +3580,10 @@
         <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3657,10 +3660,10 @@
         <v>98</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3770,7 +3773,7 @@
         <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3792,7 +3795,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D120" s="26"/>
     </row>
@@ -3804,7 +3807,7 @@
         <v>111</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D121" s="26"/>
     </row>
@@ -3849,7 +3852,7 @@
         <v>115</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D125" s="26"/>
     </row>
@@ -3909,10 +3912,10 @@
         <v>121</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
@@ -3923,10 +3926,10 @@
         <v>122</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
@@ -3937,10 +3940,10 @@
         <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3951,10 +3954,10 @@
         <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -3965,10 +3968,10 @@
         <v>125</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -3979,10 +3982,10 @@
         <v>126</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3993,10 +3996,10 @@
         <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -4007,10 +4010,10 @@
         <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -4021,10 +4024,10 @@
         <v>129</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -4057,7 +4060,7 @@
         <v>132</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D143" s="17"/>
     </row>
@@ -4081,10 +4084,10 @@
         <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21">
@@ -4095,10 +4098,10 @@
         <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -4109,10 +4112,10 @@
         <v>136</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -4123,10 +4126,10 @@
         <v>137</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4137,10 +4140,10 @@
         <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4200,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
@@ -4208,13 +4211,13 @@
         <v>120</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>457</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="31" customFormat="1" ht="21">
@@ -4222,10 +4225,10 @@
         <v>120</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D156" s="32"/>
     </row>
@@ -4237,27 +4240,27 @@
         <v>144</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A158" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="C158" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="D158" s="37" t="s">
+      <c r="F158" s="36" t="s">
         <v>484</v>
-      </c>
-      <c r="F158" s="36" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="31" customFormat="1" ht="21">
@@ -4265,13 +4268,13 @@
         <v>120</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
@@ -4279,13 +4282,13 @@
         <v>120</v>
       </c>
       <c r="B160" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4315,13 +4318,13 @@
         <v>120</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="21">
@@ -4332,10 +4335,10 @@
         <v>147</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4346,10 +4349,10 @@
         <v>148</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -4358,16 +4361,16 @@
     </row>
     <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A168" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
@@ -4378,10 +4381,10 @@
         <v>150</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4389,13 +4392,13 @@
         <v>149</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4406,10 +4409,10 @@
         <v>151</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4420,10 +4423,10 @@
         <v>152</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4434,10 +4437,10 @@
         <v>153</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4448,10 +4451,10 @@
         <v>154</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4462,10 +4465,10 @@
         <v>155</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4476,10 +4479,10 @@
         <v>156</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4490,10 +4493,10 @@
         <v>157</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4526,10 +4529,10 @@
         <v>160</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
@@ -4540,10 +4543,10 @@
         <v>161</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4562,13 +4565,13 @@
         <v>149</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21">
@@ -4587,13 +4590,13 @@
         <v>149</v>
       </c>
       <c r="B185" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>508</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
@@ -4615,10 +4618,10 @@
         <v>165</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
@@ -4637,13 +4640,13 @@
         <v>149</v>
       </c>
       <c r="B189" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>523</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
@@ -4688,10 +4691,10 @@
         <v>170</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
@@ -4733,13 +4736,13 @@
         <v>149</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
@@ -4758,13 +4761,13 @@
         <v>149</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
@@ -4772,13 +4775,13 @@
         <v>149</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4830,13 +4833,13 @@
         <v>178</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
@@ -4844,13 +4847,13 @@
         <v>178</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>516</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4858,13 +4861,13 @@
         <v>178</v>
       </c>
       <c r="B208" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>518</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
@@ -4886,10 +4889,10 @@
         <v>180</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
@@ -4900,10 +4903,10 @@
         <v>181</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
@@ -4914,10 +4917,10 @@
         <v>182</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
@@ -4939,10 +4942,10 @@
         <v>184</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
@@ -4983,7 +4986,7 @@
         <v>178</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>2</v>
@@ -4998,10 +5001,10 @@
         <v>188</v>
       </c>
       <c r="C219" s="44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D219" s="45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="51" customFormat="1" ht="21">
@@ -5012,10 +5015,10 @@
         <v>189</v>
       </c>
       <c r="C220" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D220" s="50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
@@ -5048,10 +5051,10 @@
         <v>192</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
@@ -5107,11 +5110,11 @@
         <v>197</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D228" s="23"/>
       <c r="F228" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21">
@@ -5570,7 +5573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" spans="1:4" ht="21">
       <c r="A273" s="3" t="s">
         <v>234</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="A274" s="3" t="s">
         <v>234</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="3" t="s">
         <v>234</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="3" t="s">
         <v>234</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="3" t="s">
         <v>234</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="3" t="s">
         <v>234</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="3" t="s">
         <v>234</v>
       </c>
@@ -5647,95 +5650,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="3" t="s">
+    <row r="280" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A280" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B280" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
+      <c r="B280" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" spans="1:4" ht="21">
       <c r="B288" s="4"/>
       <c r="C288" s="2"/>
     </row>
@@ -5745,10 +5751,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
@@ -5756,10 +5762,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -5767,10 +5773,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -5778,10 +5784,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -5789,10 +5795,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
@@ -5800,10 +5806,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -5811,10 +5817,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -5822,10 +5828,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>2</v>
@@ -5833,10 +5839,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>2</v>
@@ -5844,10 +5850,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>2</v>
@@ -5855,10 +5861,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>2</v>
@@ -5866,10 +5872,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>2</v>
@@ -5877,10 +5883,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
@@ -5888,10 +5894,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
@@ -5899,10 +5905,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
@@ -5910,10 +5916,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
@@ -5921,10 +5927,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
@@ -5932,10 +5938,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -5943,10 +5949,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
@@ -5954,10 +5960,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -5965,10 +5971,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -5976,10 +5982,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -5987,10 +5993,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -5998,10 +6004,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>2</v>
@@ -6009,10 +6015,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>2</v>
@@ -6020,10 +6026,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>2</v>
@@ -6031,10 +6037,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>2</v>
@@ -6042,10 +6048,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>2</v>
@@ -6053,10 +6059,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
@@ -6064,10 +6070,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
@@ -6075,10 +6081,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>2</v>
@@ -6086,10 +6092,10 @@
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>2</v>
@@ -6097,10 +6103,10 @@
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>2</v>
@@ -6108,10 +6114,10 @@
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>2</v>
@@ -6119,10 +6125,10 @@
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>2</v>
@@ -6130,10 +6136,10 @@
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>2</v>
@@ -6141,10 +6147,10 @@
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>2</v>
@@ -6152,10 +6158,10 @@
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>2</v>
@@ -6171,38 +6177,38 @@
     </row>
     <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A332" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>2</v>
@@ -6211,38 +6217,38 @@
     </row>
     <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A335" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -6251,10 +6257,10 @@
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="A336" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>2</v>
@@ -6262,10 +6268,10 @@
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>2</v>
@@ -6273,38 +6279,38 @@
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A339" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21">
       <c r="A340" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>2</v>
@@ -6312,10 +6318,10 @@
     </row>
     <row r="341" spans="1:6" ht="21">
       <c r="A341" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>2</v>
@@ -6323,10 +6329,10 @@
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>2</v>
@@ -6334,24 +6340,24 @@
     </row>
     <row r="343" spans="1:6" ht="21">
       <c r="A343" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21">
       <c r="A344" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>2</v>
@@ -6359,24 +6365,24 @@
     </row>
     <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A345" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D345" s="53" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21">
       <c r="A346" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>2</v>
@@ -6384,19 +6390,19 @@
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D347" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="F347" t="s">
         <v>538</v>
-      </c>
-      <c r="F347" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
@@ -6409,10 +6415,10 @@
     </row>
     <row r="350" spans="1:6" ht="21">
       <c r="A350" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B350" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="B350" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>2</v>
@@ -6420,10 +6426,10 @@
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>2</v>
@@ -6431,10 +6437,10 @@
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>2</v>
@@ -6442,10 +6448,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>2</v>
@@ -6453,10 +6459,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>2</v>
@@ -6464,10 +6470,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>2</v>
@@ -6475,10 +6481,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2</v>
@@ -6486,10 +6492,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>2</v>
@@ -6497,10 +6503,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>2</v>
@@ -6508,10 +6514,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>2</v>
@@ -6519,10 +6525,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2</v>
@@ -6530,10 +6536,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>2</v>
@@ -6541,10 +6547,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>2</v>
@@ -6552,10 +6558,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2</v>
@@ -6563,10 +6569,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2</v>
@@ -6574,10 +6580,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>2</v>
@@ -6585,10 +6591,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>2</v>
@@ -6596,10 +6602,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>2</v>
@@ -6607,10 +6613,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>2</v>
@@ -6618,10 +6624,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>2</v>
@@ -6629,10 +6635,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>2</v>
@@ -6640,10 +6646,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>2</v>
@@ -6651,10 +6657,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>2</v>
@@ -6662,10 +6668,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>2</v>
@@ -6673,10 +6679,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>2</v>
@@ -6684,10 +6690,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>2</v>
@@ -6695,10 +6701,10 @@
     </row>
     <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A376" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>2</v>
@@ -6707,10 +6713,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>2</v>
@@ -6718,10 +6724,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2</v>
@@ -6729,10 +6735,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2</v>
@@ -6740,10 +6746,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2</v>
@@ -6751,10 +6757,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>2</v>
@@ -6762,10 +6768,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>2</v>
@@ -6773,10 +6779,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>2</v>
@@ -6784,10 +6790,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2</v>
@@ -6795,10 +6801,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>2</v>
@@ -6806,10 +6812,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>2</v>
@@ -6817,10 +6823,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>2</v>
@@ -6828,10 +6834,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>2</v>
@@ -6839,10 +6845,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2</v>
@@ -6850,10 +6856,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2</v>
@@ -6861,10 +6867,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>2</v>
@@ -6872,10 +6878,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>2</v>
@@ -6891,10 +6897,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B395" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="B395" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>2</v>
@@ -6902,10 +6908,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>2</v>
@@ -6913,10 +6919,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2</v>
@@ -6924,7 +6930,7 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B398" s="13" t="s">
         <v>79</v>
@@ -6935,10 +6941,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2</v>
@@ -6946,10 +6952,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>2</v>
@@ -6965,21 +6971,21 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B403" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B403" s="13" t="s">
-        <v>361</v>
-      </c>
       <c r="C403" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>2</v>
@@ -6987,10 +6993,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>2</v>
@@ -6998,10 +7004,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>2</v>
@@ -7009,10 +7015,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2</v>
@@ -7020,21 +7026,21 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2</v>
@@ -7042,7 +7048,7 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B410" s="13" t="s">
         <v>242</v>
@@ -7053,10 +7059,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2</v>
@@ -7064,10 +7070,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2</v>
@@ -7075,10 +7081,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2</v>
@@ -7086,10 +7092,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>2</v>
@@ -7097,10 +7103,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>2</v>
@@ -7108,10 +7114,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>2</v>
@@ -7119,10 +7125,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2</v>
@@ -7130,10 +7136,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2</v>
@@ -7141,10 +7147,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2</v>
@@ -7152,10 +7158,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2</v>
@@ -7163,10 +7169,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2</v>
@@ -7174,10 +7180,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>2</v>
@@ -7185,10 +7191,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>2</v>
@@ -7196,10 +7202,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>2</v>
@@ -7207,10 +7213,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>2</v>
@@ -7218,10 +7224,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>2</v>
@@ -7229,10 +7235,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>2</v>
@@ -7240,10 +7246,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>2</v>
@@ -7251,10 +7257,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>2</v>
@@ -7262,10 +7268,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>2</v>
@@ -7273,10 +7279,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>2</v>
@@ -7284,10 +7290,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2</v>
@@ -7295,10 +7301,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2</v>
@@ -7306,10 +7312,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2</v>
@@ -7317,10 +7323,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2</v>
@@ -7328,10 +7334,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2</v>
@@ -7339,10 +7345,10 @@
     </row>
     <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A437" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>2</v>
@@ -7351,10 +7357,10 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -7362,10 +7368,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -7373,10 +7379,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>2</v>
@@ -7384,10 +7390,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>2</v>
@@ -7395,10 +7401,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>2</v>
@@ -7406,10 +7412,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>2</v>
@@ -7417,10 +7423,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>2</v>
@@ -7428,10 +7434,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>2</v>
@@ -7439,10 +7445,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>2</v>
@@ -7450,10 +7456,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>2</v>
@@ -7461,10 +7467,10 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>2</v>
@@ -7472,10 +7478,10 @@
     </row>
     <row r="449" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A449" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C449" s="24" t="s">
         <v>2</v>
@@ -7484,10 +7490,10 @@
     </row>
     <row r="450" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A450" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C450" s="24" t="s">
         <v>2</v>
@@ -7496,10 +7502,10 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>2</v>
@@ -7507,10 +7513,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>2</v>
@@ -7518,10 +7524,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>2</v>
@@ -7529,10 +7535,10 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>2</v>
@@ -7540,22 +7546,22 @@
     </row>
     <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A455" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D455" s="23"/>
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>2</v>
@@ -7563,10 +7569,10 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>2</v>
@@ -7574,10 +7580,10 @@
     </row>
     <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A458" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>2</v>
@@ -7586,10 +7592,10 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>2</v>
@@ -7597,10 +7603,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>2</v>
@@ -7608,10 +7614,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>2</v>
@@ -7619,10 +7625,10 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>2</v>
@@ -7639,10 +7645,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B465" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="B465" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>2</v>
@@ -7650,10 +7656,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>2</v>
@@ -7661,10 +7667,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>2</v>
@@ -7672,10 +7678,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>2</v>
@@ -7683,10 +7689,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>2</v>
@@ -7694,21 +7700,21 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>2</v>
@@ -7716,10 +7722,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>2</v>
@@ -7727,10 +7733,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>2</v>
@@ -7738,13 +7744,13 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8006,7 @@
     <hyperlink ref="B277" r:id="rId249"/>
     <hyperlink ref="B278" r:id="rId250"/>
     <hyperlink ref="B279" r:id="rId251"/>
-    <hyperlink ref="B280" r:id="rId252"/>
+    <hyperlink ref="B280" r:id="rId252" display="Combinational Sum"/>
     <hyperlink ref="B281" r:id="rId253"/>
     <hyperlink ref="B282" r:id="rId254"/>
     <hyperlink ref="B283" r:id="rId255"/>
@@ -8271,8 +8277,9 @@
     <hyperlink ref="D43" r:id="rId520"/>
     <hyperlink ref="D45" r:id="rId521"/>
     <hyperlink ref="D50" r:id="rId522"/>
+    <hyperlink ref="D280" r:id="rId523"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId523"/>
+  <pageSetup orientation="portrait" r:id="rId524"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="559">
   <si>
     <t>Topic:</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
   </si>
   <si>
     <t>Next Permutation</t>
@@ -1706,12 +1703,24 @@
   <si>
     <t>Combinational Sum [V.IMP]</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/submissions/</t>
+  </si>
+  <si>
+    <t>Merge Intervals    [MAP]</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1892,6 +1901,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1981,7 +1998,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2109,6 +2126,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -2430,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2446,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -2457,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2474,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -2488,10 +2514,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2502,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2516,10 +2542,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2530,10 +2556,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2555,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>432</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2584,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2595,10 +2621,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2609,10 +2635,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2623,10 +2649,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2634,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>16</v>
+        <v>556</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -2645,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2659,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -2670,13 +2696,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2684,13 +2710,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2698,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -2709,13 +2735,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2723,10 +2749,13 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2</v>
+        <v>431</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2734,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2748,13 +2777,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2762,10 +2791,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
+        <v>431</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2773,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -2784,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -2795,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -2806,13 +2838,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2820,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>2</v>
@@ -2832,13 +2864,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2846,7 +2878,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2857,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2868,21 +2900,24 @@
         <v>3</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="21">
+      <c r="A37" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21">
-      <c r="A37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
+      <c r="C37" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2890,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2904,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>545</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2924,38 +2959,38 @@
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A42" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2963,38 +2998,38 @@
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -3002,10 +3037,10 @@
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -3013,38 +3048,38 @@
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -3057,52 +3092,52 @@
     </row>
     <row r="54" spans="1:4" ht="21">
       <c r="A54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -3110,10 +3145,10 @@
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -3121,10 +3156,10 @@
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -3132,10 +3167,10 @@
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -3143,10 +3178,10 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -3154,10 +3189,10 @@
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -3165,10 +3200,10 @@
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -3176,10 +3211,10 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -3187,10 +3222,10 @@
     </row>
     <row r="65" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A65" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>2</v>
@@ -3199,10 +3234,10 @@
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A66" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>2</v>
@@ -3211,10 +3246,10 @@
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A67" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>2</v>
@@ -3223,10 +3258,10 @@
     </row>
     <row r="68" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A68" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>2</v>
@@ -3235,10 +3270,10 @@
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A69" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>2</v>
@@ -3247,10 +3282,10 @@
     </row>
     <row r="70" spans="1:4" ht="21">
       <c r="A70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -3258,10 +3293,10 @@
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -3269,10 +3304,10 @@
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -3280,10 +3315,10 @@
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -3291,10 +3326,10 @@
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -3302,10 +3337,10 @@
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -3313,10 +3348,10 @@
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -3324,10 +3359,10 @@
     </row>
     <row r="77" spans="1:4" ht="21">
       <c r="A77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -3335,10 +3370,10 @@
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -3346,10 +3381,10 @@
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -3357,10 +3392,10 @@
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
@@ -3368,10 +3403,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
@@ -3379,10 +3414,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
@@ -3390,10 +3425,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -3401,10 +3436,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -3412,10 +3447,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -3423,10 +3458,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -3434,10 +3469,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2</v>
@@ -3445,10 +3480,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -3456,10 +3491,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -3467,10 +3502,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -3478,10 +3513,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -3489,10 +3524,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
@@ -3500,10 +3535,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -3511,10 +3546,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -3522,10 +3557,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -3538,24 +3573,24 @@
     </row>
     <row r="98" spans="1:4" ht="21">
       <c r="A98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="21">
       <c r="A99" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -3563,35 +3598,35 @@
     </row>
     <row r="100" spans="1:4" ht="21">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -3599,10 +3634,10 @@
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -3610,10 +3645,10 @@
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -3621,10 +3656,10 @@
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -3632,10 +3667,10 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -3643,10 +3678,10 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -3654,24 +3689,24 @@
     </row>
     <row r="108" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A108" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -3679,10 +3714,10 @@
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -3690,10 +3725,10 @@
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -3701,10 +3736,10 @@
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
@@ -3712,10 +3747,10 @@
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2</v>
@@ -3723,10 +3758,10 @@
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
@@ -3734,10 +3769,10 @@
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
@@ -3745,10 +3780,10 @@
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -3756,10 +3791,10 @@
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
@@ -3767,21 +3802,21 @@
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -3789,34 +3824,34 @@
     </row>
     <row r="120" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A120" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A121" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="21">
       <c r="A122" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
@@ -3824,10 +3859,10 @@
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -3835,10 +3870,10 @@
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -3846,22 +3881,22 @@
     </row>
     <row r="125" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A125" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D125" s="26"/>
     </row>
     <row r="126" spans="1:4" ht="21">
       <c r="A126" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
@@ -3869,10 +3904,10 @@
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3880,10 +3915,10 @@
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -3891,10 +3926,10 @@
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -3906,136 +3941,136 @@
     </row>
     <row r="132" spans="1:4" ht="21">
       <c r="A132" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A133" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
       <c r="A134" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
       <c r="A137" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="A138" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
@@ -4043,10 +4078,10 @@
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
@@ -4054,22 +4089,22 @@
     </row>
     <row r="143" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A143" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A144" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>2</v>
@@ -4078,80 +4113,80 @@
     </row>
     <row r="145" spans="1:6" ht="21">
       <c r="A145" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
@@ -4159,10 +4194,10 @@
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -4170,10 +4205,10 @@
     </row>
     <row r="152" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A152" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>2</v>
@@ -4182,10 +4217,10 @@
     </row>
     <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>2</v>
@@ -4194,109 +4229,109 @@
     </row>
     <row r="154" spans="1:6" ht="21">
       <c r="A154" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A156" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D156" s="32"/>
     </row>
     <row r="157" spans="1:6" ht="21">
       <c r="A157" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A158" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="C158" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="D158" s="37" t="s">
+      <c r="F158" s="36" t="s">
         <v>483</v>
-      </c>
-      <c r="F158" s="36" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A159" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
       <c r="A160" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B160" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D160" s="20" t="s">
         <v>476</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -4304,10 +4339,10 @@
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -4315,44 +4350,44 @@
     </row>
     <row r="163" spans="1:4" s="4" customFormat="1" ht="21">
       <c r="A163" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="21">
       <c r="A164" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -4361,150 +4396,150 @@
     </row>
     <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A168" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
       <c r="A169" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
       <c r="A175" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -4512,10 +4547,10 @@
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -4523,38 +4558,38 @@
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -4562,24 +4597,24 @@
     </row>
     <row r="183" spans="1:4" s="31" customFormat="1" ht="21">
       <c r="A183" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21">
       <c r="A184" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -4587,24 +4622,24 @@
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B185" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>507</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -4612,24 +4647,24 @@
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -4637,24 +4672,24 @@
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B189" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -4662,10 +4697,10 @@
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
@@ -4673,10 +4708,10 @@
     </row>
     <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A192" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>2</v>
@@ -4685,24 +4720,24 @@
     </row>
     <row r="193" spans="1:4" ht="21">
       <c r="A193" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2</v>
@@ -4710,10 +4745,10 @@
     </row>
     <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A195" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>2</v>
@@ -4722,10 +4757,10 @@
     </row>
     <row r="196" spans="1:4" ht="21">
       <c r="A196" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -4733,24 +4768,24 @@
     </row>
     <row r="197" spans="1:4" s="31" customFormat="1" ht="21">
       <c r="A197" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
       <c r="A198" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -4758,38 +4793,38 @@
     </row>
     <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A199" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
       <c r="A200" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -4797,10 +4832,10 @@
     </row>
     <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A202" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
@@ -4809,10 +4844,10 @@
     </row>
     <row r="203" spans="1:4" ht="21">
       <c r="A203" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4830,52 +4865,52 @@
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B208" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>517</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4883,52 +4918,52 @@
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4936,24 +4971,24 @@
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
@@ -4961,10 +4996,10 @@
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
@@ -4972,10 +5007,10 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2</v>
@@ -4983,10 +5018,10 @@
     </row>
     <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A218" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>2</v>
@@ -4995,38 +5030,38 @@
     </row>
     <row r="219" spans="1:4" s="46" customFormat="1" ht="21">
       <c r="A219" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C219" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D219" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="51" customFormat="1" ht="21">
       <c r="A220" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C220" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D220" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -5034,10 +5069,10 @@
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
@@ -5045,24 +5080,24 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -5070,10 +5105,10 @@
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2</v>
@@ -5081,10 +5116,10 @@
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>2</v>
@@ -5093,10 +5128,10 @@
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
@@ -5104,25 +5139,25 @@
     </row>
     <row r="228" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A228" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D228" s="23"/>
       <c r="F228" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21">
       <c r="A229" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -5138,10 +5173,10 @@
     </row>
     <row r="232" spans="1:6" ht="21">
       <c r="A232" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
@@ -5149,10 +5184,10 @@
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -5160,10 +5195,10 @@
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>2</v>
@@ -5171,10 +5206,10 @@
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -5182,10 +5217,10 @@
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="A236" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
@@ -5193,10 +5228,10 @@
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="A237" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
@@ -5204,10 +5239,10 @@
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -5215,10 +5250,10 @@
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -5226,10 +5261,10 @@
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -5237,10 +5272,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -5248,10 +5283,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -5259,10 +5294,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -5270,10 +5305,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -5281,10 +5316,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -5292,10 +5327,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2</v>
@@ -5303,10 +5338,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -5314,10 +5349,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
@@ -5325,10 +5360,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -5336,10 +5371,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>2</v>
@@ -5347,10 +5382,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>2</v>
@@ -5358,10 +5393,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>2</v>
@@ -5369,10 +5404,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>2</v>
@@ -5380,10 +5415,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>2</v>
@@ -5391,10 +5426,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>2</v>
@@ -5402,10 +5437,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>2</v>
@@ -5413,10 +5448,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>2</v>
@@ -5424,10 +5459,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>2</v>
@@ -5435,10 +5470,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>2</v>
@@ -5446,10 +5481,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -5457,10 +5492,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -5468,10 +5503,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -5479,10 +5514,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -5490,10 +5525,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -5501,10 +5536,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -5512,10 +5547,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -5531,10 +5566,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -5542,10 +5577,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -5553,10 +5588,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -5564,10 +5599,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -5575,10 +5610,10 @@
     </row>
     <row r="273" spans="1:4" ht="21">
       <c r="A273" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -5586,10 +5621,10 @@
     </row>
     <row r="274" spans="1:4" ht="21">
       <c r="A274" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>2</v>
@@ -5597,10 +5632,10 @@
     </row>
     <row r="275" spans="1:4" ht="21">
       <c r="A275" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>2</v>
@@ -5608,10 +5643,10 @@
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -5619,10 +5654,10 @@
     </row>
     <row r="277" spans="1:4" ht="21">
       <c r="A277" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -5630,10 +5665,10 @@
     </row>
     <row r="278" spans="1:4" ht="21">
       <c r="A278" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -5641,10 +5676,10 @@
     </row>
     <row r="279" spans="1:4" ht="21">
       <c r="A279" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -5652,24 +5687,24 @@
     </row>
     <row r="280" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A280" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="21">
       <c r="A281" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -5677,10 +5712,10 @@
     </row>
     <row r="282" spans="1:4" ht="21">
       <c r="A282" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -5688,10 +5723,10 @@
     </row>
     <row r="283" spans="1:4" ht="21">
       <c r="A283" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>2</v>
@@ -5699,10 +5734,10 @@
     </row>
     <row r="284" spans="1:4" ht="21">
       <c r="A284" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>2</v>
@@ -5710,10 +5745,10 @@
     </row>
     <row r="285" spans="1:4" ht="21">
       <c r="A285" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>2</v>
@@ -5721,10 +5756,10 @@
     </row>
     <row r="286" spans="1:4" ht="21">
       <c r="A286" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>2</v>
@@ -5732,10 +5767,10 @@
     </row>
     <row r="287" spans="1:4" ht="21">
       <c r="A287" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>2</v>
@@ -5751,10 +5786,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
@@ -5762,10 +5797,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -5773,10 +5808,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -5784,10 +5819,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -5795,10 +5830,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
@@ -5806,10 +5841,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -5817,10 +5852,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -5828,10 +5863,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>2</v>
@@ -5839,10 +5874,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>2</v>
@@ -5850,10 +5885,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>2</v>
@@ -5861,10 +5896,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>2</v>
@@ -5872,10 +5907,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>2</v>
@@ -5883,10 +5918,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
@@ -5894,10 +5929,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
@@ -5905,10 +5940,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
@@ -5916,10 +5951,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
@@ -5927,10 +5962,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
@@ -5938,10 +5973,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -5949,10 +5984,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
@@ -5960,10 +5995,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -5971,10 +6006,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -5982,10 +6017,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -5993,10 +6028,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -6004,10 +6039,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>2</v>
@@ -6015,10 +6050,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>2</v>
@@ -6026,10 +6061,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>2</v>
@@ -6037,10 +6072,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>2</v>
@@ -6048,10 +6083,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>2</v>
@@ -6059,10 +6094,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
@@ -6070,10 +6105,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
@@ -6081,10 +6116,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>2</v>
@@ -6092,10 +6127,10 @@
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>2</v>
@@ -6103,10 +6138,10 @@
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>2</v>
@@ -6114,10 +6149,10 @@
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>2</v>
@@ -6125,10 +6160,10 @@
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>2</v>
@@ -6136,10 +6171,10 @@
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>2</v>
@@ -6147,10 +6182,10 @@
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>2</v>
@@ -6158,10 +6193,10 @@
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>2</v>
@@ -6177,38 +6212,38 @@
     </row>
     <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A332" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>2</v>
@@ -6217,38 +6252,38 @@
     </row>
     <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A335" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -6257,10 +6292,10 @@
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="A336" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>2</v>
@@ -6268,10 +6303,10 @@
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>2</v>
@@ -6279,38 +6314,38 @@
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A339" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21">
       <c r="A340" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>2</v>
@@ -6318,10 +6353,10 @@
     </row>
     <row r="341" spans="1:6" ht="21">
       <c r="A341" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>2</v>
@@ -6329,10 +6364,10 @@
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>2</v>
@@ -6340,24 +6375,24 @@
     </row>
     <row r="343" spans="1:6" ht="21">
       <c r="A343" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21">
       <c r="A344" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>2</v>
@@ -6365,24 +6400,24 @@
     </row>
     <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A345" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D345" s="53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21">
       <c r="A346" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>2</v>
@@ -6390,19 +6425,19 @@
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D347" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="F347" t="s">
         <v>537</v>
-      </c>
-      <c r="F347" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
@@ -6415,10 +6450,10 @@
     </row>
     <row r="350" spans="1:6" ht="21">
       <c r="A350" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B350" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="B350" s="13" t="s">
-        <v>310</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>2</v>
@@ -6426,10 +6461,10 @@
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>2</v>
@@ -6437,10 +6472,10 @@
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>2</v>
@@ -6448,10 +6483,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>2</v>
@@ -6459,10 +6494,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>2</v>
@@ -6470,10 +6505,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>2</v>
@@ -6481,10 +6516,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2</v>
@@ -6492,10 +6527,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>2</v>
@@ -6503,10 +6538,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>2</v>
@@ -6514,10 +6549,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>2</v>
@@ -6525,10 +6560,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2</v>
@@ -6536,10 +6571,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>2</v>
@@ -6547,10 +6582,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>2</v>
@@ -6558,10 +6593,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2</v>
@@ -6569,10 +6604,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2</v>
@@ -6580,10 +6615,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>2</v>
@@ -6591,10 +6626,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>2</v>
@@ -6602,10 +6637,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>2</v>
@@ -6613,10 +6648,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>2</v>
@@ -6624,10 +6659,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>2</v>
@@ -6635,10 +6670,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>2</v>
@@ -6646,10 +6681,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>2</v>
@@ -6657,10 +6692,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>2</v>
@@ -6668,10 +6703,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>2</v>
@@ -6679,10 +6714,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>2</v>
@@ -6690,10 +6725,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>2</v>
@@ -6701,10 +6736,10 @@
     </row>
     <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A376" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>2</v>
@@ -6713,10 +6748,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>2</v>
@@ -6724,10 +6759,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2</v>
@@ -6735,10 +6770,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2</v>
@@ -6746,10 +6781,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2</v>
@@ -6757,10 +6792,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>2</v>
@@ -6768,10 +6803,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>2</v>
@@ -6779,10 +6814,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>2</v>
@@ -6790,10 +6825,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2</v>
@@ -6801,10 +6836,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>2</v>
@@ -6812,10 +6847,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>2</v>
@@ -6823,10 +6858,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>2</v>
@@ -6834,10 +6869,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>2</v>
@@ -6845,10 +6880,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2</v>
@@ -6856,10 +6891,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2</v>
@@ -6867,10 +6902,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>2</v>
@@ -6878,10 +6913,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>2</v>
@@ -6897,10 +6932,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B395" s="13" t="s">
         <v>353</v>
-      </c>
-      <c r="B395" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>2</v>
@@ -6908,10 +6943,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>2</v>
@@ -6919,10 +6954,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2</v>
@@ -6930,10 +6965,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>2</v>
@@ -6941,10 +6976,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2</v>
@@ -6952,10 +6987,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>2</v>
@@ -6971,21 +7006,21 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B403" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B403" s="13" t="s">
-        <v>360</v>
-      </c>
       <c r="C403" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>2</v>
@@ -6993,10 +7028,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>2</v>
@@ -7004,10 +7039,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>2</v>
@@ -7015,10 +7050,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2</v>
@@ -7026,21 +7061,21 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2</v>
@@ -7048,10 +7083,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>2</v>
@@ -7059,10 +7094,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2</v>
@@ -7070,10 +7105,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2</v>
@@ -7081,10 +7116,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2</v>
@@ -7092,10 +7127,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>2</v>
@@ -7103,10 +7138,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>2</v>
@@ -7114,10 +7149,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>2</v>
@@ -7125,10 +7160,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2</v>
@@ -7136,10 +7171,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2</v>
@@ -7147,10 +7182,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2</v>
@@ -7158,10 +7193,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2</v>
@@ -7169,10 +7204,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2</v>
@@ -7180,10 +7215,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>2</v>
@@ -7191,10 +7226,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>2</v>
@@ -7202,10 +7237,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>2</v>
@@ -7213,10 +7248,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>2</v>
@@ -7224,10 +7259,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>2</v>
@@ -7235,10 +7270,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>2</v>
@@ -7246,10 +7281,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>2</v>
@@ -7257,10 +7292,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>2</v>
@@ -7268,10 +7303,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>2</v>
@@ -7279,10 +7314,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>2</v>
@@ -7290,10 +7325,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2</v>
@@ -7301,10 +7336,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2</v>
@@ -7312,10 +7347,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2</v>
@@ -7323,10 +7358,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2</v>
@@ -7334,10 +7369,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2</v>
@@ -7345,10 +7380,10 @@
     </row>
     <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A437" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>2</v>
@@ -7357,10 +7392,10 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -7368,10 +7403,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -7379,10 +7414,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>2</v>
@@ -7390,10 +7425,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>2</v>
@@ -7401,10 +7436,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>2</v>
@@ -7412,10 +7447,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>2</v>
@@ -7423,10 +7458,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>2</v>
@@ -7434,10 +7469,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>2</v>
@@ -7445,10 +7480,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>2</v>
@@ -7456,10 +7491,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>2</v>
@@ -7467,10 +7502,10 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>2</v>
@@ -7478,10 +7513,10 @@
     </row>
     <row r="449" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A449" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C449" s="24" t="s">
         <v>2</v>
@@ -7490,10 +7525,10 @@
     </row>
     <row r="450" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A450" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C450" s="24" t="s">
         <v>2</v>
@@ -7502,10 +7537,10 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>2</v>
@@ -7513,10 +7548,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>2</v>
@@ -7524,10 +7559,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>2</v>
@@ -7535,10 +7570,10 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>2</v>
@@ -7546,22 +7581,22 @@
     </row>
     <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A455" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D455" s="23"/>
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>2</v>
@@ -7569,10 +7604,10 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>2</v>
@@ -7580,10 +7615,10 @@
     </row>
     <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A458" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>2</v>
@@ -7592,10 +7627,10 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>2</v>
@@ -7603,10 +7638,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>2</v>
@@ -7614,10 +7649,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>2</v>
@@ -7625,10 +7660,10 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>2</v>
@@ -7645,10 +7680,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B465" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="B465" s="13" t="s">
-        <v>420</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>2</v>
@@ -7656,10 +7691,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>2</v>
@@ -7667,10 +7702,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>2</v>
@@ -7678,10 +7713,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>2</v>
@@ -7689,10 +7724,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>2</v>
@@ -7700,21 +7735,21 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>2</v>
@@ -7722,10 +7757,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>2</v>
@@ -7733,10 +7768,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>2</v>
@@ -7744,13 +7779,13 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7767,7 +7802,7 @@
     <hyperlink ref="B14" r:id="rId10"/>
     <hyperlink ref="B15" r:id="rId11"/>
     <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge Intervals"/>
     <hyperlink ref="B18" r:id="rId14"/>
     <hyperlink ref="B19" r:id="rId15"/>
     <hyperlink ref="B20" r:id="rId16"/>
@@ -8278,8 +8313,11 @@
     <hyperlink ref="D45" r:id="rId521"/>
     <hyperlink ref="D50" r:id="rId522"/>
     <hyperlink ref="D280" r:id="rId523"/>
+    <hyperlink ref="D27" r:id="rId524"/>
+    <hyperlink ref="D24" r:id="rId525"/>
+    <hyperlink ref="D37" r:id="rId526"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId524"/>
+  <pageSetup orientation="portrait" r:id="rId527"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="562">
   <si>
     <t>Topic:</t>
   </si>
@@ -1714,6 +1714,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/global-and-local-inversions/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/global-and-local-inversions/discuss/150991/From-intuition-to-optimization</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/minimize-the-maximum_696194?leftPanelTab=2</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2007,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,6 +2144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -2456,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2595,9 +2607,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>431</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="3" t="s">
@@ -2655,7 +2669,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:6" ht="21">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.8">
+    <row r="18" spans="1:6" ht="19.8">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21">
+    <row r="19" spans="1:6" ht="21">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,10 +2702,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" ht="19.8">
+        <v>431</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="19.8">
       <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:6" ht="21">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:6" ht="21">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:6" ht="21">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2744,7 +2764,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21">
+    <row r="24" spans="1:6" ht="21">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2758,7 +2778,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21">
+    <row r="25" spans="1:6" ht="21">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2772,7 +2792,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21">
+    <row r="26" spans="1:6" ht="21">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2786,7 +2806,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2800,7 +2820,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21">
+    <row r="28" spans="1:6" ht="21">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21">
+    <row r="29" spans="1:6" ht="21">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21">
+    <row r="30" spans="1:6" ht="21">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="25" customFormat="1" ht="21">
+    <row r="31" spans="1:6" s="25" customFormat="1" ht="21">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
@@ -2847,7 +2867,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="28" customFormat="1" ht="21">
+    <row r="32" spans="1:6" s="28" customFormat="1" ht="21">
       <c r="A32" s="27" t="s">
         <v>3</v>
       </c>
@@ -8316,8 +8336,10 @@
     <hyperlink ref="D27" r:id="rId524"/>
     <hyperlink ref="D24" r:id="rId525"/>
     <hyperlink ref="D37" r:id="rId526"/>
+    <hyperlink ref="D19" r:id="rId527"/>
+    <hyperlink ref="D12" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId527"/>
+  <pageSetup orientation="portrait" r:id="rId529"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="565">
   <si>
     <t>Topic:</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
   </si>
   <si>
     <t>Three way partitioning of an array around a given value</t>
@@ -1723,6 +1720,18 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/minimize-the-maximum_696194?leftPanelTab=2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays/submissions/</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value V.V.IMP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-index-with-equal-value/submissions/</t>
   </si>
 </sst>
 </file>
@@ -2468,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2484,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -2495,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2512,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -2526,10 +2535,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2540,10 +2549,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2554,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2568,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2582,7 +2591,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>430</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2593,10 +2605,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2607,10 +2619,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2624,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2635,10 +2647,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2649,10 +2661,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2663,10 +2675,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21">
@@ -2674,7 +2686,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -2688,10 +2700,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21">
@@ -2702,13 +2714,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>559</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="19.8">
@@ -2719,10 +2731,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21">
@@ -2733,10 +2745,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
@@ -2758,10 +2770,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21">
@@ -2772,10 +2784,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21">
@@ -2786,10 +2798,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21">
@@ -2800,10 +2812,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21">
@@ -2814,10 +2826,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21">
@@ -2858,13 +2870,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="28" customFormat="1" ht="21">
@@ -2872,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>2</v>
@@ -2884,24 +2896,27 @@
         <v>3</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21">
-      <c r="A34" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
+      <c r="B34" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2909,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2920,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -2931,13 +2946,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2945,13 +2960,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2959,13 +2974,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>544</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2979,38 +2994,38 @@
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
       <c r="A44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -3018,38 +3033,38 @@
     </row>
     <row r="45" spans="1:4" ht="21">
       <c r="A45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
       <c r="A46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -3057,10 +3072,10 @@
     </row>
     <row r="48" spans="1:4" ht="21">
       <c r="A48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -3068,38 +3083,38 @@
     </row>
     <row r="49" spans="1:4" ht="21">
       <c r="A49" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -3112,52 +3127,52 @@
     </row>
     <row r="54" spans="1:4" ht="21">
       <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
       <c r="A57" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -3165,10 +3180,10 @@
     </row>
     <row r="58" spans="1:4" ht="21">
       <c r="A58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -3176,10 +3191,10 @@
     </row>
     <row r="59" spans="1:4" ht="21">
       <c r="A59" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -3187,10 +3202,10 @@
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -3198,10 +3213,10 @@
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -3209,10 +3224,10 @@
     </row>
     <row r="62" spans="1:4" ht="21">
       <c r="A62" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -3220,10 +3235,10 @@
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -3231,10 +3246,10 @@
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -3242,10 +3257,10 @@
     </row>
     <row r="65" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A65" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>2</v>
@@ -3254,10 +3269,10 @@
     </row>
     <row r="66" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A66" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>2</v>
@@ -3266,10 +3281,10 @@
     </row>
     <row r="67" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A67" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>2</v>
@@ -3278,10 +3293,10 @@
     </row>
     <row r="68" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A68" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>2</v>
@@ -3290,10 +3305,10 @@
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" ht="19.8">
       <c r="A69" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>2</v>
@@ -3302,10 +3317,10 @@
     </row>
     <row r="70" spans="1:4" ht="21">
       <c r="A70" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -3313,10 +3328,10 @@
     </row>
     <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -3324,10 +3339,10 @@
     </row>
     <row r="72" spans="1:4" ht="21">
       <c r="A72" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -3335,10 +3350,10 @@
     </row>
     <row r="73" spans="1:4" ht="21">
       <c r="A73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -3346,10 +3361,10 @@
     </row>
     <row r="74" spans="1:4" ht="21">
       <c r="A74" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -3357,10 +3372,10 @@
     </row>
     <row r="75" spans="1:4" ht="21">
       <c r="A75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -3368,32 +3383,33 @@
     </row>
     <row r="76" spans="1:4" ht="21">
       <c r="A76" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="21">
-      <c r="A77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -3401,10 +3417,10 @@
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -3412,10 +3428,10 @@
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
@@ -3423,10 +3439,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
@@ -3434,10 +3450,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
@@ -3445,10 +3461,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -3456,10 +3472,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -3467,10 +3483,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -3478,10 +3494,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -3489,10 +3505,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2</v>
@@ -3500,10 +3516,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -3511,10 +3527,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -3522,10 +3538,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -3533,10 +3549,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -3544,10 +3560,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
@@ -3555,10 +3571,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -3566,10 +3582,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -3577,10 +3593,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -3593,60 +3609,63 @@
     </row>
     <row r="98" spans="1:4" ht="21">
       <c r="A98" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="21">
       <c r="A99" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>2</v>
+        <v>430</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
       <c r="A100" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -3654,10 +3673,10 @@
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -3665,10 +3684,10 @@
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -3676,10 +3695,10 @@
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -3687,10 +3706,10 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -3698,10 +3717,10 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -3709,24 +3728,24 @@
     </row>
     <row r="108" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A108" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -3734,10 +3753,10 @@
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -3745,10 +3764,10 @@
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -3756,10 +3775,10 @@
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
@@ -3767,10 +3786,10 @@
     </row>
     <row r="113" spans="1:4" ht="21">
       <c r="A113" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2</v>
@@ -3778,10 +3797,10 @@
     </row>
     <row r="114" spans="1:4" ht="21">
       <c r="A114" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
@@ -3789,10 +3808,10 @@
     </row>
     <row r="115" spans="1:4" ht="21">
       <c r="A115" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
@@ -3800,10 +3819,10 @@
     </row>
     <row r="116" spans="1:4" ht="21">
       <c r="A116" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -3811,10 +3830,10 @@
     </row>
     <row r="117" spans="1:4" ht="21">
       <c r="A117" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
@@ -3822,21 +3841,21 @@
     </row>
     <row r="118" spans="1:4" ht="21">
       <c r="A118" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
       <c r="A119" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -3844,34 +3863,34 @@
     </row>
     <row r="120" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A120" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D120" s="26"/>
     </row>
     <row r="121" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A121" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D121" s="26"/>
     </row>
     <row r="122" spans="1:4" ht="21">
       <c r="A122" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
@@ -3879,10 +3898,10 @@
     </row>
     <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -3890,10 +3909,10 @@
     </row>
     <row r="124" spans="1:4" ht="21">
       <c r="A124" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -3901,22 +3920,22 @@
     </row>
     <row r="125" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A125" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D125" s="26"/>
     </row>
     <row r="126" spans="1:4" ht="21">
       <c r="A126" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
@@ -3924,10 +3943,10 @@
     </row>
     <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3935,10 +3954,10 @@
     </row>
     <row r="128" spans="1:4" ht="21">
       <c r="A128" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -3946,10 +3965,10 @@
     </row>
     <row r="129" spans="1:4" ht="21">
       <c r="A129" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -3961,136 +3980,136 @@
     </row>
     <row r="132" spans="1:4" ht="21">
       <c r="A132" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B132" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A133" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
       <c r="A134" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
       <c r="A135" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
       <c r="A136" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
       <c r="A137" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
       <c r="A138" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
@@ -4098,10 +4117,10 @@
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
@@ -4109,22 +4128,22 @@
     </row>
     <row r="143" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A143" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A144" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>2</v>
@@ -4133,80 +4152,80 @@
     </row>
     <row r="145" spans="1:6" ht="21">
       <c r="A145" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
       <c r="A147" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
       <c r="A148" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
       <c r="A149" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
       <c r="A150" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
@@ -4214,10 +4233,10 @@
     </row>
     <row r="151" spans="1:6" ht="21">
       <c r="A151" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -4225,10 +4244,10 @@
     </row>
     <row r="152" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A152" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>2</v>
@@ -4237,10 +4256,10 @@
     </row>
     <row r="153" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A153" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>2</v>
@@ -4249,109 +4268,109 @@
     </row>
     <row r="154" spans="1:6" ht="21">
       <c r="A154" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
       <c r="A155" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A156" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D156" s="32"/>
     </row>
     <row r="157" spans="1:6" ht="21">
       <c r="A157" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A158" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="C158" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="D158" s="37" t="s">
+      <c r="F158" s="36" t="s">
         <v>482</v>
-      </c>
-      <c r="F158" s="36" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A159" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
       <c r="A160" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B160" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D160" s="20" t="s">
         <v>475</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -4359,10 +4378,10 @@
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -4370,44 +4389,44 @@
     </row>
     <row r="163" spans="1:4" s="4" customFormat="1" ht="21">
       <c r="A163" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="21">
       <c r="A164" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -4416,150 +4435,150 @@
     </row>
     <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A168" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
       <c r="A169" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>149</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
       <c r="A175" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
       <c r="A176" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
       <c r="A177" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -4567,10 +4586,10 @@
     </row>
     <row r="179" spans="1:4" ht="21">
       <c r="A179" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -4578,38 +4597,38 @@
     </row>
     <row r="180" spans="1:4" ht="21">
       <c r="A180" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
       <c r="A181" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
       <c r="A182" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -4617,24 +4636,24 @@
     </row>
     <row r="183" spans="1:4" s="31" customFormat="1" ht="21">
       <c r="A183" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21">
       <c r="A184" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -4642,24 +4661,24 @@
     </row>
     <row r="185" spans="1:4" ht="21">
       <c r="A185" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B185" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>506</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
       <c r="A186" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -4667,24 +4686,24 @@
     </row>
     <row r="187" spans="1:4" ht="21">
       <c r="A187" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
       <c r="A188" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -4692,24 +4711,24 @@
     </row>
     <row r="189" spans="1:4" ht="21">
       <c r="A189" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B189" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>521</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
       <c r="A190" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -4717,10 +4736,10 @@
     </row>
     <row r="191" spans="1:4" ht="21">
       <c r="A191" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
@@ -4728,10 +4747,10 @@
     </row>
     <row r="192" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A192" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>2</v>
@@ -4740,24 +4759,24 @@
     </row>
     <row r="193" spans="1:4" ht="21">
       <c r="A193" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
       <c r="A194" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2</v>
@@ -4765,10 +4784,10 @@
     </row>
     <row r="195" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A195" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>2</v>
@@ -4777,10 +4796,10 @@
     </row>
     <row r="196" spans="1:4" ht="21">
       <c r="A196" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -4788,24 +4807,24 @@
     </row>
     <row r="197" spans="1:4" s="31" customFormat="1" ht="21">
       <c r="A197" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
       <c r="A198" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -4813,38 +4832,38 @@
     </row>
     <row r="199" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A199" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
       <c r="A200" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
       <c r="A201" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -4852,10 +4871,10 @@
     </row>
     <row r="202" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A202" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
@@ -4864,10 +4883,10 @@
     </row>
     <row r="203" spans="1:4" ht="21">
       <c r="A203" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4885,52 +4904,52 @@
     </row>
     <row r="206" spans="1:4" ht="21">
       <c r="A206" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
       <c r="A207" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>514</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
       <c r="A208" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B208" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D208" s="20" t="s">
         <v>516</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="21">
       <c r="A209" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4938,52 +4957,52 @@
     </row>
     <row r="210" spans="1:4" ht="21">
       <c r="A210" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="21">
       <c r="A211" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="21">
       <c r="A212" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="21">
       <c r="A213" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4991,24 +5010,24 @@
     </row>
     <row r="214" spans="1:4" ht="21">
       <c r="A214" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
       <c r="A215" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
@@ -5016,10 +5035,10 @@
     </row>
     <row r="216" spans="1:4" ht="21">
       <c r="A216" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
@@ -5027,10 +5046,10 @@
     </row>
     <row r="217" spans="1:4" ht="21">
       <c r="A217" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2</v>
@@ -5038,10 +5057,10 @@
     </row>
     <row r="218" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A218" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>2</v>
@@ -5050,38 +5069,38 @@
     </row>
     <row r="219" spans="1:4" s="46" customFormat="1" ht="21">
       <c r="A219" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C219" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D219" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="51" customFormat="1" ht="21">
       <c r="A220" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C220" s="49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D220" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
       <c r="A221" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -5089,10 +5108,10 @@
     </row>
     <row r="222" spans="1:4" ht="21">
       <c r="A222" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
@@ -5100,24 +5119,24 @@
     </row>
     <row r="223" spans="1:4" ht="21">
       <c r="A223" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
       <c r="A224" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -5125,10 +5144,10 @@
     </row>
     <row r="225" spans="1:6" ht="21">
       <c r="A225" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2</v>
@@ -5136,10 +5155,10 @@
     </row>
     <row r="226" spans="1:6" ht="21">
       <c r="A226" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>2</v>
@@ -5148,10 +5167,10 @@
     </row>
     <row r="227" spans="1:6" ht="21">
       <c r="A227" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
@@ -5159,25 +5178,25 @@
     </row>
     <row r="228" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A228" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D228" s="23"/>
       <c r="F228" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21">
       <c r="A229" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -5193,10 +5212,10 @@
     </row>
     <row r="232" spans="1:6" ht="21">
       <c r="A232" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
@@ -5204,10 +5223,10 @@
     </row>
     <row r="233" spans="1:6" ht="21">
       <c r="A233" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -5215,10 +5234,10 @@
     </row>
     <row r="234" spans="1:6" ht="21">
       <c r="A234" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>2</v>
@@ -5226,10 +5245,10 @@
     </row>
     <row r="235" spans="1:6" ht="21">
       <c r="A235" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -5237,10 +5256,10 @@
     </row>
     <row r="236" spans="1:6" ht="21">
       <c r="A236" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
@@ -5248,10 +5267,10 @@
     </row>
     <row r="237" spans="1:6" ht="21">
       <c r="A237" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
@@ -5259,10 +5278,10 @@
     </row>
     <row r="238" spans="1:6" ht="21">
       <c r="A238" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -5270,10 +5289,10 @@
     </row>
     <row r="239" spans="1:6" ht="21">
       <c r="A239" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -5281,10 +5300,10 @@
     </row>
     <row r="240" spans="1:6" ht="21">
       <c r="A240" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -5292,10 +5311,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -5303,10 +5322,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -5314,10 +5333,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -5325,10 +5344,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -5336,10 +5355,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -5347,10 +5366,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2</v>
@@ -5358,10 +5377,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -5369,10 +5388,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
@@ -5380,10 +5399,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -5391,10 +5410,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>2</v>
@@ -5402,10 +5421,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>2</v>
@@ -5413,10 +5432,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>2</v>
@@ -5424,10 +5443,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>2</v>
@@ -5435,10 +5454,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>2</v>
@@ -5446,10 +5465,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>2</v>
@@ -5457,10 +5476,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>2</v>
@@ -5468,10 +5487,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>2</v>
@@ -5479,10 +5498,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>2</v>
@@ -5490,10 +5509,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>2</v>
@@ -5501,10 +5520,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -5512,10 +5531,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -5523,10 +5542,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -5534,10 +5553,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -5545,10 +5564,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -5556,10 +5575,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -5567,10 +5586,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -5586,10 +5605,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B269" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -5597,10 +5616,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -5608,10 +5627,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -5619,10 +5638,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -5630,10 +5649,10 @@
     </row>
     <row r="273" spans="1:4" ht="21">
       <c r="A273" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -5641,10 +5660,10 @@
     </row>
     <row r="274" spans="1:4" ht="21">
       <c r="A274" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>2</v>
@@ -5652,10 +5671,10 @@
     </row>
     <row r="275" spans="1:4" ht="21">
       <c r="A275" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>2</v>
@@ -5663,10 +5682,10 @@
     </row>
     <row r="276" spans="1:4" ht="21">
       <c r="A276" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -5674,10 +5693,10 @@
     </row>
     <row r="277" spans="1:4" ht="21">
       <c r="A277" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -5685,10 +5704,10 @@
     </row>
     <row r="278" spans="1:4" ht="21">
       <c r="A278" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -5696,10 +5715,10 @@
     </row>
     <row r="279" spans="1:4" ht="21">
       <c r="A279" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -5707,24 +5726,24 @@
     </row>
     <row r="280" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A280" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="21">
       <c r="A281" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -5732,10 +5751,10 @@
     </row>
     <row r="282" spans="1:4" ht="21">
       <c r="A282" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -5743,10 +5762,10 @@
     </row>
     <row r="283" spans="1:4" ht="21">
       <c r="A283" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>2</v>
@@ -5754,10 +5773,10 @@
     </row>
     <row r="284" spans="1:4" ht="21">
       <c r="A284" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>2</v>
@@ -5765,10 +5784,10 @@
     </row>
     <row r="285" spans="1:4" ht="21">
       <c r="A285" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>2</v>
@@ -5776,10 +5795,10 @@
     </row>
     <row r="286" spans="1:4" ht="21">
       <c r="A286" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>2</v>
@@ -5787,10 +5806,10 @@
     </row>
     <row r="287" spans="1:4" ht="21">
       <c r="A287" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>2</v>
@@ -5806,10 +5825,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B290" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="B290" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
@@ -5817,10 +5836,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -5828,10 +5847,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -5839,10 +5858,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -5850,10 +5869,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
@@ -5861,10 +5880,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -5872,10 +5891,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -5883,10 +5902,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>2</v>
@@ -5894,10 +5913,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>2</v>
@@ -5905,10 +5924,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>2</v>
@@ -5916,10 +5935,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>2</v>
@@ -5927,10 +5946,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>2</v>
@@ -5938,10 +5957,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>2</v>
@@ -5949,10 +5968,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
@@ -5960,10 +5979,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
@@ -5971,10 +5990,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
@@ -5982,10 +6001,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
@@ -5993,10 +6012,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -6004,10 +6023,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
@@ -6015,10 +6034,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -6026,10 +6045,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -6037,10 +6056,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -6048,10 +6067,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -6059,10 +6078,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>2</v>
@@ -6070,10 +6089,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>2</v>
@@ -6081,10 +6100,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>2</v>
@@ -6092,10 +6111,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>2</v>
@@ -6103,10 +6122,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>2</v>
@@ -6114,10 +6133,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
@@ -6125,10 +6144,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
@@ -6136,10 +6155,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>2</v>
@@ -6147,10 +6166,10 @@
     </row>
     <row r="321" spans="1:4" ht="21">
       <c r="A321" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>2</v>
@@ -6158,10 +6177,10 @@
     </row>
     <row r="322" spans="1:4" ht="21">
       <c r="A322" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>2</v>
@@ -6169,10 +6188,10 @@
     </row>
     <row r="323" spans="1:4" ht="21">
       <c r="A323" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>2</v>
@@ -6180,10 +6199,10 @@
     </row>
     <row r="324" spans="1:4" ht="21">
       <c r="A324" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>2</v>
@@ -6191,10 +6210,10 @@
     </row>
     <row r="325" spans="1:4" ht="21">
       <c r="A325" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>2</v>
@@ -6202,10 +6221,10 @@
     </row>
     <row r="326" spans="1:4" ht="21">
       <c r="A326" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>2</v>
@@ -6213,10 +6232,10 @@
     </row>
     <row r="327" spans="1:4" ht="21">
       <c r="A327" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>2</v>
@@ -6232,38 +6251,38 @@
     </row>
     <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A332" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>2</v>
@@ -6272,38 +6291,38 @@
     </row>
     <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D333" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="21">
       <c r="A334" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A335" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -6312,10 +6331,10 @@
     </row>
     <row r="336" spans="1:4" ht="21">
       <c r="A336" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>2</v>
@@ -6323,10 +6342,10 @@
     </row>
     <row r="337" spans="1:6" ht="21">
       <c r="A337" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>2</v>
@@ -6334,38 +6353,38 @@
     </row>
     <row r="338" spans="1:6" ht="21">
       <c r="A338" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D338" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="339" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A339" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D339" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21">
       <c r="A340" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>2</v>
@@ -6373,10 +6392,10 @@
     </row>
     <row r="341" spans="1:6" ht="21">
       <c r="A341" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>2</v>
@@ -6384,10 +6403,10 @@
     </row>
     <row r="342" spans="1:6" ht="21">
       <c r="A342" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>2</v>
@@ -6395,24 +6414,24 @@
     </row>
     <row r="343" spans="1:6" ht="21">
       <c r="A343" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="21">
       <c r="A344" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>2</v>
@@ -6420,24 +6439,24 @@
     </row>
     <row r="345" spans="1:6" s="7" customFormat="1" ht="21">
       <c r="A345" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D345" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21">
       <c r="A346" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>2</v>
@@ -6445,19 +6464,19 @@
     </row>
     <row r="347" spans="1:6" ht="21">
       <c r="A347" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D347" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="F347" t="s">
         <v>536</v>
-      </c>
-      <c r="F347" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21">
@@ -6470,10 +6489,10 @@
     </row>
     <row r="350" spans="1:6" ht="21">
       <c r="A350" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B350" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="B350" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>2</v>
@@ -6481,10 +6500,10 @@
     </row>
     <row r="351" spans="1:6" ht="21">
       <c r="A351" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>2</v>
@@ -6492,10 +6511,10 @@
     </row>
     <row r="352" spans="1:6" ht="21">
       <c r="A352" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>2</v>
@@ -6503,10 +6522,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>2</v>
@@ -6514,10 +6533,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>2</v>
@@ -6525,10 +6544,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>2</v>
@@ -6536,10 +6555,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2</v>
@@ -6547,10 +6566,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>2</v>
@@ -6558,10 +6577,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>2</v>
@@ -6569,10 +6588,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>2</v>
@@ -6580,10 +6599,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>2</v>
@@ -6591,10 +6610,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>2</v>
@@ -6602,10 +6621,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>2</v>
@@ -6613,10 +6632,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2</v>
@@ -6624,10 +6643,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2</v>
@@ -6635,10 +6654,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>2</v>
@@ -6646,10 +6665,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>2</v>
@@ -6657,10 +6676,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>2</v>
@@ -6668,10 +6687,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>2</v>
@@ -6679,10 +6698,10 @@
     </row>
     <row r="369" spans="1:4" ht="21">
       <c r="A369" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>2</v>
@@ -6690,10 +6709,10 @@
     </row>
     <row r="370" spans="1:4" ht="21">
       <c r="A370" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>2</v>
@@ -6701,10 +6720,10 @@
     </row>
     <row r="371" spans="1:4" ht="21">
       <c r="A371" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>2</v>
@@ -6712,10 +6731,10 @@
     </row>
     <row r="372" spans="1:4" ht="21">
       <c r="A372" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>2</v>
@@ -6723,10 +6742,10 @@
     </row>
     <row r="373" spans="1:4" ht="21">
       <c r="A373" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>2</v>
@@ -6734,10 +6753,10 @@
     </row>
     <row r="374" spans="1:4" ht="21">
       <c r="A374" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>2</v>
@@ -6745,10 +6764,10 @@
     </row>
     <row r="375" spans="1:4" ht="21">
       <c r="A375" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>2</v>
@@ -6756,10 +6775,10 @@
     </row>
     <row r="376" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A376" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>2</v>
@@ -6768,10 +6787,10 @@
     </row>
     <row r="377" spans="1:4" ht="21">
       <c r="A377" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>2</v>
@@ -6779,10 +6798,10 @@
     </row>
     <row r="378" spans="1:4" ht="21">
       <c r="A378" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2</v>
@@ -6790,10 +6809,10 @@
     </row>
     <row r="379" spans="1:4" ht="21">
       <c r="A379" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2</v>
@@ -6801,10 +6820,10 @@
     </row>
     <row r="380" spans="1:4" ht="21">
       <c r="A380" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>2</v>
@@ -6812,10 +6831,10 @@
     </row>
     <row r="381" spans="1:4" ht="21">
       <c r="A381" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>2</v>
@@ -6823,10 +6842,10 @@
     </row>
     <row r="382" spans="1:4" ht="21">
       <c r="A382" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>2</v>
@@ -6834,10 +6853,10 @@
     </row>
     <row r="383" spans="1:4" ht="21">
       <c r="A383" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>2</v>
@@ -6845,10 +6864,10 @@
     </row>
     <row r="384" spans="1:4" ht="21">
       <c r="A384" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>2</v>
@@ -6856,10 +6875,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>2</v>
@@ -6867,10 +6886,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>2</v>
@@ -6878,10 +6897,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>2</v>
@@ -6889,10 +6908,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>2</v>
@@ -6900,10 +6919,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2</v>
@@ -6911,10 +6930,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2</v>
@@ -6922,10 +6941,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>2</v>
@@ -6933,10 +6952,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>2</v>
@@ -6952,10 +6971,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B395" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="B395" s="13" t="s">
-        <v>353</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>2</v>
@@ -6963,10 +6982,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>2</v>
@@ -6974,10 +6993,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2</v>
@@ -6985,10 +7004,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>2</v>
@@ -6996,10 +7015,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2</v>
@@ -7007,10 +7026,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>2</v>
@@ -7026,21 +7045,21 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B403" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="B403" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="C403" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>2</v>
@@ -7048,10 +7067,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>2</v>
@@ -7059,10 +7078,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>2</v>
@@ -7070,10 +7089,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2</v>
@@ -7081,21 +7100,21 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2</v>
@@ -7103,10 +7122,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>2</v>
@@ -7114,10 +7133,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2</v>
@@ -7125,10 +7144,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2</v>
@@ -7136,10 +7155,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2</v>
@@ -7147,10 +7166,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>2</v>
@@ -7158,10 +7177,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>2</v>
@@ -7169,10 +7188,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>2</v>
@@ -7180,10 +7199,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2</v>
@@ -7191,10 +7210,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2</v>
@@ -7202,10 +7221,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2</v>
@@ -7213,10 +7232,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2</v>
@@ -7224,10 +7243,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2</v>
@@ -7235,10 +7254,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>2</v>
@@ -7246,10 +7265,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>2</v>
@@ -7257,10 +7276,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>2</v>
@@ -7268,10 +7287,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>2</v>
@@ -7279,10 +7298,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>2</v>
@@ -7290,10 +7309,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>2</v>
@@ -7301,10 +7320,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>2</v>
@@ -7312,10 +7331,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>2</v>
@@ -7323,10 +7342,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>2</v>
@@ -7334,10 +7353,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>2</v>
@@ -7345,10 +7364,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2</v>
@@ -7356,10 +7375,10 @@
     </row>
     <row r="433" spans="1:4" ht="21">
       <c r="A433" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2</v>
@@ -7367,10 +7386,10 @@
     </row>
     <row r="434" spans="1:4" ht="21">
       <c r="A434" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2</v>
@@ -7378,10 +7397,10 @@
     </row>
     <row r="435" spans="1:4" ht="21">
       <c r="A435" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2</v>
@@ -7389,10 +7408,10 @@
     </row>
     <row r="436" spans="1:4" ht="21">
       <c r="A436" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2</v>
@@ -7400,10 +7419,10 @@
     </row>
     <row r="437" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A437" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>2</v>
@@ -7412,10 +7431,10 @@
     </row>
     <row r="438" spans="1:4" ht="21">
       <c r="A438" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -7423,10 +7442,10 @@
     </row>
     <row r="439" spans="1:4" ht="21">
       <c r="A439" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -7434,10 +7453,10 @@
     </row>
     <row r="440" spans="1:4" ht="21">
       <c r="A440" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>2</v>
@@ -7445,10 +7464,10 @@
     </row>
     <row r="441" spans="1:4" ht="21">
       <c r="A441" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>2</v>
@@ -7456,10 +7475,10 @@
     </row>
     <row r="442" spans="1:4" ht="21">
       <c r="A442" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>2</v>
@@ -7467,10 +7486,10 @@
     </row>
     <row r="443" spans="1:4" ht="21">
       <c r="A443" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>2</v>
@@ -7478,10 +7497,10 @@
     </row>
     <row r="444" spans="1:4" ht="21">
       <c r="A444" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>2</v>
@@ -7489,10 +7508,10 @@
     </row>
     <row r="445" spans="1:4" ht="21">
       <c r="A445" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>2</v>
@@ -7500,10 +7519,10 @@
     </row>
     <row r="446" spans="1:4" ht="21">
       <c r="A446" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>2</v>
@@ -7511,10 +7530,10 @@
     </row>
     <row r="447" spans="1:4" ht="21">
       <c r="A447" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>2</v>
@@ -7522,10 +7541,10 @@
     </row>
     <row r="448" spans="1:4" ht="21">
       <c r="A448" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>2</v>
@@ -7533,10 +7552,10 @@
     </row>
     <row r="449" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A449" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C449" s="24" t="s">
         <v>2</v>
@@ -7545,10 +7564,10 @@
     </row>
     <row r="450" spans="1:4" s="25" customFormat="1" ht="21">
       <c r="A450" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C450" s="24" t="s">
         <v>2</v>
@@ -7557,10 +7576,10 @@
     </row>
     <row r="451" spans="1:4" ht="21">
       <c r="A451" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>2</v>
@@ -7568,10 +7587,10 @@
     </row>
     <row r="452" spans="1:4" ht="21">
       <c r="A452" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>2</v>
@@ -7579,10 +7598,10 @@
     </row>
     <row r="453" spans="1:4" ht="21">
       <c r="A453" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>2</v>
@@ -7590,10 +7609,10 @@
     </row>
     <row r="454" spans="1:4" ht="21">
       <c r="A454" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>2</v>
@@ -7601,22 +7620,22 @@
     </row>
     <row r="455" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A455" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D455" s="23"/>
     </row>
     <row r="456" spans="1:4" ht="21">
       <c r="A456" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>2</v>
@@ -7624,10 +7643,10 @@
     </row>
     <row r="457" spans="1:4" ht="21">
       <c r="A457" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>2</v>
@@ -7635,10 +7654,10 @@
     </row>
     <row r="458" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A458" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>2</v>
@@ -7647,10 +7666,10 @@
     </row>
     <row r="459" spans="1:4" ht="21">
       <c r="A459" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>2</v>
@@ -7658,10 +7677,10 @@
     </row>
     <row r="460" spans="1:4" ht="21">
       <c r="A460" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>2</v>
@@ -7669,10 +7688,10 @@
     </row>
     <row r="461" spans="1:4" ht="21">
       <c r="A461" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>2</v>
@@ -7680,10 +7699,10 @@
     </row>
     <row r="462" spans="1:4" ht="21">
       <c r="A462" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>2</v>
@@ -7700,10 +7719,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B465" s="13" t="s">
         <v>418</v>
-      </c>
-      <c r="B465" s="13" t="s">
-        <v>419</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>2</v>
@@ -7711,10 +7730,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>2</v>
@@ -7722,10 +7741,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>2</v>
@@ -7733,10 +7752,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>2</v>
@@ -7744,10 +7763,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>2</v>
@@ -7755,21 +7774,21 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>2</v>
@@ -7777,10 +7796,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>2</v>
@@ -7788,10 +7807,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>2</v>
@@ -7799,13 +7818,13 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -7839,7 +7858,7 @@
     <hyperlink ref="B31" r:id="rId27" display="Find the triplet that sum to a given value"/>
     <hyperlink ref="B32" r:id="rId28" display="Trapping Rain water problem"/>
     <hyperlink ref="B33" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
     <hyperlink ref="B35" r:id="rId31"/>
     <hyperlink ref="B36" r:id="rId32"/>
     <hyperlink ref="B37" r:id="rId33"/>
@@ -8338,8 +8357,11 @@
     <hyperlink ref="D37" r:id="rId526"/>
     <hyperlink ref="D19" r:id="rId527"/>
     <hyperlink ref="D12" r:id="rId528"/>
+    <hyperlink ref="D34" r:id="rId529"/>
+    <hyperlink ref="D10" r:id="rId530"/>
+    <hyperlink ref="D99" r:id="rId531"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId529"/>
+  <pageSetup orientation="portrait" r:id="rId532"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="566">
   <si>
     <t>Topic:</t>
   </si>
@@ -1732,6 +1732,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/smallest-index-with-equal-value/submissions/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/</t>
   </si>
 </sst>
 </file>
@@ -2477,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2759,7 +2762,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2</v>
+        <v>430</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21">
@@ -8360,8 +8366,9 @@
     <hyperlink ref="D34" r:id="rId529"/>
     <hyperlink ref="D10" r:id="rId530"/>
     <hyperlink ref="D99" r:id="rId531"/>
+    <hyperlink ref="D22" r:id="rId532"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId532"/>
+  <pageSetup orientation="portrait" r:id="rId533"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="567">
   <si>
     <t>Topic:</t>
   </si>
@@ -1735,6 +1735,9 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -3650,6 +3653,9 @@
       </c>
       <c r="C100" s="2" t="s">
         <v>430</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
@@ -8367,8 +8373,9 @@
     <hyperlink ref="D10" r:id="rId530"/>
     <hyperlink ref="D99" r:id="rId531"/>
     <hyperlink ref="D22" r:id="rId532"/>
+    <hyperlink ref="D100" r:id="rId533"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId533"/>
+  <pageSetup orientation="portrait" r:id="rId534"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="568">
   <si>
     <t>Topic:</t>
   </si>
@@ -1738,6 +1738,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>programs folder</t>
   </si>
 </sst>
 </file>
@@ -2483,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -5831,11 +5834,11 @@
       <c r="B288" s="4"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" spans="1:4" ht="21">
       <c r="B289" s="4"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="3" t="s">
         <v>251</v>
       </c>
@@ -5843,10 +5846,13 @@
         <v>252</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
+        <v>430</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="3" t="s">
         <v>251</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="3" t="s">
         <v>251</v>
       </c>
@@ -5865,10 +5871,10 @@
         <v>254</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="3" t="s">
         <v>251</v>
       </c>
@@ -5879,7 +5885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" spans="1:4" ht="21">
       <c r="A294" s="3" t="s">
         <v>251</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="A295" s="3" t="s">
         <v>251</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="3" t="s">
         <v>251</v>
       </c>
@@ -5912,7 +5918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="3" t="s">
         <v>251</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="3" t="s">
         <v>251</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="3" t="s">
         <v>251</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="3" t="s">
         <v>251</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="3" t="s">
         <v>251</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="3" t="s">
         <v>251</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="3" t="s">
         <v>251</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="3" t="s">
         <v>251</v>
       </c>

--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="569">
   <si>
     <t>Topic:</t>
   </si>
@@ -1741,6 +1741,9 @@
   </si>
   <si>
     <t>programs folder</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/two-stacks_983634?leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -2486,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -5872,6 +5875,9 @@
       </c>
       <c r="C292" s="2" t="s">
         <v>430</v>
+      </c>
+      <c r="D292" s="20" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="21">
@@ -8380,8 +8386,9 @@
     <hyperlink ref="D99" r:id="rId531"/>
     <hyperlink ref="D22" r:id="rId532"/>
     <hyperlink ref="D100" r:id="rId533"/>
+    <hyperlink ref="D292" r:id="rId534"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId534"/>
+  <pageSetup orientation="portrait" r:id="rId535"/>
 </worksheet>
 </file>
--- a/450-QuestionSeries/FINAL450.xlsx
+++ b/450-QuestionSeries/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="572">
   <si>
     <t>Topic:</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
   </si>
   <si>
     <t>Reverse a String using Stack</t>
@@ -1744,6 +1741,18 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/codestudio/problems/two-stacks_983634?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/discuss/1307212/C%2B%2B-4-Different-Solutions-Recursion-Iterative-AND-Stacks..-Complete-Beginner</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/delete-middle-element-from-stack_985246?leftPanelTab=1</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not. V.V.V.IMP</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/insert-an-element-at-its-bottom-in-a-given-stack_1171166?leftPanelTab=1</t>
   </si>
 </sst>
 </file>
@@ -2489,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="18"/>
@@ -2505,7 +2514,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -2516,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2533,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -2547,10 +2556,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2561,10 +2570,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2575,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2589,10 +2598,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2603,10 +2612,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2617,10 +2626,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>430</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="19.8">
@@ -2631,10 +2640,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2648,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2659,10 +2668,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2673,10 +2682,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="11" customFormat="1" ht="21">
@@ -2687,10 +2696,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21">
@@ -2698,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -2712,10 +2721,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21">
@@ -2726,13 +2735,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>558</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="19.8">
@@ -2743,10 +2752,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21">
@@ -2757,10 +2766,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
@@ -2771,10 +2780,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21">
@@ -2785,10 +2794,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21">
@@ -2799,10 +2808,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21">
@@ -2813,10 +2822,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21">
@@ -2827,10 +2836,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21">
@@ -2841,10 +2850,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21">
@@ -2885,13 +2894,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="28" customFormat="1" ht="21">
@@ -2899,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>2</v>
@@ -2911,13 +2920,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="21">
@@ -2925,13 +2934,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2964,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2975,13 +2984,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" ht="21">
@@ -2989,13 +2998,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>543</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -3012,13 +3021,13 @@
         <v>32</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
@@ -3029,10 +3038,10 @@
         <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
@@ -3054,10 +3063,10 @@
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -3068,10 +3077,10 @@
         <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -3104,10 +3113,10 @@
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -3118,10 +3127,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -3148,10 +3157,10 @@
         <v>43</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -3162,10 +3171,10 @@
         <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21">
@@ -3176,10 +3185,10 @@
         <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -3630,10 +3639,10 @@
         <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="21">
@@ -3644,10 +3653,10 @@
         <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3658,10 +3667,10 @@
         <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="21">
@@ -3672,10 +3681,10 @@
         <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3752,10 +3761,10 @@
         <v>96</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3865,7 +3874,7 @@
         <v>106</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3887,7 +3896,7 @@
         <v>108</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D120" s="26"/>
     </row>
@@ -3899,7 +3908,7 @@
         <v>109</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D121" s="26"/>
     </row>
@@ -3944,7 +3953,7 @@
         <v>113</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D125" s="26"/>
     </row>
@@ -4004,10 +4013,10 @@
         <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="7" customFormat="1" ht="21">
@@ -4018,10 +4027,10 @@
         <v>120</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
@@ -4032,10 +4041,10 @@
         <v>121</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -4046,10 +4055,10 @@
         <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
@@ -4060,10 +4069,10 @@
         <v>123</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21">
@@ -4074,10 +4083,10 @@
         <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -4088,10 +4097,10 @@
         <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="21">
@@ -4102,10 +4111,10 @@
         <v>126</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
@@ -4116,10 +4125,10 @@
         <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
@@ -4152,7 +4161,7 @@
         <v>130</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D143" s="17"/>
     </row>
@@ -4176,10 +4185,10 @@
         <v>132</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21">
@@ -4190,10 +4199,10 @@
         <v>133</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21">
@@ -4204,10 +4213,10 @@
         <v>134</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="21">
@@ -4218,10 +4227,10 @@
         <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21">
@@ -4232,10 +4241,10 @@
         <v>136</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21">
@@ -4295,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21">
@@ -4303,13 +4312,13 @@
         <v>118</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D155" s="20" t="s">
         <v>454</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D155" s="20" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:6" s="31" customFormat="1" ht="21">
@@ -4317,10 +4326,10 @@
         <v>118</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D156" s="32"/>
     </row>
@@ -4332,27 +4341,27 @@
         <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="31" customFormat="1" ht="21">
       <c r="A158" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B158" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="C158" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="D158" s="37" t="s">
+      <c r="F158" s="36" t="s">
         <v>481</v>
-      </c>
-      <c r="F158" s="36" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:6" s="31" customFormat="1" ht="21">
@@ -4360,13 +4369,13 @@
         <v>118</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="21">
@@ -4374,13 +4383,13 @@
         <v>118</v>
       </c>
       <c r="B160" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D160" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D160" s="20" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -4410,13 +4419,13 @@
         <v>118</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="21">
@@ -4427,10 +4436,10 @@
         <v>145</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="21">
@@ -4441,10 +4450,10 @@
         <v>146</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -4453,16 +4462,16 @@
     </row>
     <row r="168" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A168" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
@@ -4473,10 +4482,10 @@
         <v>148</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -4484,13 +4493,13 @@
         <v>147</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -4501,10 +4510,10 @@
         <v>149</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -4515,10 +4524,10 @@
         <v>150</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -4529,10 +4538,10 @@
         <v>151</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -4543,10 +4552,10 @@
         <v>152</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="21">
@@ -4557,10 +4566,10 @@
         <v>153</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21">
@@ -4571,10 +4580,10 @@
         <v>154</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="21">
@@ -4585,10 +4594,10 @@
         <v>155</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -4621,10 +4630,10 @@
         <v>158</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
@@ -4635,10 +4644,10 @@
         <v>159</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -4657,13 +4666,13 @@
         <v>147</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21">
@@ -4682,13 +4691,13 @@
         <v>147</v>
       </c>
       <c r="B185" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
@@ -4710,10 +4719,10 @@
         <v>163</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
@@ -4732,13 +4741,13 @@
         <v>147</v>
       </c>
       <c r="B189" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" s="20" t="s">
         <v>520</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
@@ -4783,10 +4792,10 @@
         <v>168</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
@@ -4828,13 +4837,13 @@
         <v>147</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
@@ -4853,13 +4862,13 @@
         <v>147</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
@@ -4867,13 +4876,13 @@
         <v>147</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4925,13 +4934,13 @@
         <v>176</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
@@ -4939,13 +4948,13 @@
         <v>176</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>513</v>
-      </c>
